--- a/GRE-Vocab_trainer.xlsx
+++ b/GRE-Vocab_trainer.xlsx
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">Rid oneself of something that one no longer wants or requires, such as a business interest or investment</t>
   </si>
   <si>
-    <t xml:space="preserve">_x001c_So far the protesters have managed to persuade 220 cities and institutions to divest some of their holdings..._x001d_</t>
+    <t xml:space="preserve">_x005F_x001c_So far the protesters have managed to persuade 220 cities and institutions to divest some of their holdings..._x005F_x001d_</t>
   </si>
   <si>
     <t xml:space="preserve">Droll</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">Synonyms: epitome, perfect example</t>
   </si>
   <si>
-    <t xml:space="preserve">_x0018_At times 'Utopia' seems less an exemplar of idealism, and more of a satire on it.</t>
+    <t xml:space="preserve">_x005F_x0018_At times 'Utopia' seems less an exemplar of idealism, and more of a satire on it.</t>
   </si>
   <si>
     <t xml:space="preserve">exigent</t>
@@ -9608,7 +9608,7 @@
     <t xml:space="preserve">Characterized by an elaborately ornamental late baroque style of decoration</t>
   </si>
   <si>
-    <t xml:space="preserve">_x0018_The building, which once served as the local town hall, boasts rococo wall carvings, a statue of Pallas Athena...</t>
+    <t xml:space="preserve">_x005F_x0018_The building, which once served as the local town hall, boasts rococo wall carvings, a statue of Pallas Athena...</t>
   </si>
   <si>
     <t xml:space="preserve">rub&lt;/br&gt; rhod</t>
@@ -11078,7 +11078,7 @@
     <t xml:space="preserve">Synonyms: toxic, deadly, destructive</t>
   </si>
   <si>
-    <t xml:space="preserve">_x0018_A more likely catastrophe, Mr. Rawles believes, would be a pandemic virulent enough to cause the breakdown of the national sewerage system as well as the grid.</t>
+    <t xml:space="preserve">_x005F_x0018_A more likely catastrophe, Mr. Rawles believes, would be a pandemic virulent enough to cause the breakdown of the national sewerage system as well as the grid.</t>
   </si>
   <si>
     <t xml:space="preserve">viscous</t>
@@ -11111,7 +11111,7 @@
     <t xml:space="preserve">Synonyms: put an end to, do away with, scrap. &lt;/br&gt;Deutsch : Beeinträchtigen, verderben, zerstören. &lt;/br&gt; Lati"vitiare"= to make faulty. Same origin as "vice", therefore same pronounciation root "vishiate"</t>
   </si>
   <si>
-    <t xml:space="preserve">_x0018_The firm admitted that it vitiated its stated standards for evaluating securities in an area where those standards put in question its ability to win business.</t>
+    <t xml:space="preserve">_x005F_x0018_The firm admitted that it vitiated its stated standards for evaluating securities in an area where those standards put in question its ability to win business.</t>
   </si>
   <si>
     <t xml:space="preserve">vitriol</t>
@@ -11459,6 +11459,7 @@
       <sz val="10"/>
       <name val="Nimbus Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -11546,17 +11547,17 @@
   </sheetPr>
   <dimension ref="A1:H1167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1074" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1093" activeCellId="0" sqref="C1093"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1074" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1078" activeCellId="0" sqref="B1078"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="215.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="84.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="84.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="1.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.81"/>

--- a/GRE-Vocab_trainer.xlsx
+++ b/GRE-Vocab_trainer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10269" uniqueCount="5648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10297" uniqueCount="5671">
   <si>
     <t xml:space="preserve">noun </t>
   </si>
@@ -17984,9 +17984,6 @@
     <t>Latin : come together</t>
   </si>
   <si>
-    <t>In order to help patients&lt;b&gt;convalesce&lt;/b&gt; faster from COVID, doctors now administer a cheap anti-biotic steroid compound.</t>
-  </si>
-  <si>
     <t>Latin : com=with + valere =strong (same root at valour)=&gt;gain strength&lt;/br&gt;Syn :recover, recuperate, recuperate</t>
   </si>
   <si>
@@ -18443,9 +18440,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. She &lt;u&gt;&lt;b&gt;adjured&lt;/b&gt; him to present the events&lt;/u&gt; precisely as he witnessed them.&lt;/br&gt;2. I &lt;b&gt;adjure&lt;/b&gt; each and every one of you to never disclose to anyone what has been spoken here today. </t>
-  </si>
-  <si>
-    <t>1. I &lt;b&gt;appropriated&lt;/b&gt; my mother's french fries while she was not looking. &lt;/br&gt; 1b.&lt;u&gt;Cultural &lt;b&gt;appropriation&lt;/u&gt;&lt;/b&gt; is one of the issues that gets het most upset &lt;/br&gt;2. The government committee appropriated sufficient funds to agricultural renewal program</t>
   </si>
   <si>
     <t>1. wearing down by rubbing against each other. &lt;/br&gt;2. gradual decrease in numbers; reduction in work force without firing employees; wearing away of opposition by means of harassment</t>
@@ -20129,9 +20123,6 @@
     <t>expound</t>
   </si>
   <si>
-    <t>one that expounds or interprets; one that speaks for, represents, or advocates</t>
-  </si>
-  <si>
     <t>exponent</t>
   </si>
   <si>
@@ -20661,9 +20652,6 @@
     <t>ipso facto</t>
   </si>
   <si>
-    <t>ipso facto evidence</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Latin </t>
     </r>
@@ -20869,6 +20857,142 @@
   </si>
   <si>
     <t>inclined to exult; characterized by, or expressing, exultation; rejoicing triumphantly</t>
+  </si>
+  <si>
+    <t>The &lt;u&gt;chancellor of the &lt;b&gt;Exchequer&lt;/b&gt;&lt;/u&gt; is called the Finance Minister in most other countries, although the US calls it the Finance Secretary.</t>
+  </si>
+  <si>
+    <t>Syn : treasury</t>
+  </si>
+  <si>
+    <t>The &lt;u&gt;&lt;b&gt;venial&lt;/b&gt; acts of the cheeky children&lt;/u&gt; in no way are comparable to those terrible acts committed by &lt;u&gt;&lt;b&gt;venal&lt;/b&gt; persons&lt;/u&gt; to satify their avarice.</t>
+  </si>
+  <si>
+    <t>venal same root as "vendre" in French;&lt;/br&gt;venail : Latin venialis "pardonable"</t>
+  </si>
+  <si>
+    <t>vocab</t>
+  </si>
+  <si>
+    <r>
+      <t>Latin : Ipso facto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> literally means "by that very fact"</t>
+    </r>
+  </si>
+  <si>
+    <t>A liberal arts education does not &lt;b&gt;ipso facto&lt;/b&gt; lead to a life of low-wage jobs and financial irresponsibility</t>
+  </si>
+  <si>
+    <t>by that very fact or act , as an inevitable result</t>
+  </si>
+  <si>
+    <t>1. I &lt;b&gt;appropriated&lt;/b&gt; my mother's french fries while she was not looking. &lt;/br&gt; 1b. &lt;u&gt;Cultural &lt;b&gt;appropriation&lt;/u&gt;&lt;/b&gt; is one of the issues that gets het most upset &lt;/br&gt;2. The government committee appropriated sufficient funds to agricultural renewal program</t>
+  </si>
+  <si>
+    <t>In order to help patients &lt;b&gt;convalesce&lt;/b&gt; faster from COVID, doctors now administer a cheap anti-biotic steroid compound.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The impatient and &lt;b&gt;testy&lt;/b&gt; witness was forced to wait his turn when &lt;b&gt;testifying&lt;/b&gt; in court. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 19th century photographer superimposed a wispy image on a print and claimed that he had managed to photograph a &lt;b&gt;wraith&lt;/b&gt;, but this soon generated a lot of &lt;b&gt;wrath&lt;/b&gt; from serious customers, who recognised the fraud. </t>
+  </si>
+  <si>
+    <t>Greek:  ex "out"  + hegeisthai "to lead, guide"=&gt;explanation, interpretation often by somene else&lt;/br&gt;"Jesus" seems to be linked to the greek root word, too. &lt;/br&gt;eisegesis is to interpret a text oneself</t>
+  </si>
+  <si>
+    <t>Because the youth minister wanted the children to easily understand the scripture, he wrote a simple &lt;b&gt;exegesis&lt;/b&gt; of the passage.</t>
+  </si>
+  <si>
+    <t>My mother &lt;b&gt;exulted&lt;/b&gt; when she got the last 2 tickets to the Robbie Williams concert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the forensic investigator, to everyone's surprise,  &lt;b&gt;vindicated&lt;/b&gt; the accused's statements with facts, the victim's family became very &lt;b&gt;vendicative&lt;/b&gt; and threatened him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex- "thoroughly" + hortari "encourage, urge"=&gt;incitement by means of argument, appeal, or admonition&lt;/br&gt;Syn: incitement, pep talk, </t>
+  </si>
+  <si>
+    <t>Greek  ex "out"  + hodos "a way, path, road; a ride, journey, march"=&gt; a going out</t>
+  </si>
+  <si>
+    <t>When a vaccine for COVID 19 appears, you can be sure that there will be many &lt;b&gt;exhortations&lt;/b&gt; from governments througout the world to have their people vaccinated</t>
+  </si>
+  <si>
+    <t>If the fire alarm goes off in your building, be sure to join the &lt;b&gt;exodus&lt;/b&gt; of people who are heading outside to the parking lot.&lt;/br&gt;The brain-drain &lt;b&gt;exodus&lt;/b&gt; from South Africa does not seem to bother the ANC government at all.</t>
+  </si>
+  <si>
+    <t>Latin : "to put forth"&lt;/br&gt; Syn: advocate, advocator, apostle, backer, booster, champion, expounder, espouser, friend, gospeler , herald, hierophant, high priest, paladin, promoter, proponent, protagonist, supporter, true believer, tub-thumper, white knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. one who is a big promoter of something, ie. Champions,  practices, or exemplifies a cause&lt;/br&gt;
+2. math. Symbol indicating n-fold muliplication
+</t>
+  </si>
+  <si>
+    <r>
+      <t>The school-teacher was an &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>exponent&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> of the four-day school and work week as she found she had too little holiday.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Oma's handwritten pie recipe called for "some sugar," "plenty of butter," and "sliced apples," so I asked her to &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>expound&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> by adding measurements of how much of each to use.</t>
+    </r>
+  </si>
+  <si>
+    <t>French:  espondre = "to elaborate" or "put forth" (same root as "respond")</t>
+  </si>
+  <si>
+    <t>Latin:  ex "away from" + propriare "take as one's own"=&gt;to take away from someone else and make one's own. &lt;/br&gt; typically used to describe taking property from someone by a state or city.</t>
+  </si>
+  <si>
+    <t>When the farmer refused to sell part of his land needed for road expansion, it was simply &lt;b&gt;expropriated&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -21123,21 +21247,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -21519,8 +21643,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1403" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1415" sqref="G1415:H1415"/>
+    <sheetView tabSelected="1" topLeftCell="A1395" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1400" sqref="B1400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -21575,7 +21699,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -21702,7 +21826,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5068</v>
+        <v>5067</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
@@ -21728,7 +21852,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
@@ -21754,7 +21878,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>32</v>
@@ -21913,7 +22037,7 @@
         <v>4569</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>3107</v>
@@ -22037,7 +22161,7 @@
         <v>3988</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5441</v>
+        <v>5439</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -22112,7 +22236,7 @@
         <v>4291</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>3107</v>
@@ -22233,7 +22357,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5018</v>
+        <v>5017</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
@@ -22250,16 +22374,16 @@
         <v>4969</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="F29" t="s">
-        <v>5132</v>
+        <v>5130</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>3107</v>
@@ -22484,7 +22608,7 @@
         <v>4292</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>3107</v>
@@ -22536,7 +22660,7 @@
         <v>4538</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>3107</v>
@@ -22556,7 +22680,7 @@
         <v>22</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>4298</v>
@@ -22582,7 +22706,7 @@
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>137</v>
@@ -22608,7 +22732,7 @@
         <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>3351</v>
@@ -22628,19 +22752,19 @@
         <v>3546</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>4539</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>3107</v>
@@ -22775,19 +22899,19 @@
         <v>3547</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>3107</v>
@@ -22934,7 +23058,7 @@
         <v>22</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>4302</v>
@@ -22960,7 +23084,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>185</v>
@@ -23113,7 +23237,7 @@
         <v>3551</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>3107</v>
@@ -23217,7 +23341,7 @@
         <v>3555</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>3107</v>
@@ -23257,7 +23381,7 @@
         <v>2799</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>5149</v>
+        <v>5147</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>34</v>
@@ -23266,7 +23390,7 @@
         <v>223</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>5583</v>
+        <v>5580</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>224</v>
@@ -23370,7 +23494,7 @@
         <v>3579</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>3107</v>
@@ -23572,7 +23696,7 @@
         <v>4570</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>3107</v>
@@ -23667,13 +23791,13 @@
         <v>3544</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>5323</v>
+        <v>5321</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>3585</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>3107</v>
@@ -23800,7 +23924,7 @@
         <v>3589</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>3107</v>
@@ -23823,10 +23947,10 @@
         <v>3592</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>5409</v>
+        <v>5407</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>3107</v>
@@ -23895,13 +24019,13 @@
         <v>3134</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>5324</v>
+        <v>5322</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>3107</v>
@@ -23990,19 +24114,19 @@
         <v>4968</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>4977</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>3107</v>
@@ -24054,7 +24178,7 @@
         <v>4970</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>3107</v>
@@ -24452,10 +24576,10 @@
         <v>4973</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>3107</v>
@@ -24501,7 +24625,7 @@
         <v>17</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>224</v>
@@ -24608,7 +24732,7 @@
         <v>4976</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>3107</v>
@@ -24622,7 +24746,7 @@
         <v>4962</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>3100</v>
@@ -24631,10 +24755,10 @@
         <v>4975</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>3107</v>
@@ -24764,7 +24888,7 @@
         <v>4979</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>3107</v>
@@ -24885,7 +25009,7 @@
         <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>435</v>
@@ -24969,7 +25093,7 @@
         <v>3951</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>3107</v>
@@ -24995,7 +25119,7 @@
         <v>3953</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>3107</v>
@@ -25047,7 +25171,7 @@
         <v>3956</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>3107</v>
@@ -25073,7 +25197,7 @@
         <v>3955</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>3107</v>
@@ -25099,7 +25223,7 @@
         <v>3960</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>3107</v>
@@ -25200,7 +25324,7 @@
         <v>498</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>19</v>
@@ -25217,7 +25341,7 @@
         <v>3764</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>3100</v>
@@ -25226,10 +25350,10 @@
         <v>3972</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>5106</v>
+        <v>5105</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>3107</v>
@@ -25379,7 +25503,7 @@
         <v>3962</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>3107</v>
@@ -25399,13 +25523,13 @@
         <v>3134</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>3963</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>3107</v>
@@ -25497,7 +25621,7 @@
         <v>3769</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>5097</v>
+        <v>5096</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>3100</v>
@@ -25509,7 +25633,7 @@
         <v>3965</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>3107</v>
@@ -25613,7 +25737,7 @@
         <v>3966</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>3107</v>
@@ -25636,7 +25760,7 @@
         <v>578</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>143</v>
@@ -25659,13 +25783,13 @@
         <v>3544</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>3968</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>3107</v>
@@ -25893,7 +26017,7 @@
         <v>3974</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>3107</v>
@@ -26193,7 +26317,7 @@
         <v>3970</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>3107</v>
@@ -26288,13 +26412,13 @@
         <v>3544</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>3971</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>3107</v>
@@ -26432,16 +26556,16 @@
         <v>3780</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>3107</v>
@@ -26559,7 +26683,7 @@
         <v>719</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>17</v>
@@ -26568,7 +26692,7 @@
         <v>720</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>19</v>
@@ -26608,16 +26732,16 @@
         <v>3781</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>5590</v>
+        <v>5587</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>5591</v>
+        <v>5588</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>3107</v>
@@ -26692,7 +26816,7 @@
         <v>742</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>119</v>
@@ -26770,7 +26894,7 @@
         <v>4542</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>3107</v>
@@ -26848,7 +26972,7 @@
         <v>3787</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>3107</v>
@@ -26862,7 +26986,7 @@
         <v>764</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>5131</v>
+        <v>5129</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>17</v>
@@ -26894,10 +27018,10 @@
         <v>22</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>5151</v>
+        <v>5149</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>19</v>
@@ -27024,7 +27148,7 @@
         <v>3976</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>3107</v>
@@ -27047,7 +27171,7 @@
         <v>4543</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>3107</v>
@@ -27096,7 +27220,7 @@
         <v>3196</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>224</v>
@@ -27119,13 +27243,13 @@
         <v>3544</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>5328</v>
+        <v>5326</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>4255</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>3107</v>
@@ -27197,7 +27321,7 @@
         <v>4256</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>3107</v>
@@ -27211,7 +27335,7 @@
         <v>809</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>13</v>
@@ -27272,7 +27396,7 @@
         <v>4259</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>3107</v>
@@ -27416,7 +27540,7 @@
         <v>3153</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>22</v>
@@ -27526,7 +27650,7 @@
         <v>4276</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>3107</v>
@@ -27604,7 +27728,7 @@
         <v>4278</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>3107</v>
@@ -27650,7 +27774,7 @@
         <v>34</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>861</v>
@@ -27731,7 +27855,7 @@
         <v>873</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>5454</v>
+        <v>5452</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>19</v>
@@ -27757,7 +27881,7 @@
         <v>4044</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>5453</v>
+        <v>5451</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>27</v>
@@ -27783,7 +27907,7 @@
         <v>4045</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>27</v>
@@ -27809,7 +27933,7 @@
         <v>881</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>143</v>
@@ -27835,7 +27959,7 @@
         <v>884</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>5450</v>
+        <v>5448</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>19</v>
@@ -28005,13 +28129,13 @@
         <v>3100</v>
       </c>
       <c r="E256" s="3" t="s">
+        <v>5053</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>5054</v>
       </c>
-      <c r="F256" s="1" t="s">
-        <v>5055</v>
-      </c>
       <c r="G256" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>3107</v>
@@ -28034,7 +28158,7 @@
         <v>932</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>5455</v>
+        <v>5453</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>19</v>
@@ -28063,7 +28187,7 @@
         <v>4281</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>3107</v>
@@ -28158,13 +28282,13 @@
         <v>3544</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>4265</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>3107</v>
@@ -28285,7 +28409,7 @@
         <v>17</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>969</v>
@@ -28444,7 +28568,7 @@
         <v>4282</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>3107</v>
@@ -28591,7 +28715,7 @@
         <v>4285</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>3107</v>
@@ -28669,7 +28793,7 @@
         <v>4286</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>3107</v>
@@ -28695,7 +28819,7 @@
         <v>4289</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>3107</v>
@@ -28715,10 +28839,10 @@
         <v>3544</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>5107</v>
+        <v>5652</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>3107</v>
@@ -28862,13 +28986,13 @@
         <v>3544</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>4263</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>3107</v>
@@ -28920,7 +29044,7 @@
         <v>4260</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>3107</v>
@@ -29012,7 +29136,7 @@
         <v>17</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>1056</v>
@@ -29087,10 +29211,10 @@
         <v>4304</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>3107</v>
@@ -29127,13 +29251,13 @@
         <v>2966</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>5240</v>
+        <v>5238</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>674</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>5239</v>
+        <v>5237</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>2</v>
@@ -29234,7 +29358,7 @@
         <v>4306</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>3107</v>
@@ -29381,7 +29505,7 @@
         <v>4545</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>3107</v>
@@ -29453,7 +29577,7 @@
         <v>4574</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>3107</v>
@@ -29522,7 +29646,7 @@
         <v>4309</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>3107</v>
@@ -29588,7 +29712,7 @@
         <v>17</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>5446</v>
+        <v>5444</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>19</v>
@@ -29611,7 +29735,7 @@
         <v>22</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>5447</v>
+        <v>5445</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>143</v>
@@ -29634,7 +29758,7 @@
         <v>17</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>5445</v>
+        <v>5443</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>19</v>
@@ -29660,7 +29784,7 @@
         <v>1131</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>5444</v>
+        <v>5442</v>
       </c>
       <c r="G323" s="1" t="s">
         <v>19</v>
@@ -29758,7 +29882,7 @@
         <v>22</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>5448</v>
+        <v>5446</v>
       </c>
       <c r="G327" s="1" t="s">
         <v>119</v>
@@ -29781,7 +29905,7 @@
         <v>22</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>19</v>
@@ -29830,7 +29954,7 @@
         <v>4310</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>3107</v>
@@ -30026,7 +30150,7 @@
         <v>1179</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>72</v>
@@ -30035,7 +30159,7 @@
         <v>3178</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>143</v>
@@ -30064,7 +30188,7 @@
         <v>4365</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>3107</v>
@@ -30087,7 +30211,7 @@
         <v>3179</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
       <c r="G340" s="1" t="s">
         <v>224</v>
@@ -30228,7 +30352,7 @@
         <v>3138</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
       <c r="G346" s="1" t="s">
         <v>224</v>
@@ -30335,7 +30459,7 @@
         <v>4367</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>3107</v>
@@ -30424,13 +30548,13 @@
         <v>1234</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>5143</v>
+        <v>5141</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>5442</v>
+        <v>5440</v>
       </c>
       <c r="G354" s="1" t="s">
         <v>224</v>
@@ -30563,7 +30687,7 @@
         <v>4980</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H359" s="1" t="s">
         <v>3107</v>
@@ -30756,7 +30880,7 @@
         <v>4983</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H367" s="1" t="s">
         <v>3107</v>
@@ -30779,10 +30903,10 @@
         <v>4369</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H368" s="1" t="s">
         <v>3107</v>
@@ -30805,7 +30929,7 @@
         <v>3215</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>5456</v>
+        <v>5454</v>
       </c>
       <c r="G369" s="1" t="s">
         <v>19</v>
@@ -30909,7 +31033,7 @@
         <v>4377</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>3107</v>
@@ -30955,7 +31079,7 @@
         <v>1350</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>5457</v>
+        <v>5455</v>
       </c>
       <c r="G375" s="1" t="s">
         <v>19</v>
@@ -31007,10 +31131,10 @@
         <v>4379</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>5076</v>
+        <v>5075</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>3107</v>
@@ -31102,13 +31226,13 @@
         <v>3100</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>5331</v>
+        <v>5329</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>4575</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H381" s="1" t="s">
         <v>3107</v>
@@ -31131,7 +31255,7 @@
         <v>4099</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>5458</v>
+        <v>5456</v>
       </c>
       <c r="G382" s="1" t="s">
         <v>19</v>
@@ -31154,7 +31278,7 @@
         <v>22</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>5459</v>
+        <v>5457</v>
       </c>
       <c r="G383" s="1" t="s">
         <v>143</v>
@@ -31177,7 +31301,7 @@
         <v>13</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>5460</v>
+        <v>5458</v>
       </c>
       <c r="G384" s="1" t="s">
         <v>19</v>
@@ -31269,13 +31393,13 @@
         <v>3544</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>4380</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H388" s="1" t="s">
         <v>3107</v>
@@ -31298,7 +31422,7 @@
         <v>1409</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>5461</v>
+        <v>5459</v>
       </c>
       <c r="G389" s="1" t="s">
         <v>19</v>
@@ -31347,7 +31471,7 @@
         <v>3201</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="G391" s="1" t="s">
         <v>224</v>
@@ -31445,7 +31569,7 @@
         <v>4299</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H395" s="1" t="s">
         <v>3107</v>
@@ -31765,7 +31889,7 @@
         <v>1474</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>5410</v>
+        <v>5408</v>
       </c>
       <c r="G408" s="1" t="s">
         <v>19</v>
@@ -31892,7 +32016,7 @@
         <v>13</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>5333</v>
+        <v>5331</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>1494</v>
@@ -31970,7 +32094,7 @@
         <v>5</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>1501</v>
@@ -31990,7 +32114,7 @@
         <v>1503</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>5</v>
@@ -32051,7 +32175,7 @@
         <v>4381</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H419" s="1" t="s">
         <v>3107</v>
@@ -32123,7 +32247,7 @@
         <v>22</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>3360</v>
@@ -32244,7 +32368,7 @@
         <v>1528</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>5155</v>
+        <v>5153</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>22</v>
@@ -32273,7 +32397,7 @@
         <v>22</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>3286</v>
@@ -32339,7 +32463,7 @@
         <v>3843</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>5108</v>
+        <v>5106</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>3544</v>
@@ -32348,10 +32472,10 @@
         <v>4382</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>5109</v>
+        <v>5107</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H431" s="1" t="s">
         <v>3107</v>
@@ -32371,7 +32495,7 @@
         <v>17</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>1541</v>
@@ -32452,7 +32576,7 @@
         <v>4546</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H435" s="1" t="s">
         <v>3107</v>
@@ -32527,7 +32651,7 @@
         <v>3254</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="G438" s="1" t="s">
         <v>143</v>
@@ -32582,7 +32706,7 @@
         <v>4385</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H440" s="1" t="s">
         <v>3107</v>
@@ -32602,7 +32726,7 @@
         <v>22</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>5337</v>
+        <v>5335</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>3260</v>
@@ -32706,7 +32830,7 @@
         <v>4376</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H445" s="1" t="s">
         <v>3107</v>
@@ -32758,7 +32882,7 @@
         <v>4388</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H447" s="1" t="s">
         <v>3107</v>
@@ -32931,7 +33055,7 @@
         <v>4370</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H454" s="1" t="s">
         <v>3107</v>
@@ -32951,7 +33075,7 @@
         <v>22</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>3323</v>
@@ -33084,7 +33208,7 @@
         <v>4372</v>
       </c>
       <c r="G460" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H460" s="1" t="s">
         <v>3107</v>
@@ -33346,7 +33470,7 @@
         <v>4122</v>
       </c>
       <c r="F471" s="1" t="s">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="G471" s="1" t="s">
         <v>19</v>
@@ -33427,7 +33551,7 @@
         <v>4984</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H474" s="1" t="s">
         <v>3107</v>
@@ -33582,7 +33706,7 @@
         <v>1676</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>5157</v>
+        <v>5155</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>3075</v>
@@ -33617,10 +33741,10 @@
         <v>4373</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H482" s="1" t="s">
         <v>3107</v>
@@ -33695,7 +33819,7 @@
         <v>4547</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H485" s="1" t="s">
         <v>3107</v>
@@ -33721,7 +33845,7 @@
         <v>4446</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H486" s="1" t="s">
         <v>3107</v>
@@ -33747,7 +33871,7 @@
         <v>4986</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H487" s="1" t="s">
         <v>3107</v>
@@ -33767,13 +33891,13 @@
         <v>3134</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="F488" s="1" t="s">
         <v>4447</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H488" s="1" t="s">
         <v>3107</v>
@@ -33793,7 +33917,7 @@
         <v>22</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="F489" s="1" t="s">
         <v>3315</v>
@@ -33819,7 +33943,7 @@
         <v>72</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>5586</v>
+        <v>5583</v>
       </c>
       <c r="G490" s="1" t="s">
         <v>224</v>
@@ -33842,7 +33966,7 @@
         <v>22</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>5342</v>
+        <v>5340</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>3316</v>
@@ -33920,7 +34044,7 @@
         <v>4301</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H494" s="1" t="s">
         <v>3107</v>
@@ -33940,7 +34064,7 @@
         <v>13</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>5343</v>
+        <v>5341</v>
       </c>
       <c r="F495" s="1" t="s">
         <v>3327</v>
@@ -33969,7 +34093,7 @@
         <v>3375</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
       <c r="G496" s="1" t="s">
         <v>19</v>
@@ -34024,7 +34148,7 @@
         <v>4387</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H498" s="1" t="s">
         <v>3107</v>
@@ -34038,7 +34162,7 @@
         <v>1730</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>22</v>
@@ -34266,7 +34390,7 @@
         <v>72</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>5587</v>
+        <v>5584</v>
       </c>
       <c r="G508" s="1" t="s">
         <v>224</v>
@@ -34295,7 +34419,7 @@
         <v>4448</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H509" s="1" t="s">
         <v>3107</v>
@@ -34399,7 +34523,7 @@
         <v>4548</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>3107</v>
@@ -34419,7 +34543,7 @@
         <v>17</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>1804</v>
@@ -34474,7 +34598,7 @@
         <v>4576</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H516" s="1" t="s">
         <v>3107</v>
@@ -34494,7 +34618,7 @@
         <v>17</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>5159</v>
+        <v>5157</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>3336</v>
@@ -34543,7 +34667,7 @@
         <v>22</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>5345</v>
+        <v>5343</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>3380</v>
@@ -34595,7 +34719,7 @@
         <v>3381</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>5588</v>
+        <v>5585</v>
       </c>
       <c r="G521" s="1" t="s">
         <v>224</v>
@@ -34702,7 +34826,7 @@
         <v>4577</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H525" s="1" t="s">
         <v>3107</v>
@@ -34748,10 +34872,10 @@
         <v>3386</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>5095</v>
+        <v>5094</v>
       </c>
       <c r="G527" s="1" t="s">
         <v>19</v>
@@ -34791,7 +34915,7 @@
         <v>3874</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>5110</v>
+        <v>5108</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>3134</v>
@@ -34800,10 +34924,10 @@
         <v>4454</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>5098</v>
+        <v>5097</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H529" s="1" t="s">
         <v>3107</v>
@@ -34852,7 +34976,7 @@
         <v>4455</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H531" s="1" t="s">
         <v>3107</v>
@@ -34927,7 +35051,7 @@
         <v>4457</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H534" s="1" t="s">
         <v>3107</v>
@@ -35057,7 +35181,7 @@
         <v>4460</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H539" s="1" t="s">
         <v>3107</v>
@@ -35071,7 +35195,7 @@
         <v>1904</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>17</v>
@@ -35080,7 +35204,7 @@
         <v>3457</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="G540" s="1" t="s">
         <v>19</v>
@@ -35106,7 +35230,7 @@
         <v>4464</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H541" s="1" t="s">
         <v>3107</v>
@@ -35132,7 +35256,7 @@
         <v>4466</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H542" s="1" t="s">
         <v>3107</v>
@@ -35172,13 +35296,13 @@
         <v>1913</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>3075</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
       <c r="G544" s="1" t="s">
         <v>19</v>
@@ -35325,7 +35449,7 @@
         <v>22</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
       <c r="G550" s="1" t="s">
         <v>143</v>
@@ -35354,7 +35478,7 @@
         <v>4549</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H551" s="1" t="s">
         <v>3107</v>
@@ -35391,7 +35515,7 @@
         <v>3886</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>5112</v>
+        <v>5110</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>3544</v>
@@ -35400,10 +35524,10 @@
         <v>4468</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H553" s="1" t="s">
         <v>3107</v>
@@ -35446,7 +35570,7 @@
         <v>22</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>5347</v>
+        <v>5345</v>
       </c>
       <c r="F555" s="1" t="s">
         <v>3417</v>
@@ -35694,10 +35818,10 @@
         <v>3544</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>5088</v>
+        <v>5087</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H565" s="1" t="s">
         <v>3107</v>
@@ -35717,7 +35841,7 @@
         <v>13</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="F566" s="1" t="s">
         <v>3487</v>
@@ -35772,7 +35896,7 @@
         <v>4469</v>
       </c>
       <c r="G568" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H568" s="1" t="s">
         <v>3107</v>
@@ -35792,7 +35916,7 @@
         <v>22</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="F569" s="1" t="s">
         <v>3620</v>
@@ -35896,7 +36020,7 @@
         <v>22</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>5350</v>
+        <v>5348</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>3528</v>
@@ -35939,7 +36063,7 @@
         <v>2018</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>22</v>
@@ -35948,7 +36072,7 @@
         <v>3529</v>
       </c>
       <c r="F575" s="1" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
       <c r="G575" s="1" t="s">
         <v>19</v>
@@ -35971,7 +36095,7 @@
         <v>17</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="F576" s="1" t="s">
         <v>3531</v>
@@ -36017,7 +36141,7 @@
         <v>2025</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>17</v>
@@ -36124,7 +36248,7 @@
         <v>4472</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H582" s="1" t="s">
         <v>3107</v>
@@ -36193,7 +36317,7 @@
         <v>4473</v>
       </c>
       <c r="G585" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H585" s="1" t="s">
         <v>3107</v>
@@ -36242,7 +36366,7 @@
         <v>4671</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
       <c r="G587" s="1" t="s">
         <v>8</v>
@@ -36271,7 +36395,7 @@
         <v>4578</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H588" s="1" t="s">
         <v>3107</v>
@@ -36285,7 +36409,7 @@
         <v>2056</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="D589" s="1" t="s">
         <v>13</v>
@@ -36320,7 +36444,7 @@
         <v>4476</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H590" s="1" t="s">
         <v>3107</v>
@@ -36398,7 +36522,7 @@
         <v>4477</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H593" s="1" t="s">
         <v>3107</v>
@@ -36421,7 +36545,7 @@
         <v>4479</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H594" s="1" t="s">
         <v>3107</v>
@@ -36461,7 +36585,7 @@
         <v>3903</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
       <c r="D596" s="1" t="s">
         <v>3544</v>
@@ -36470,10 +36594,10 @@
         <v>4480</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H596" s="1" t="s">
         <v>3107</v>
@@ -36499,7 +36623,7 @@
         <v>4485</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H597" s="1" t="s">
         <v>3107</v>
@@ -36735,7 +36859,7 @@
         <v>4488</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H607" s="1" t="s">
         <v>3107</v>
@@ -36888,7 +37012,7 @@
         <v>4552</v>
       </c>
       <c r="G613" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H613" s="1" t="s">
         <v>3107</v>
@@ -36928,19 +37052,19 @@
         <v>3909</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
       <c r="D615" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="F615" s="1" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
       <c r="G615" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H615" s="1" t="s">
         <v>3107</v>
@@ -36983,7 +37107,7 @@
         <v>22</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="F617" s="1" t="s">
         <v>3467</v>
@@ -37026,7 +37150,7 @@
         <v>2128</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
       <c r="D619" s="1" t="s">
         <v>17</v>
@@ -37061,7 +37185,7 @@
         <v>4491</v>
       </c>
       <c r="G620" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H620" s="1" t="s">
         <v>3107</v>
@@ -37211,7 +37335,7 @@
         <v>4500</v>
       </c>
       <c r="G626" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H626" s="1" t="s">
         <v>3107</v>
@@ -37283,7 +37407,7 @@
         <v>17</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>5353</v>
+        <v>5351</v>
       </c>
       <c r="F629" s="1" t="s">
         <v>3564</v>
@@ -37315,7 +37439,7 @@
         <v>4502</v>
       </c>
       <c r="G630" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H630" s="1" t="s">
         <v>3107</v>
@@ -37534,7 +37658,7 @@
         <v>4504</v>
       </c>
       <c r="G639" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H639" s="1" t="s">
         <v>3107</v>
@@ -37574,7 +37698,7 @@
         <v>2208</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
       <c r="D641" s="1" t="s">
         <v>17</v>
@@ -37609,7 +37733,7 @@
         <v>2210</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="G642" s="1" t="s">
         <v>19</v>
@@ -37776,7 +37900,7 @@
         <v>13</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="F649" s="1" t="s">
         <v>3340</v>
@@ -37831,7 +37955,7 @@
         <v>4506</v>
       </c>
       <c r="G651" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H651" s="1" t="s">
         <v>3107</v>
@@ -38021,7 +38145,7 @@
         <v>22</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>5355</v>
+        <v>5353</v>
       </c>
       <c r="F659" s="1" t="s">
         <v>4563</v>
@@ -38105,7 +38229,7 @@
         <v>4508</v>
       </c>
       <c r="G662" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H662" s="1" t="s">
         <v>3107</v>
@@ -38125,7 +38249,7 @@
         <v>72</v>
       </c>
       <c r="F663" s="1" t="s">
-        <v>5584</v>
+        <v>5581</v>
       </c>
       <c r="G663" s="1" t="s">
         <v>224</v>
@@ -38229,7 +38353,7 @@
         <v>4509</v>
       </c>
       <c r="G667" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H667" s="1" t="s">
         <v>3107</v>
@@ -38370,7 +38494,7 @@
         <v>22</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
       <c r="F673" s="1" t="s">
         <v>4271</v>
@@ -38402,7 +38526,7 @@
         <v>4511</v>
       </c>
       <c r="G674" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H674" s="1" t="s">
         <v>3107</v>
@@ -38488,7 +38612,7 @@
         <v>2343</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
       <c r="D678" s="1" t="s">
         <v>22</v>
@@ -38549,7 +38673,7 @@
         <v>4520</v>
       </c>
       <c r="G680" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H680" s="1" t="s">
         <v>3107</v>
@@ -38601,7 +38725,7 @@
         <v>4705</v>
       </c>
       <c r="G682" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H682" s="1" t="s">
         <v>3107</v>
@@ -38670,7 +38794,7 @@
         <v>22</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>5356</v>
+        <v>5354</v>
       </c>
       <c r="F685" s="1" t="s">
         <v>3664</v>
@@ -38696,7 +38820,7 @@
         <v>22</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>5357</v>
+        <v>5355</v>
       </c>
       <c r="F686" s="1" t="s">
         <v>3665</v>
@@ -38722,7 +38846,7 @@
         <v>3075</v>
       </c>
       <c r="F687" s="1" t="s">
-        <v>5161</v>
+        <v>5159</v>
       </c>
       <c r="G687" s="1" t="s">
         <v>224</v>
@@ -38817,7 +38941,7 @@
         <v>22</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>5358</v>
+        <v>5356</v>
       </c>
       <c r="F691" s="1" t="s">
         <v>3711</v>
@@ -38889,7 +39013,7 @@
         <v>2401</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="D694" s="1" t="s">
         <v>22</v>
@@ -38898,7 +39022,7 @@
         <v>3346</v>
       </c>
       <c r="F694" s="1" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
       <c r="G694" s="1" t="s">
         <v>143</v>
@@ -38927,7 +39051,7 @@
         <v>4517</v>
       </c>
       <c r="G695" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H695" s="1" t="s">
         <v>3107</v>
@@ -39025,7 +39149,7 @@
         <v>4515</v>
       </c>
       <c r="G699" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H699" s="1" t="s">
         <v>3107</v>
@@ -39074,7 +39198,7 @@
         <v>4579</v>
       </c>
       <c r="G701" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H701" s="1" t="s">
         <v>3107</v>
@@ -39143,7 +39267,7 @@
         <v>72</v>
       </c>
       <c r="F704" s="1" t="s">
-        <v>5585</v>
+        <v>5582</v>
       </c>
       <c r="G704" s="1" t="s">
         <v>224</v>
@@ -39198,7 +39322,7 @@
         <v>4989</v>
       </c>
       <c r="G706" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H706" s="1" t="s">
         <v>3107</v>
@@ -39244,7 +39368,7 @@
         <v>2464</v>
       </c>
       <c r="F708" s="1" t="s">
-        <v>5462</v>
+        <v>5460</v>
       </c>
       <c r="G708" s="1" t="s">
         <v>19</v>
@@ -39270,7 +39394,7 @@
         <v>4621</v>
       </c>
       <c r="F709" s="1" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
       <c r="G709" s="1" t="s">
         <v>3110</v>
@@ -39345,7 +39469,7 @@
         <v>4624</v>
       </c>
       <c r="F712" s="1" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
       <c r="G712" s="1" t="s">
         <v>3110</v>
@@ -39362,7 +39486,7 @@
         <v>2479</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
       <c r="D713" s="1" t="s">
         <v>22</v>
@@ -39388,7 +39512,7 @@
         <v>4611</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="D714" s="1" t="s">
         <v>17</v>
@@ -39469,7 +39593,7 @@
         <v>22</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="F717" s="1" t="s">
         <v>4599</v>
@@ -39691,13 +39815,13 @@
         <v>4612</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
       <c r="D726" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>5360</v>
+        <v>5358</v>
       </c>
       <c r="F726" s="1" t="s">
         <v>4636</v>
@@ -39717,13 +39841,13 @@
         <v>2535</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="D727" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>5163</v>
+        <v>5161</v>
       </c>
       <c r="F727" s="1" t="s">
         <v>4601</v>
@@ -39844,7 +39968,7 @@
         <v>4614</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="D732" s="1" t="s">
         <v>17</v>
@@ -39853,7 +39977,7 @@
         <v>4640</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
       <c r="G732" s="1" t="s">
         <v>3110</v>
@@ -40043,13 +40167,13 @@
         <v>4617</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>5408</v>
+        <v>5406</v>
       </c>
       <c r="D740" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E740" s="1" t="s">
-        <v>5361</v>
+        <v>5359</v>
       </c>
       <c r="F740" s="1" t="s">
         <v>4680</v>
@@ -40098,7 +40222,7 @@
         <v>3075</v>
       </c>
       <c r="F742" s="1" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="G742" s="1" t="s">
         <v>224</v>
@@ -40430,7 +40554,7 @@
         <v>17</v>
       </c>
       <c r="E755" s="1" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="F755" s="1" t="s">
         <v>4411</v>
@@ -40502,16 +40626,16 @@
         <v>1353</v>
       </c>
       <c r="C758" s="1" t="s">
-        <v>5237</v>
+        <v>5235</v>
       </c>
       <c r="D758" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E758" s="1" t="s">
-        <v>5238</v>
+        <v>5236</v>
       </c>
       <c r="F758" s="1" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="G758" s="1" t="s">
         <v>27</v>
@@ -40606,16 +40730,16 @@
         <v>4605</v>
       </c>
       <c r="C762" s="1" t="s">
-        <v>5411</v>
+        <v>5409</v>
       </c>
       <c r="D762" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E762" s="1" t="s">
-        <v>5364</v>
+        <v>5362</v>
       </c>
       <c r="F762" s="1" t="s">
-        <v>5129</v>
+        <v>5127</v>
       </c>
       <c r="G762" s="1" t="s">
         <v>3110</v>
@@ -40733,16 +40857,16 @@
         <v>1685</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="D767" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E767" s="1" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="F767" s="1" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
       <c r="G767" s="1" t="s">
         <v>27</v>
@@ -40791,7 +40915,7 @@
         <v>22</v>
       </c>
       <c r="E769" s="1" t="s">
-        <v>5365</v>
+        <v>5363</v>
       </c>
       <c r="F769" s="1" t="s">
         <v>3317</v>
@@ -41016,25 +41140,25 @@
         <v>777</v>
       </c>
       <c r="B778" s="1" t="s">
+        <v>5199</v>
+      </c>
+      <c r="C778" s="1" t="s">
         <v>5201</v>
-      </c>
-      <c r="C778" s="1" t="s">
-        <v>5203</v>
       </c>
       <c r="D778" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E778" t="s">
-        <v>5366</v>
+        <v>5364</v>
       </c>
       <c r="F778" s="1" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="G778" s="1" t="s">
         <v>3110</v>
       </c>
       <c r="H778" s="1" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="779" spans="1:8" ht="37.5">
@@ -41120,14 +41244,14 @@
         <v>4836</v>
       </c>
       <c r="C782" s="1" t="s">
-        <v>5091</v>
+        <v>5090</v>
       </c>
       <c r="D782" s="1"/>
       <c r="E782" s="1" t="s">
         <v>4837</v>
       </c>
       <c r="F782" s="1" t="s">
-        <v>5412</v>
+        <v>5410</v>
       </c>
       <c r="G782" s="1" t="s">
         <v>3110</v>
@@ -41231,7 +41355,7 @@
         <v>4808</v>
       </c>
       <c r="G786" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H786" s="1" t="s">
         <v>3107</v>
@@ -41381,7 +41505,7 @@
         <v>4203</v>
       </c>
       <c r="F792" s="1" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
       <c r="G792" s="1" t="s">
         <v>27</v>
@@ -41433,7 +41557,7 @@
         <v>4810</v>
       </c>
       <c r="G794" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H794" s="1" t="s">
         <v>3107</v>
@@ -41459,7 +41583,7 @@
         <v>4813</v>
       </c>
       <c r="G795" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H795" s="1" t="s">
         <v>3107</v>
@@ -41710,7 +41834,7 @@
         <v>13</v>
       </c>
       <c r="E805" s="1" t="s">
-        <v>5367</v>
+        <v>5365</v>
       </c>
       <c r="F805" s="1" t="s">
         <v>4266</v>
@@ -41860,16 +41984,16 @@
         <v>1951</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
       <c r="D811" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E811" s="1" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
       <c r="F811" s="1" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
       <c r="G811" s="1" t="s">
         <v>50</v>
@@ -41976,7 +42100,7 @@
         <v>4815</v>
       </c>
       <c r="G815" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H815" s="1" t="s">
         <v>3107</v>
@@ -42103,10 +42227,10 @@
         <v>4816</v>
       </c>
       <c r="F820" s="1" t="s">
-        <v>5595</v>
+        <v>5592</v>
       </c>
       <c r="G820" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H820" s="1" t="s">
         <v>3107</v>
@@ -42152,13 +42276,13 @@
         <v>3100</v>
       </c>
       <c r="E822" s="1" t="s">
-        <v>5368</v>
+        <v>5366</v>
       </c>
       <c r="F822" s="1" t="s">
         <v>4817</v>
       </c>
       <c r="G822" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H822" s="1" t="s">
         <v>3107</v>
@@ -42236,7 +42360,7 @@
         <v>4820</v>
       </c>
       <c r="G825" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H825" s="1" t="s">
         <v>3107</v>
@@ -42366,7 +42490,7 @@
         <v>4822</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H830" s="1" t="s">
         <v>3107</v>
@@ -43114,7 +43238,7 @@
         <v>13</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>5369</v>
+        <v>5367</v>
       </c>
       <c r="F859" s="1" t="s">
         <v>3154</v>
@@ -43198,7 +43322,7 @@
         <v>4825</v>
       </c>
       <c r="G862" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H862" s="1" t="s">
         <v>3107</v>
@@ -43276,7 +43400,7 @@
         <v>4827</v>
       </c>
       <c r="G865" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H865" s="1" t="s">
         <v>3107</v>
@@ -43394,7 +43518,7 @@
         <v>4947</v>
       </c>
       <c r="C870" s="1" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
       <c r="D870" s="1" t="s">
         <v>3100</v>
@@ -43406,7 +43530,7 @@
         <v>4991</v>
       </c>
       <c r="G870" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H870" s="1" t="s">
         <v>3107</v>
@@ -43484,7 +43608,7 @@
         <v>4993</v>
       </c>
       <c r="G873" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H873" s="1" t="s">
         <v>3107</v>
@@ -43562,7 +43686,7 @@
         <v>4828</v>
       </c>
       <c r="G876" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H876" s="1" t="s">
         <v>3107</v>
@@ -43738,10 +43862,10 @@
         <v>4831</v>
       </c>
       <c r="F883" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="G883" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H883" s="1" t="s">
         <v>3107</v>
@@ -43787,7 +43911,7 @@
         <v>17</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>5370</v>
+        <v>5368</v>
       </c>
       <c r="F885" s="1" t="s">
         <v>3362</v>
@@ -43813,7 +43937,7 @@
         <v>13</v>
       </c>
       <c r="E886" s="1" t="s">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="F886" s="1" t="s">
         <v>3613</v>
@@ -43871,7 +43995,7 @@
         <v>4874</v>
       </c>
       <c r="G888" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H888" s="1" t="s">
         <v>3107</v>
@@ -43923,7 +44047,7 @@
         <v>4854</v>
       </c>
       <c r="G890" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H890" s="1" t="s">
         <v>3107</v>
@@ -43989,13 +44113,13 @@
         <v>1678</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
       <c r="D893" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E893" s="1" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
       <c r="F893" s="1" t="s">
         <v>3369</v>
@@ -44053,7 +44177,7 @@
         <v>4855</v>
       </c>
       <c r="G895" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H895" s="1" t="s">
         <v>3107</v>
@@ -44197,7 +44321,7 @@
         <v>4746</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>5141</v>
+        <v>5139</v>
       </c>
       <c r="D901" s="1" t="s">
         <v>157</v>
@@ -44206,10 +44330,10 @@
         <v>4857</v>
       </c>
       <c r="F901" s="1" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
       <c r="G901" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H901" s="1" t="s">
         <v>3107</v>
@@ -44544,7 +44668,7 @@
         <v>4858</v>
       </c>
       <c r="G914" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H914" s="1" t="s">
         <v>3107</v>
@@ -44570,7 +44694,7 @@
         <v>4859</v>
       </c>
       <c r="G915" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H915" s="1" t="s">
         <v>3107</v>
@@ -44778,7 +44902,7 @@
         <v>4861</v>
       </c>
       <c r="G923" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H923" s="1" t="s">
         <v>3107</v>
@@ -45061,7 +45185,7 @@
         <v>3617</v>
       </c>
       <c r="F934" s="1" t="s">
-        <v>5067</v>
+        <v>5066</v>
       </c>
       <c r="G934" s="1" t="s">
         <v>14</v>
@@ -45113,10 +45237,10 @@
         <v>4863</v>
       </c>
       <c r="F936" s="1" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="G936" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H936" s="1" t="s">
         <v>3107</v>
@@ -45168,7 +45292,7 @@
         <v>4867</v>
       </c>
       <c r="G938" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H938" s="1" t="s">
         <v>3107</v>
@@ -45182,7 +45306,7 @@
         <v>2623</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
       <c r="D939" s="1" t="s">
         <v>17</v>
@@ -45240,13 +45364,13 @@
         <v>3134</v>
       </c>
       <c r="E941" s="1" t="s">
+        <v>5009</v>
+      </c>
+      <c r="F941" t="s">
         <v>5010</v>
       </c>
-      <c r="F941" t="s">
-        <v>5011</v>
-      </c>
       <c r="G941" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H941" s="1" t="s">
         <v>3107</v>
@@ -45474,7 +45598,7 @@
         <v>17</v>
       </c>
       <c r="E950" s="1" t="s">
-        <v>5150</v>
+        <v>5148</v>
       </c>
       <c r="F950" s="1" t="s">
         <v>4553</v>
@@ -45656,7 +45780,7 @@
         <v>22</v>
       </c>
       <c r="E957" s="1" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
       <c r="F957" s="1" t="s">
         <v>3218</v>
@@ -45844,7 +45968,7 @@
         <v>4995</v>
       </c>
       <c r="G964" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H964" s="1" t="s">
         <v>3107</v>
@@ -45959,7 +46083,7 @@
         <v>4758</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="D969" s="1" t="s">
         <v>3134</v>
@@ -45971,7 +46095,7 @@
         <v>4996</v>
       </c>
       <c r="G969" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H969" s="1" t="s">
         <v>3107</v>
@@ -46118,13 +46242,13 @@
         <v>3544</v>
       </c>
       <c r="E975" s="1" t="s">
+        <v>5050</v>
+      </c>
+      <c r="F975" s="1" t="s">
         <v>5051</v>
       </c>
-      <c r="F975" s="1" t="s">
-        <v>5052</v>
-      </c>
       <c r="G975" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H975" s="1" t="s">
         <v>3107</v>
@@ -46150,7 +46274,7 @@
         <v>4872</v>
       </c>
       <c r="G976" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H976" s="1" t="s">
         <v>3107</v>
@@ -46352,7 +46476,7 @@
         <v>13</v>
       </c>
       <c r="E984" s="1" t="s">
-        <v>5371</v>
+        <v>5369</v>
       </c>
       <c r="F984" s="1" t="s">
         <v>3306</v>
@@ -46450,19 +46574,19 @@
         <v>4764</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="D988" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E988" s="1" t="s">
-        <v>5372</v>
+        <v>5370</v>
       </c>
       <c r="F988" s="1" t="s">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="G988" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H988" s="1" t="s">
         <v>3107</v>
@@ -46612,13 +46736,13 @@
         <v>3544</v>
       </c>
       <c r="E994" s="1" t="s">
-        <v>5013</v>
+        <v>5012</v>
       </c>
       <c r="F994" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="G994" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H994" s="1" t="s">
         <v>3107</v>
@@ -46667,7 +46791,7 @@
         <v>4150</v>
       </c>
       <c r="F996" s="1" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
       <c r="G996" s="1" t="s">
         <v>29</v>
@@ -46892,7 +47016,7 @@
         <v>2002</v>
       </c>
       <c r="C1005" s="1" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="D1005" s="1" t="s">
         <v>22</v>
@@ -46967,7 +47091,7 @@
         <v>2055</v>
       </c>
       <c r="C1008" s="1" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
       <c r="D1008" s="1" t="s">
         <v>13</v>
@@ -47432,7 +47556,7 @@
         <v>2402</v>
       </c>
       <c r="C1026" s="1" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
       <c r="D1026" s="1" t="s">
         <v>22</v>
@@ -47441,7 +47565,7 @@
         <v>4219</v>
       </c>
       <c r="F1026" s="1" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="G1026" s="1" t="s">
         <v>29</v>
@@ -47796,13 +47920,13 @@
         <v>3134</v>
       </c>
       <c r="E1040" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F1040" s="1" t="s">
         <v>5014</v>
       </c>
-      <c r="F1040" s="1" t="s">
-        <v>5015</v>
-      </c>
       <c r="G1040" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1040" s="1" t="s">
         <v>3107</v>
@@ -47868,13 +47992,13 @@
         <v>3544</v>
       </c>
       <c r="E1043" s="1" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
       <c r="F1043" s="1" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
       <c r="G1043" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1043" s="1" t="s">
         <v>3107</v>
@@ -48000,7 +48124,7 @@
         <v>1048</v>
       </c>
       <c r="B1049" s="1" t="s">
-        <v>5153</v>
+        <v>5151</v>
       </c>
       <c r="C1049" s="1" t="s">
         <v>1146</v>
@@ -48354,7 +48478,7 @@
         <v>5</v>
       </c>
       <c r="F1064" s="1" t="s">
-        <v>5593</v>
+        <v>5590</v>
       </c>
       <c r="G1064" s="1" t="s">
         <v>50</v>
@@ -48470,7 +48594,7 @@
         <v>37</v>
       </c>
       <c r="E1069" s="1" t="s">
-        <v>5373</v>
+        <v>5371</v>
       </c>
       <c r="F1069" s="1" t="s">
         <v>1341</v>
@@ -48540,13 +48664,13 @@
         <v>3100</v>
       </c>
       <c r="E1072" s="1" t="s">
+        <v>5041</v>
+      </c>
+      <c r="F1072" s="1" t="s">
         <v>5042</v>
       </c>
-      <c r="F1072" s="1" t="s">
-        <v>5043</v>
-      </c>
       <c r="G1072" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1072" s="1" t="s">
         <v>3107</v>
@@ -48566,13 +48690,13 @@
         <v>3100</v>
       </c>
       <c r="E1073" s="1" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="F1073" s="1" t="s">
-        <v>4998</v>
+        <v>5653</v>
       </c>
       <c r="G1073" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1073" s="1" t="s">
         <v>3107</v>
@@ -48661,13 +48785,13 @@
         <v>3134</v>
       </c>
       <c r="E1077" s="1" t="s">
+        <v>5006</v>
+      </c>
+      <c r="F1077" s="1" t="s">
         <v>5007</v>
       </c>
-      <c r="F1077" s="1" t="s">
-        <v>5008</v>
-      </c>
       <c r="G1077" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1077" s="1" t="s">
         <v>3107</v>
@@ -48831,7 +48955,7 @@
         <v>4869</v>
       </c>
       <c r="G1084" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1084" s="1" t="s">
         <v>3107</v>
@@ -48857,7 +48981,7 @@
         <v>4880</v>
       </c>
       <c r="G1085" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1085" s="1" t="s">
         <v>3107</v>
@@ -48877,13 +49001,13 @@
         <v>3100</v>
       </c>
       <c r="E1086" s="1" t="s">
-        <v>5374</v>
+        <v>5372</v>
       </c>
       <c r="F1086" s="1" t="s">
         <v>4885</v>
       </c>
       <c r="G1086" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1086" s="1" t="s">
         <v>3107</v>
@@ -48995,10 +49119,10 @@
         <v>3544</v>
       </c>
       <c r="F1091" s="1" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="G1091" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1091" s="1" t="s">
         <v>3107</v>
@@ -49116,7 +49240,7 @@
         <v>4877</v>
       </c>
       <c r="G1096" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1096" s="1" t="s">
         <v>3107</v>
@@ -49136,13 +49260,13 @@
         <v>3100</v>
       </c>
       <c r="E1097" s="1" t="s">
+        <v>5002</v>
+      </c>
+      <c r="F1097" s="1" t="s">
         <v>5003</v>
       </c>
-      <c r="F1097" s="1" t="s">
-        <v>5004</v>
-      </c>
       <c r="G1097" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1097" s="1" t="s">
         <v>3107</v>
@@ -49277,7 +49401,7 @@
         <v>5</v>
       </c>
       <c r="F1103" s="1" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="G1103" s="1" t="s">
         <v>8</v>
@@ -49300,7 +49424,7 @@
         <v>5</v>
       </c>
       <c r="F1104" s="1" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="G1104" s="1" t="s">
         <v>8</v>
@@ -49346,10 +49470,10 @@
         <v>3544</v>
       </c>
       <c r="F1106" s="1" t="s">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="G1106" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1106" s="1" t="s">
         <v>3107</v>
@@ -49556,19 +49680,19 @@
         <v>4791</v>
       </c>
       <c r="C1115" s="1" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="D1115" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1115" s="1" t="s">
+        <v>5000</v>
+      </c>
+      <c r="F1115" s="1" t="s">
         <v>5001</v>
       </c>
-      <c r="F1115" s="1" t="s">
-        <v>5002</v>
-      </c>
       <c r="G1115" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1115" s="1" t="s">
         <v>3107</v>
@@ -49692,13 +49816,13 @@
         <v>3544</v>
       </c>
       <c r="E1120" s="1" t="s">
+        <v>5048</v>
+      </c>
+      <c r="F1120" s="1" t="s">
         <v>5049</v>
       </c>
-      <c r="F1120" s="1" t="s">
-        <v>5050</v>
-      </c>
       <c r="G1120" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1120" s="1" t="s">
         <v>3107</v>
@@ -49718,10 +49842,10 @@
         <v>3100</v>
       </c>
       <c r="F1121" s="1" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
       <c r="G1121" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1121" s="1" t="s">
         <v>3107</v>
@@ -49741,7 +49865,7 @@
         <v>17</v>
       </c>
       <c r="E1122" s="1" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
       <c r="F1122" s="1" t="s">
         <v>1018</v>
@@ -49758,19 +49882,19 @@
         <v>1122</v>
       </c>
       <c r="B1123" s="1" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C1123" s="1" t="s">
         <v>5019</v>
-      </c>
-      <c r="C1123" s="1" t="s">
-        <v>5020</v>
       </c>
       <c r="D1123" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1123" s="1" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="G1123" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1123" s="1" t="s">
         <v>3107</v>
@@ -49845,7 +49969,7 @@
         <v>4882</v>
       </c>
       <c r="G1126" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1126" s="1" t="s">
         <v>3107</v>
@@ -49865,13 +49989,13 @@
         <v>3100</v>
       </c>
       <c r="E1127" s="1" t="s">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="F1127" s="1" t="s">
         <v>4883</v>
       </c>
       <c r="G1127" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1127" s="1" t="s">
         <v>3107</v>
@@ -49891,13 +50015,13 @@
         <v>3134</v>
       </c>
       <c r="E1128" s="1" t="s">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="F1128" s="1" t="s">
         <v>4884</v>
       </c>
       <c r="G1128" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1128" s="1" t="s">
         <v>3107</v>
@@ -49917,13 +50041,13 @@
         <v>3544</v>
       </c>
       <c r="E1129" s="1" t="s">
+        <v>5035</v>
+      </c>
+      <c r="F1129" s="1" t="s">
         <v>5036</v>
       </c>
-      <c r="F1129" s="1" t="s">
-        <v>5037</v>
-      </c>
       <c r="G1129" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1129" s="1" t="s">
         <v>3107</v>
@@ -49937,16 +50061,16 @@
         <v>1966</v>
       </c>
       <c r="C1130" s="1" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
       <c r="D1130" s="1" t="s">
         <v>3516</v>
       </c>
       <c r="E1130" s="1" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="F1130" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="G1130" s="1" t="s">
         <v>8</v>
@@ -49963,16 +50087,16 @@
         <v>3517</v>
       </c>
       <c r="C1131" s="1" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
       <c r="D1131" s="1" t="s">
         <v>3518</v>
       </c>
       <c r="E1131" s="1" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="F1131" s="1" t="s">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="G1131" s="1" t="s">
         <v>8</v>
@@ -49989,7 +50113,7 @@
         <v>2534</v>
       </c>
       <c r="C1132" s="1" t="s">
-        <v>5162</v>
+        <v>5160</v>
       </c>
       <c r="D1132" s="1" t="s">
         <v>17</v>
@@ -49998,7 +50122,7 @@
         <v>3349</v>
       </c>
       <c r="F1132" s="1" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="G1132" s="1" t="s">
         <v>143</v>
@@ -50015,19 +50139,19 @@
         <v>4804</v>
       </c>
       <c r="C1133" s="1" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="D1133" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E1133" s="1" t="s">
+        <v>5037</v>
+      </c>
+      <c r="F1133" s="1" t="s">
         <v>5038</v>
       </c>
-      <c r="F1133" s="1" t="s">
-        <v>5039</v>
-      </c>
       <c r="G1133" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1133" s="1" t="s">
         <v>3107</v>
@@ -50093,13 +50217,13 @@
         <v>3544</v>
       </c>
       <c r="E1136" s="1" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="F1136" s="1" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
       <c r="G1136" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1136" s="1" t="s">
         <v>3107</v>
@@ -50119,13 +50243,13 @@
         <v>3134</v>
       </c>
       <c r="E1137" s="1" t="s">
+        <v>5039</v>
+      </c>
+      <c r="F1137" s="1" t="s">
         <v>5040</v>
       </c>
-      <c r="F1137" s="1" t="s">
-        <v>5041</v>
-      </c>
       <c r="G1137" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1137" s="1" t="s">
         <v>3107</v>
@@ -50214,10 +50338,10 @@
         <v>3100</v>
       </c>
       <c r="F1141" s="1" t="s">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="G1141" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1141" s="1" t="s">
         <v>3107</v>
@@ -50283,13 +50407,13 @@
         <v>3134</v>
       </c>
       <c r="E1144" s="1" t="s">
-        <v>5250</v>
+        <v>5248</v>
       </c>
       <c r="F1144" s="1" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="G1144" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1144" s="1" t="s">
         <v>3107</v>
@@ -50355,13 +50479,13 @@
         <v>3134</v>
       </c>
       <c r="E1147" s="1" t="s">
+        <v>5031</v>
+      </c>
+      <c r="F1147" s="1" t="s">
         <v>5032</v>
       </c>
-      <c r="F1147" s="1" t="s">
-        <v>5033</v>
-      </c>
       <c r="G1147" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1147" s="1" t="s">
         <v>3107</v>
@@ -50381,13 +50505,13 @@
         <v>3100</v>
       </c>
       <c r="E1148" s="1" t="s">
-        <v>5377</v>
+        <v>5375</v>
       </c>
       <c r="F1148" s="1" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="G1148" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1148" s="1" t="s">
         <v>3107</v>
@@ -50424,19 +50548,19 @@
         <v>4921</v>
       </c>
       <c r="C1150" s="1" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
       <c r="D1150" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1150" s="1" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="F1150" s="1" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
       <c r="G1150" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1150" s="1" t="s">
         <v>3107</v>
@@ -50456,13 +50580,13 @@
         <v>3100</v>
       </c>
       <c r="E1151" s="1" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
       <c r="F1151" s="1" t="s">
-        <v>5258</v>
+        <v>5256</v>
       </c>
       <c r="G1151" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1151" s="1" t="s">
         <v>3107</v>
@@ -50482,13 +50606,13 @@
         <v>3544</v>
       </c>
       <c r="E1152" s="1" t="s">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="F1152" s="1" t="s">
-        <v>5260</v>
+        <v>5258</v>
       </c>
       <c r="G1152" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1152" s="1" t="s">
         <v>3107</v>
@@ -50508,13 +50632,13 @@
         <v>3134</v>
       </c>
       <c r="E1153" s="1" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="F1153" s="1" t="s">
-        <v>5261</v>
+        <v>5259</v>
       </c>
       <c r="G1153" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1153" s="1" t="s">
         <v>3107</v>
@@ -50551,19 +50675,19 @@
         <v>4916</v>
       </c>
       <c r="C1155" s="1" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="D1155" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1155" s="1" t="s">
+        <v>5261</v>
+      </c>
+      <c r="F1155" s="1" t="s">
         <v>5263</v>
       </c>
-      <c r="F1155" s="1" t="s">
-        <v>5265</v>
-      </c>
       <c r="G1155" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1155" s="1" t="s">
         <v>3107</v>
@@ -50606,13 +50730,13 @@
         <v>3100</v>
       </c>
       <c r="E1157" s="1" t="s">
-        <v>5309</v>
+        <v>5307</v>
       </c>
       <c r="F1157" t="s">
-        <v>5310</v>
+        <v>5308</v>
       </c>
       <c r="G1157" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1157" s="1" t="s">
         <v>3107</v>
@@ -50678,10 +50802,10 @@
         <v>3544</v>
       </c>
       <c r="F1160" s="1" t="s">
-        <v>5252</v>
+        <v>5250</v>
       </c>
       <c r="G1160" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1160" s="1" t="s">
         <v>3107</v>
@@ -50701,13 +50825,13 @@
         <v>3134</v>
       </c>
       <c r="E1161" s="1" t="s">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="F1161" s="1" t="s">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="G1161" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1161" s="1" t="s">
         <v>3107</v>
@@ -50727,10 +50851,10 @@
         <v>3134</v>
       </c>
       <c r="F1162" t="s">
-        <v>5311</v>
+        <v>5309</v>
       </c>
       <c r="G1162" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1162" s="1" t="s">
         <v>3107</v>
@@ -50750,13 +50874,13 @@
         <v>3134</v>
       </c>
       <c r="E1163" s="1" t="s">
-        <v>5313</v>
+        <v>5311</v>
       </c>
       <c r="F1163" t="s">
-        <v>5312</v>
+        <v>5310</v>
       </c>
       <c r="G1163" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1163" s="1" t="s">
         <v>3107</v>
@@ -50957,19 +51081,19 @@
         <v>4905</v>
       </c>
       <c r="C1172" s="1" t="s">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="D1172" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1172" s="1" t="s">
+        <v>5312</v>
+      </c>
+      <c r="F1172" s="1" t="s">
         <v>5314</v>
       </c>
-      <c r="F1172" s="1" t="s">
-        <v>5316</v>
-      </c>
       <c r="G1172" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1172" s="1" t="s">
         <v>3107</v>
@@ -50989,13 +51113,13 @@
         <v>3544</v>
       </c>
       <c r="E1173" s="1" t="s">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="F1173" s="1" t="s">
-        <v>5318</v>
+        <v>5316</v>
       </c>
       <c r="G1173" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1173" s="1" t="s">
         <v>3107</v>
@@ -51084,13 +51208,13 @@
         <v>3544</v>
       </c>
       <c r="E1177" s="1" t="s">
-        <v>5321</v>
+        <v>5319</v>
       </c>
       <c r="F1177" s="1" t="s">
-        <v>5322</v>
+        <v>5320</v>
       </c>
       <c r="G1177" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1177" s="1" t="s">
         <v>3107</v>
@@ -51130,19 +51254,19 @@
         <v>4900</v>
       </c>
       <c r="C1179" s="1" t="s">
-        <v>5400</v>
+        <v>5398</v>
       </c>
       <c r="D1179" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1179" s="1" t="s">
-        <v>5401</v>
+        <v>5399</v>
       </c>
       <c r="F1179" t="s">
-        <v>5402</v>
+        <v>5400</v>
       </c>
       <c r="G1179" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1179" s="1" t="s">
         <v>3107</v>
@@ -51156,19 +51280,19 @@
         <v>4899</v>
       </c>
       <c r="C1180" s="1" t="s">
-        <v>5405</v>
+        <v>5403</v>
       </c>
       <c r="D1180" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1180" s="1" t="s">
-        <v>5406</v>
+        <v>5404</v>
       </c>
       <c r="F1180" s="1" t="s">
-        <v>5404</v>
+        <v>5402</v>
       </c>
       <c r="G1180" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1180" s="1" t="s">
         <v>3107</v>
@@ -51211,13 +51335,13 @@
         <v>3100</v>
       </c>
       <c r="E1182" s="1" t="s">
-        <v>5426</v>
+        <v>5424</v>
       </c>
       <c r="F1182" s="1" t="s">
-        <v>5427</v>
+        <v>5425</v>
       </c>
       <c r="G1182" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1182" s="1" t="s">
         <v>3107</v>
@@ -51231,19 +51355,19 @@
         <v>4896</v>
       </c>
       <c r="C1183" s="8" t="s">
-        <v>5428</v>
+        <v>5426</v>
       </c>
       <c r="D1183" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1183" s="1" t="s">
-        <v>5430</v>
+        <v>5428</v>
       </c>
       <c r="F1183" s="1" t="s">
-        <v>5429</v>
+        <v>5427</v>
       </c>
       <c r="G1183" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1183" s="1" t="s">
         <v>3107</v>
@@ -51263,13 +51387,13 @@
         <v>3134</v>
       </c>
       <c r="E1184" s="1" t="s">
-        <v>5431</v>
+        <v>5429</v>
       </c>
       <c r="F1184" s="1" t="s">
-        <v>5432</v>
+        <v>5430</v>
       </c>
       <c r="G1184" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1184" s="1" t="s">
         <v>3107</v>
@@ -51450,10 +51574,10 @@
         <v>3544</v>
       </c>
       <c r="F1192" t="s">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="G1192" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1192" s="1" t="s">
         <v>3107</v>
@@ -51467,7 +51591,7 @@
         <v>4522</v>
       </c>
       <c r="C1193" s="1" t="s">
-        <v>5181</v>
+        <v>5179</v>
       </c>
       <c r="D1193" s="1" t="s">
         <v>22</v>
@@ -51522,13 +51646,13 @@
         <v>3134</v>
       </c>
       <c r="E1195" s="1" t="s">
-        <v>5433</v>
+        <v>5431</v>
       </c>
       <c r="F1195" s="1" t="s">
-        <v>5434</v>
+        <v>5432</v>
       </c>
       <c r="G1195" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1195" s="1" t="s">
         <v>3107</v>
@@ -51565,19 +51689,19 @@
         <v>4889</v>
       </c>
       <c r="C1197" s="1" t="s">
-        <v>5435</v>
+        <v>5433</v>
       </c>
       <c r="D1197" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1197" s="1" t="s">
-        <v>5436</v>
+        <v>5434</v>
       </c>
       <c r="F1197" s="1" t="s">
-        <v>5437</v>
+        <v>5435</v>
       </c>
       <c r="G1197" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1197" s="1" t="s">
         <v>3107</v>
@@ -51591,19 +51715,19 @@
         <v>4888</v>
       </c>
       <c r="C1198" s="1" t="s">
-        <v>5438</v>
+        <v>5436</v>
       </c>
       <c r="D1198" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1198" s="1" t="s">
-        <v>5439</v>
+        <v>5437</v>
       </c>
       <c r="F1198" s="1" t="s">
-        <v>5440</v>
+        <v>5438</v>
       </c>
       <c r="G1198" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1198" s="1" t="s">
         <v>3107</v>
@@ -51646,13 +51770,13 @@
         <v>3134</v>
       </c>
       <c r="E1200" s="7" t="s">
-        <v>5416</v>
+        <v>5414</v>
       </c>
       <c r="F1200" s="1" t="s">
-        <v>5417</v>
+        <v>5415</v>
       </c>
       <c r="G1200" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1200" s="1" t="s">
         <v>3107</v>
@@ -51695,10 +51819,10 @@
         <v>3100</v>
       </c>
       <c r="F1202" s="1" t="s">
-        <v>5463</v>
+        <v>5461</v>
       </c>
       <c r="G1202" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1202" s="1" t="s">
         <v>3107</v>
@@ -51764,13 +51888,13 @@
         <v>3134</v>
       </c>
       <c r="E1205" s="1" t="s">
+        <v>5029</v>
+      </c>
+      <c r="F1205" s="1" t="s">
         <v>5030</v>
       </c>
-      <c r="F1205" s="1" t="s">
-        <v>5031</v>
-      </c>
       <c r="G1205" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1205" s="1" t="s">
         <v>3107</v>
@@ -51931,13 +52055,13 @@
         <v>3134</v>
       </c>
       <c r="E1212" s="1" t="s">
-        <v>5464</v>
+        <v>5462</v>
       </c>
       <c r="F1212" s="1" t="s">
-        <v>5465</v>
+        <v>5463</v>
       </c>
       <c r="G1212" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1212" s="1" t="s">
         <v>3107</v>
@@ -51957,13 +52081,13 @@
         <v>3134</v>
       </c>
       <c r="E1213" s="1" t="s">
+        <v>5027</v>
+      </c>
+      <c r="F1213" s="1" t="s">
         <v>5028</v>
       </c>
-      <c r="F1213" s="1" t="s">
-        <v>5029</v>
-      </c>
       <c r="G1213" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1213" s="1" t="s">
         <v>3107</v>
@@ -52029,10 +52153,10 @@
         <v>3544</v>
       </c>
       <c r="F1216" s="1" t="s">
-        <v>5592</v>
+        <v>5589</v>
       </c>
       <c r="G1216" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1216" s="1" t="s">
         <v>3107</v>
@@ -52184,16 +52308,16 @@
         <v>4934</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>5466</v>
+        <v>5464</v>
       </c>
       <c r="D1223" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="F1223" s="1" t="s">
-        <v>5467</v>
+        <v>5465</v>
       </c>
       <c r="G1223" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1223" s="1" t="s">
         <v>3107</v>
@@ -52253,16 +52377,16 @@
         <v>4933</v>
       </c>
       <c r="C1226" s="1" t="s">
-        <v>5469</v>
+        <v>5467</v>
       </c>
       <c r="D1226" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="F1226" s="1" t="s">
-        <v>5468</v>
+        <v>5466</v>
       </c>
       <c r="G1226" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1226" s="1" t="s">
         <v>3107</v>
@@ -52276,19 +52400,19 @@
         <v>4932</v>
       </c>
       <c r="C1227" s="1" t="s">
-        <v>5470</v>
+        <v>5468</v>
       </c>
       <c r="D1227" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E1227" s="1" t="s">
-        <v>5472</v>
+        <v>5470</v>
       </c>
       <c r="F1227" s="1" t="s">
-        <v>5471</v>
+        <v>5469</v>
       </c>
       <c r="G1227" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1227" s="1" t="s">
         <v>3107</v>
@@ -52400,13 +52524,13 @@
         <v>3544</v>
       </c>
       <c r="E1232" s="9" t="s">
-        <v>5473</v>
+        <v>5471</v>
       </c>
       <c r="F1232" s="1" t="s">
-        <v>5474</v>
+        <v>5472</v>
       </c>
       <c r="G1232" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1232" s="1" t="s">
         <v>3107</v>
@@ -52440,22 +52564,22 @@
         <v>1233</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="C1234" s="1" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="D1234" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1234" s="1" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="F1234" s="1" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="G1234" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1234" s="1" t="s">
         <v>3107</v>
@@ -52466,22 +52590,22 @@
         <v>1234</v>
       </c>
       <c r="B1235" s="1" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="C1235" s="1" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
       <c r="D1235" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1235" s="1" t="s">
+        <v>5209</v>
+      </c>
+      <c r="F1235" s="1" t="s">
+        <v>5210</v>
+      </c>
+      <c r="G1235" s="1" t="s">
         <v>5211</v>
-      </c>
-      <c r="F1235" s="1" t="s">
-        <v>5212</v>
-      </c>
-      <c r="G1235" s="1" t="s">
-        <v>5213</v>
       </c>
       <c r="H1235" s="1" t="s">
         <v>3107</v>
@@ -52492,25 +52616,25 @@
         <v>1235</v>
       </c>
       <c r="B1236" s="1" t="s">
+        <v>5212</v>
+      </c>
+      <c r="C1236" s="1" t="s">
         <v>5214</v>
-      </c>
-      <c r="C1236" s="1" t="s">
-        <v>5216</v>
       </c>
       <c r="D1236" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E1236" s="1" t="s">
-        <v>5218</v>
+        <v>5216</v>
       </c>
       <c r="F1236" s="1" t="s">
-        <v>5217</v>
+        <v>5215</v>
       </c>
       <c r="G1236" s="1" t="s">
         <v>3110</v>
       </c>
       <c r="H1236" s="1" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="1237" spans="1:8" ht="50.5">
@@ -52518,22 +52642,22 @@
         <v>1236</v>
       </c>
       <c r="B1237" s="1" t="s">
+        <v>5217</v>
+      </c>
+      <c r="C1237" s="1" t="s">
         <v>5219</v>
-      </c>
-      <c r="C1237" s="1" t="s">
-        <v>5221</v>
       </c>
       <c r="D1237" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1237" s="1" t="s">
-        <v>5220</v>
+        <v>5218</v>
       </c>
       <c r="F1237" s="1" t="s">
-        <v>5407</v>
+        <v>5405</v>
       </c>
       <c r="G1237" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1237" s="1" t="s">
         <v>3107</v>
@@ -52567,19 +52691,19 @@
         <v>1238</v>
       </c>
       <c r="B1239" s="1" t="s">
-        <v>5278</v>
+        <v>5276</v>
       </c>
       <c r="C1239" s="1" t="s">
-        <v>5224</v>
+        <v>5222</v>
       </c>
       <c r="D1239" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1239" s="1" t="s">
-        <v>5223</v>
+        <v>5221</v>
       </c>
       <c r="F1239" s="1" t="s">
-        <v>5222</v>
+        <v>5220</v>
       </c>
       <c r="G1239" s="1" t="s">
         <v>3110</v>
@@ -52921,19 +53045,19 @@
         <v>1253</v>
       </c>
       <c r="B1254" s="1" t="s">
-        <v>5225</v>
+        <v>5223</v>
       </c>
       <c r="C1254" s="1" t="s">
-        <v>5226</v>
+        <v>5224</v>
       </c>
       <c r="D1254" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1254" s="1" t="s">
-        <v>5228</v>
+        <v>5226</v>
       </c>
       <c r="F1254" s="1" t="s">
-        <v>5227</v>
+        <v>5225</v>
       </c>
       <c r="G1254" s="1" t="s">
         <v>3110</v>
@@ -52970,19 +53094,19 @@
         <v>1255</v>
       </c>
       <c r="B1256" s="1" t="s">
-        <v>5229</v>
+        <v>5227</v>
       </c>
       <c r="C1256" s="1" t="s">
-        <v>5230</v>
+        <v>5228</v>
       </c>
       <c r="D1256" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1256" s="1" t="s">
-        <v>5231</v>
+        <v>5229</v>
       </c>
       <c r="F1256" s="1" t="s">
-        <v>5232</v>
+        <v>5230</v>
       </c>
       <c r="G1256" s="1" t="s">
         <v>3110</v>
@@ -53042,10 +53166,10 @@
         <v>1258</v>
       </c>
       <c r="B1259" s="1" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
       <c r="C1259" s="1" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="D1259" s="1" t="s">
         <v>5</v>
@@ -53068,19 +53192,19 @@
         <v>1259</v>
       </c>
       <c r="B1260" s="1" t="s">
-        <v>5233</v>
+        <v>5231</v>
       </c>
       <c r="C1260" s="1" t="s">
-        <v>5234</v>
+        <v>5232</v>
       </c>
       <c r="D1260" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1260" s="1" t="s">
-        <v>5235</v>
+        <v>5233</v>
       </c>
       <c r="F1260" s="1" t="s">
-        <v>5236</v>
+        <v>5234</v>
       </c>
       <c r="G1260" s="1" t="s">
         <v>3110</v>
@@ -53094,19 +53218,19 @@
         <v>1260</v>
       </c>
       <c r="B1261" s="1" t="s">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="C1261" s="1" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="D1261" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="F1261" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="G1261" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1261" s="1" t="s">
         <v>3107</v>
@@ -53175,13 +53299,13 @@
         <v>13</v>
       </c>
       <c r="E1264" s="1" t="s">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="F1264" s="1" t="s">
         <v>3109</v>
       </c>
       <c r="G1264" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1264" s="1" t="s">
         <v>3107</v>
@@ -53192,19 +53316,19 @@
         <v>1264</v>
       </c>
       <c r="B1265" s="1" t="s">
-        <v>5443</v>
+        <v>5441</v>
       </c>
       <c r="C1265" s="1" t="s">
-        <v>5478</v>
+        <v>5476</v>
       </c>
       <c r="D1265" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1265" s="1" t="s">
+        <v>5475</v>
+      </c>
+      <c r="F1265" s="1" t="s">
         <v>5477</v>
-      </c>
-      <c r="F1265" s="1" t="s">
-        <v>5479</v>
       </c>
       <c r="G1265" s="1" t="s">
         <v>3110</v>
@@ -53241,22 +53365,22 @@
         <v>1266</v>
       </c>
       <c r="B1267" s="1" t="s">
-        <v>5280</v>
+        <v>5278</v>
       </c>
       <c r="C1267" s="1" t="s">
-        <v>5281</v>
+        <v>5279</v>
       </c>
       <c r="D1267" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1267" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="F1267" t="s">
-        <v>5320</v>
+        <v>5318</v>
       </c>
       <c r="G1267" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1267" s="1" t="s">
         <v>3107</v>
@@ -53336,22 +53460,22 @@
         <v>1270</v>
       </c>
       <c r="B1271" s="1" t="s">
-        <v>5282</v>
+        <v>5280</v>
       </c>
       <c r="C1271" s="1" t="s">
-        <v>5421</v>
+        <v>5419</v>
       </c>
       <c r="D1271" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1271" s="1" t="s">
-        <v>5422</v>
+        <v>5420</v>
       </c>
       <c r="F1271" s="1" t="s">
-        <v>5423</v>
+        <v>5421</v>
       </c>
       <c r="G1271" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1271" s="1" t="s">
         <v>3107</v>
@@ -53408,19 +53532,19 @@
         <v>1273</v>
       </c>
       <c r="B1274" s="1" t="s">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="C1274" s="1" t="s">
-        <v>5475</v>
+        <v>5473</v>
       </c>
       <c r="D1274" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="F1274" s="1" t="s">
-        <v>5476</v>
+        <v>5474</v>
       </c>
       <c r="G1274" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1274" s="1" t="s">
         <v>3107</v>
@@ -53500,22 +53624,22 @@
         <v>1277</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="C1278" s="1" t="s">
-        <v>5419</v>
+        <v>5417</v>
       </c>
       <c r="D1278" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E1278" s="1" t="s">
+        <v>5416</v>
+      </c>
+      <c r="F1278" s="1" t="s">
         <v>5418</v>
       </c>
-      <c r="F1278" s="1" t="s">
-        <v>5420</v>
-      </c>
       <c r="G1278" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1278" s="1" t="s">
         <v>3107</v>
@@ -53526,22 +53650,22 @@
         <v>1278</v>
       </c>
       <c r="B1279" s="1" t="s">
-        <v>5286</v>
+        <v>5284</v>
       </c>
       <c r="C1279" s="1" t="s">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="D1279" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E1279" s="1" t="s">
-        <v>5425</v>
+        <v>5423</v>
       </c>
       <c r="F1279" s="1" t="s">
-        <v>5424</v>
+        <v>5422</v>
       </c>
       <c r="G1279" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1279" s="1" t="s">
         <v>3107</v>
@@ -53552,22 +53676,22 @@
         <v>1279</v>
       </c>
       <c r="B1280" s="1" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="C1280" s="1" t="s">
-        <v>5481</v>
+        <v>5479</v>
       </c>
       <c r="D1280" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1280" s="1" t="s">
+        <v>5478</v>
+      </c>
+      <c r="F1280" s="1" t="s">
         <v>5480</v>
       </c>
-      <c r="F1280" s="1" t="s">
-        <v>5482</v>
-      </c>
       <c r="G1280" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1280" s="1" t="s">
         <v>3107</v>
@@ -53636,7 +53760,7 @@
         <v>4834</v>
       </c>
       <c r="F1283" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G1283" s="1" t="s">
         <v>3110</v>
@@ -53676,22 +53800,22 @@
         <v>1284</v>
       </c>
       <c r="B1285" s="1" t="s">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="C1285" s="1" t="s">
-        <v>5288</v>
+        <v>5286</v>
       </c>
       <c r="D1285" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1285" s="1" t="s">
-        <v>5483</v>
+        <v>5481</v>
       </c>
       <c r="F1285" s="1" t="s">
-        <v>5484</v>
+        <v>5482</v>
       </c>
       <c r="G1285" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1285" s="1" t="s">
         <v>3107</v>
@@ -53702,22 +53826,22 @@
         <v>1285</v>
       </c>
       <c r="B1286" s="1" t="s">
-        <v>5290</v>
+        <v>5288</v>
       </c>
       <c r="C1286" s="1" t="s">
-        <v>5552</v>
+        <v>5549</v>
       </c>
       <c r="D1286" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1286" s="1" t="s">
-        <v>5551</v>
+        <v>5548</v>
       </c>
       <c r="F1286" s="1" t="s">
-        <v>5568</v>
+        <v>5565</v>
       </c>
       <c r="G1286" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1286" s="1" t="s">
         <v>3107</v>
@@ -53774,19 +53898,19 @@
         <v>1288</v>
       </c>
       <c r="B1289" s="1" t="s">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="C1289" s="1" t="s">
-        <v>5553</v>
+        <v>5550</v>
       </c>
       <c r="D1289" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="F1289" s="1" t="s">
-        <v>5567</v>
+        <v>5564</v>
       </c>
       <c r="G1289" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1289" s="1" t="s">
         <v>3107</v>
@@ -53797,22 +53921,22 @@
         <v>1289</v>
       </c>
       <c r="B1290" s="1" t="s">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="C1290" s="1" t="s">
-        <v>5554</v>
+        <v>5551</v>
       </c>
       <c r="D1290" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1290" s="1" t="s">
-        <v>5556</v>
+        <v>5553</v>
       </c>
       <c r="F1290" s="1" t="s">
-        <v>5555</v>
+        <v>5552</v>
       </c>
       <c r="G1290" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1290" s="1" t="s">
         <v>3107</v>
@@ -53915,22 +54039,22 @@
         <v>1294</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>5293</v>
+        <v>5291</v>
       </c>
       <c r="C1295" s="1" t="s">
-        <v>5414</v>
+        <v>5412</v>
       </c>
       <c r="D1295" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1295" s="1" t="s">
-        <v>5415</v>
+        <v>5413</v>
       </c>
       <c r="F1295" s="1" t="s">
-        <v>5413</v>
+        <v>5411</v>
       </c>
       <c r="G1295" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1295" s="1" t="s">
         <v>3107</v>
@@ -54010,22 +54134,22 @@
         <v>1298</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>5295</v>
+        <v>5293</v>
       </c>
       <c r="C1299" s="1" t="s">
-        <v>5294</v>
+        <v>5292</v>
       </c>
       <c r="D1299" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1299" s="1" t="s">
-        <v>5557</v>
+        <v>5554</v>
       </c>
       <c r="F1299" s="1" t="s">
-        <v>5569</v>
+        <v>5566</v>
       </c>
       <c r="G1299" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1299" s="1" t="s">
         <v>3107</v>
@@ -54082,22 +54206,22 @@
         <v>1301</v>
       </c>
       <c r="B1302" s="1" t="s">
-        <v>5485</v>
+        <v>5483</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>5558</v>
+        <v>5555</v>
       </c>
       <c r="D1302" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1302" s="1" t="s">
-        <v>5559</v>
+        <v>5556</v>
       </c>
       <c r="F1302" s="1" t="s">
-        <v>5560</v>
+        <v>5557</v>
       </c>
       <c r="G1302" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1302" s="1" t="s">
         <v>3107</v>
@@ -54131,25 +54255,25 @@
         <v>1303</v>
       </c>
       <c r="B1304" s="1" t="s">
-        <v>5297</v>
+        <v>5295</v>
       </c>
       <c r="C1304" s="1" t="s">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="D1304" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1304" s="1" t="s">
-        <v>5379</v>
+        <v>5377</v>
       </c>
       <c r="F1304" s="1" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="G1304" s="1" t="s">
         <v>3110</v>
       </c>
       <c r="H1304" s="1" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="1305" spans="1:8" ht="50">
@@ -54166,13 +54290,13 @@
         <v>3544</v>
       </c>
       <c r="E1305" s="1" t="s">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="F1305" s="1" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="G1305" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1305" s="1" t="s">
         <v>3107</v>
@@ -54183,25 +54307,25 @@
         <v>1305</v>
       </c>
       <c r="B1306" s="1" t="s">
+        <v>5296</v>
+      </c>
+      <c r="C1306" s="1" t="s">
         <v>5298</v>
-      </c>
-      <c r="C1306" s="1" t="s">
-        <v>5300</v>
       </c>
       <c r="D1306" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1306" s="1" t="s">
+        <v>5297</v>
+      </c>
+      <c r="F1306" s="1" t="s">
         <v>5299</v>
-      </c>
-      <c r="F1306" s="1" t="s">
-        <v>5301</v>
       </c>
       <c r="G1306" s="1" t="s">
         <v>3110</v>
       </c>
       <c r="H1306" s="1" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -54218,7 +54342,7 @@
         <v>5</v>
       </c>
       <c r="F1307" s="1" t="s">
-        <v>5247</v>
+        <v>5245</v>
       </c>
       <c r="G1307" s="1" t="s">
         <v>59</v>
@@ -54241,7 +54365,7 @@
         <v>5</v>
       </c>
       <c r="F1308" s="1" t="s">
-        <v>5248</v>
+        <v>5246</v>
       </c>
       <c r="G1308" s="1" t="s">
         <v>59</v>
@@ -54287,7 +54411,7 @@
         <v>5</v>
       </c>
       <c r="F1310" s="1" t="s">
-        <v>5245</v>
+        <v>5243</v>
       </c>
       <c r="G1310" s="1" t="s">
         <v>59</v>
@@ -54324,22 +54448,22 @@
         <v>1313</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>5488</v>
+        <v>5486</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>5487</v>
+        <v>5485</v>
       </c>
       <c r="D1312" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1312" s="1" t="s">
-        <v>5562</v>
+        <v>5559</v>
       </c>
       <c r="F1312" s="1" t="s">
-        <v>5561</v>
+        <v>5558</v>
       </c>
       <c r="G1312" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1312" s="1" t="s">
         <v>3107</v>
@@ -54350,22 +54474,22 @@
         <v>1314</v>
       </c>
       <c r="B1313" s="1" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="D1313" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1313" s="1" t="s">
-        <v>5564</v>
+        <v>5561</v>
       </c>
       <c r="F1313" s="1" t="s">
-        <v>5563</v>
+        <v>5560</v>
       </c>
       <c r="G1313" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1313" s="1" t="s">
         <v>3107</v>
@@ -54376,22 +54500,22 @@
         <v>1315</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>5492</v>
+        <v>5490</v>
       </c>
       <c r="C1314" s="1" t="s">
-        <v>5491</v>
+        <v>5489</v>
       </c>
       <c r="D1314" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1314" s="1" t="s">
-        <v>5565</v>
+        <v>5562</v>
       </c>
       <c r="F1314" s="1" t="s">
-        <v>5566</v>
+        <v>5563</v>
       </c>
       <c r="G1314" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1314" s="1" t="s">
         <v>3107</v>
@@ -54411,7 +54535,7 @@
         <v>5</v>
       </c>
       <c r="F1315" s="1" t="s">
-        <v>5246</v>
+        <v>5244</v>
       </c>
       <c r="G1315" s="1" t="s">
         <v>59</v>
@@ -54448,44 +54572,48 @@
         <v>1318</v>
       </c>
       <c r="B1317" s="1" t="s">
-        <v>5613</v>
+        <v>5610</v>
       </c>
       <c r="C1317" t="s">
-        <v>5619</v>
+        <v>5615</v>
       </c>
       <c r="D1317" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1317" t="s">
-        <v>5618</v>
+        <v>5614</v>
       </c>
       <c r="F1317" s="1" t="s">
-        <v>5620</v>
-      </c>
-      <c r="G1317" s="1"/>
-      <c r="H1317" s="1"/>
+        <v>5616</v>
+      </c>
+      <c r="G1317" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="H1317" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="1318" spans="1:8" ht="38">
       <c r="A1318" s="1">
         <v>1319</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>5494</v>
+        <v>5492</v>
       </c>
       <c r="C1318" s="1" t="s">
-        <v>5493</v>
+        <v>5491</v>
       </c>
       <c r="D1318" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1318" s="1" t="s">
-        <v>5589</v>
+        <v>5586</v>
       </c>
       <c r="F1318" s="1" t="s">
-        <v>5572</v>
+        <v>5569</v>
       </c>
       <c r="G1318" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1318" s="1" t="s">
         <v>3107</v>
@@ -54505,13 +54633,13 @@
         <v>3134</v>
       </c>
       <c r="E1319" s="1" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="F1319" s="1" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="G1319" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1319" s="1" t="s">
         <v>3107</v>
@@ -54571,22 +54699,22 @@
         <v>1323</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>5496</v>
+        <v>5494</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>5495</v>
+        <v>5493</v>
       </c>
       <c r="D1322" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1322" t="s">
-        <v>5573</v>
+        <v>5570</v>
       </c>
       <c r="F1322" s="1" t="s">
-        <v>5574</v>
+        <v>5571</v>
       </c>
       <c r="G1322" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1322" s="1" t="s">
         <v>3107</v>
@@ -54675,7 +54803,7 @@
         <v>5</v>
       </c>
       <c r="F1326" s="1" t="s">
-        <v>5486</v>
+        <v>5484</v>
       </c>
       <c r="G1326" s="1" t="s">
         <v>59</v>
@@ -54744,13 +54872,13 @@
         <v>3100</v>
       </c>
       <c r="E1329" s="1" t="s">
+        <v>5033</v>
+      </c>
+      <c r="F1329" s="1" t="s">
         <v>5034</v>
       </c>
-      <c r="F1329" s="1" t="s">
-        <v>5035</v>
-      </c>
       <c r="G1329" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1329" s="1" t="s">
         <v>3107</v>
@@ -54761,22 +54889,22 @@
         <v>1331</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>5497</v>
+        <v>5495</v>
       </c>
       <c r="C1330" s="1" t="s">
-        <v>5576</v>
+        <v>5573</v>
       </c>
       <c r="D1330" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1330" s="1" t="s">
-        <v>5577</v>
+        <v>5574</v>
       </c>
       <c r="F1330" s="1" t="s">
-        <v>5575</v>
+        <v>5572</v>
       </c>
       <c r="G1330" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1330" s="1" t="s">
         <v>3107</v>
@@ -54810,22 +54938,22 @@
         <v>1333</v>
       </c>
       <c r="B1332" s="1" t="s">
-        <v>5499</v>
+        <v>5497</v>
       </c>
       <c r="C1332" s="1" t="s">
-        <v>5498</v>
+        <v>5496</v>
       </c>
       <c r="D1332" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1332" t="s">
-        <v>5570</v>
+        <v>5567</v>
       </c>
       <c r="F1332" s="1" t="s">
-        <v>5571</v>
+        <v>5568</v>
       </c>
       <c r="G1332" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1332" s="1" t="s">
         <v>3107</v>
@@ -54859,22 +54987,22 @@
         <v>1335</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>5500</v>
+        <v>5498</v>
       </c>
       <c r="C1334" s="1" t="s">
-        <v>5578</v>
+        <v>5575</v>
       </c>
       <c r="D1334" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1334" s="1" t="s">
-        <v>5579</v>
+        <v>5576</v>
       </c>
       <c r="F1334" s="1" t="s">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="G1334" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1334" s="1" t="s">
         <v>3107</v>
@@ -54894,13 +55022,13 @@
         <v>3544</v>
       </c>
       <c r="E1335" s="1" t="s">
+        <v>5021</v>
+      </c>
+      <c r="F1335" s="1" t="s">
         <v>5022</v>
       </c>
-      <c r="F1335" s="1" t="s">
-        <v>5023</v>
-      </c>
       <c r="G1335" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1335" s="1" t="s">
         <v>3107</v>
@@ -54911,22 +55039,22 @@
         <v>1337</v>
       </c>
       <c r="B1336" s="1" t="s">
-        <v>5502</v>
+        <v>5500</v>
       </c>
       <c r="C1336" s="1" t="s">
-        <v>5501</v>
+        <v>5499</v>
       </c>
       <c r="D1336" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1336" s="1" t="s">
-        <v>5581</v>
+        <v>5578</v>
       </c>
       <c r="F1336" s="1" t="s">
-        <v>5582</v>
+        <v>5579</v>
       </c>
       <c r="G1336" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1336" s="1" t="s">
         <v>3107</v>
@@ -54960,22 +55088,22 @@
         <v>1339</v>
       </c>
       <c r="B1338" s="1" t="s">
-        <v>5504</v>
+        <v>5502</v>
       </c>
       <c r="C1338" s="1" t="s">
-        <v>5503</v>
+        <v>5501</v>
       </c>
       <c r="D1338" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1338" s="1" t="s">
-        <v>5599</v>
+        <v>5596</v>
       </c>
       <c r="F1338" s="1" t="s">
-        <v>5598</v>
+        <v>5595</v>
       </c>
       <c r="G1338" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1338" s="1" t="s">
         <v>3107</v>
@@ -55009,22 +55137,22 @@
         <v>1341</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>5506</v>
+        <v>5504</v>
       </c>
       <c r="C1340" s="1" t="s">
-        <v>5505</v>
+        <v>5503</v>
       </c>
       <c r="D1340" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1340" s="1" t="s">
-        <v>5603</v>
+        <v>5600</v>
       </c>
       <c r="F1340" t="s">
-        <v>5602</v>
+        <v>5599</v>
       </c>
       <c r="G1340" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1340" s="1" t="s">
         <v>3107</v>
@@ -55035,19 +55163,19 @@
         <v>1342</v>
       </c>
       <c r="B1341" s="1" t="s">
-        <v>5507</v>
+        <v>5505</v>
       </c>
       <c r="C1341" s="1" t="s">
-        <v>5604</v>
+        <v>5601</v>
       </c>
       <c r="D1341" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="F1341" s="1" t="s">
-        <v>5605</v>
+        <v>5602</v>
       </c>
       <c r="G1341" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1341" s="1" t="s">
         <v>3107</v>
@@ -55173,22 +55301,22 @@
         <v>1348</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>5509</v>
+        <v>5507</v>
       </c>
       <c r="C1347" s="1" t="s">
-        <v>5508</v>
+        <v>5506</v>
       </c>
       <c r="D1347" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E1347" s="7" t="s">
-        <v>5601</v>
+        <v>5598</v>
       </c>
       <c r="F1347" s="1" t="s">
-        <v>5600</v>
+        <v>5597</v>
       </c>
       <c r="G1347" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1347" s="1" t="s">
         <v>3107</v>
@@ -55204,22 +55332,22 @@
         <v>1349</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="C1348" s="1" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="D1348" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1348" s="1" t="s">
-        <v>5608</v>
+        <v>5605</v>
       </c>
       <c r="F1348" s="1" t="s">
-        <v>5609</v>
+        <v>5606</v>
       </c>
       <c r="G1348" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1348" s="1" t="s">
         <v>3107</v>
@@ -55230,22 +55358,22 @@
         <v>1350</v>
       </c>
       <c r="B1349" s="1" t="s">
-        <v>5513</v>
+        <v>5511</v>
       </c>
       <c r="C1349" s="1" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="D1349" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1349" s="1" t="s">
-        <v>5606</v>
+        <v>5603</v>
       </c>
       <c r="F1349" t="s">
-        <v>5607</v>
+        <v>5604</v>
       </c>
       <c r="G1349" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1349" s="1" t="s">
         <v>3107</v>
@@ -55325,22 +55453,22 @@
         <v>1354</v>
       </c>
       <c r="B1353" s="1" t="s">
-        <v>5514</v>
+        <v>5512</v>
       </c>
       <c r="C1353" s="1" t="s">
-        <v>5611</v>
+        <v>5608</v>
       </c>
       <c r="D1353" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E1353" s="1" t="s">
-        <v>5610</v>
+        <v>5607</v>
       </c>
       <c r="F1353" s="1" t="s">
-        <v>5612</v>
+        <v>5609</v>
       </c>
       <c r="G1353" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1353" s="1" t="s">
         <v>3107</v>
@@ -55360,10 +55488,10 @@
         <v>3100</v>
       </c>
       <c r="F1354" s="1" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
       <c r="G1354" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1354" s="1" t="s">
         <v>3107</v>
@@ -55397,22 +55525,22 @@
         <v>1357</v>
       </c>
       <c r="B1356" s="1" t="s">
-        <v>5516</v>
+        <v>5514</v>
       </c>
       <c r="C1356" s="1" t="s">
-        <v>5515</v>
+        <v>5513</v>
       </c>
       <c r="D1356" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E1356" s="1" t="s">
-        <v>5616</v>
+        <v>5612</v>
       </c>
       <c r="F1356" s="1" t="s">
-        <v>5617</v>
+        <v>5613</v>
       </c>
       <c r="G1356" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1356" s="1" t="s">
         <v>3107</v>
@@ -55426,19 +55554,19 @@
         <v>3371</v>
       </c>
       <c r="C1357" s="1" t="s">
-        <v>5517</v>
+        <v>5515</v>
       </c>
       <c r="D1357" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1357" s="1" t="s">
-        <v>5621</v>
+        <v>5617</v>
       </c>
       <c r="F1357" s="1" t="s">
-        <v>5622</v>
+        <v>5618</v>
       </c>
       <c r="G1357" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1357" s="1" t="s">
         <v>3107</v>
@@ -55472,22 +55600,22 @@
         <v>1360</v>
       </c>
       <c r="B1359" s="1" t="s">
-        <v>5520</v>
+        <v>5518</v>
       </c>
       <c r="C1359" s="1" t="s">
-        <v>5519</v>
+        <v>5517</v>
       </c>
       <c r="D1359" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1359" s="1" t="s">
-        <v>5628</v>
+        <v>5624</v>
       </c>
       <c r="F1359" s="1" t="s">
-        <v>5629</v>
+        <v>5625</v>
       </c>
       <c r="G1359" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1359" s="1" t="s">
         <v>3107</v>
@@ -55498,22 +55626,22 @@
         <v>1361</v>
       </c>
       <c r="B1360" s="1" t="s">
-        <v>5518</v>
+        <v>5516</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>5630</v>
+        <v>5626</v>
       </c>
       <c r="D1360" s="1" t="s">
         <v>3544</v>
       </c>
       <c r="E1360" s="1" t="s">
+        <v>5623</v>
+      </c>
+      <c r="F1360" s="1" t="s">
         <v>5627</v>
       </c>
-      <c r="F1360" s="1" t="s">
-        <v>5631</v>
-      </c>
       <c r="G1360" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1360" s="1" t="s">
         <v>3107</v>
@@ -55547,42 +55675,48 @@
         <v>1363</v>
       </c>
       <c r="B1362" s="1" t="s">
-        <v>5526</v>
+        <v>5524</v>
       </c>
       <c r="C1362" s="1" t="s">
-        <v>5525</v>
+        <v>5523</v>
       </c>
       <c r="D1362" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E1362" s="1" t="s">
-        <v>5635</v>
+        <v>5631</v>
       </c>
       <c r="F1362" t="s">
-        <v>5636</v>
+        <v>5632</v>
       </c>
       <c r="G1362" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1362" s="1" t="s">
         <v>3107</v>
       </c>
     </row>
-    <row r="1363" spans="1:8" ht="25">
+    <row r="1363" spans="1:8" ht="37.5">
       <c r="A1363" s="1">
         <v>1364</v>
       </c>
       <c r="B1363" s="1" t="s">
-        <v>5524</v>
+        <v>5522</v>
       </c>
       <c r="C1363" s="1" t="s">
-        <v>5523</v>
+        <v>5521</v>
       </c>
       <c r="D1363" s="1" t="s">
         <v>3544</v>
       </c>
+      <c r="E1363" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="F1363" s="1" t="s">
+        <v>5644</v>
+      </c>
       <c r="G1363" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1363" s="1" t="s">
         <v>3107</v>
@@ -55593,22 +55727,22 @@
         <v>1365</v>
       </c>
       <c r="B1364" s="1" t="s">
-        <v>5522</v>
+        <v>5520</v>
       </c>
       <c r="C1364" s="1" t="s">
-        <v>5521</v>
+        <v>5519</v>
       </c>
       <c r="D1364" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="E1364" s="1" t="s">
-        <v>5637</v>
+        <v>5633</v>
       </c>
       <c r="F1364" s="1" t="s">
-        <v>5638</v>
+        <v>5634</v>
       </c>
       <c r="G1364" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1364" s="1" t="s">
         <v>3107</v>
@@ -55711,22 +55845,22 @@
         <v>1370</v>
       </c>
       <c r="B1369" s="1" t="s">
-        <v>5527</v>
+        <v>5525</v>
       </c>
       <c r="C1369" s="1" t="s">
-        <v>5639</v>
+        <v>5635</v>
       </c>
       <c r="D1369" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="E1369" s="1" t="s">
-        <v>5640</v>
+        <v>5636</v>
       </c>
       <c r="F1369" s="1" t="s">
-        <v>5641</v>
+        <v>5637</v>
       </c>
       <c r="G1369" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1369" s="1" t="s">
         <v>3107</v>
@@ -55763,7 +55897,7 @@
         <v>1372</v>
       </c>
       <c r="B1371" s="1" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
       <c r="C1371" s="1" t="s">
         <v>729</v>
@@ -55775,7 +55909,7 @@
         <v>730</v>
       </c>
       <c r="F1371" s="1" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
       <c r="G1371" s="1" t="s">
         <v>119</v>
@@ -55919,7 +56053,7 @@
         <v>3244</v>
       </c>
       <c r="F1377" s="1" t="s">
-        <v>5241</v>
+        <v>5239</v>
       </c>
       <c r="G1377" s="1" t="s">
         <v>119</v>
@@ -55942,10 +56076,10 @@
         <v>3075</v>
       </c>
       <c r="E1378" s="1" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
       <c r="F1378" s="1" t="s">
-        <v>5242</v>
+        <v>5240</v>
       </c>
       <c r="G1378" s="1" t="s">
         <v>119</v>
@@ -55962,7 +56096,7 @@
         <v>525</v>
       </c>
       <c r="C1379" s="1" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="D1379" s="1" t="s">
         <v>526</v>
@@ -55980,7 +56114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1380" spans="1:8" ht="25">
+    <row r="1380" spans="1:8" ht="50">
       <c r="A1380" s="1">
         <v>1381</v>
       </c>
@@ -55992,6 +56126,12 @@
       </c>
       <c r="D1380" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="E1380" s="1" t="s">
+        <v>5647</v>
+      </c>
+      <c r="F1380" s="1" t="s">
+        <v>5646</v>
       </c>
       <c r="G1380" s="1" t="s">
         <v>119</v>
@@ -56085,6 +56225,9 @@
       <c r="D1384" s="1" t="s">
         <v>3076</v>
       </c>
+      <c r="F1384" s="1" t="s">
+        <v>5654</v>
+      </c>
       <c r="G1384" s="1" t="s">
         <v>119</v>
       </c>
@@ -56092,7 +56235,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="1385" spans="1:8" ht="25">
+    <row r="1385" spans="1:8" ht="62.5">
       <c r="A1385" s="1">
         <v>1386</v>
       </c>
@@ -56104,6 +56247,9 @@
       </c>
       <c r="D1385" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F1385" s="1" t="s">
+        <v>5655</v>
       </c>
       <c r="G1385" s="1" t="s">
         <v>119</v>
@@ -56140,7 +56286,7 @@
         <v>1388</v>
       </c>
       <c r="B1387" s="1" t="s">
-        <v>5244</v>
+        <v>5242</v>
       </c>
       <c r="C1387" s="1" t="s">
         <v>928</v>
@@ -56163,7 +56309,7 @@
         <v>1389</v>
       </c>
       <c r="B1388" s="1" t="s">
-        <v>5243</v>
+        <v>5241</v>
       </c>
       <c r="C1388" s="1" t="s">
         <v>1147</v>
@@ -56227,7 +56373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1391" spans="1:8">
+    <row r="1391" spans="1:8" ht="62.5">
       <c r="A1391" s="1">
         <v>1392</v>
       </c>
@@ -56235,19 +56381,25 @@
         <v>4620</v>
       </c>
       <c r="C1391" s="1" t="s">
-        <v>5528</v>
+        <v>5526</v>
       </c>
       <c r="D1391" s="1" t="s">
         <v>3544</v>
       </c>
+      <c r="E1391" s="1" t="s">
+        <v>5656</v>
+      </c>
+      <c r="F1391" s="1" t="s">
+        <v>5657</v>
+      </c>
       <c r="G1391" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1391" s="1" t="s">
         <v>3107</v>
       </c>
     </row>
-    <row r="1392" spans="1:8" ht="37.5">
+    <row r="1392" spans="1:8" ht="50">
       <c r="A1392" s="1">
         <v>1393</v>
       </c>
@@ -56260,6 +56412,9 @@
       <c r="D1392" s="1" t="s">
         <v>3076</v>
       </c>
+      <c r="F1392" s="1" t="s">
+        <v>5659</v>
+      </c>
       <c r="G1392" s="1" t="s">
         <v>119</v>
       </c>
@@ -56267,41 +56422,53 @@
         <v>120</v>
       </c>
     </row>
-    <row r="1393" spans="1:8" ht="25">
+    <row r="1393" spans="1:8" ht="50">
       <c r="A1393" s="1">
         <v>1394</v>
       </c>
       <c r="B1393" s="1" t="s">
-        <v>5532</v>
+        <v>5530</v>
       </c>
       <c r="C1393" s="1" t="s">
-        <v>5531</v>
+        <v>5529</v>
       </c>
       <c r="D1393" s="1" t="s">
         <v>3544</v>
       </c>
+      <c r="E1393" s="1" t="s">
+        <v>5660</v>
+      </c>
+      <c r="F1393" s="1" t="s">
+        <v>5662</v>
+      </c>
       <c r="G1393" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1393" s="1" t="s">
         <v>3107</v>
       </c>
     </row>
-    <row r="1394" spans="1:8">
+    <row r="1394" spans="1:8" ht="62.5">
       <c r="A1394" s="1">
         <v>1395</v>
       </c>
       <c r="B1394" s="1" t="s">
-        <v>5530</v>
+        <v>5528</v>
       </c>
       <c r="C1394" s="1" t="s">
-        <v>5529</v>
+        <v>5527</v>
       </c>
       <c r="D1394" s="1" t="s">
         <v>3544</v>
       </c>
+      <c r="E1394" s="1" t="s">
+        <v>5661</v>
+      </c>
+      <c r="F1394" s="1" t="s">
+        <v>5663</v>
+      </c>
       <c r="G1394" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1394" s="1" t="s">
         <v>3107</v>
@@ -56353,61 +56520,79 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1397" spans="1:8">
+    <row r="1397" spans="1:8" ht="88">
       <c r="A1397" s="1">
         <v>1398</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>5550</v>
+        <v>5547</v>
       </c>
       <c r="C1397" s="1" t="s">
-        <v>5549</v>
+        <v>5665</v>
       </c>
       <c r="D1397" s="1" t="s">
         <v>3544</v>
       </c>
+      <c r="E1397" s="1" t="s">
+        <v>5664</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>5666</v>
+      </c>
       <c r="G1397" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1397" s="1" t="s">
         <v>3107</v>
       </c>
     </row>
-    <row r="1398" spans="1:8">
+    <row r="1398" spans="1:8" ht="50.5">
       <c r="A1398" s="1">
         <v>1399</v>
       </c>
       <c r="B1398" s="1" t="s">
-        <v>5548</v>
+        <v>5546</v>
       </c>
       <c r="C1398" s="1" t="s">
-        <v>5547</v>
+        <v>5545</v>
       </c>
       <c r="D1398" s="1" t="s">
         <v>3100</v>
       </c>
+      <c r="E1398" s="1" t="s">
+        <v>5668</v>
+      </c>
+      <c r="F1398" s="1" t="s">
+        <v>5667</v>
+      </c>
       <c r="G1398" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1398" s="1" t="s">
         <v>3107</v>
       </c>
     </row>
-    <row r="1399" spans="1:8">
+    <row r="1399" spans="1:8" ht="62.5">
       <c r="A1399" s="1">
         <v>1400</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>5546</v>
+        <v>5544</v>
       </c>
       <c r="C1399" s="1" t="s">
-        <v>5545</v>
+        <v>5543</v>
       </c>
       <c r="D1399" s="1" t="s">
         <v>3100</v>
       </c>
+      <c r="E1399" s="1" t="s">
+        <v>5669</v>
+      </c>
+      <c r="F1399" s="1" t="s">
+        <v>5670</v>
+      </c>
       <c r="G1399" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1399" s="1" t="s">
         <v>3107</v>
@@ -56418,16 +56603,16 @@
         <v>1401</v>
       </c>
       <c r="B1400" s="1" t="s">
-        <v>5544</v>
+        <v>5542</v>
       </c>
       <c r="C1400" s="1" t="s">
-        <v>5543</v>
+        <v>5541</v>
       </c>
       <c r="D1400" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="G1400" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1400" s="1" t="s">
         <v>3107</v>
@@ -56438,16 +56623,16 @@
         <v>1402</v>
       </c>
       <c r="B1401" s="1" t="s">
-        <v>5542</v>
+        <v>5540</v>
       </c>
       <c r="C1401" s="1" t="s">
-        <v>5541</v>
+        <v>5539</v>
       </c>
       <c r="D1401" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="G1401" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1401" s="1" t="s">
         <v>3107</v>
@@ -56458,16 +56643,16 @@
         <v>1403</v>
       </c>
       <c r="B1402" s="1" t="s">
-        <v>5540</v>
+        <v>5538</v>
       </c>
       <c r="C1402" s="1" t="s">
-        <v>5539</v>
+        <v>5537</v>
       </c>
       <c r="D1402" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="G1402" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1402" s="1" t="s">
         <v>3107</v>
@@ -56478,16 +56663,16 @@
         <v>1404</v>
       </c>
       <c r="B1403" s="1" t="s">
-        <v>5538</v>
+        <v>5536</v>
       </c>
       <c r="C1403" s="1" t="s">
-        <v>5537</v>
+        <v>5535</v>
       </c>
       <c r="D1403" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="G1403" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1403" s="1" t="s">
         <v>3107</v>
@@ -56498,16 +56683,16 @@
         <v>1405</v>
       </c>
       <c r="B1404" s="1" t="s">
-        <v>5536</v>
+        <v>5534</v>
       </c>
       <c r="C1404" s="1" t="s">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="D1404" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="G1404" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1404" s="1" t="s">
         <v>3107</v>
@@ -56518,16 +56703,16 @@
         <v>1406</v>
       </c>
       <c r="B1405" s="1" t="s">
-        <v>5534</v>
+        <v>5532</v>
       </c>
       <c r="C1405" s="1" t="s">
-        <v>5533</v>
+        <v>5531</v>
       </c>
       <c r="D1405" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="G1405" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1405" s="1" t="s">
         <v>3107</v>
@@ -56602,43 +56787,57 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1409" spans="1:8" ht="13">
+    <row r="1409" spans="1:8" ht="38">
       <c r="A1409" s="1">
         <v>1410</v>
       </c>
       <c r="B1409" s="3" t="s">
-        <v>5614</v>
-      </c>
-      <c r="D1409" s="1"/>
+        <v>5611</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>5651</v>
+      </c>
+      <c r="D1409" s="1" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E1409" s="3" t="s">
+        <v>5649</v>
+      </c>
       <c r="F1409" s="1" t="s">
-        <v>5615</v>
-      </c>
-      <c r="G1409" s="1"/>
-      <c r="H1409" s="1"/>
+        <v>5650</v>
+      </c>
+      <c r="G1409" s="1" t="s">
+        <v>5648</v>
+      </c>
+      <c r="H1409" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="1410" spans="1:8" ht="50.5">
       <c r="A1410" s="1">
         <v>1411</v>
       </c>
       <c r="B1410" s="1" t="s">
-        <v>5623</v>
+        <v>5619</v>
       </c>
       <c r="C1410" t="s">
-        <v>5624</v>
+        <v>5620</v>
       </c>
       <c r="D1410" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E1410" s="1" t="s">
-        <v>5626</v>
+        <v>5622</v>
       </c>
       <c r="F1410" s="1" t="s">
-        <v>5625</v>
+        <v>5621</v>
       </c>
       <c r="G1410" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H1410" s="1"/>
+      <c r="H1410" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="1411" spans="1:8" ht="25">
       <c r="A1411" s="1">
@@ -56668,16 +56867,16 @@
         <v>1413</v>
       </c>
       <c r="B1412" s="3" t="s">
-        <v>5632</v>
+        <v>5628</v>
       </c>
       <c r="C1412" s="1" t="s">
-        <v>5633</v>
+        <v>5629</v>
       </c>
       <c r="D1412" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F1412" s="1" t="s">
-        <v>5634</v>
+        <v>5630</v>
       </c>
       <c r="G1412" s="1" t="s">
         <v>119</v>
@@ -56691,36 +56890,39 @@
         <v>1414</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>5642</v>
+        <v>5638</v>
       </c>
       <c r="C1413" s="1" t="s">
-        <v>5643</v>
+        <v>5639</v>
       </c>
       <c r="D1413" s="1" t="s">
         <v>3100</v>
       </c>
       <c r="G1413" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1413" s="1" t="s">
         <v>3107</v>
       </c>
     </row>
-    <row r="1414" spans="1:8">
+    <row r="1414" spans="1:8" ht="25">
       <c r="A1414" s="1">
         <v>1415</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>5644</v>
+        <v>5640</v>
       </c>
       <c r="C1414" s="1" t="s">
-        <v>5645</v>
+        <v>5641</v>
       </c>
       <c r="D1414" s="1" t="s">
         <v>3100</v>
       </c>
+      <c r="F1414" s="1" t="s">
+        <v>5658</v>
+      </c>
       <c r="G1414" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1414" s="1" t="s">
         <v>3107</v>
@@ -56731,16 +56933,16 @@
         <v>1416</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>5646</v>
+        <v>5642</v>
       </c>
       <c r="C1415" s="1" t="s">
-        <v>5647</v>
+        <v>5643</v>
       </c>
       <c r="D1415" s="1" t="s">
         <v>3134</v>
       </c>
       <c r="G1415" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1415" s="1" t="s">
         <v>3107</v>
@@ -57050,7 +57252,7 @@
         <v>4496</v>
       </c>
       <c r="C1429" s="1" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="D1429" s="1" t="s">
         <v>72</v>
@@ -57180,10 +57382,10 @@
         <v>17</v>
       </c>
       <c r="E1434" s="1" t="s">
+        <v>5188</v>
+      </c>
+      <c r="F1434" s="1" t="s">
         <v>5190</v>
-      </c>
-      <c r="F1434" s="1" t="s">
-        <v>5192</v>
       </c>
       <c r="G1434" s="1" t="s">
         <v>143</v>
@@ -57206,7 +57408,7 @@
         <v>22</v>
       </c>
       <c r="E1435" s="1" t="s">
-        <v>5380</v>
+        <v>5378</v>
       </c>
       <c r="F1435" s="1" t="s">
         <v>2915</v>
@@ -57232,7 +57434,7 @@
         <v>34</v>
       </c>
       <c r="E1436" s="1" t="s">
-        <v>5381</v>
+        <v>5379</v>
       </c>
       <c r="F1436" s="1" t="s">
         <v>2916</v>
@@ -57261,7 +57463,7 @@
         <v>2917</v>
       </c>
       <c r="F1437" s="1" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="G1437" s="1" t="s">
         <v>2767</v>
@@ -57287,7 +57489,7 @@
         <v>2918</v>
       </c>
       <c r="F1438" s="1" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="G1438" s="1" t="s">
         <v>2767</v>
@@ -57411,7 +57613,7 @@
         <v>22</v>
       </c>
       <c r="E1443" s="1" t="s">
-        <v>5382</v>
+        <v>5380</v>
       </c>
       <c r="F1443" s="1" t="s">
         <v>2927</v>
@@ -57792,7 +57994,7 @@
         <v>13</v>
       </c>
       <c r="E1458" s="1" t="s">
-        <v>5383</v>
+        <v>5381</v>
       </c>
       <c r="F1458" s="1" t="s">
         <v>3092</v>
@@ -57821,7 +58023,7 @@
         <v>4703</v>
       </c>
       <c r="F1459" s="1" t="s">
-        <v>5594</v>
+        <v>5591</v>
       </c>
       <c r="G1459" s="1" t="s">
         <v>2767</v>
@@ -57896,7 +58098,7 @@
         <v>22</v>
       </c>
       <c r="E1462" s="1" t="s">
-        <v>5384</v>
+        <v>5382</v>
       </c>
       <c r="F1462" s="1" t="s">
         <v>3096</v>
@@ -57994,7 +58196,7 @@
         <v>22</v>
       </c>
       <c r="E1466" s="1" t="s">
-        <v>5385</v>
+        <v>5383</v>
       </c>
       <c r="F1466" s="1" t="s">
         <v>3352</v>
@@ -58069,7 +58271,7 @@
         <v>17</v>
       </c>
       <c r="E1469" s="1" t="s">
-        <v>5386</v>
+        <v>5384</v>
       </c>
       <c r="F1469" s="1" t="s">
         <v>4584</v>
@@ -58121,10 +58323,10 @@
         <v>22</v>
       </c>
       <c r="E1471" s="1" t="s">
-        <v>5597</v>
+        <v>5594</v>
       </c>
       <c r="F1471" s="1" t="s">
-        <v>5596</v>
+        <v>5593</v>
       </c>
       <c r="G1471" s="1" t="s">
         <v>2713</v>
@@ -58173,7 +58375,7 @@
         <v>37</v>
       </c>
       <c r="E1473" s="1" t="s">
-        <v>5387</v>
+        <v>5385</v>
       </c>
       <c r="F1473" s="1" t="s">
         <v>3232</v>
@@ -58248,7 +58450,7 @@
         <v>37</v>
       </c>
       <c r="E1476" s="1" t="s">
-        <v>5388</v>
+        <v>5386</v>
       </c>
       <c r="F1476" s="1" t="s">
         <v>3247</v>
@@ -58294,13 +58496,13 @@
         <v>2841</v>
       </c>
       <c r="C1478" s="1" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="D1478" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E1478" s="1" t="s">
-        <v>5389</v>
+        <v>5387</v>
       </c>
       <c r="F1478" s="1" t="s">
         <v>3304</v>
@@ -58352,7 +58554,7 @@
         <v>13</v>
       </c>
       <c r="E1480" s="1" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="F1480" s="1" t="s">
         <v>3266</v>
@@ -58456,7 +58658,7 @@
         <v>13</v>
       </c>
       <c r="E1484" s="1" t="s">
-        <v>5390</v>
+        <v>5388</v>
       </c>
       <c r="F1484" s="1" t="s">
         <v>3282</v>
@@ -58482,7 +58684,7 @@
         <v>13</v>
       </c>
       <c r="E1485" s="1" t="s">
-        <v>5391</v>
+        <v>5389</v>
       </c>
       <c r="F1485" s="1" t="s">
         <v>3291</v>
@@ -58606,13 +58808,13 @@
         <v>2853</v>
       </c>
       <c r="C1490" s="1" t="s">
-        <v>5164</v>
+        <v>5162</v>
       </c>
       <c r="D1490" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E1490" s="1" t="s">
-        <v>5392</v>
+        <v>5390</v>
       </c>
       <c r="F1490" s="1" t="s">
         <v>3385</v>
@@ -58690,7 +58892,7 @@
         <v>13</v>
       </c>
       <c r="E1493" s="1" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
       <c r="F1493" s="1" t="s">
         <v>3449</v>
@@ -58768,7 +58970,7 @@
         <v>37</v>
       </c>
       <c r="E1496" s="1" t="s">
-        <v>5393</v>
+        <v>5391</v>
       </c>
       <c r="F1496" s="1" t="s">
         <v>3524</v>
@@ -58794,7 +58996,7 @@
         <v>37</v>
       </c>
       <c r="E1497" s="1" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="F1497" s="1" t="s">
         <v>3530</v>
@@ -59310,7 +59512,7 @@
         <v>13</v>
       </c>
       <c r="E1518" s="1" t="s">
-        <v>5394</v>
+        <v>5392</v>
       </c>
       <c r="F1518" s="1" t="s">
         <v>4461</v>
@@ -59434,7 +59636,7 @@
         <v>3106</v>
       </c>
       <c r="G1523" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1523" s="1" t="s">
         <v>3107</v>
@@ -59665,7 +59867,7 @@
         <v>3106</v>
       </c>
       <c r="G1532" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1532" s="1" t="s">
         <v>3107</v>
@@ -59717,7 +59919,7 @@
         <v>3114</v>
       </c>
       <c r="G1534" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1534" s="1" t="s">
         <v>3107</v>
@@ -59737,7 +59939,7 @@
         <v>17</v>
       </c>
       <c r="E1535" s="1" t="s">
-        <v>5395</v>
+        <v>5393</v>
       </c>
       <c r="F1535" s="1" t="s">
         <v>3149</v>
@@ -59766,7 +59968,7 @@
         <v>3125</v>
       </c>
       <c r="F1536" s="1" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="G1536" s="1" t="s">
         <v>3110</v>
@@ -59821,7 +60023,7 @@
         <v>4556</v>
       </c>
       <c r="G1538" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1538" s="1" t="s">
         <v>3107</v>
@@ -59841,7 +60043,7 @@
         <v>22</v>
       </c>
       <c r="E1539" s="1" t="s">
-        <v>5396</v>
+        <v>5394</v>
       </c>
       <c r="F1539" s="1" t="s">
         <v>4592</v>
@@ -59867,13 +60069,13 @@
         <v>3100</v>
       </c>
       <c r="E1540" s="1" t="s">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="F1540" s="1" t="s">
         <v>3141</v>
       </c>
       <c r="G1540" s="1" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="H1540" s="1" t="s">
         <v>3107</v>
@@ -59919,7 +60121,7 @@
         <v>17</v>
       </c>
       <c r="F1542" s="1" t="s">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="G1542" s="1" t="s">
         <v>3110</v>
@@ -59962,13 +60164,13 @@
         <v>3204</v>
       </c>
       <c r="C1544" s="1" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
       <c r="D1544" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E1544" s="1" t="s">
-        <v>5398</v>
+        <v>5396</v>
       </c>
       <c r="F1544" s="1" t="s">
         <v>3206</v>
@@ -59994,7 +60196,7 @@
         <v>37</v>
       </c>
       <c r="E1545" s="1" t="s">
-        <v>5399</v>
+        <v>5397</v>
       </c>
       <c r="F1545" s="1" t="s">
         <v>4544</v>
@@ -60046,7 +60248,7 @@
         <v>13</v>
       </c>
       <c r="E1547" s="1" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
       <c r="F1547" s="1" t="s">
         <v>3214</v>
@@ -60070,47 +60272,47 @@
     <sortCondition ref="B1:B1487"/>
   </sortState>
   <conditionalFormatting sqref="B1549:B1048576 B3:B28">
-    <cfRule type="duplicateValues" dxfId="15" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1549:A1048576 A1:A28">
-    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="duplicateValues" dxfId="12" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A976:A1068">
-    <cfRule type="duplicateValues" dxfId="11" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A976:A1068">
-    <cfRule type="duplicateValues" dxfId="10" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A975">
-    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A975">
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1069:A1263">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1264:A1265">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1264:A1265">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1069:A1263 A1266:A1288 A1370:A1390 A1419:A1548">
-    <cfRule type="duplicateValues" dxfId="4" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1289:A1369">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1391:A1412 A1416:A1418">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1413:A1415">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F781" r:id="rId1" tooltip="Origin and meaning of bryophyte" display="https://www.etymonline.com/word/bryophyte"/>

--- a/GRE-Vocab_trainer.xlsx
+++ b/GRE-Vocab_trainer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10793" uniqueCount="5973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10828" uniqueCount="5994">
   <si>
     <t xml:space="preserve">noun </t>
   </si>
@@ -19089,6 +19089,151 @@
   </si>
   <si>
     <t>1a. Johnson  satisfied an &lt;b&gt;importunate&lt;/b&gt; US last week by banning the Chinese telecoms firm Huawei from doing business in Britain.&lt;/br&gt;1b." Hör auf zu stürmen", my mother used to say, when I was &lt;b&gt;importunate&lt;/b&gt; about a request</t>
+  </si>
+  <si>
+    <t>telluric</t>
+  </si>
+  <si>
+    <t>crepuscular</t>
+  </si>
+  <si>
+    <t>of or relating to or inhabiting the land as opposed to the sea or air</t>
+  </si>
+  <si>
+    <t>Latin : Tellus, Roman goddess of the earth&lt;/br&gt;Syn: tellurian, terrene, terrestrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;u&gt;&lt;b&gt;Telluric&lt;/b&gt; currents&lt;/u&gt; in the earth's crust were first measured in 1862, and despite having many causes, are generally diurnal and are constantly flowing in direction of the sun. </t>
+  </si>
+  <si>
+    <t>adj.</t>
+  </si>
+  <si>
+    <t>French/Latin crepuscule : twighlight</t>
+  </si>
+  <si>
+    <t>of, relating to, or resembling twilight</t>
+  </si>
+  <si>
+    <r>
+      <t>The combination of the red coat, the isolation of the girl and the &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">crepuscular&lt;/b&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>woods brings to mind Little Red Riding Hood</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Her &lt;b&gt;improvident&lt;/b&gt; habits left her with no retirement savings. &lt;/br&gt;2. In one heat, a driver made an &lt;b&gt;improvident&lt;/b&gt; move and three cars collided, one flipping on its side.</t>
+  </si>
+  <si>
+    <r>
+      <t>Latin : im-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = "opposite, not" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>providere =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>"foresee, provide"=&gt;not providing for future&lt;/br&gt;Syn2:myopic, short, shortsighted, unforesightful</t>
+    </r>
+  </si>
+  <si>
+    <t>1. thriftless;  not providing for future; &lt;/br&gt;2. incautious</t>
+  </si>
+  <si>
+    <t>improvident</t>
+  </si>
+  <si>
+    <t>1a. A book titled “How Librarians Swear” lists such &lt;b&gt;imprecations&lt;/b&gt; as “You stupid doorknob,” “What the fun” and “Oh shootdarn it.”&lt;/br&gt;1b.The accused suffered the &lt;b&gt;imprecations&lt;/b&gt; of the mob &lt;/br&gt;2. He often tweets &lt;b&gt;imprecations&lt;/b&gt; at immigrants: “We are indeed a nation of immigrants. We are also a nation of laws. Respect our laws and we welcome you."</t>
+  </si>
+  <si>
+    <t>Latin:in- "against" + precari "to pray, ask, beg"=&gt;to curse</t>
+  </si>
+  <si>
+    <r>
+      <t>1. curse, or  act of calling down a curse that invokes evil</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>&lt;/br&gt;2. A slanderous accusation</t>
+    </r>
+  </si>
+  <si>
+    <t>imprecation</t>
+  </si>
+  <si>
+    <t>1." Hör auf zu stürmen", my mother used to say, when I  &lt;b&gt;importuned&lt;/b&gt; for something I wanted</t>
+  </si>
+  <si>
+    <t>Syn:beseech, implore,  plead</t>
+  </si>
+  <si>
+    <t>beg persistently; ask for urgently or repeatedly; annoy</t>
+  </si>
+  <si>
+    <t>importune</t>
   </si>
 </sst>
 </file>
@@ -19200,7 +19345,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19762,26 +19917,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -19864,18 +19999,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1616" totalsRowShown="0">
-  <autoFilter ref="A1:H1616"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1621" totalsRowShown="0">
+  <autoFilter ref="A1:H1621"/>
   <sortState ref="A2:H1709">
     <sortCondition ref="A1:A1709"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3" dataDxfId="60"/>
+    <tableColumn id="3" name="Column3" dataDxfId="59"/>
     <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5" dataDxfId="59"/>
-    <tableColumn id="6" name="Column6" dataDxfId="58"/>
+    <tableColumn id="5" name="Column5" dataDxfId="58"/>
+    <tableColumn id="6" name="Column6" dataDxfId="57"/>
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
   </tableColumns>
@@ -20147,10 +20282,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1616"/>
+  <dimension ref="A1:K1621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1596" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F1600" sqref="F1600"/>
+    <sheetView tabSelected="1" topLeftCell="F1610" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L1610" sqref="L1610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -20165,7 +20300,7 @@
     <col min="8" max="8" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2576</v>
       </c>
@@ -20214,7 +20349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="50">
+    <row r="3" spans="1:8" ht="37.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20289,7 +20424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="125">
+    <row r="6" spans="1:8" ht="112.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20964,7 +21099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="50">
+    <row r="33" spans="1:8" ht="37.5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -21296,7 +21431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="37.5">
+    <row r="46" spans="1:8" ht="25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -53374,7 +53509,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1328" spans="1:8" ht="137.5">
+    <row r="1328" spans="1:8" ht="125">
       <c r="A1328" s="1">
         <v>1327</v>
       </c>
@@ -56073,7 +56208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1438" spans="1:8" ht="87.5">
+    <row r="1438" spans="1:8" ht="75">
       <c r="A1438" s="1">
         <v>1437</v>
       </c>
@@ -56543,7 +56678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1457" spans="1:8" ht="50">
+    <row r="1457" spans="1:8" ht="37.5">
       <c r="A1457" s="1">
         <v>1456</v>
       </c>
@@ -56748,7 +56883,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1465" spans="1:8" ht="50">
+    <row r="1465" spans="1:8" ht="37.5">
       <c r="A1465" s="1">
         <v>1464</v>
       </c>
@@ -56826,7 +56961,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1468" spans="1:8" ht="37.5">
+    <row r="1468" spans="1:8" ht="25">
       <c r="A1468" s="1">
         <v>1467</v>
       </c>
@@ -58457,7 +58592,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1532" spans="1:8" ht="62.5">
+    <row r="1532" spans="1:8" ht="50">
       <c r="A1532" s="1">
         <v>1531</v>
       </c>
@@ -60229,154 +60364,154 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="1602" spans="1:8" ht="25">
-      <c r="A1602" s="13">
+    <row r="1602" spans="1:8" s="11" customFormat="1" ht="50">
+      <c r="A1602" s="10">
+        <v>1601</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>5973</v>
+      </c>
+      <c r="C1602" s="10" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D1602" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1602" s="10" t="s">
+        <v>5976</v>
+      </c>
+      <c r="F1602" s="10" t="s">
+        <v>5977</v>
+      </c>
+      <c r="G1602" s="10" t="s">
+        <v>2751</v>
+      </c>
+      <c r="H1602" s="10" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:8" s="11" customFormat="1" ht="13">
+      <c r="A1603" s="10">
+        <v>1602</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>5974</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D1603" s="10" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E1603" s="10" t="s">
+        <v>5979</v>
+      </c>
+      <c r="F1603" t="s">
+        <v>5981</v>
+      </c>
+      <c r="G1603" s="10" t="s">
+        <v>2751</v>
+      </c>
+      <c r="H1603" s="10" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" s="11" customFormat="1" ht="25">
+      <c r="A1604" s="10">
+        <v>1603</v>
+      </c>
+      <c r="B1604" s="10" t="s">
+        <v>5993</v>
+      </c>
+      <c r="C1604" s="10" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D1604" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E1604" s="10" t="s">
+        <v>5991</v>
+      </c>
+      <c r="F1604" s="10" t="s">
+        <v>5990</v>
+      </c>
+      <c r="G1604" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1604" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:8" s="11" customFormat="1" ht="100.5">
+      <c r="A1605" s="10">
+        <v>1604</v>
+      </c>
+      <c r="B1605" s="10" t="s">
+        <v>5989</v>
+      </c>
+      <c r="C1605" s="10" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D1605" s="10" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E1605" s="10" t="s">
+        <v>5987</v>
+      </c>
+      <c r="F1605" s="10" t="s">
+        <v>5986</v>
+      </c>
+      <c r="G1605" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1605" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:8" s="11" customFormat="1" ht="51">
+      <c r="A1606" s="10">
+        <v>1605</v>
+      </c>
+      <c r="B1606" s="10" t="s">
+        <v>5985</v>
+      </c>
+      <c r="C1606" s="10" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D1606" s="10" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E1606" s="5" t="s">
+        <v>5983</v>
+      </c>
+      <c r="F1606" s="10" t="s">
+        <v>5982</v>
+      </c>
+      <c r="G1606" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1606" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" ht="26.5" customHeight="1">
+      <c r="A1607" s="13">
         <v>1661</v>
       </c>
-      <c r="B1602" s="1" t="s">
+      <c r="B1607" s="1" t="s">
         <v>4634</v>
       </c>
-      <c r="C1602" s="1" t="s">
+      <c r="C1607" s="1" t="s">
         <v>4633</v>
-      </c>
-      <c r="D1602" s="1" t="s">
-        <v>4792</v>
-      </c>
-      <c r="E1602" s="1" t="s">
-        <v>5628</v>
-      </c>
-      <c r="F1602" s="1" t="s">
-        <v>5629</v>
-      </c>
-      <c r="G1602" s="1" t="s">
-        <v>3837</v>
-      </c>
-      <c r="H1602" s="1" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="1603" spans="1:8" ht="50">
-      <c r="A1603" s="1">
-        <v>1662</v>
-      </c>
-      <c r="B1603" s="1" t="s">
-        <v>2752</v>
-      </c>
-      <c r="C1603" s="1" t="s">
-        <v>2743</v>
-      </c>
-      <c r="D1603" s="1" t="s">
-        <v>2742</v>
-      </c>
-      <c r="E1603" s="1" t="s">
-        <v>5630</v>
-      </c>
-      <c r="F1603" s="1" t="s">
-        <v>2754</v>
-      </c>
-      <c r="G1603" s="1" t="s">
-        <v>3837</v>
-      </c>
-      <c r="H1603" s="1" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="1604" spans="1:8" ht="37.5">
-      <c r="A1604" s="1">
-        <v>1663</v>
-      </c>
-      <c r="B1604" s="1" t="s">
-        <v>2753</v>
-      </c>
-      <c r="C1604" s="1" t="s">
-        <v>2775</v>
-      </c>
-      <c r="D1604" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1604" s="1" t="s">
-        <v>4469</v>
-      </c>
-      <c r="F1604" s="1" t="s">
-        <v>5631</v>
-      </c>
-      <c r="G1604" s="1" t="s">
-        <v>2751</v>
-      </c>
-      <c r="H1604" s="1" t="s">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:8" ht="50">
-      <c r="A1605" s="1">
-        <v>1664</v>
-      </c>
-      <c r="B1605" s="1" t="s">
-        <v>2759</v>
-      </c>
-      <c r="C1605" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="D1605" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1605" s="1" t="s">
-        <v>4777</v>
-      </c>
-      <c r="F1605" s="1" t="s">
-        <v>3867</v>
-      </c>
-      <c r="G1605" s="1" t="s">
-        <v>2751</v>
-      </c>
-      <c r="H1605" s="1" t="s">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="1606" spans="1:8" ht="37.5">
-      <c r="A1606" s="1">
-        <v>1665</v>
-      </c>
-      <c r="B1606" s="1" t="s">
-        <v>2762</v>
-      </c>
-      <c r="C1606" s="1" t="s">
-        <v>2761</v>
-      </c>
-      <c r="D1606" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1606" s="1" t="s">
-        <v>4470</v>
-      </c>
-      <c r="F1606" s="1" t="s">
-        <v>2763</v>
-      </c>
-      <c r="G1606" s="1" t="s">
-        <v>2751</v>
-      </c>
-      <c r="H1606" s="1" t="s">
-        <v>2764</v>
-      </c>
-    </row>
-    <row r="1607" spans="1:8" ht="25">
-      <c r="A1607" s="1">
-        <v>1666</v>
-      </c>
-      <c r="B1607" s="1" t="s">
-        <v>2765</v>
-      </c>
-      <c r="C1607" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="D1607" s="1" t="s">
         <v>4792</v>
       </c>
       <c r="E1607" s="1" t="s">
-        <v>2767</v>
+        <v>5628</v>
       </c>
       <c r="F1607" s="1" t="s">
-        <v>3417</v>
+        <v>5629</v>
       </c>
       <c r="G1607" s="1" t="s">
         <v>3837</v>
@@ -60385,76 +60520,76 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="1608" spans="1:8" ht="37.5">
+    <row r="1608" spans="1:8" ht="50">
       <c r="A1608" s="1">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="B1608" s="1" t="s">
-        <v>2768</v>
+        <v>2752</v>
       </c>
       <c r="C1608" s="1" t="s">
-        <v>4778</v>
+        <v>2743</v>
       </c>
       <c r="D1608" s="1" t="s">
-        <v>32</v>
+        <v>2742</v>
       </c>
       <c r="E1608" s="1" t="s">
-        <v>3935</v>
+        <v>5630</v>
       </c>
       <c r="F1608" s="1" t="s">
-        <v>5632</v>
+        <v>2754</v>
       </c>
       <c r="G1608" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1608" s="1" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" ht="37.5">
+      <c r="A1609" s="1">
+        <v>1663</v>
+      </c>
+      <c r="B1609" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C1609" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D1609" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1609" s="1" t="s">
+        <v>4469</v>
+      </c>
+      <c r="F1609" s="1" t="s">
+        <v>5631</v>
+      </c>
+      <c r="G1609" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="H1608" s="1" t="s">
+      <c r="H1609" s="1" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="1609" spans="1:8" ht="50">
-      <c r="A1609" s="1">
-        <v>1668</v>
-      </c>
-      <c r="B1609" s="1" t="s">
-        <v>4636</v>
-      </c>
-      <c r="C1609" s="1" t="s">
-        <v>4635</v>
-      </c>
-      <c r="D1609" s="1" t="s">
-        <v>2950</v>
-      </c>
-      <c r="E1609" s="1" t="s">
-        <v>5633</v>
-      </c>
-      <c r="F1609" t="s">
-        <v>5634</v>
-      </c>
-      <c r="G1609" s="1" t="s">
-        <v>3837</v>
-      </c>
-      <c r="H1609" s="1" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="1610" spans="1:8" ht="37.5">
+    <row r="1610" spans="1:8" ht="50">
       <c r="A1610" s="1">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>2772</v>
+        <v>2759</v>
       </c>
       <c r="C1610" s="1" t="s">
-        <v>2773</v>
+        <v>2760</v>
       </c>
       <c r="D1610" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E1610" s="1" t="s">
-        <v>5635</v>
+        <v>4777</v>
       </c>
       <c r="F1610" s="1" t="s">
-        <v>5636</v>
+        <v>3867</v>
       </c>
       <c r="G1610" s="1" t="s">
         <v>2751</v>
@@ -60465,19 +60600,22 @@
     </row>
     <row r="1611" spans="1:8" ht="37.5">
       <c r="A1611" s="1">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>2774</v>
+        <v>2762</v>
       </c>
       <c r="C1611" s="1" t="s">
-        <v>5637</v>
+        <v>2761</v>
       </c>
       <c r="D1611" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="E1611" s="1" t="s">
+        <v>4470</v>
       </c>
       <c r="F1611" s="1" t="s">
-        <v>3765</v>
+        <v>2763</v>
       </c>
       <c r="G1611" s="1" t="s">
         <v>2751</v>
@@ -60486,133 +60624,260 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="1612" spans="1:8" ht="37.5">
+    <row r="1612" spans="1:8" ht="25">
       <c r="A1612" s="1">
-        <v>1671</v>
+        <v>1666</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>2777</v>
+        <v>2765</v>
       </c>
       <c r="C1612" s="1" t="s">
-        <v>2778</v>
+        <v>2766</v>
       </c>
       <c r="D1612" s="1" t="s">
+        <v>4792</v>
+      </c>
+      <c r="E1612" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F1612" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="G1612" s="1" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1612" s="1" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" ht="37.5">
+      <c r="A1613" s="1">
+        <v>1667</v>
+      </c>
+      <c r="B1613" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1613" s="1" t="s">
+        <v>4778</v>
+      </c>
+      <c r="D1613" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1612" s="1" t="s">
-        <v>2779</v>
-      </c>
-      <c r="F1612" s="1" t="s">
-        <v>3271</v>
-      </c>
-      <c r="G1612" s="1" t="s">
+      <c r="E1613" s="1" t="s">
+        <v>3935</v>
+      </c>
+      <c r="F1613" s="1" t="s">
+        <v>5632</v>
+      </c>
+      <c r="G1613" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="H1612" s="1" t="s">
+      <c r="H1613" s="1" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="1613" spans="1:8" ht="87.5">
-      <c r="A1613" s="1">
-        <v>1672</v>
-      </c>
-      <c r="B1613" s="1" t="s">
-        <v>2803</v>
-      </c>
-      <c r="C1613" s="1" t="s">
-        <v>3775</v>
-      </c>
-      <c r="D1613" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1613" s="1" t="s">
-        <v>4471</v>
-      </c>
-      <c r="F1613" s="1" t="s">
-        <v>5638</v>
-      </c>
-      <c r="G1613" s="1" t="s">
-        <v>2804</v>
-      </c>
-      <c r="H1613" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:8" ht="37.5">
+    <row r="1614" spans="1:8" ht="50">
       <c r="A1614" s="1">
-        <v>1673</v>
+        <v>1668</v>
       </c>
       <c r="B1614" s="1" t="s">
-        <v>2805</v>
+        <v>4636</v>
       </c>
       <c r="C1614" s="1" t="s">
-        <v>5639</v>
+        <v>4635</v>
       </c>
       <c r="D1614" s="1" t="s">
-        <v>32</v>
+        <v>2950</v>
       </c>
       <c r="E1614" s="1" t="s">
-        <v>5640</v>
-      </c>
-      <c r="F1614" s="1" t="s">
-        <v>5641</v>
+        <v>5633</v>
+      </c>
+      <c r="F1614" t="s">
+        <v>5634</v>
       </c>
       <c r="G1614" s="1" t="s">
-        <v>2804</v>
+        <v>3837</v>
       </c>
       <c r="H1614" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1615" spans="1:8" ht="38">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" ht="37.5">
       <c r="A1615" s="1">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="B1615" s="1" t="s">
-        <v>2806</v>
+        <v>2772</v>
       </c>
       <c r="C1615" s="1" t="s">
-        <v>2808</v>
+        <v>2773</v>
       </c>
       <c r="D1615" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E1615" s="1" t="s">
+        <v>5635</v>
+      </c>
+      <c r="F1615" s="1" t="s">
+        <v>5636</v>
+      </c>
+      <c r="G1615" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="H1615" s="1" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" ht="37.5">
+      <c r="A1616" s="1">
+        <v>1670</v>
+      </c>
+      <c r="B1616" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C1616" s="1" t="s">
+        <v>5637</v>
+      </c>
+      <c r="D1616" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1616" s="1" t="s">
+        <v>3765</v>
+      </c>
+      <c r="G1616" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="H1616" s="1" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" ht="37.5">
+      <c r="A1617" s="1">
+        <v>1671</v>
+      </c>
+      <c r="B1617" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1617" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D1617" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1617" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="F1617" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G1617" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="H1617" s="1" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" ht="87.5">
+      <c r="A1618" s="1">
+        <v>1672</v>
+      </c>
+      <c r="B1618" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C1618" s="1" t="s">
+        <v>3775</v>
+      </c>
+      <c r="D1618" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1618" s="1" t="s">
+        <v>4471</v>
+      </c>
+      <c r="F1618" s="1" t="s">
+        <v>5638</v>
+      </c>
+      <c r="G1618" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="H1618" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" ht="37.5">
+      <c r="A1619" s="1">
+        <v>1673</v>
+      </c>
+      <c r="B1619" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C1619" s="1" t="s">
+        <v>5639</v>
+      </c>
+      <c r="D1619" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1619" s="1" t="s">
+        <v>5640</v>
+      </c>
+      <c r="F1619" s="1" t="s">
+        <v>5641</v>
+      </c>
+      <c r="G1619" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="H1619" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" ht="38">
+      <c r="A1620" s="1">
+        <v>1674</v>
+      </c>
+      <c r="B1620" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C1620" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D1620" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1620" s="1" t="s">
         <v>4779</v>
       </c>
-      <c r="F1615" s="1" t="s">
+      <c r="F1620" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="G1615" s="1" t="s">
+      <c r="G1620" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="H1615" s="1" t="s">
+      <c r="H1620" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1616" spans="1:8" ht="62.5">
-      <c r="A1616" s="1">
+    <row r="1621" spans="1:8" ht="62.5">
+      <c r="A1621" s="1">
         <v>1675</v>
       </c>
-      <c r="B1616" s="1" t="s">
+      <c r="B1621" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="C1616" s="1" t="s">
+      <c r="C1621" s="1" t="s">
         <v>5642</v>
       </c>
-      <c r="D1616" s="1" t="s">
+      <c r="D1621" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1616" s="1" t="s">
+      <c r="E1621" s="1" t="s">
         <v>5643</v>
       </c>
-      <c r="F1616" s="1" t="s">
+      <c r="F1621" s="1" t="s">
         <v>5644</v>
       </c>
-      <c r="G1616" s="1" t="s">
+      <c r="G1621" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="H1616" s="1" t="s">
+      <c r="H1621" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -60621,165 +60886,168 @@
     <sortCondition ref="B1:B1487"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="B1617:B1048576 B3:B28">
-    <cfRule type="duplicateValues" dxfId="53" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="102"/>
+  <conditionalFormatting sqref="B1622:B1048576 B3:B28">
+    <cfRule type="duplicateValues" dxfId="54" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1617:A1048576 A1:A28">
-    <cfRule type="duplicateValues" dxfId="51" priority="79"/>
+  <conditionalFormatting sqref="A1622:A1048576 A1:A28">
+    <cfRule type="duplicateValues" dxfId="52" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="duplicateValues" dxfId="50" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A975:A1067">
-    <cfRule type="duplicateValues" dxfId="49" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A975:A1067">
-    <cfRule type="duplicateValues" dxfId="48" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1068:A1262">
-    <cfRule type="duplicateValues" dxfId="47" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1263:A1264">
-    <cfRule type="duplicateValues" dxfId="46" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1263:A1264">
-    <cfRule type="duplicateValues" dxfId="45" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1391 A1416:A1418 A1393:A1412">
-    <cfRule type="duplicateValues" dxfId="44" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1413:A1415">
-    <cfRule type="duplicateValues" dxfId="43" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A906 A908:A974">
-    <cfRule type="duplicateValues" dxfId="42" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1422">
-    <cfRule type="duplicateValues" dxfId="41" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1392">
-    <cfRule type="duplicateValues" dxfId="40" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1392">
-    <cfRule type="duplicateValues" dxfId="39" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1423">
-    <cfRule type="duplicateValues" dxfId="38" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1519">
-    <cfRule type="duplicateValues" dxfId="37" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A907">
-    <cfRule type="duplicateValues" dxfId="36" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B907">
-    <cfRule type="duplicateValues" dxfId="35" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1426:B1430">
-    <cfRule type="duplicateValues" dxfId="34" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1431">
-    <cfRule type="duplicateValues" dxfId="33" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1433:B1435">
-    <cfRule type="duplicateValues" dxfId="32" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1438:B1440">
-    <cfRule type="duplicateValues" dxfId="31" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1510">
-    <cfRule type="duplicateValues" dxfId="30" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1523">
-    <cfRule type="duplicateValues" dxfId="29" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1529">
-    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1539">
-    <cfRule type="duplicateValues" dxfId="27" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1288:A1369">
-    <cfRule type="duplicateValues" dxfId="26" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1436">
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1562:B1566">
-    <cfRule type="duplicateValues" dxfId="24" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1068:A1262 A1265:A1287 A1370:A1390 A1419:A1573">
-    <cfRule type="duplicateValues" dxfId="23" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1520:B1522 B2:B906 B1424:B1425 B1393:B1421 B908:B1391 B1432 B1437 B1511:B1518 B1524:B1528 B1530:B1538 B1540:B1561 B1441:B1509">
-    <cfRule type="duplicateValues" dxfId="22" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="233"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1602:B1616">
-    <cfRule type="duplicateValues" dxfId="21" priority="248"/>
+  <conditionalFormatting sqref="B1607:B1621">
+    <cfRule type="duplicateValues" dxfId="22" priority="250"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1602:A1616">
-    <cfRule type="duplicateValues" dxfId="20" priority="249"/>
+  <conditionalFormatting sqref="A1607:A1621">
+    <cfRule type="duplicateValues" dxfId="21" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1567:B1573">
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1574">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1574">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1574">
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1575:B1579">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1575:A1579">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1580:B1583">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1580:A1583">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1584:B1585">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1584:A1595 A1600:A1601">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1586">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1587:C1595">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1587:B1595">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1587:C1595">
+  <conditionalFormatting sqref="B1596:B1599">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1587:B1595">
+  <conditionalFormatting sqref="A1596:A1599">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1596:B1599">
+  <conditionalFormatting sqref="B1587:B1595">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1596:A1599">
+  <conditionalFormatting sqref="A1587:A1595">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1587:B1595">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1587:A1595">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="A1584:A1595 A1600:A1603">
+    <cfRule type="duplicateValues" dxfId="5" priority="255"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1600:C1601">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1600:B1601">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="258"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1600:B1601">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A1600:A1603">
+    <cfRule type="duplicateValues" dxfId="2" priority="260"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1600:A1601">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="C1602">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1604:B1606">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F781" r:id="rId1" tooltip="Origin and meaning of bryophyte" display="https://www.etymonline.com/word/bryophyte"/>

--- a/GRE-Vocab_trainer.xlsx
+++ b/GRE-Vocab_trainer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10828" uniqueCount="5994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10918" uniqueCount="6045">
   <si>
     <t xml:space="preserve">noun </t>
   </si>
@@ -19234,6 +19234,264 @@
   </si>
   <si>
     <t>importune</t>
+  </si>
+  <si>
+    <r>
+      <t>A &lt;u&gt;&lt;b&gt;i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ndentured&lt;/b&gt; laborer&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is an employee within a system of unfree labor who is bound by a signed or forced contract (indenture) to work without pay for the owner of the indenture for a period of time, now considered a form a slavery. </t>
+    </r>
+  </si>
+  <si>
+    <t>Contracts were written in full identical versions on a sheet of parchment, which was then cut apart in a zigzag, or "notched" line. Each party took one, and the genuineness of a document of indenture could be proved by laying it beside its counterpart.</t>
+  </si>
+  <si>
+    <t>1. contract binding one party into the service of another for a specified term&lt;/br&gt; 2. indentation, dent</t>
+  </si>
+  <si>
+    <t>indenture</t>
+  </si>
+  <si>
+    <t>1. As the population ages, there is a growing market for diapers for &lt;b&gt;incontinent&lt;/b&gt; seniors&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>Latin: in- "not"  +  contain "to hold" + -ent"state of"=&gt;to not be able to hold together, ie. Not restrain oneself</t>
+  </si>
+  <si>
+    <t>lacking self-restraint; lacking sexual restraint; unchaste</t>
+  </si>
+  <si>
+    <t>incontinent</t>
+  </si>
+  <si>
+    <r>
+      <t>He was so &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>incensed&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> that he told people he was considering resigning over the matter</t>
+    </r>
+  </si>
+  <si>
+    <t>Same Latin word root as "incendiary", ie. Put on fire, here figuratively&lt;/br&gt;incense, noun, is burned in church</t>
+  </si>
+  <si>
+    <t>cause to be extremely angry; set on fire; cause to burn; inflame; make hot or eager</t>
+  </si>
+  <si>
+    <t>incense</t>
+  </si>
+  <si>
+    <t>1a. It is difficult to buy an &lt;b&gt;incandescent&lt;/b&gt; lightbulb these days. &lt;/br&gt;1b. The &lt;b&gt;incandescent&lt;/b&gt; flies would light up the night&lt;/br&gt;2. He gave an &lt;b&gt;incandescent&lt;/b&gt; performance at the show last night</t>
+  </si>
+  <si>
+    <t>Latin: in- "within"  +  candere "to glow, to shine"=&gt;to glow from within&lt;/br&gt;candere has same root as  candle&lt;/br&gt;Syn1: glow&lt;/b&gt;Syn2: glorious</t>
+  </si>
+  <si>
+    <t>1. strikingly bright; shining with intense heat,  emitting light as result of being heated&lt;/br&gt;2. characterized by ardent emotion or intensity or brilliance</t>
+  </si>
+  <si>
+    <t>incandescent</t>
+  </si>
+  <si>
+    <t>1a. People&lt;b&gt; impute&lt;/b&gt; great cleverness to cats&lt;/br&gt;1b. The teacher &lt;b&gt;imputed&lt;/b&gt; the student's failure to his nervousness</t>
+  </si>
+  <si>
+    <t>Syn: ascribe, assign, attribute</t>
+  </si>
+  <si>
+    <t>1. attribute or credit to&lt;/br&gt;2. lay responsibility or blame for, often unjustly</t>
+  </si>
+  <si>
+    <t>impute</t>
+  </si>
+  <si>
+    <t>inexorable</t>
+  </si>
+  <si>
+    <t>not capable of being swayed; unyielding; implacable</t>
+  </si>
+  <si>
+    <t>Syn:    grim, relentless, stern, unappeasable, unforgiving, unrelenting, stubborn, unyielding, unstoppable</t>
+  </si>
+  <si>
+    <t>The Iron Lady, Margaret Thatcher, was &lt;b&gt;inexorable: "This lady is not for turning", she said on becoming PM &lt;/br&gt;The USA's &lt;b&gt;inexorable&lt;/b&gt; demographic change — a majority of Americans will be people of color by 2045— is a threat to the Republicans&lt;/br&gt;an &lt;b&gt;inexorable&lt;/b&gt; monotony</t>
+  </si>
+  <si>
+    <t>infirmity</t>
+  </si>
+  <si>
+    <t>weakness; bodily ailment or weakness, especially one brought on by old age</t>
+  </si>
+  <si>
+    <t>Syn: frailness, weakness, debility, feebleness, frailty, valetudinarianism&lt;/br&gt;used on its own=physical frailty</t>
+  </si>
+  <si>
+    <t>1a. Because of her &lt;b&gt;infirmity&lt;/b&gt;, she often ended up being seen by doctors at the infirmary&lt;br/&gt;1b. His mental &lt;b&gt;infirmity&lt;/b&gt; was caused by an early onset of Alzheimer's disease.</t>
+  </si>
+  <si>
+    <t>1. Doctors often &lt;b&gt;infuse&lt;/b&gt; medicine into the veins of patients to ensure absoprtion&lt;/br&gt;2. The mint tea is still &lt;b&gt;infusing&lt;/b&gt;&lt;/br&gt;3. After the pep talk, the sales manager &lt;b&gt;infused&lt;.b&gt; the team with confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latin:  infusus= "to pour into"&lt;/br&gt;Syn1: &lt;/br&gt;Syn2: &lt;/br&gt;Syn3: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) introduce into the body through a vein&lt;/br&gt;2.  undergo the process of infusion&lt;/br&gt;3. to cause to be permeated with something (such as a principle or quality) that alters usually for the better </t>
+  </si>
+  <si>
+    <t>infuse</t>
+  </si>
+  <si>
+    <t>ingenue</t>
+  </si>
+  <si>
+    <t>an innocent, unsophisticated, naive young woman - often a role in a play or film</t>
+  </si>
+  <si>
+    <t>French word for ingenuous (nr. 435), here as a noun and female because ends with an "e"</t>
+  </si>
+  <si>
+    <t>Ophelia, Snow White, and Sandy from the movie "Grease" are all &lt;b&gt;ingénues&lt;/b&gt;, ie.  a young female character in literature or film who is wholesome and innocent.</t>
+  </si>
+  <si>
+    <t>ingratiate</t>
+  </si>
+  <si>
+    <t>to gain favor or favorable acceptance for by deliberate efforts; make agreeable or acceptable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Latin:  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>in-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> +  gratia= "grace" or "favor"=&gt;get in favour </t>
+    </r>
+  </si>
+  <si>
+    <t>The new businessmen did all to &lt;u&gt;&lt;b&gt;ingratiate&lt;/b&gt; themselves with&lt;/u&gt; the community leaders</t>
+  </si>
+  <si>
+    <t>iniquitous</t>
+  </si>
+  <si>
+    <t>wicked or sinful; immoral; unrighteous</t>
+  </si>
+  <si>
+    <t>Syn:  evil, immoral, nefarious, rotten, sinful, unethical, unlawful, unrighteous, unsavory, vicious, vile, villainous, wicked</t>
+  </si>
+  <si>
+    <r>
+      <t>The movie business is corrupt, depraved and &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>iniquitous&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> — and still morally superior to some political parties.</t>
+    </r>
+  </si>
+  <si>
+    <t>iniquity</t>
+  </si>
+  <si>
+    <t>absence of, or deviation from, just dealing; want of rectitude or uprightness; gross injustice; unrighteousness; wickedness</t>
+  </si>
+  <si>
+    <r>
+      <t>Illegal narcotics is not only a destroyer of personal health but also an &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>iniquity&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> that undermines our society</t>
+    </r>
+  </si>
+  <si>
+    <t>inordinate</t>
+  </si>
+  <si>
+    <t>exceeding reasonable limits; excessive; not regulated; disorderly</t>
+  </si>
+  <si>
+    <t>Syn: excessive, undue, unreasonable</t>
+  </si>
+  <si>
+    <t>I was never a fan of Charles Dickens' novels, as I found the 1200 pages to be of &lt;b&gt;inordinate&lt;/b&gt; length</t>
   </si>
 </sst>
 </file>
@@ -19345,7 +19603,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -19999,18 +20317,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1621" totalsRowShown="0">
-  <autoFilter ref="A1:H1621"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1634" totalsRowShown="0">
+  <autoFilter ref="A1:H1634"/>
   <sortState ref="A2:H1709">
     <sortCondition ref="A1:A1709"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3" dataDxfId="59"/>
+    <tableColumn id="3" name="Column3" dataDxfId="65"/>
     <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5" dataDxfId="58"/>
-    <tableColumn id="6" name="Column6" dataDxfId="57"/>
+    <tableColumn id="5" name="Column5" dataDxfId="64"/>
+    <tableColumn id="6" name="Column6" dataDxfId="63"/>
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
   </tableColumns>
@@ -20282,10 +20600,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1621"/>
+  <dimension ref="A1:K1634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1610" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L1610" sqref="L1610"/>
+    <sheetView tabSelected="1" topLeftCell="A1610" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B1614" sqref="B1614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -60494,390 +60812,726 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="1607" spans="1:8" ht="26.5" customHeight="1">
-      <c r="A1607" s="13">
+    <row r="1607" spans="1:8" s="11" customFormat="1" ht="37.5">
+      <c r="A1607" s="10">
+        <v>1606</v>
+      </c>
+      <c r="B1607" s="10" t="s">
+        <v>6013</v>
+      </c>
+      <c r="C1607" s="10" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D1607" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E1607" s="10" t="s">
+        <v>6011</v>
+      </c>
+      <c r="F1607" s="10" t="s">
+        <v>6010</v>
+      </c>
+      <c r="G1607" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1607" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" s="11" customFormat="1" ht="62.5">
+      <c r="A1608" s="10">
+        <v>1607</v>
+      </c>
+      <c r="B1608" s="10" t="s">
+        <v>6009</v>
+      </c>
+      <c r="C1608" s="10" t="s">
+        <v>6008</v>
+      </c>
+      <c r="D1608" s="10" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E1608" s="10" t="s">
+        <v>6007</v>
+      </c>
+      <c r="F1608" s="10" t="s">
+        <v>6006</v>
+      </c>
+      <c r="G1608" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1608" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" s="11" customFormat="1" ht="37.5">
+      <c r="A1609" s="10">
+        <v>1608</v>
+      </c>
+      <c r="B1609" s="10" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C1609" s="10" t="s">
+        <v>6004</v>
+      </c>
+      <c r="D1609" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E1609" s="10" t="s">
+        <v>6003</v>
+      </c>
+      <c r="F1609" s="1" t="s">
+        <v>6002</v>
+      </c>
+      <c r="G1609" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1609" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" s="11" customFormat="1" ht="37.5">
+      <c r="A1610" s="10">
+        <v>1609</v>
+      </c>
+      <c r="B1610" s="10" t="s">
+        <v>6001</v>
+      </c>
+      <c r="C1610" s="10" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D1610" s="10" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E1610" s="10" t="s">
+        <v>5999</v>
+      </c>
+      <c r="F1610" s="10" t="s">
+        <v>5998</v>
+      </c>
+      <c r="G1610" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1610" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:8" s="11" customFormat="1" ht="89" customHeight="1">
+      <c r="A1611" s="10">
+        <v>1610</v>
+      </c>
+      <c r="B1611" s="10" t="s">
+        <v>5997</v>
+      </c>
+      <c r="C1611" s="10" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D1611" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E1611" s="1" t="s">
+        <v>5995</v>
+      </c>
+      <c r="F1611" s="1" t="s">
+        <v>5994</v>
+      </c>
+      <c r="G1611" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1611" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:8" s="11" customFormat="1" ht="87.5">
+      <c r="A1612" s="10">
+        <v>1611</v>
+      </c>
+      <c r="B1612" s="10" t="s">
+        <v>6014</v>
+      </c>
+      <c r="C1612" s="10" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D1612" s="10" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E1612" s="10" t="s">
+        <v>6016</v>
+      </c>
+      <c r="F1612" s="10" t="s">
+        <v>6017</v>
+      </c>
+      <c r="G1612" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1612" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" s="11" customFormat="1" ht="50">
+      <c r="A1613" s="10">
+        <v>1612</v>
+      </c>
+      <c r="B1613" s="10" t="s">
+        <v>6018</v>
+      </c>
+      <c r="C1613" s="10" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D1613" s="10" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E1613" s="10" t="s">
+        <v>6020</v>
+      </c>
+      <c r="F1613" s="10" t="s">
+        <v>6021</v>
+      </c>
+      <c r="G1613" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1613" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" s="11" customFormat="1" ht="62.5">
+      <c r="A1614" s="11">
+        <v>1613</v>
+      </c>
+      <c r="B1614" s="10" t="s">
+        <v>6025</v>
+      </c>
+      <c r="C1614" s="10" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D1614" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E1614" s="1" t="s">
+        <v>6023</v>
+      </c>
+      <c r="F1614" s="10" t="s">
+        <v>6022</v>
+      </c>
+      <c r="G1614" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1614" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" s="11" customFormat="1" ht="50">
+      <c r="A1615" s="10">
+        <v>1614</v>
+      </c>
+      <c r="B1615" s="10" t="s">
+        <v>6026</v>
+      </c>
+      <c r="C1615" s="10" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D1615" s="10" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E1615" s="10" t="s">
+        <v>6028</v>
+      </c>
+      <c r="F1615" s="10" t="s">
+        <v>6029</v>
+      </c>
+      <c r="G1615" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1615" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" s="11" customFormat="1" ht="13">
+      <c r="A1616" s="10">
+        <v>1615</v>
+      </c>
+      <c r="B1616" s="10" t="s">
+        <v>6030</v>
+      </c>
+      <c r="C1616" s="10" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D1616" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>6032</v>
+      </c>
+      <c r="F1616" t="s">
+        <v>6033</v>
+      </c>
+      <c r="G1616" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1616" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" s="11" customFormat="1" ht="38">
+      <c r="A1617" s="10">
+        <v>1616</v>
+      </c>
+      <c r="B1617" s="10" t="s">
+        <v>6034</v>
+      </c>
+      <c r="C1617" s="10" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D1617" s="10" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E1617" s="10" t="s">
+        <v>6036</v>
+      </c>
+      <c r="F1617" s="1" t="s">
+        <v>6037</v>
+      </c>
+      <c r="G1617" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1617" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" s="11" customFormat="1" ht="25.5">
+      <c r="A1618" s="10">
+        <v>1617</v>
+      </c>
+      <c r="B1618" s="10" t="s">
+        <v>6038</v>
+      </c>
+      <c r="C1618" s="10" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D1618" s="10" t="s">
+        <v>2950</v>
+      </c>
+      <c r="E1618" s="10"/>
+      <c r="F1618" t="s">
+        <v>6040</v>
+      </c>
+      <c r="G1618" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1618" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" s="11" customFormat="1" ht="37.5">
+      <c r="A1619" s="10">
+        <v>1618</v>
+      </c>
+      <c r="B1619" s="10" t="s">
+        <v>6041</v>
+      </c>
+      <c r="C1619" s="10" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D1619" s="10" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E1619" s="10" t="s">
+        <v>6043</v>
+      </c>
+      <c r="F1619" s="10" t="s">
+        <v>6044</v>
+      </c>
+      <c r="G1619" s="10" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H1619" s="10" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A1620" s="13">
         <v>1661</v>
       </c>
-      <c r="B1607" s="1" t="s">
+      <c r="B1620" s="1" t="s">
         <v>4634</v>
       </c>
-      <c r="C1607" s="1" t="s">
+      <c r="C1620" s="1" t="s">
         <v>4633</v>
       </c>
-      <c r="D1607" s="1" t="s">
+      <c r="D1620" s="1" t="s">
         <v>4792</v>
       </c>
-      <c r="E1607" s="1" t="s">
+      <c r="E1620" s="1" t="s">
         <v>5628</v>
       </c>
-      <c r="F1607" s="1" t="s">
+      <c r="F1620" s="1" t="s">
         <v>5629</v>
       </c>
-      <c r="G1607" s="1" t="s">
+      <c r="G1620" s="1" t="s">
         <v>3837</v>
       </c>
-      <c r="H1607" s="1" t="s">
+      <c r="H1620" s="1" t="s">
         <v>2748</v>
       </c>
     </row>
-    <row r="1608" spans="1:8" ht="50">
-      <c r="A1608" s="1">
+    <row r="1621" spans="1:8" ht="50">
+      <c r="A1621" s="1">
         <v>1662</v>
       </c>
-      <c r="B1608" s="1" t="s">
+      <c r="B1621" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="C1608" s="1" t="s">
+      <c r="C1621" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="D1608" s="1" t="s">
+      <c r="D1621" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="E1608" s="1" t="s">
+      <c r="E1621" s="1" t="s">
         <v>5630</v>
       </c>
-      <c r="F1608" s="1" t="s">
+      <c r="F1621" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="G1608" s="1" t="s">
+      <c r="G1621" s="1" t="s">
         <v>3837</v>
       </c>
-      <c r="H1608" s="1" t="s">
+      <c r="H1621" s="1" t="s">
         <v>2748</v>
       </c>
     </row>
-    <row r="1609" spans="1:8" ht="37.5">
-      <c r="A1609" s="1">
+    <row r="1622" spans="1:8" ht="37.5">
+      <c r="A1622" s="1">
         <v>1663</v>
       </c>
-      <c r="B1609" s="1" t="s">
+      <c r="B1622" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="C1609" s="1" t="s">
+      <c r="C1622" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="D1609" s="1" t="s">
+      <c r="D1622" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1609" s="1" t="s">
+      <c r="E1622" s="1" t="s">
         <v>4469</v>
       </c>
-      <c r="F1609" s="1" t="s">
+      <c r="F1622" s="1" t="s">
         <v>5631</v>
       </c>
-      <c r="G1609" s="1" t="s">
+      <c r="G1622" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="H1609" s="1" t="s">
+      <c r="H1622" s="1" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="1610" spans="1:8" ht="50">
-      <c r="A1610" s="1">
+    <row r="1623" spans="1:8" ht="50">
+      <c r="A1623" s="1">
         <v>1664</v>
       </c>
-      <c r="B1610" s="1" t="s">
+      <c r="B1623" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="C1610" s="1" t="s">
+      <c r="C1623" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="D1610" s="1" t="s">
+      <c r="D1623" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1610" s="1" t="s">
+      <c r="E1623" s="1" t="s">
         <v>4777</v>
       </c>
-      <c r="F1610" s="1" t="s">
+      <c r="F1623" s="1" t="s">
         <v>3867</v>
       </c>
-      <c r="G1610" s="1" t="s">
+      <c r="G1623" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="H1610" s="1" t="s">
+      <c r="H1623" s="1" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="1611" spans="1:8" ht="37.5">
-      <c r="A1611" s="1">
+    <row r="1624" spans="1:8" ht="37.5">
+      <c r="A1624" s="1">
         <v>1665</v>
       </c>
-      <c r="B1611" s="1" t="s">
+      <c r="B1624" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="C1611" s="1" t="s">
+      <c r="C1624" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="D1611" s="1" t="s">
+      <c r="D1624" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1611" s="1" t="s">
+      <c r="E1624" s="1" t="s">
         <v>4470</v>
       </c>
-      <c r="F1611" s="1" t="s">
+      <c r="F1624" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="G1611" s="1" t="s">
+      <c r="G1624" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="H1611" s="1" t="s">
+      <c r="H1624" s="1" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="1612" spans="1:8" ht="25">
-      <c r="A1612" s="1">
+    <row r="1625" spans="1:8" ht="25">
+      <c r="A1625" s="1">
         <v>1666</v>
       </c>
-      <c r="B1612" s="1" t="s">
+      <c r="B1625" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="C1612" s="1" t="s">
+      <c r="C1625" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="D1612" s="1" t="s">
+      <c r="D1625" s="1" t="s">
         <v>4792</v>
       </c>
-      <c r="E1612" s="1" t="s">
+      <c r="E1625" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="F1612" s="1" t="s">
+      <c r="F1625" s="1" t="s">
         <v>3417</v>
       </c>
-      <c r="G1612" s="1" t="s">
+      <c r="G1625" s="1" t="s">
         <v>3837</v>
       </c>
-      <c r="H1612" s="1" t="s">
+      <c r="H1625" s="1" t="s">
         <v>2748</v>
       </c>
     </row>
-    <row r="1613" spans="1:8" ht="37.5">
-      <c r="A1613" s="1">
+    <row r="1626" spans="1:8" ht="37.5">
+      <c r="A1626" s="1">
         <v>1667</v>
       </c>
-      <c r="B1613" s="1" t="s">
+      <c r="B1626" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="C1613" s="1" t="s">
+      <c r="C1626" s="1" t="s">
         <v>4778</v>
       </c>
-      <c r="D1613" s="1" t="s">
+      <c r="D1626" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1613" s="1" t="s">
+      <c r="E1626" s="1" t="s">
         <v>3935</v>
       </c>
-      <c r="F1613" s="1" t="s">
+      <c r="F1626" s="1" t="s">
         <v>5632</v>
       </c>
-      <c r="G1613" s="1" t="s">
+      <c r="G1626" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="H1613" s="1" t="s">
+      <c r="H1626" s="1" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="1614" spans="1:8" ht="50">
-      <c r="A1614" s="1">
+    <row r="1627" spans="1:8" ht="50">
+      <c r="A1627" s="1">
         <v>1668</v>
       </c>
-      <c r="B1614" s="1" t="s">
+      <c r="B1627" s="1" t="s">
         <v>4636</v>
       </c>
-      <c r="C1614" s="1" t="s">
+      <c r="C1627" s="1" t="s">
         <v>4635</v>
       </c>
-      <c r="D1614" s="1" t="s">
+      <c r="D1627" s="1" t="s">
         <v>2950</v>
       </c>
-      <c r="E1614" s="1" t="s">
+      <c r="E1627" s="1" t="s">
         <v>5633</v>
       </c>
-      <c r="F1614" t="s">
+      <c r="F1627" t="s">
         <v>5634</v>
       </c>
-      <c r="G1614" s="1" t="s">
+      <c r="G1627" s="1" t="s">
         <v>3837</v>
       </c>
-      <c r="H1614" s="1" t="s">
+      <c r="H1627" s="1" t="s">
         <v>2748</v>
       </c>
     </row>
-    <row r="1615" spans="1:8" ht="37.5">
-      <c r="A1615" s="1">
+    <row r="1628" spans="1:8" ht="37.5">
+      <c r="A1628" s="1">
         <v>1669</v>
       </c>
-      <c r="B1615" s="1" t="s">
+      <c r="B1628" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="C1615" s="1" t="s">
+      <c r="C1628" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="D1615" s="1" t="s">
+      <c r="D1628" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1615" s="1" t="s">
+      <c r="E1628" s="1" t="s">
         <v>5635</v>
       </c>
-      <c r="F1615" s="1" t="s">
+      <c r="F1628" s="1" t="s">
         <v>5636</v>
       </c>
-      <c r="G1615" s="1" t="s">
+      <c r="G1628" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="H1615" s="1" t="s">
+      <c r="H1628" s="1" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="1616" spans="1:8" ht="37.5">
-      <c r="A1616" s="1">
+    <row r="1629" spans="1:8" ht="37.5">
+      <c r="A1629" s="1">
         <v>1670</v>
       </c>
-      <c r="B1616" s="1" t="s">
+      <c r="B1629" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="C1616" s="1" t="s">
+      <c r="C1629" s="1" t="s">
         <v>5637</v>
       </c>
-      <c r="D1616" s="1" t="s">
+      <c r="D1629" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1616" s="1" t="s">
+      <c r="F1629" s="1" t="s">
         <v>3765</v>
       </c>
-      <c r="G1616" s="1" t="s">
+      <c r="G1629" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="H1616" s="1" t="s">
+      <c r="H1629" s="1" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="1617" spans="1:8" ht="37.5">
-      <c r="A1617" s="1">
+    <row r="1630" spans="1:8" ht="37.5">
+      <c r="A1630" s="1">
         <v>1671</v>
       </c>
-      <c r="B1617" s="1" t="s">
+      <c r="B1630" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="C1617" s="1" t="s">
+      <c r="C1630" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="D1617" s="1" t="s">
+      <c r="D1630" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1617" s="1" t="s">
+      <c r="E1630" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="F1617" s="1" t="s">
+      <c r="F1630" s="1" t="s">
         <v>3271</v>
       </c>
-      <c r="G1617" s="1" t="s">
+      <c r="G1630" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="H1617" s="1" t="s">
+      <c r="H1630" s="1" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="1618" spans="1:8" ht="87.5">
-      <c r="A1618" s="1">
+    <row r="1631" spans="1:8" ht="87.5">
+      <c r="A1631" s="1">
         <v>1672</v>
       </c>
-      <c r="B1618" s="1" t="s">
+      <c r="B1631" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="C1618" s="1" t="s">
+      <c r="C1631" s="1" t="s">
         <v>3775</v>
       </c>
-      <c r="D1618" s="1" t="s">
+      <c r="D1631" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1618" s="1" t="s">
+      <c r="E1631" s="1" t="s">
         <v>4471</v>
       </c>
-      <c r="F1618" s="1" t="s">
+      <c r="F1631" s="1" t="s">
         <v>5638</v>
       </c>
-      <c r="G1618" s="1" t="s">
+      <c r="G1631" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="H1618" s="1" t="s">
+      <c r="H1631" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1619" spans="1:8" ht="37.5">
-      <c r="A1619" s="1">
+    <row r="1632" spans="1:8" ht="37.5">
+      <c r="A1632" s="1">
         <v>1673</v>
       </c>
-      <c r="B1619" s="1" t="s">
+      <c r="B1632" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="C1619" s="1" t="s">
+      <c r="C1632" s="1" t="s">
         <v>5639</v>
       </c>
-      <c r="D1619" s="1" t="s">
+      <c r="D1632" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1619" s="1" t="s">
+      <c r="E1632" s="1" t="s">
         <v>5640</v>
       </c>
-      <c r="F1619" s="1" t="s">
+      <c r="F1632" s="1" t="s">
         <v>5641</v>
       </c>
-      <c r="G1619" s="1" t="s">
+      <c r="G1632" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="H1619" s="1" t="s">
+      <c r="H1632" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1620" spans="1:8" ht="38">
-      <c r="A1620" s="1">
+    <row r="1633" spans="1:8" ht="38">
+      <c r="A1633" s="1">
         <v>1674</v>
       </c>
-      <c r="B1620" s="1" t="s">
+      <c r="B1633" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="C1620" s="1" t="s">
+      <c r="C1633" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="D1620" s="1" t="s">
+      <c r="D1633" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1620" s="1" t="s">
+      <c r="E1633" s="1" t="s">
         <v>4779</v>
       </c>
-      <c r="F1620" s="1" t="s">
+      <c r="F1633" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="G1620" s="1" t="s">
+      <c r="G1633" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="H1620" s="1" t="s">
+      <c r="H1633" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="1621" spans="1:8" ht="62.5">
-      <c r="A1621" s="1">
+    <row r="1634" spans="1:8" ht="62.5">
+      <c r="A1634" s="1">
         <v>1675</v>
       </c>
-      <c r="B1621" s="1" t="s">
+      <c r="B1634" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="C1621" s="1" t="s">
+      <c r="C1634" s="1" t="s">
         <v>5642</v>
       </c>
-      <c r="D1621" s="1" t="s">
+      <c r="D1634" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1621" s="1" t="s">
+      <c r="E1634" s="1" t="s">
         <v>5643</v>
       </c>
-      <c r="F1621" s="1" t="s">
+      <c r="F1634" s="1" t="s">
         <v>5644</v>
       </c>
-      <c r="G1621" s="1" t="s">
+      <c r="G1634" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="H1621" s="1" t="s">
+      <c r="H1634" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -60886,168 +61540,183 @@
     <sortCondition ref="B1:B1487"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="B1622:B1048576 B3:B28">
-    <cfRule type="duplicateValues" dxfId="54" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="104"/>
+  <conditionalFormatting sqref="B1635:B1048576 B3:B28">
+    <cfRule type="duplicateValues" dxfId="60" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="109"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1622:A1048576 A1:A28">
-    <cfRule type="duplicateValues" dxfId="52" priority="81"/>
+  <conditionalFormatting sqref="A1635:A1048576 A1:A28">
+    <cfRule type="duplicateValues" dxfId="58" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="duplicateValues" dxfId="51" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A975:A1067">
-    <cfRule type="duplicateValues" dxfId="50" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A975:A1067">
-    <cfRule type="duplicateValues" dxfId="49" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1068:A1262">
-    <cfRule type="duplicateValues" dxfId="48" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1263:A1264">
-    <cfRule type="duplicateValues" dxfId="47" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1263:A1264">
-    <cfRule type="duplicateValues" dxfId="46" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1391 A1416:A1418 A1393:A1412">
-    <cfRule type="duplicateValues" dxfId="45" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1413:A1415">
-    <cfRule type="duplicateValues" dxfId="44" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A906 A908:A974">
-    <cfRule type="duplicateValues" dxfId="43" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1422">
-    <cfRule type="duplicateValues" dxfId="42" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1392">
-    <cfRule type="duplicateValues" dxfId="41" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1392">
-    <cfRule type="duplicateValues" dxfId="40" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1423">
-    <cfRule type="duplicateValues" dxfId="39" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1519">
-    <cfRule type="duplicateValues" dxfId="38" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A907">
-    <cfRule type="duplicateValues" dxfId="37" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B907">
-    <cfRule type="duplicateValues" dxfId="36" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1426:B1430">
-    <cfRule type="duplicateValues" dxfId="35" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1431">
-    <cfRule type="duplicateValues" dxfId="34" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1433:B1435">
-    <cfRule type="duplicateValues" dxfId="33" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1438:B1440">
-    <cfRule type="duplicateValues" dxfId="32" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1510">
-    <cfRule type="duplicateValues" dxfId="31" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1523">
-    <cfRule type="duplicateValues" dxfId="30" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1529">
-    <cfRule type="duplicateValues" dxfId="29" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1539">
-    <cfRule type="duplicateValues" dxfId="28" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1288:A1369">
-    <cfRule type="duplicateValues" dxfId="27" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1436">
-    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1562:B1566">
-    <cfRule type="duplicateValues" dxfId="25" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1068:A1262 A1265:A1287 A1370:A1390 A1419:A1573">
-    <cfRule type="duplicateValues" dxfId="24" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1520:B1522 B2:B906 B1424:B1425 B1393:B1421 B908:B1391 B1432 B1437 B1511:B1518 B1524:B1528 B1530:B1538 B1540:B1561 B1441:B1509">
-    <cfRule type="duplicateValues" dxfId="23" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="238"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1607:B1621">
-    <cfRule type="duplicateValues" dxfId="22" priority="250"/>
+  <conditionalFormatting sqref="B1620:B1634">
+    <cfRule type="duplicateValues" dxfId="28" priority="255"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1607:A1621">
-    <cfRule type="duplicateValues" dxfId="21" priority="251"/>
+  <conditionalFormatting sqref="A1620:A1634">
+    <cfRule type="duplicateValues" dxfId="27" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1567:B1573">
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1574">
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1574">
+    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1575:B1579">
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1575:A1579">
+    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1580:B1583">
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1580:A1583">
     <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1574">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1574">
-    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1575:B1579">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1575:A1579">
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1580:B1583">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1580:A1583">
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1584:B1585">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1586">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1587:C1595">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1587:B1595">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1596:B1599">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1596:A1599">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1587:B1595">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1587:A1595">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1584:A1595 A1600:A1603">
-    <cfRule type="duplicateValues" dxfId="5" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1600:C1601">
-    <cfRule type="duplicateValues" dxfId="4" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1600:B1601">
-    <cfRule type="duplicateValues" dxfId="3" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1600:A1603">
-    <cfRule type="duplicateValues" dxfId="2" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1602">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1604:B1606">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1607:B1611">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1612:B1613">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1614">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1615:B1616">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1617:B1619">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F781" r:id="rId1" tooltip="Origin and meaning of bryophyte" display="https://www.etymonline.com/word/bryophyte"/>

--- a/GRE-Vocab_trainer.xlsx
+++ b/GRE-Vocab_trainer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11575" uniqueCount="6418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11650" uniqueCount="6462">
   <si>
     <t xml:space="preserve">noun </t>
   </si>
@@ -21560,6 +21560,180 @@
   </si>
   <si>
     <t>brobdingnagian</t>
+  </si>
+  <si>
+    <t>1a. He gave the applicant a &lt;b&gt;cursory&lt;/b&gt; glance and already turned her down in his mind&lt;/br&gt;1b. Only a &lt;b&gt;cursory&lt;/b&gt; inspection of the building was done - resulting in a large under-estimate of the repairs needing to be done.</t>
+  </si>
+  <si>
+    <t>From French via Latin: pp of currore= running &lt;/br&gt;Syn: hasty</t>
+  </si>
+  <si>
+    <t>quick; hurried</t>
+  </si>
+  <si>
+    <t>cursory</t>
+  </si>
+  <si>
+    <t>While you don't have to wear black to a funeral, but  showing up in clown pants is simply &lt;b&gt;crass.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>ähnlich (aber nicht identisch) wie "Krass" auf Deutsch</t>
+  </si>
+  <si>
+    <t>adj,</t>
+  </si>
+  <si>
+    <t>stupid, vulgar, insensitive, without refinement or sensitivity; gross.</t>
+  </si>
+  <si>
+    <t>crass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to   &lt;b&gt;countervail&lt;/b&gt; the storm’s effect of flooding the area, the authorities built levees to hold the waters back. </t>
+  </si>
+  <si>
+    <t>counter=rebut + vail=value=&gt;rebut or resist with equal force/value</t>
+  </si>
+  <si>
+    <t>to counter something with equal force so as to succesffully offset or mitigate its effect</t>
+  </si>
+  <si>
+    <t>countervail</t>
+  </si>
+  <si>
+    <t>1a. The photograph showed his somber &lt;b&gt;countenance&lt;/b&gt;&lt;/br&gt;1b. He managed to keep his &lt;b&gt;countenance&lt;/b&gt; through the ordeal.&lt;/br&gt;2. He was surprised at her &lt;b&gt;countenance&lt;/b&gt; of their unsafe amusements</t>
+  </si>
+  <si>
+    <t>Old French contenance "demeanor, bearing, conduct,"</t>
+  </si>
+  <si>
+    <t>adj, verb</t>
+  </si>
+  <si>
+    <t>1. the appearance conveyed by a person's face, thus also their composure - often understood to be calm&lt;/br&gt;2. to favor or approve of</t>
+  </si>
+  <si>
+    <t>countenance</t>
+  </si>
+  <si>
+    <t>1a. He had a  classic car from the 1950s, replete with yards of &lt;b&gt;coruscating&lt;/b&gt; chrome &lt;/br&gt;1b. The little mirrors on a disco ball &lt;b&gt;coruscate&lt;/b&gt; as the ball twirls, making the dance floor sparkle.&lt;/bb&gt;1c. His playing &lt;b&gt;coruscated&lt;/b&gt; throughout the concert hall&lt;/br&gt;1d. The allegations threaten to curtail a &lt;b&gt;coruscating&lt;/b&gt; career.</t>
+  </si>
+  <si>
+    <t>From Latin : sparkle, emit flash of light</t>
+  </si>
+  <si>
+    <t>sparkle</t>
+  </si>
+  <si>
+    <t>coruscate</t>
+  </si>
+  <si>
+    <t>1a. She was warned that her &lt;b&gt;contumacious&lt;/b&gt; conduct would not be tolerated.&lt;/br&gt;1b. 1b. The judge threatened to charge the &lt;b&gt;contumacious&lt;/b&gt; witness with contempt of court</t>
+  </si>
+  <si>
+    <t>Latin : com-=with + tumere "to swell up"(some origin as "tumour")=&gt;to swell up, be rebellious</t>
+  </si>
+  <si>
+    <t>insubordinate,  rebellious</t>
+  </si>
+  <si>
+    <t>contumacious</t>
+  </si>
+  <si>
+    <r>
+      <t>Japan’s economy is heavily reliant on exports, so weak demand in major overseas markets is &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>constraining&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> its growth</t>
+    </r>
+  </si>
+  <si>
+    <t>hold back, restrict</t>
+  </si>
+  <si>
+    <t>constrain</t>
+  </si>
+  <si>
+    <r>
+      <t>1a. But gracious Prince, do not listen to these common people, to these &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>churls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.&lt;/b&gt;&lt;br&gt;1b. The grump man is a miserable &lt;b&gt;churl&lt;/b&gt; who is rude and surly at all times.</t>
+    </r>
+  </si>
+  <si>
+    <t>Same German root as "Kerl". &lt;/br&gt;Had various meanings in middle English, :  "man of the common people," "a country man," "husbandman," "free peasant. &lt;/br&gt;Like "boor" &amp; "villain", it is a word for "common man" that became insulting with time.</t>
+  </si>
+  <si>
+    <t>bad-tempered person</t>
+  </si>
+  <si>
+    <t>churl</t>
+  </si>
+  <si>
+    <t>1. Most get-rich-quick schemes involve more than a smidgen of &lt;b&gt;chicane&lt;/b&gt;&lt;/br&gt;2. The Le Mans circuit has &lt;b&gt;chicanes&lt;/b&gt; on the frontstretch to slow the cars , forcing the drivers to altenatively swing their steering wheels left and right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middle French  chicaner =  "to quibble" or "to prevent justice,"</t>
+  </si>
+  <si>
+    <t>1. deception, trickery&lt;/br&gt;2. a removable obstacle on a racecourse, eg.  a series of tight turns in opposite directions in an otherwise straight stretch of a road-racing course</t>
+  </si>
+  <si>
+    <t>Chicane</t>
+  </si>
+  <si>
+    <t>1. It was followed in quick succession by almost 20 vehicles that departed in a long &lt;b&gt;cavalcade&lt;/b&gt;.&lt;/br&gt;2. Despite  a &lt;b&gt;cavalcade&lt;/b&gt; of natural disasters, the country was able to recover</t>
+  </si>
+  <si>
+    <t>Same Latin root as "cavalry"</t>
+  </si>
+  <si>
+    <t>1. a procession, orginally of horses, now of any sort (eg. Motorcycles, cars, people, ships, etc.)&lt;/br&gt;2. a sequence, a series - often dramatic</t>
+  </si>
+  <si>
+    <t>cavalcade</t>
+  </si>
+  <si>
+    <t>1a. A team of volunteers is &lt;b&gt;canvassing&lt;/b&gt; the city for the Republican Party, going to every house.&lt;/br&gt;1b. In a normal year, many of these households’ information would be collected during census enumerators’ follow-up &lt;b&gt;canvass&lt;/b&gt;&lt;/br&gt;2. By the time the three states complete their &lt;b&gt;canvass&lt;/b&gt; of votes nearly a month after the election, the nation faces an astonishing result.</t>
+  </si>
+  <si>
+    <t>1a. to go through (a district) or go to (persons) in order to solicit orders or political support or &lt;/br&gt;1b. to determine opinions or sentiments &lt;/br&gt;2. consider in detail and subject to an analysis in order to discover essential features or meaning</t>
+  </si>
+  <si>
+    <t>canvass</t>
   </si>
 </sst>
 </file>
@@ -21662,6 +21836,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="95">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -22562,35 +22765,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -22673,10 +22847,10 @@
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3" dataDxfId="94"/>
+    <tableColumn id="3" name="Column3" dataDxfId="2"/>
     <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5" dataDxfId="93"/>
-    <tableColumn id="6" name="Column6" dataDxfId="92"/>
+    <tableColumn id="5" name="Column5" dataDxfId="1"/>
+    <tableColumn id="6" name="Column6" dataDxfId="0"/>
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
   </tableColumns>
@@ -22950,8 +23124,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K1772"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1726" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1730" sqref="F1730"/>
+    <sheetView tabSelected="1" topLeftCell="A1729" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1731" sqref="A1731:H1741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -63137,7 +63311,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="1606" spans="1:8" s="10" customFormat="1" ht="51">
+    <row r="1606" spans="1:8" s="10" customFormat="1" ht="52">
       <c r="A1606" s="9">
         <v>1605</v>
       </c>
@@ -63809,7 +63983,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="1632" spans="1:8" s="10" customFormat="1" ht="37.5">
+    <row r="1632" spans="1:8" s="10" customFormat="1" ht="25">
       <c r="A1632" s="9">
         <v>1631</v>
       </c>
@@ -66341,93 +66515,285 @@
         <v>6317</v>
       </c>
     </row>
-    <row r="1731" spans="1:8">
-      <c r="A1731" s="1"/>
-      <c r="B1731" s="1"/>
-      <c r="D1731" s="1"/>
-      <c r="F1731" s="1"/>
-      <c r="G1731" s="1"/>
-      <c r="H1731" s="1"/>
-    </row>
-    <row r="1732" spans="1:8">
-      <c r="A1732" s="1"/>
-      <c r="B1732" s="1"/>
-      <c r="D1732" s="1"/>
-      <c r="F1732" s="1"/>
-      <c r="G1732" s="1"/>
-      <c r="H1732" s="1"/>
-    </row>
-    <row r="1733" spans="1:8">
-      <c r="A1733" s="1"/>
-      <c r="B1733" s="1"/>
-      <c r="D1733" s="1"/>
-      <c r="F1733" s="1"/>
-      <c r="G1733" s="1"/>
-      <c r="H1733" s="1"/>
-    </row>
-    <row r="1734" spans="1:8">
-      <c r="A1734" s="1"/>
-      <c r="B1734" s="1"/>
-      <c r="D1734" s="1"/>
-      <c r="F1734" s="1"/>
-      <c r="G1734" s="1"/>
-      <c r="H1734" s="1"/>
-    </row>
-    <row r="1735" spans="1:8">
-      <c r="A1735" s="1"/>
-      <c r="B1735" s="1"/>
-      <c r="D1735" s="1"/>
-      <c r="F1735" s="1"/>
-      <c r="G1735" s="1"/>
-      <c r="H1735" s="1"/>
+    <row r="1731" spans="1:8" ht="112.5">
+      <c r="A1731" s="1">
+        <v>1730</v>
+      </c>
+      <c r="B1731" s="1" t="s">
+        <v>6461</v>
+      </c>
+      <c r="C1731" s="1" t="s">
+        <v>6460</v>
+      </c>
+      <c r="D1731" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1731" s="1" t="s">
+        <v>6459</v>
+      </c>
+      <c r="G1731" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1731" s="1" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:8" ht="62.5">
+      <c r="A1732" s="1">
+        <v>1731</v>
+      </c>
+      <c r="B1732" s="1" t="s">
+        <v>6458</v>
+      </c>
+      <c r="C1732" s="1" t="s">
+        <v>6457</v>
+      </c>
+      <c r="D1732" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1732" s="1" t="s">
+        <v>6456</v>
+      </c>
+      <c r="F1732" s="1" t="s">
+        <v>6455</v>
+      </c>
+      <c r="G1732" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1732" s="1" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:8" ht="62.5">
+      <c r="A1733" s="1">
+        <v>1732</v>
+      </c>
+      <c r="B1733" s="1" t="s">
+        <v>6454</v>
+      </c>
+      <c r="C1733" s="1" t="s">
+        <v>6453</v>
+      </c>
+      <c r="D1733" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="E1733" s="1" t="s">
+        <v>6452</v>
+      </c>
+      <c r="F1733" s="1" t="s">
+        <v>6451</v>
+      </c>
+      <c r="G1733" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1733" s="1" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:8" ht="75">
+      <c r="A1734" s="1">
+        <v>1733</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>6450</v>
+      </c>
+      <c r="C1734" s="1" t="s">
+        <v>6449</v>
+      </c>
+      <c r="D1734" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1734" s="1" t="s">
+        <v>6448</v>
+      </c>
+      <c r="F1734" s="1" t="s">
+        <v>6447</v>
+      </c>
+      <c r="G1734" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1734" s="1" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:8" ht="13">
+      <c r="A1735" s="1">
+        <v>1734</v>
+      </c>
+      <c r="B1735" s="1" t="s">
+        <v>6446</v>
+      </c>
+      <c r="C1735" s="1" t="s">
+        <v>6445</v>
+      </c>
+      <c r="D1735" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>6444</v>
+      </c>
+      <c r="G1735" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1735" s="1" t="s">
+        <v>6317</v>
+      </c>
     </row>
     <row r="1736" spans="1:8">
-      <c r="A1736" s="1"/>
-      <c r="B1736" s="1"/>
-      <c r="D1736" s="1"/>
-      <c r="F1736" s="1"/>
-      <c r="G1736" s="1"/>
-      <c r="H1736" s="1"/>
-    </row>
-    <row r="1737" spans="1:8">
-      <c r="A1737" s="1"/>
-      <c r="B1737" s="1"/>
-      <c r="D1737" s="1"/>
-      <c r="F1737" s="1"/>
-      <c r="G1737" s="1"/>
-      <c r="H1737" s="1"/>
-    </row>
-    <row r="1738" spans="1:8">
-      <c r="A1738" s="1"/>
-      <c r="B1738" s="1"/>
-      <c r="D1738" s="1"/>
-      <c r="F1738" s="1"/>
-      <c r="G1738" s="1"/>
-      <c r="H1738" s="1"/>
-    </row>
-    <row r="1739" spans="1:8">
-      <c r="A1739" s="1"/>
-      <c r="B1739" s="1"/>
-      <c r="D1739" s="1"/>
-      <c r="F1739" s="1"/>
-      <c r="G1739" s="1"/>
-      <c r="H1739" s="1"/>
-    </row>
-    <row r="1740" spans="1:8">
-      <c r="A1740" s="1"/>
-      <c r="B1740" s="1"/>
-      <c r="D1740" s="1"/>
-      <c r="F1740" s="1"/>
-      <c r="G1740" s="1"/>
-      <c r="H1740" s="1"/>
-    </row>
-    <row r="1741" spans="1:8">
-      <c r="A1741" s="1"/>
-      <c r="B1741" s="1"/>
-      <c r="D1741" s="1"/>
-      <c r="F1741" s="1"/>
-      <c r="G1741" s="1"/>
-      <c r="H1741" s="1"/>
+      <c r="A1736" s="1">
+        <v>1735</v>
+      </c>
+      <c r="B1736" s="1" t="s">
+        <v>6443</v>
+      </c>
+      <c r="C1736" s="1" t="s">
+        <v>6442</v>
+      </c>
+      <c r="D1736" s="1" t="s">
+        <v>6424</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>6441</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>6440</v>
+      </c>
+      <c r="G1736" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1736" s="1" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:8" ht="87.5">
+      <c r="A1737" s="1">
+        <v>1736</v>
+      </c>
+      <c r="B1737" s="1" t="s">
+        <v>6439</v>
+      </c>
+      <c r="C1737" s="1" t="s">
+        <v>6438</v>
+      </c>
+      <c r="D1737" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1737" s="1" t="s">
+        <v>6437</v>
+      </c>
+      <c r="F1737" s="1" t="s">
+        <v>6436</v>
+      </c>
+      <c r="G1737" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1737" s="1" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:8" ht="62.5">
+      <c r="A1738" s="1">
+        <v>1737</v>
+      </c>
+      <c r="B1738" s="1" t="s">
+        <v>6435</v>
+      </c>
+      <c r="C1738" s="1" t="s">
+        <v>6434</v>
+      </c>
+      <c r="D1738" s="1" t="s">
+        <v>6433</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>6432</v>
+      </c>
+      <c r="F1738" s="1" t="s">
+        <v>6431</v>
+      </c>
+      <c r="G1738" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1738" s="1" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:8" ht="25">
+      <c r="A1739" s="1">
+        <v>1738</v>
+      </c>
+      <c r="B1739" s="1" t="s">
+        <v>6430</v>
+      </c>
+      <c r="C1739" s="1" t="s">
+        <v>6429</v>
+      </c>
+      <c r="D1739" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1739" s="1" t="s">
+        <v>6428</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>6427</v>
+      </c>
+      <c r="G1739" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1739" s="1" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:8" ht="25">
+      <c r="A1740" s="1">
+        <v>1739</v>
+      </c>
+      <c r="B1740" s="1" t="s">
+        <v>6426</v>
+      </c>
+      <c r="C1740" s="1" t="s">
+        <v>6425</v>
+      </c>
+      <c r="D1740" s="1" t="s">
+        <v>6424</v>
+      </c>
+      <c r="E1740" s="1" t="s">
+        <v>6423</v>
+      </c>
+      <c r="F1740" s="1" t="s">
+        <v>6422</v>
+      </c>
+      <c r="G1740" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1740" s="1" t="s">
+        <v>6317</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:8" ht="62.5">
+      <c r="A1741" s="1">
+        <v>1740</v>
+      </c>
+      <c r="B1741" s="1" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C1741" s="1" t="s">
+        <v>6420</v>
+      </c>
+      <c r="D1741" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1741" s="1" t="s">
+        <v>6419</v>
+      </c>
+      <c r="F1741" s="1" t="s">
+        <v>6418</v>
+      </c>
+      <c r="G1741" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H1741" s="1" t="s">
+        <v>6317</v>
+      </c>
     </row>
     <row r="1742" spans="1:8">
       <c r="A1742" s="1"/>
@@ -66678,272 +67044,278 @@
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="B1773:B1048576 B3:B28">
-    <cfRule type="duplicateValues" dxfId="89" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1773:A1048576 A1:A28">
-    <cfRule type="duplicateValues" dxfId="87" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A28">
-    <cfRule type="duplicateValues" dxfId="86" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A975:A1067">
-    <cfRule type="duplicateValues" dxfId="85" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A975:A1067">
-    <cfRule type="duplicateValues" dxfId="84" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1068:A1262">
-    <cfRule type="duplicateValues" dxfId="83" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1263:A1264">
-    <cfRule type="duplicateValues" dxfId="82" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1263:A1264">
-    <cfRule type="duplicateValues" dxfId="81" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1391 A1416:A1418 A1393:A1412">
-    <cfRule type="duplicateValues" dxfId="80" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1413:A1415">
-    <cfRule type="duplicateValues" dxfId="79" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A906 A908:A974">
-    <cfRule type="duplicateValues" dxfId="78" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1422">
-    <cfRule type="duplicateValues" dxfId="77" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1392">
-    <cfRule type="duplicateValues" dxfId="76" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1392">
-    <cfRule type="duplicateValues" dxfId="75" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1423">
-    <cfRule type="duplicateValues" dxfId="74" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1519">
-    <cfRule type="duplicateValues" dxfId="73" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A907">
-    <cfRule type="duplicateValues" dxfId="72" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B907">
-    <cfRule type="duplicateValues" dxfId="71" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1426:B1430">
-    <cfRule type="duplicateValues" dxfId="70" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1431">
-    <cfRule type="duplicateValues" dxfId="69" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1433:B1435">
-    <cfRule type="duplicateValues" dxfId="68" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1438:B1440">
-    <cfRule type="duplicateValues" dxfId="67" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1510">
-    <cfRule type="duplicateValues" dxfId="66" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1523">
-    <cfRule type="duplicateValues" dxfId="65" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1529">
-    <cfRule type="duplicateValues" dxfId="64" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1539">
-    <cfRule type="duplicateValues" dxfId="63" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1288:A1369">
-    <cfRule type="duplicateValues" dxfId="62" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="221"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1436">
-    <cfRule type="duplicateValues" dxfId="61" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1562:B1566">
-    <cfRule type="duplicateValues" dxfId="60" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1068:A1262 A1265:A1287 A1370:A1390 A1419:A1573">
-    <cfRule type="duplicateValues" dxfId="59" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1520:B1522 B2:B906 B1424:B1425 B1393:B1421 B908:B1391 B1432 B1437 B1511:B1518 B1524:B1528 B1530:B1538 B1540:B1561 B1441:B1509">
-    <cfRule type="duplicateValues" dxfId="58" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="272"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1662:B1676 B1731:B1771">
-    <cfRule type="duplicateValues" dxfId="57" priority="287"/>
+  <conditionalFormatting sqref="B1662:B1676 B1742:B1771">
+    <cfRule type="duplicateValues" dxfId="62" priority="289"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1662:A1676 A1731:A1771">
-    <cfRule type="duplicateValues" dxfId="56" priority="288"/>
+  <conditionalFormatting sqref="A1662:A1676 A1742:A1771">
+    <cfRule type="duplicateValues" dxfId="61" priority="290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1567:B1573">
-    <cfRule type="duplicateValues" dxfId="55" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1574">
-    <cfRule type="duplicateValues" dxfId="54" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1574">
-    <cfRule type="duplicateValues" dxfId="53" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1575:B1579">
-    <cfRule type="duplicateValues" dxfId="52" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1575:A1579">
-    <cfRule type="duplicateValues" dxfId="51" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1580:B1583">
-    <cfRule type="duplicateValues" dxfId="50" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1580:A1583">
-    <cfRule type="duplicateValues" dxfId="49" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1584:B1585">
-    <cfRule type="duplicateValues" dxfId="48" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1586">
-    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1587:C1595">
-    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1587:B1595">
-    <cfRule type="duplicateValues" dxfId="45" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1596:B1599">
-    <cfRule type="duplicateValues" dxfId="44" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1596:A1599">
-    <cfRule type="duplicateValues" dxfId="43" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1587:B1595">
-    <cfRule type="duplicateValues" dxfId="42" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1587:A1595">
-    <cfRule type="duplicateValues" dxfId="41" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1584:A1595 A1600:A1603">
-    <cfRule type="duplicateValues" dxfId="40" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="294"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1600:C1601">
-    <cfRule type="duplicateValues" dxfId="39" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1600:B1601">
-    <cfRule type="duplicateValues" dxfId="38" priority="295"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1600:A1603">
-    <cfRule type="duplicateValues" dxfId="37" priority="297"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="299"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1602">
-    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1604:B1606">
-    <cfRule type="duplicateValues" dxfId="35" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1607:B1611">
-    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1612:B1613">
-    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1614">
-    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1615:B1616">
-    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1617:B1619">
-    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1620:B1623">
-    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1624:B1626">
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1627">
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1628">
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1629:B1630">
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1632">
-    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1631">
-    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1633">
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1634:B1635">
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1636:B1651">
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1652:B1661">
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1678 B1680 B1682:B1685">
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1679">
+    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1681">
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1677">
     <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1652:B1661">
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1678 B1680 B1682:B1685">
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1679">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1681">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1677">
-    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1686:B1689">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1690:B1695">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1696:B1701">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1702:B1706">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1707:B1714">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1715:A1718">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1715:B1718">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1719:A1720">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1719:B1720">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1721:A1723">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1721:B1723">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1724:A1726">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1724:B1726">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1727:A1730">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1727:B1730">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1731:A1741">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1731:B1741">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F781" r:id="rId1" tooltip="Origin and meaning of bryophyte" display="https://www.etymonline.com/word/bryophyte"/>

--- a/GRE-Vocab_trainer.xlsx
+++ b/GRE-Vocab_trainer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13124" uniqueCount="7299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13264" uniqueCount="7379">
   <si>
     <t xml:space="preserve">noun </t>
   </si>
@@ -22852,9 +22852,6 @@
   </si>
   <si>
     <t>1a. An alloy of zinc and copper used as imitation gold&lt;/br&gt;1b. A cheap imitation or counterfeit</t>
-  </si>
-  <si>
-    <t>1a. He didn't believe that a stray Government clerk with a &lt;b&gt;pinchbeck&lt;/b&gt; chain and a weak moustache could be a worthy rival.&lt;/br&gt;1b(i). I was not impressed with his &lt;b&gt;pinchbeck&lt;/b&gt; heroism&lt;/br&gt;1b(ii).I hope you observed how that &lt;b&gt;pinchbeck&lt;/b&gt; countess was prepared to tread in her footsteps</t>
   </si>
   <si>
     <t>1a. She &lt;b&gt;puckered&lt;/b&gt; her lips&lt;/br&gt;1b. An old scar ran down the right side of his face, giving his cheek an odd, &lt;b&gt;puckered&lt;/b&gt; look, like he’d swallowed a lemon.</t>
@@ -23663,9 +23660,6 @@
     <t>1a. Since the &lt;b&gt;effluvium&lt;/b&gt; seeping out of the tire factory's chimney was invisible, park officials took months to realize fumes were killing hundreds of birds.&lt;/br&gt;1b.  It has now been observed that the swearing lexicon now draws less from religion and more from body &lt;b&gt;effluvia&lt;/b&gt;.</t>
   </si>
   <si>
-    <t>1a. Although she tried not to &lt;b&gt;expostulate&lt;/b&gt; about her daughter’s vegan diet,  she still keep my eye on what food was stocked in the pantry&lt;/br&gt;1b. He expostulated loudly with his brother to prevent him from jumping into a pile of leaves from the roof top.</t>
-  </si>
-  <si>
     <t>Same German word root as "Flügel", d. h. get wings.&lt;/br&gt; Also implies potential to improve</t>
   </si>
   <si>
@@ -24660,9 +24654,6 @@
     <t>1a. Someone/something who is open to do something or have done to them&lt;/br&gt;1b. easily convinced or persuaded&lt;/br&gt;2. liable to answer to a higher authority</t>
   </si>
   <si>
-    <t xml:space="preserve">1a(i). Peter's friend wanted to try sky diving and Peter was &lt;u&gt;&lt;b&gt;amenable&lt;/b&gt; to the idea&lt;u&gt;, so 2 days later Peter was jumping out of a plane. 1a(ii). The tumor was not &lt;b&gt;amenable&lt;/b&gt; to surgical treatment&lt;/br&gt;1a(iii).“This region seems to be really &lt;b&gt;amenable&lt;/b&gt; to finding dual professional careers,” Shaver said &lt;/br&gt;2. The president is &lt;b&gt;amenable&lt;/b&gt; to the constitutional court.  </t>
-  </si>
-  <si>
     <t>struggling</t>
   </si>
   <si>
@@ -24676,12 +24667,6 @@
   </si>
   <si>
     <t>1a. This product was &lt;b&gt;touted&lt;/b&gt; as a revolutionary invention&lt;/br&gt;1b. Sarah wears tight blouses to &lt;b&gt;tout&lt;/b&gt; her full bosom.&lt;/br&gt;“He &lt;b&gt;touts&lt;/b&gt; his relationship with the president a lot.&lt;/br&gt;2. The &lt;b&gt;tout&lt;/b&gt; asked me 10 Pounds for a racing tip, upon whose payment he informed me that the favourite was seen limping that morning.&lt;/br&gt;3. Ticket &lt;b&gt;touters face&lt;/b&gt; increasing credibility issues, as tickets sold inofficially may be forged or have already been scanned for entry.</t>
-  </si>
-  <si>
-    <t>toss many ideas around without focusing on just one. ; discuss lightly or glibly; exchange (words) heatedly&lt;/br&gt;2. To bat, (eg.  a ball) to and fro&lt;/br&gt;3. adj. bandy-legged=bow-legged</t>
-  </si>
-  <si>
-    <t>1a. A &lt;b&gt;wan&lt;/b&gt; smile.&lt;/br&gt;1b (i). Unlike the textile worker, who brought to mind &lt;b&gt;wan&lt;/b&gt; images of a young woman or “a sickly child,” steelworkers were often portrayed “as intensely masculine, often bare-chested, with muscles rippling.”&lt;/br&gt;1b (ii). The orchestra was sometimes &lt;b&gt;wan&lt;/b&gt; but at other points gorgeously full.</t>
   </si>
   <si>
     <t xml:space="preserve">1a. In tests on 11 astronauts in space after 50 days, 6 showed stagnant or &lt;b&gt;retrograde&lt;/b&gt; blood flow in the left internal jugular vein.&lt;/br&gt;1b. From this point of view, Mars’s orbit of the Sun appears erratic, for example it periodically goes '&lt;b&gt;retrograde&lt;/b&gt;', reversing its course.&lt;/br&gt;1c. The law imposed from mainland China “is a &lt;b&gt;retrograde&lt;/b&gt; step for Hong Kong,” says the dean of science at HKU&lt;/br&gt;2. The ad for "Fischer-Bettwaren Fabrik in Au-Wädenswil" has gained cult status in Switzerland as it is hilariously dry and &lt;b&gt;retrograde&lt;/b&gt;. &lt;/br&gt;3. The stroke caused the teenager to get &lt;u&gt;&lt;b&gt;retrograde&lt;/b&gt; amnesia&lt;/u&gt;, fogetting everything before the stroke. </t>
@@ -24741,9 +24726,6 @@
     <t xml:space="preserve">Syn: fearful, afraid, </t>
   </si>
   <si>
-    <t>1. fear,  anxious feeling about future&lt;/br&gt;2. quick to understand, discenering</t>
-  </si>
-  <si>
     <t>a graceful, Arabian design usually seen in metal, ceramic, or stone that resembles vines and leaves</t>
   </si>
   <si>
@@ -24778,9 +24760,6 @@
   </si>
   <si>
     <t xml:space="preserve">en + Gleicher Wortstamm wie "Tang" , seaweed, which could snarl one up. </t>
-  </si>
-  <si>
-    <t>the quality of being exuberant; cheerful or vigorous enthusiasm; liveliness</t>
   </si>
   <si>
     <t>1a. Something about the youthful &lt;b&gt;exuberance&lt;/b&gt; of children is contagious.&lt;/br&gt;1b. Their &lt;b&gt;exuberance&lt;/b&gt; over the new discovery was short-lived when the inventors found out that a prototype was already being patented by their rival company.</t>
@@ -25033,9 +25012,6 @@
     <t>1a. As nuclear weapons proliferate, preventing war becomes &lt;b&gt;imperative&lt;/b&gt;. &lt;/br&gt;1b. If you’re serious about getting healthy, it’s &lt;b&gt;imperative&lt;/b&gt; that you follow a healthy lifestyle, make the right food choices, and exercise regularly.&lt;/br&gt;</t>
   </si>
   <si>
-    <t>1. please &lt;b&gt;indulge&lt;/b&gt; me while I review the topics we covered yesterday. &lt;/br&gt;1b. It's my birthday. I'm going to &lt;u&gt;&lt;b&gt;indulge&lt;/b&gt; myself&lt;/u&gt; and eat whatever I want to eat.&lt;/br&gt;2b. The museum is an excellent place to let children &lt;b&gt;indulge&lt;/b&gt; their curiosity about dinosaurs.</t>
-  </si>
-  <si>
     <t>1a. I was &lt;b&gt;nonchalant&lt;/b&gt; about the refinery, but then Alexa was mentioning things like asthma. And I’m like, ‘Check.’&lt;/br&gt;1b. Not all the tourists were &lt;b&gt;nonchalant&lt;/b&gt; about following health restrictions and indeed wore their masks and regulalry washed their hands. &lt;/br&gt;1c. South Koreans are famously &lt;b&gt;nonchalant&lt;/b&gt; about North Korean nuclear weapons, knowing that they are too close to North Korea to be bombed without affecting the North.</t>
   </si>
   <si>
@@ -25148,6 +25124,386 @@
   </si>
   <si>
     <t xml:space="preserve">1a.  to yield to the desire of;gratify; give way to satisfy;  allow oneself&lt;/br&gt;1b. to give free rein to, to take unrestrained pleasure in. </t>
+  </si>
+  <si>
+    <t>silly; senseless</t>
+  </si>
+  <si>
+    <t>inane</t>
+  </si>
+  <si>
+    <t>highbrow</t>
+  </si>
+  <si>
+    <t>odious (of crime)</t>
+  </si>
+  <si>
+    <t>heinous</t>
+  </si>
+  <si>
+    <t>finagle</t>
+  </si>
+  <si>
+    <t>a decorative chain or strip hanging between two points</t>
+  </si>
+  <si>
+    <t>festoon</t>
+  </si>
+  <si>
+    <t>feckless</t>
+  </si>
+  <si>
+    <t>equal distribution of weight equilibrium</t>
+  </si>
+  <si>
+    <t>equipoise</t>
+  </si>
+  <si>
+    <t>ebullience</t>
+  </si>
+  <si>
+    <t>disheveled</t>
+  </si>
+  <si>
+    <t>deprave</t>
+  </si>
+  <si>
+    <t>covetous</t>
+  </si>
+  <si>
+    <t>of the same period; coexisting</t>
+  </si>
+  <si>
+    <t>coeval</t>
+  </si>
+  <si>
+    <t>clinch</t>
+  </si>
+  <si>
+    <t>beatify</t>
+  </si>
+  <si>
+    <t>causing harm or ruin; pernicious; destructive</t>
+  </si>
+  <si>
+    <t>baneful</t>
+  </si>
+  <si>
+    <t>auspicious</t>
+  </si>
+  <si>
+    <t>ascertain</t>
+  </si>
+  <si>
+    <t>ardor</t>
+  </si>
+  <si>
+    <t>admonitory</t>
+  </si>
+  <si>
+    <t>Latin :  same root admonish="to scold or reprimand."</t>
+  </si>
+  <si>
+    <t>1a. expressing reproof or reproach especially as a corrective&lt;/br&gt;1b. serving to warn</t>
+  </si>
+  <si>
+    <t>1a(i). When I say something inappropriate, my mother gives me an &lt;b&gt;admonitory&lt;/b&gt; stare.&lt;/br&gt;1a(ii). If your piano teacher always finds fault with your playing, she is consistently &lt;b&gt;admonitory&lt;/b&gt;.&lt;/br&gt;1b. &lt;b&gt;Admonitory&lt;/b&gt; articles abound around Halloween, warning parents of the hazards of trick-or-treating</t>
+  </si>
+  <si>
+    <t>same root as word "ardent"(eg. Ardent supporter)&lt;/br&gt;Syn: fervency, fervidness, fervor, fervour, fire</t>
+  </si>
+  <si>
+    <t>An intense passion and fervor, often associated with love, a cause or a club</t>
+  </si>
+  <si>
+    <t>1a. He spoke with great &lt;b&gt;ardor&lt;/b&gt;, giving it his all. &lt;/br&gt;1b. They were imbued with a revolutionary &lt;b&gt;ardor&lt;/b&gt;&lt;/bt&gt;1c. While Jane enjoyed spending time with John, she did not return the &lt;b&gt;ardor&lt;/b&gt; he felt for her.</t>
+  </si>
+  <si>
+    <t>to find out something with certainty, generally through some from of self-effort (eg. Experimentation, calculation, investigation, survey, study)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a. He logged onto his e-banking account to &lt;b&gt;ascertain&lt;/b&gt; how much money he had on his account.&lt;/br&gt;1b. Armed with data from these fossils, scientists used mathematical methods to &lt;b&gt;ascertain&lt;/b&gt; the size and proportions of the megalodons.&lt;/br&gt;1c. </t>
+  </si>
+  <si>
+    <t>Latin :  a- "to" + certain "sure, assured" =&gt;to make sure, to make assured. &lt;/br&gt;Syn: determine, find out, check, learn, see, watch, assure, check, control, ensure</t>
+  </si>
+  <si>
+    <t>a favorable situation or set of conditions.</t>
+  </si>
+  <si>
+    <t>Syn:     bright, encouraging, fair, golden, heartening, hopeful, likely, optimistic, promising, propitious, rose-colored, roseate, rosy, upbeat</t>
+  </si>
+  <si>
+    <t>1a. The low unemployment figures were an &lt;b&gt;auspicious&lt;/b&gt; beginning for the campaign. &lt;/br&gt;1b. Due to the model changes at year-end, everybody knows the end of the year is an &lt;b&gt;auspicious&lt;/b&gt; time to buy a car!&lt;/br&gt;1c. With an &lt;b&gt;auspicious&lt;/b&gt; start, the Jamaican runner was first off the block.</t>
+  </si>
+  <si>
+    <r>
+      <t>1a. The legislation could have a &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>baneful&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> effect on the poor.&lt;/br&gt;1b. We are mired in a &lt;b&gt;baneful&lt;/b&gt; pandemic unlike anything endured for a century, parsing our lives into 14-day increments of health and survival — or not.&lt;/br&gt;1c. If not cooked properly, the fish can be &lt;b&gt;baneful&lt;/b&gt; to humans.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Old English bana "killer, slayer, murderer, a worker of death"&lt;/br&gt;Syn: pernicious, baneful, noxious, deleterious, detrimental&lt;/br&gt;Mnemonic: Think of B(ad) + painful =&gt; i.e. it is destructive and harmful to us. </t>
+  </si>
+  <si>
+    <t>1. make blessedly happy&lt;/br&gt;2. declare (a dead person) to be blessed; the first step of achieving sainthood</t>
+  </si>
+  <si>
+    <t>1. In song, he projects a &lt;b&gt;beatified&lt;/b&gt; ambivalence that turns mixed feelings into a state of grace&lt;/br&gt;2. The cardinal was &lt;b&gt;beatified&lt;/b&gt; in 2010 by Pope Benedict in an open-air Mass in his home city of Birmingham after the first miracle was recognised.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Latin </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>beātificāre:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "making happy"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">English: from "clench" fix securely (a driven nail) by bending and beating it back,"&lt;/br&gt;Syn: </t>
+  </si>
+  <si>
+    <t>1a. The Senate must work quickly and together in order to &lt;b&gt;clinch&lt;/b&gt; the budget deal to avoid a government shutdown.&lt;/br&gt;1b. His home run &lt;b&gt;clinched&lt;/b&gt; the victory. &lt;/br&gt;1c. Dad went by ferry to Newcastel and was able to &lt;b&gt;clinch&lt;/b&gt; a deal&lt;/br&gt;2. The girder was &lt;b&gt;clinched&lt;/b&gt; into the wall</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Latin: com "with, together"  + aevum "an age"=&gt;"having the same age, having lived for an equal period,"&lt;/br&gt;Syn:contemporary,  synchronous, simultaneous, coincident</t>
+  </si>
+  <si>
+    <r>
+      <t>1a. He died at 94, his life nearly &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>coeval&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> with the 20th century.&lt;/br&gt;1b.  The two stars thought to be &lt;b&gt;coeval&lt;/b&gt; because they have nearly the same mass and brightness </t>
+    </r>
+  </si>
+  <si>
+    <t>conduce</t>
+  </si>
+  <si>
+    <t>Latin: com "with, together" + ducere "to lead"=&gt;to lead</t>
+  </si>
+  <si>
+    <t>To lead, to bring about, be conducive to</t>
+  </si>
+  <si>
+    <t>1a. Last week, Turkey also announced it would be &lt;b&gt;conducing&lt;/b&gt; a firing exercise in the eastern Mediterranean this Monday and Tuesday.&lt;/br&gt;1b. The researchers who &lt;b&gt;conduced&lt;/b&gt; the new study say they are the first to study PET’s structure and effect.</t>
+  </si>
+  <si>
+    <t>displaying greed for another individual’s belongings</t>
+  </si>
+  <si>
+    <t>1a. The advertising industry’s goal is to make you &lt;b&gt;covetous&lt;/b&gt; of the things that other people have&lt;/br&gt;1b. The sister was jealous of her brother's success and &lt;b&gt;covetous&lt;/b&gt; of his possessions&lt;/br&gt;1c. He looked at his boss's new car with &lt;b&gt;covetous&lt;/b&gt; eyes.</t>
+  </si>
+  <si>
+    <t>Syn: greedy, acquisitive, grasping, avaricious</t>
+  </si>
+  <si>
+    <t>French:  depraver "to pervert; accuse"&lt;/br&gt;Use the verb deprave as a more dramatic synonym for corrupt</t>
+  </si>
+  <si>
+    <t>to corrupt; make morally bad</t>
+  </si>
+  <si>
+    <r>
+      <t>1a. The author and columnist described the thieves as "&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>depraved&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and despicable" and "inhuman".&lt;/br&gt;1b. That reflects a more &lt;b&gt;&lt;u&gt;“depraved”&lt;/b&gt; state of mind&lt;/u&gt; than firing back wildly, after you’ve been shot at.</t>
+    </r>
+  </si>
+  <si>
+    <t>French:  des- "apart" + chevel "hair,"=&gt;without dressed hair</t>
+  </si>
+  <si>
+    <t>disordered clothing or hair; in disarray; extremely disorderly</t>
+  </si>
+  <si>
+    <t>1a. His wrinkled suit gave him a &lt;b&gt;disheveled&lt;/b&gt; appearance. &lt;/br&gt;1b. Most people look a bit, well, &lt;b&gt;disheveled&lt;/b&gt; after weeks of lockdowns.&lt;/br&gt;1c. Trump — looking &lt;b&gt;disheveled&lt;/b&gt;, enraged, shrunken and sad — arrived back in Washington later that Saturday evening.</t>
+  </si>
+  <si>
+    <t>1a. A &lt;b&gt;wan&lt;/b&gt; smile.&lt;/br&gt;1b(i). Unlike the textile worker, who brought to mind &lt;b&gt;wan&lt;/b&gt; images of a young woman or “a sickly child,” steelworkers were often portrayed “as intensely masculine, often bare-chested, with muscles rippling.”&lt;/br&gt;1b(ii). The orchestra was sometimes &lt;b&gt;wan&lt;/b&gt; but at other points gorgeously full.</t>
+  </si>
+  <si>
+    <t>1. toss many ideas around without focusing on just one. ; discuss lightly or glibly; exchange (words) heatedly&lt;/br&gt;2. To bat, (eg.  a ball) to and fro&lt;/br&gt;3. adj. bandy-legged=bow-legged</t>
+  </si>
+  <si>
+    <t>1a. He didn't believe that a stray Government clerk with a &lt;b&gt;pinchbeck&lt;/b&gt; chain and a weak moustache could be a worthy rival.&lt;/br&gt;1b(i). I was not impressed with his &lt;b&gt;pinchbeck&lt;/b&gt; heroism&lt;/br&gt;1b(ii). I hope you observed how that &lt;b&gt;pinchbeck&lt;/b&gt; countess was prepared to tread in her footsteps</t>
+  </si>
+  <si>
+    <t>1a(i). please &lt;b&gt;indulge&lt;/b&gt; me while I review the topics we covered yesterday. &lt;/br&gt;1a(ii). It's my birthday. I'm going to &lt;u&gt;&lt;b&gt;indulge&lt;/b&gt; myself&lt;/u&gt; and eat whatever I want to eat.&lt;/br&gt;1b. The museum is an excellent place to let children &lt;b&gt;indulge&lt;/b&gt; their curiosity about dinosaurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a(i). Peter's friend wanted to try sky diving and Peter was &lt;u&gt;&lt;b&gt;amenable&lt;/b&gt; to the idea&lt;/u&gt;, so 2 days later Peter was jumping out of a plane. &lt;/br&gt;1a(ii). The tumor was not &lt;b&gt;amenable&lt;/b&gt; to surgical treatment&lt;/br&gt;1a(iii). “This region seems to be really &lt;b&gt;amenable&lt;/b&gt; to finding dual professional careers,” Shaver said &lt;/br&gt;2. The president is &lt;b&gt;amenable&lt;/b&gt; to the constitutional court.  </t>
+  </si>
+  <si>
+    <t>1a. Although she tried not to &lt;b&gt;expostulate&lt;/b&gt; about her daughter’s vegan diet,  she still kept an eye on what food was stocked in the pantry&lt;/br&gt;1b. He &lt;b&gt;expostulated&lt;/b&gt; loudly with his brother to prevent him from jumping into a pile of leaves from the roof top.</t>
+  </si>
+  <si>
+    <t>cheerful or vigorous enthusiasm; liveliness</t>
+  </si>
+  <si>
+    <t>1. fear,  anxious feeling about future&lt;/br&gt;2. quick to understand, discerning</t>
+  </si>
+  <si>
+    <t>a state of energetic happiness marked by both joy and enthusiasm</t>
+  </si>
+  <si>
+    <t>Latin: ebullientem, which ebullience comes from, literally means "boiling over.</t>
+  </si>
+  <si>
+    <t>1a. At the birthday party, the &lt;b&gt;ebullience&lt;/b&gt; of the excited children could be heard through their giggles and laughs.&lt;/br&gt;1b. People were drawn to Dr. Breen for her magnetic personality and &lt;b&gt;ebullience&lt;/b&gt;.&lt;/br&gt;1c. Of course, many risks still remain for the market despite all its &lt;b&gt;ebullience&lt;/b&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"equipoise" is a really fancy way to say "balance" or "equilibrium"&lt;/br&gt;equipoise is simply equi, = "equal," + "poise." Equal poise: a balance of weight, forces or interests. </t>
+  </si>
+  <si>
+    <t>1a. Losing her &lt;b&gt;equipoise&lt;/b&gt; seemed to always be a problem as her inner ear infection worsened without treatment.&lt;/br&gt;1b. It requires an emotional &lt;b&gt;equipoise&lt;/b&gt;, a blend of relaxation and concentration, stamina leavened by cheerfulness.</t>
+  </si>
+  <si>
+    <t>Scottish shortened form of effect (n.), + -less.=&gt;without effect</t>
+  </si>
+  <si>
+    <t>1a. generally ineffectual and incompetent &lt;/br&gt;1b. not fit to assume responsibility</t>
+  </si>
+  <si>
+    <t>1a(i). The husband had many &lt;b&gt;feckless&lt;/b&gt; attempts to repair the plumbing himself, but failed.&lt;/br&gt;1a(ii) A well-intentioned but feckless response to the rise in school violence &lt;/br&gt;1b. She can't rely on her &lt;b&gt;feckless&lt;/b&gt; son.</t>
+  </si>
+  <si>
+    <t>Italian festone, literally "a festive ornament," apparently from festa "celebration, feast,"</t>
+  </si>
+  <si>
+    <t>1a. The public buildings were &lt;b&gt;festooned&lt;/b&gt; for the holiday&lt;/br&gt;1b. The properties around Mr. English’s house were &lt;b&gt;festooned&lt;/b&gt; with no trespassing signs.&lt;/br&gt;1c. Outside, the coop is &lt;b&gt;festooned&lt;/b&gt; with pink and white artificial flowers, like a wedding cake.</t>
+  </si>
+  <si>
+    <t>get out of something using devious methods</t>
+  </si>
+  <si>
+    <r>
+      <t>Finagle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is a word with a usually negative connotation.</t>
+    </r>
+  </si>
+  <si>
+    <t>1a. He wasn't prepared for the maths test at school, so he &lt;b&gt;finagled&lt;/b&gt; a re-test by feigning to be sick. &lt;/br&gt;1b. Let me look at my schedule and see if I can't &lt;b&gt;finagle&lt;/b&gt; a visit to the museum &lt;/br&gt;1c. He &lt;b&gt;finagled&lt;/b&gt; his way into the concert.</t>
+  </si>
+  <si>
+    <t>Same word root as "haine" in French, which means "hate"</t>
+  </si>
+  <si>
+    <r>
+      <t>1a. Mitchell later directed law enforcement to their bodies after confessing to the &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">heinous&lt;/b&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Nimbus Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>killings.&lt;/br&gt;1b. On appeal, the sentence was lengthened in 2012 to life in prison for his “shocking and &lt;b&gt;heinous&lt;/b&gt;" crimes against the Cambodian people.</t>
+    </r>
+  </si>
+  <si>
+    <t>"person of superior intellect and taste,"  from high (adj.) + brow (n.).&lt;/br&gt;Ant: lowbrow</t>
+  </si>
+  <si>
+    <t>1a. &lt;b&gt;Highbrow&lt;/b&gt; events such as the ballet or opera are often subsidized by the state. &lt;/br&gt;1b. Guests at her elegant dinner parties are a mix of the city's &lt;b&gt;highbrow&lt;/b&gt; and captains of industry</t>
+  </si>
+  <si>
+    <t>(person) with superior tastes or higher intelligence</t>
+  </si>
+  <si>
+    <t>Latin inanitas "emptiness, empty space,"&lt;/br&gt;Syn: stupid, vacuous, ridiculous, pointless.</t>
+  </si>
+  <si>
+    <t>1a. When my sisters and I get together, we tend to do &lt;b&gt;inane&lt;/b&gt; things like dressing up as cartoon characters.&lt;/br&gt;1b. It’s an unsettling simulation of living in a state that denies basic facts and perpetuates the most &lt;b&gt;inane&lt;/b&gt; claims.</t>
   </si>
 </sst>
 </file>
@@ -25263,7 +25619,407 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="235">
+  <dxfs count="275">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -27667,18 +28423,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1955" totalsRowShown="0">
-  <autoFilter ref="A1:H1955"/>
-  <sortState ref="A2:H1955">
-    <sortCondition ref="A2:A1955"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1981" totalsRowShown="0">
+  <autoFilter ref="A1:H1981"/>
+  <sortState ref="A2:H1983">
+    <sortCondition ref="A2:A1983"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3" dataDxfId="234"/>
+    <tableColumn id="3" name="Column3" dataDxfId="274"/>
     <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5" dataDxfId="233"/>
-    <tableColumn id="6" name="Column6" dataDxfId="232"/>
+    <tableColumn id="5" name="Column5" dataDxfId="273"/>
+    <tableColumn id="6" name="Column6" dataDxfId="272"/>
     <tableColumn id="7" name="Column7"/>
     <tableColumn id="8" name="Column8"/>
   </tableColumns>
@@ -27950,10 +28706,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1986"/>
+  <dimension ref="A1:K1989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1711" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1715" sqref="H1715:H1955"/>
+    <sheetView tabSelected="1" topLeftCell="A1972" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1973" sqref="B1973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5"/>
@@ -27968,7 +28724,7 @@
     <col min="8" max="8" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>2538</v>
       </c>
@@ -28184,7 +28940,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6977</v>
+        <v>6976</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>4663</v>
@@ -28366,7 +29122,7 @@
         <v>4016</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6798</v>
+        <v>6797</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>24</v>
@@ -29040,7 +29796,7 @@
         <v>32</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>4676</v>
@@ -29136,16 +29892,16 @@
         <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7206</v>
+        <v>7204</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>7205</v>
+        <v>7203</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>7207</v>
+        <v>7355</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>18</v>
@@ -29283,22 +30039,23 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="14" t="s">
         <v>4549</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -29456,16 +30213,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="37.5">
-      <c r="A60" s="1">
+      <c r="A60" s="14">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -29474,10 +30231,10 @@
       <c r="F60" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -29555,7 +30312,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="25">
-      <c r="A64" s="1">
+      <c r="A64" s="14">
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
@@ -29671,7 +30428,7 @@
       <c r="D68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="14" t="s">
         <v>4034</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -29717,14 +30474,14 @@
       <c r="B70" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="14" t="s">
         <v>195</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="14"/>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="14" t="s">
         <v>196</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -29816,7 +30573,7 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="14" t="s">
         <v>203</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -29897,14 +30654,14 @@
       <c r="B77" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="14" t="s">
         <v>217</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="14"/>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="14" t="s">
         <v>218</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -30104,7 +30861,7 @@
       <c r="D85" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="14" t="s">
         <v>4694</v>
       </c>
       <c r="F85" s="1" t="s">
@@ -30733,10 +31490,10 @@
       <c r="D110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="14" t="s">
         <v>4048</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="14" t="s">
         <v>4702</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -31791,8 +32548,9 @@
       <c r="D151" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E151" s="14"/>
       <c r="F151" s="1" t="s">
-        <v>7210</v>
+        <v>7207</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>8</v>
@@ -31841,7 +32599,7 @@
         <v>4674</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>6809</v>
+        <v>6808</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>3203</v>
@@ -32039,25 +32797,25 @@
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="14" t="s">
         <v>3028</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="14" t="s">
         <v>3029</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="14" t="s">
         <v>4674</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="14" t="s">
         <v>4726</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="14" t="s">
         <v>4436</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G161" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H161" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -32153,7 +32911,7 @@
         <v>13</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>6800</v>
+        <v>6799</v>
       </c>
       <c r="F165" s="14" t="s">
         <v>497</v>
@@ -32397,23 +33155,23 @@
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="14" t="s">
         <v>6377</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="14" t="s">
         <v>4465</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G175" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H175" s="1" t="s">
+      <c r="H175" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -32806,7 +33564,8 @@
       <c r="D191" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="E191" s="14"/>
+      <c r="F191" s="14" t="s">
         <v>577</v>
       </c>
       <c r="G191" s="1" t="s">
@@ -33028,19 +33787,20 @@
       <c r="B200" s="14" t="s">
         <v>2578</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="14" t="s">
         <v>607</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="E200" s="14"/>
+      <c r="F200" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="G200" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="H200" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33136,7 +33896,7 @@
         <v>5438</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>6860</v>
+        <v>6859</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>104</v>
@@ -33393,7 +34153,7 @@
         <v>4073</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>18</v>
@@ -33430,7 +34190,7 @@
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="14" t="s">
         <v>2580</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -33454,25 +34214,25 @@
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="14" t="s">
         <v>3045</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="14" t="s">
         <v>3046</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="14" t="s">
         <v>2704</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" s="14" t="s">
         <v>4753</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="F217" s="14" t="s">
         <v>4754</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G217" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="H217" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -33630,22 +34390,23 @@
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="14" t="s">
         <v>3050</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="14" t="s">
         <v>3051</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="14" t="s">
         <v>2904</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="E224" s="14"/>
+      <c r="F224" s="14" t="s">
         <v>4759</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G224" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="H224" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -33715,7 +34476,7 @@
       <c r="E227" s="14" t="s">
         <v>5428</v>
       </c>
-      <c r="F227" s="1" t="s">
+      <c r="F227" s="14" t="s">
         <v>3212</v>
       </c>
       <c r="G227" s="1" t="s">
@@ -33897,7 +34658,7 @@
       <c r="E234" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="F234" s="1" t="s">
+      <c r="F234" s="14" t="s">
         <v>4767</v>
       </c>
       <c r="G234" s="1" t="s">
@@ -34046,7 +34807,7 @@
       <c r="D240" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E240" s="14" t="s">
         <v>3223</v>
       </c>
       <c r="F240" s="1" t="s">
@@ -34099,7 +34860,7 @@
         <v>4664</v>
       </c>
       <c r="E242" s="14" t="s">
-        <v>6978</v>
+        <v>6977</v>
       </c>
       <c r="F242" s="14" t="s">
         <v>4770</v>
@@ -34257,7 +35018,7 @@
       <c r="E248" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="F248" s="14" t="s">
         <v>4774</v>
       </c>
       <c r="G248" s="1" t="s">
@@ -34356,7 +35117,7 @@
       <c r="D252" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="F252" s="14" t="s">
         <v>736</v>
       </c>
       <c r="G252" s="1" t="s">
@@ -34481,7 +35242,7 @@
       <c r="D257" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E257" s="14" t="s">
         <v>771</v>
       </c>
       <c r="F257" s="14" t="s">
@@ -35015,7 +35776,7 @@
       <c r="E278" s="1" t="s">
         <v>4085</v>
       </c>
-      <c r="F278" s="1" t="s">
+      <c r="F278" s="14" t="s">
         <v>4789</v>
       </c>
       <c r="G278" s="1" t="s">
@@ -35038,8 +35799,8 @@
       <c r="D279" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E279" s="1" t="s">
-        <v>6810</v>
+      <c r="E279" s="14" t="s">
+        <v>6809</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>4390</v>
@@ -35292,6 +36053,7 @@
       <c r="D289" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E289" s="14"/>
       <c r="F289" s="14" t="s">
         <v>850</v>
       </c>
@@ -35316,7 +36078,7 @@
         <v>2904</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>6811</v>
+        <v>6810</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>4796</v>
@@ -35491,7 +36253,8 @@
       <c r="D297" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F297" s="1" t="s">
+      <c r="E297" s="14"/>
+      <c r="F297" s="14" t="s">
         <v>868</v>
       </c>
       <c r="G297" s="1" t="s">
@@ -35661,7 +36424,7 @@
       <c r="D304" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F304" s="1" t="s">
+      <c r="F304" s="14" t="s">
         <v>887</v>
       </c>
       <c r="G304" s="1" t="s">
@@ -36266,7 +37029,8 @@
       <c r="D329" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F329" s="1" t="s">
+      <c r="E329" s="14"/>
+      <c r="F329" s="14" t="s">
         <v>941</v>
       </c>
       <c r="G329" s="1" t="s">
@@ -36769,7 +37533,7 @@
         <v>4677</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>6981</v>
+        <v>6979</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>4829</v>
@@ -36815,7 +37579,7 @@
         <v>999</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>7208</v>
+        <v>7205</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>32</v>
@@ -37027,7 +37791,7 @@
         <v>3672</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>6894</v>
+        <v>6893</v>
       </c>
       <c r="G359" s="1" t="s">
         <v>3769</v>
@@ -37219,7 +37983,7 @@
         <v>4674</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>6812</v>
+        <v>6811</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>4105</v>
@@ -37411,25 +38175,25 @@
       <c r="A375" s="1">
         <v>374</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B375" s="14" t="s">
         <v>1108</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="C375" s="14" t="s">
         <v>2535</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="D375" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E375" s="1" t="s">
+      <c r="E375" s="14" t="s">
         <v>4109</v>
       </c>
-      <c r="F375" s="1" t="s">
+      <c r="F375" s="14" t="s">
         <v>3885</v>
       </c>
-      <c r="G375" s="1" t="s">
+      <c r="G375" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H375" s="1" t="s">
+      <c r="H375" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -37446,10 +38210,10 @@
       <c r="D376" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E376" s="1" t="s">
+      <c r="E376" s="14" t="s">
         <v>4840</v>
       </c>
-      <c r="F376" s="1" t="s">
+      <c r="F376" s="14" t="s">
         <v>4437</v>
       </c>
       <c r="G376" s="1" t="s">
@@ -37522,6 +38286,7 @@
       <c r="D379" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E379" s="14"/>
       <c r="F379" s="1" t="s">
         <v>4842</v>
       </c>
@@ -37536,25 +38301,25 @@
       <c r="A380" s="1">
         <v>379</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="B380" s="14" t="s">
         <v>1118</v>
       </c>
-      <c r="C380" s="1" t="s">
-        <v>6974</v>
-      </c>
-      <c r="D380" s="1" t="s">
+      <c r="C380" s="14" t="s">
+        <v>6973</v>
+      </c>
+      <c r="D380" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E380" s="1" t="s">
+      <c r="E380" s="14" t="s">
         <v>4110</v>
       </c>
-      <c r="F380" s="1" t="s">
+      <c r="F380" s="14" t="s">
         <v>2811</v>
       </c>
-      <c r="G380" s="1" t="s">
+      <c r="G380" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H380" s="1" t="s">
+      <c r="H380" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -37618,7 +38383,7 @@
         <v>1124</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>7209</v>
+        <v>7206</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>32</v>
@@ -37917,7 +38682,8 @@
       <c r="D395" s="1" t="s">
         <v>4674</v>
       </c>
-      <c r="F395" s="1" t="s">
+      <c r="E395" s="14"/>
+      <c r="F395" s="14" t="s">
         <v>4850</v>
       </c>
       <c r="G395" s="1" t="s">
@@ -38110,7 +38876,7 @@
         <v>32</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>6813</v>
+        <v>6812</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>4852</v>
@@ -38178,25 +38944,25 @@
       <c r="A406" s="1">
         <v>405</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B406" s="14" t="s">
         <v>1206</v>
       </c>
-      <c r="C406" s="1" t="s">
+      <c r="C406" s="14" t="s">
         <v>1207</v>
       </c>
-      <c r="D406" s="1" t="s">
+      <c r="D406" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E406" s="1" t="s">
+      <c r="E406" s="14" t="s">
         <v>1208</v>
       </c>
-      <c r="F406" s="1" t="s">
+      <c r="F406" s="14" t="s">
         <v>1209</v>
       </c>
-      <c r="G406" s="1" t="s">
+      <c r="G406" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H406" s="1" t="s">
+      <c r="H406" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -38292,7 +39058,7 @@
         <v>13</v>
       </c>
       <c r="E410" s="14" t="s">
-        <v>6814</v>
+        <v>6813</v>
       </c>
       <c r="F410" s="14" t="s">
         <v>4857</v>
@@ -38318,7 +39084,7 @@
         <v>32</v>
       </c>
       <c r="E411" s="14" t="s">
-        <v>6814</v>
+        <v>6813</v>
       </c>
       <c r="F411" s="14" t="s">
         <v>4858</v>
@@ -38344,7 +39110,7 @@
         <v>17</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>6815</v>
+        <v>6814</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>4859</v>
@@ -38357,7 +39123,7 @@
       </c>
     </row>
     <row r="413" spans="1:8" ht="25">
-      <c r="A413" s="1">
+      <c r="A413" s="14">
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -38575,7 +39341,7 @@
         <v>32</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>6816</v>
+        <v>6815</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>4863</v>
@@ -38652,7 +39418,7 @@
       <c r="E424" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="F424" s="1" t="s">
+      <c r="F424" s="14" t="s">
         <v>4865</v>
       </c>
       <c r="G424" s="1" t="s">
@@ -38692,25 +39458,25 @@
       <c r="A426" s="1">
         <v>425</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="B426" s="14" t="s">
         <v>1256</v>
       </c>
-      <c r="C426" s="1" t="s">
+      <c r="C426" s="14" t="s">
         <v>3430</v>
       </c>
-      <c r="D426" s="1" t="s">
+      <c r="D426" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E426" s="1" t="s">
+      <c r="E426" s="14" t="s">
         <v>4119</v>
       </c>
-      <c r="F426" s="1" t="s">
+      <c r="F426" s="14" t="s">
         <v>4866</v>
       </c>
-      <c r="G426" s="1" t="s">
+      <c r="G426" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H426" s="1" t="s">
+      <c r="H426" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -38727,6 +39493,7 @@
       <c r="D427" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E427" s="14"/>
       <c r="F427" s="1" t="s">
         <v>2792</v>
       </c>
@@ -39006,7 +39773,7 @@
       <c r="E438" s="14" t="s">
         <v>4123</v>
       </c>
-      <c r="F438" s="1" t="s">
+      <c r="F438" s="14" t="s">
         <v>3729</v>
       </c>
       <c r="G438" s="1" t="s">
@@ -39134,7 +39901,7 @@
         <v>32</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>6817</v>
+        <v>6816</v>
       </c>
       <c r="G443" s="1" t="s">
         <v>127</v>
@@ -39457,10 +40224,10 @@
       <c r="D456" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E456" s="1" t="s">
+      <c r="E456" s="14" t="s">
         <v>4882</v>
       </c>
-      <c r="F456" s="1" t="s">
+      <c r="F456" s="14" t="s">
         <v>4883</v>
       </c>
       <c r="G456" s="1" t="s">
@@ -39483,10 +40250,10 @@
       <c r="D457" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E457" s="1" t="s">
+      <c r="E457" s="14" t="s">
         <v>4128</v>
       </c>
-      <c r="F457" s="1" t="s">
+      <c r="F457" s="14" t="s">
         <v>5857</v>
       </c>
       <c r="G457" s="1" t="s">
@@ -39509,7 +40276,7 @@
       <c r="D458" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E458" s="1" t="s">
+      <c r="E458" s="14" t="s">
         <v>4129</v>
       </c>
       <c r="F458" s="1" t="s">
@@ -39559,9 +40326,9 @@
         <v>4674</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>6818</v>
-      </c>
-      <c r="F460" s="1" t="s">
+        <v>6817</v>
+      </c>
+      <c r="F460" s="14" t="s">
         <v>3279</v>
       </c>
       <c r="G460" s="1" t="s">
@@ -39627,23 +40394,23 @@
       <c r="A463" s="1">
         <v>462</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="B463" s="14" t="s">
         <v>2610</v>
       </c>
-      <c r="C463" s="1" t="s">
+      <c r="C463" s="14" t="s">
         <v>1320</v>
       </c>
-      <c r="D463" s="1" t="s">
+      <c r="D463" s="14" t="s">
         <v>4677</v>
       </c>
       <c r="E463" s="14"/>
       <c r="F463" s="14" t="s">
         <v>1321</v>
       </c>
-      <c r="G463" s="1" t="s">
+      <c r="G463" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H463" s="1" t="s">
+      <c r="H463" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -39917,25 +40684,26 @@
       </c>
     </row>
     <row r="475" spans="1:8" ht="25">
-      <c r="A475" s="1">
+      <c r="A475" s="14">
         <v>474</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B475" s="14" t="s">
         <v>1370</v>
       </c>
-      <c r="C475" s="1" t="s">
+      <c r="C475" s="14" t="s">
         <v>1371</v>
       </c>
-      <c r="D475" s="1" t="s">
+      <c r="D475" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F475" s="1" t="s">
+      <c r="E475" s="14"/>
+      <c r="F475" s="14" t="s">
         <v>4888</v>
       </c>
-      <c r="G475" s="1" t="s">
+      <c r="G475" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H475" s="1" t="s">
+      <c r="H475" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -40350,7 +41118,8 @@
       <c r="D492" s="1" t="s">
         <v>4901</v>
       </c>
-      <c r="F492" s="1" t="s">
+      <c r="E492" s="14"/>
+      <c r="F492" s="14" t="s">
         <v>1423</v>
       </c>
       <c r="G492" s="1" t="s">
@@ -41324,13 +42093,13 @@
       <c r="A531" s="1">
         <v>530</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B531" s="14" t="s">
         <v>3131</v>
       </c>
       <c r="C531" s="14" t="s">
         <v>3132</v>
       </c>
-      <c r="D531" s="1" t="s">
+      <c r="D531" s="14" t="s">
         <v>2904</v>
       </c>
       <c r="E531" s="14" t="s">
@@ -41339,10 +42108,10 @@
       <c r="F531" s="14" t="s">
         <v>3309</v>
       </c>
-      <c r="G531" s="1" t="s">
+      <c r="G531" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H531" s="1" t="s">
+      <c r="H531" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -41429,7 +42198,7 @@
       <c r="B535" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="C535" s="1" t="s">
+      <c r="C535" s="14" t="s">
         <v>2536</v>
       </c>
       <c r="D535" s="1" t="s">
@@ -41455,7 +42224,7 @@
       <c r="B536" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="C536" s="1" t="s">
+      <c r="C536" s="14" t="s">
         <v>1604</v>
       </c>
       <c r="D536" s="1" t="s">
@@ -41464,7 +42233,7 @@
       <c r="E536" s="14" t="s">
         <v>1605</v>
       </c>
-      <c r="F536" s="1" t="s">
+      <c r="F536" s="14" t="s">
         <v>5861</v>
       </c>
       <c r="G536" s="1" t="s">
@@ -41739,7 +42508,7 @@
         <v>5</v>
       </c>
       <c r="E547" s="14"/>
-      <c r="F547" s="1" t="s">
+      <c r="F547" s="14" t="s">
         <v>1623</v>
       </c>
       <c r="G547" s="1" t="s">
@@ -41863,6 +42632,7 @@
       <c r="D552" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E552" s="14"/>
       <c r="F552" s="1" t="s">
         <v>2844</v>
       </c>
@@ -41889,7 +42659,7 @@
       <c r="E553" s="14" t="s">
         <v>3319</v>
       </c>
-      <c r="F553" s="1" t="s">
+      <c r="F553" s="14" t="s">
         <v>4931</v>
       </c>
       <c r="G553" s="1" t="s">
@@ -41906,7 +42676,7 @@
       <c r="B554" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="C554" s="1" t="s">
+      <c r="C554" s="14" t="s">
         <v>2367</v>
       </c>
       <c r="D554" s="1" t="s">
@@ -42037,7 +42807,7 @@
       <c r="D559" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E559" s="1" t="s">
+      <c r="E559" s="14" t="s">
         <v>6681</v>
       </c>
       <c r="F559" s="1" t="s">
@@ -42210,7 +42980,7 @@
         <v>13</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>6819</v>
+        <v>6818</v>
       </c>
       <c r="F566" s="1" t="s">
         <v>2880</v>
@@ -42311,7 +43081,7 @@
         <v>32</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>6801</v>
+        <v>6800</v>
       </c>
       <c r="F570" s="1" t="s">
         <v>4941</v>
@@ -42510,7 +43280,7 @@
         <v>1726</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>6802</v>
+        <v>6801</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>17</v>
@@ -42677,22 +43447,23 @@
       <c r="A585" s="1">
         <v>584</v>
       </c>
-      <c r="B585" s="1" t="s">
+      <c r="B585" s="14" t="s">
         <v>3149</v>
       </c>
-      <c r="C585" s="1" t="s">
+      <c r="C585" s="14" t="s">
         <v>3150</v>
       </c>
-      <c r="D585" s="1" t="s">
+      <c r="D585" s="14" t="s">
         <v>3323</v>
       </c>
-      <c r="F585" s="1" t="s">
+      <c r="E585" s="14"/>
+      <c r="F585" s="14" t="s">
         <v>4947</v>
       </c>
-      <c r="G585" s="1" t="s">
+      <c r="G585" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H585" s="1" t="s">
+      <c r="H585" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -42880,25 +43651,25 @@
       <c r="A593" s="1">
         <v>592</v>
       </c>
-      <c r="B593" s="1" t="s">
+      <c r="B593" s="14" t="s">
         <v>3155</v>
       </c>
-      <c r="C593" s="1" t="s">
+      <c r="C593" s="14" t="s">
         <v>3156</v>
       </c>
-      <c r="D593" s="1" t="s">
+      <c r="D593" s="14" t="s">
         <v>4674</v>
       </c>
-      <c r="E593" s="1" t="s">
+      <c r="E593" s="14" t="s">
         <v>3326</v>
       </c>
-      <c r="F593" s="1" t="s">
+      <c r="F593" s="14" t="s">
         <v>3325</v>
       </c>
-      <c r="G593" s="1" t="s">
+      <c r="G593" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H593" s="1" t="s">
+      <c r="H593" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -42915,6 +43686,7 @@
       <c r="D594" s="1" t="s">
         <v>2904</v>
       </c>
+      <c r="E594" s="14"/>
       <c r="F594" s="1" t="s">
         <v>3327</v>
       </c>
@@ -43485,7 +44257,7 @@
       <c r="D617" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E617" s="1" t="s">
+      <c r="E617" s="14" t="s">
         <v>4961</v>
       </c>
       <c r="F617" s="14" t="s">
@@ -43562,7 +44334,7 @@
         <v>2704</v>
       </c>
       <c r="E620" s="14"/>
-      <c r="F620" s="1" t="s">
+      <c r="F620" s="14" t="s">
         <v>3335</v>
       </c>
       <c r="G620" s="1" t="s">
@@ -44217,7 +44989,7 @@
         <v>32</v>
       </c>
       <c r="E646" s="14"/>
-      <c r="F646" s="1" t="s">
+      <c r="F646" s="14" t="s">
         <v>1914</v>
       </c>
       <c r="G646" s="1" t="s">
@@ -44314,7 +45086,7 @@
       <c r="D650" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F650" s="1" t="s">
+      <c r="F650" s="14" t="s">
         <v>5568</v>
       </c>
       <c r="G650" s="1" t="s">
@@ -44389,6 +45161,7 @@
       <c r="D653" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E653" s="14"/>
       <c r="F653" s="14" t="s">
         <v>4982</v>
       </c>
@@ -44577,25 +45350,25 @@
       <c r="A661" s="1">
         <v>660</v>
       </c>
-      <c r="B661" s="1" t="s">
+      <c r="B661" s="14" t="s">
         <v>1958</v>
       </c>
-      <c r="C661" s="1" t="s">
+      <c r="C661" s="14" t="s">
         <v>1959</v>
       </c>
-      <c r="D661" s="1" t="s">
+      <c r="D661" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E661" s="1" t="s">
+      <c r="E661" s="14" t="s">
         <v>1960</v>
       </c>
-      <c r="F661" s="1" t="s">
+      <c r="F661" s="14" t="s">
         <v>5874</v>
       </c>
-      <c r="G661" s="1" t="s">
+      <c r="G661" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H661" s="1" t="s">
+      <c r="H661" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -44739,6 +45512,7 @@
       <c r="D667" s="1" t="s">
         <v>2904</v>
       </c>
+      <c r="E667" s="14"/>
       <c r="F667" s="1" t="s">
         <v>4990</v>
       </c>
@@ -44762,7 +45536,7 @@
       <c r="D668" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F668" s="1" t="s">
+      <c r="F668" s="14" t="s">
         <v>1979</v>
       </c>
       <c r="G668" s="1" t="s">
@@ -44858,7 +45632,7 @@
       <c r="D672" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E672" s="1" t="s">
+      <c r="E672" s="14" t="s">
         <v>4994</v>
       </c>
       <c r="F672" s="1" t="s">
@@ -44887,7 +45661,7 @@
       <c r="E673" s="14" t="s">
         <v>4159</v>
       </c>
-      <c r="F673" s="1" t="s">
+      <c r="F673" s="14" t="s">
         <v>4996</v>
       </c>
       <c r="G673" s="1" t="s">
@@ -44937,7 +45711,7 @@
         <v>32</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>6820</v>
+        <v>6819</v>
       </c>
       <c r="F675" s="1" t="s">
         <v>2962</v>
@@ -44987,7 +45761,7 @@
         <v>4677</v>
       </c>
       <c r="E677" s="14"/>
-      <c r="F677" s="1" t="s">
+      <c r="F677" s="14" t="s">
         <v>5560</v>
       </c>
       <c r="G677" s="1" t="s">
@@ -45085,7 +45859,7 @@
       <c r="D681" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E681" s="1" t="s">
+      <c r="E681" s="14" t="s">
         <v>2031</v>
       </c>
       <c r="F681" s="1" t="s">
@@ -45163,7 +45937,7 @@
       <c r="E684" s="14" t="s">
         <v>5000</v>
       </c>
-      <c r="F684" s="1" t="s">
+      <c r="F684" s="14" t="s">
         <v>5001</v>
       </c>
       <c r="G684" s="1" t="s">
@@ -45887,7 +46661,7 @@
       <c r="D713" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E713" s="1" t="s">
+      <c r="E713" s="14" t="s">
         <v>5016</v>
       </c>
       <c r="F713" s="1" t="s">
@@ -46320,6 +47094,7 @@
       <c r="D730" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E730" s="14"/>
       <c r="F730" s="1" t="s">
         <v>5882</v>
       </c>
@@ -46395,7 +47170,7 @@
       <c r="D733" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E733" s="1" t="s">
+      <c r="E733" s="14" t="s">
         <v>4167</v>
       </c>
       <c r="F733" s="1" t="s">
@@ -46547,7 +47322,7 @@
       <c r="E739" s="1" t="s">
         <v>4169</v>
       </c>
-      <c r="F739" s="1" t="s">
+      <c r="F739" s="14" t="s">
         <v>3438</v>
       </c>
       <c r="G739" s="1" t="s">
@@ -46635,7 +47410,7 @@
       <c r="A743" s="1">
         <v>742</v>
       </c>
-      <c r="B743" s="1" t="s">
+      <c r="B743" s="14" t="s">
         <v>3241</v>
       </c>
       <c r="C743" s="1" t="s">
@@ -46815,10 +47590,10 @@
       <c r="A750" s="1">
         <v>749</v>
       </c>
-      <c r="B750" s="1" t="s">
+      <c r="B750" s="14" t="s">
         <v>2176</v>
       </c>
-      <c r="C750" s="1" t="s">
+      <c r="C750" s="14" t="s">
         <v>2177</v>
       </c>
       <c r="D750" s="14" t="s">
@@ -46827,13 +47602,13 @@
       <c r="E750" s="6" t="s">
         <v>4175</v>
       </c>
-      <c r="F750" s="1" t="s">
+      <c r="F750" s="14" t="s">
         <v>4176</v>
       </c>
-      <c r="G750" s="1" t="s">
+      <c r="G750" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H750" s="1" t="s">
+      <c r="H750" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -47009,7 +47784,7 @@
       <c r="E757" s="6" t="s">
         <v>5044</v>
       </c>
-      <c r="F757" s="1" t="s">
+      <c r="F757" s="14" t="s">
         <v>5045</v>
       </c>
       <c r="G757" s="1" t="s">
@@ -47035,7 +47810,7 @@
       <c r="E758" s="6" t="s">
         <v>4182</v>
       </c>
-      <c r="F758" s="1" t="s">
+      <c r="F758" s="14" t="s">
         <v>5047</v>
       </c>
       <c r="G758" s="1" t="s">
@@ -47651,7 +48426,7 @@
       </c>
       <c r="D782" s="1"/>
       <c r="E782" s="14" t="s">
-        <v>6821</v>
+        <v>6820</v>
       </c>
       <c r="F782" s="1" t="s">
         <v>4391</v>
@@ -47696,7 +48471,7 @@
       <c r="B784" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="C784" s="1" t="s">
+      <c r="C784" s="14" t="s">
         <v>1767</v>
       </c>
       <c r="D784" s="1" t="s">
@@ -47769,7 +48544,7 @@
       <c r="A787" s="1">
         <v>786</v>
       </c>
-      <c r="B787" s="1" t="s">
+      <c r="B787" s="14" t="s">
         <v>1835</v>
       </c>
       <c r="C787" s="1" t="s">
@@ -47827,7 +48602,7 @@
       <c r="C789" s="1" t="s">
         <v>1869</v>
       </c>
-      <c r="D789" s="1" t="s">
+      <c r="D789" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E789" s="6"/>
@@ -48630,7 +49405,7 @@
       <c r="D820" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E820" s="1" t="s">
+      <c r="E820" s="14" t="s">
         <v>4591</v>
       </c>
       <c r="F820" s="1" t="s">
@@ -48656,7 +49431,7 @@
       <c r="D821" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E821" s="1" t="s">
+      <c r="E821" s="14" t="s">
         <v>4225</v>
       </c>
       <c r="F821" s="1" t="s">
@@ -48682,7 +49457,7 @@
       <c r="D822" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="E822" s="1" t="s">
+      <c r="E822" s="14" t="s">
         <v>5093</v>
       </c>
       <c r="F822" s="1" t="s">
@@ -48916,7 +49691,7 @@
       <c r="D831" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E831" s="1" t="s">
+      <c r="E831" s="14" t="s">
         <v>4594</v>
       </c>
       <c r="F831" s="14" t="s">
@@ -49150,7 +49925,7 @@
       <c r="D840" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E840" s="1" t="s">
+      <c r="E840" s="14" t="s">
         <v>464</v>
       </c>
       <c r="F840" s="1" t="s">
@@ -49176,7 +49951,7 @@
       <c r="D841" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E841" s="1" t="s">
+      <c r="E841" s="14" t="s">
         <v>4497</v>
       </c>
       <c r="F841" s="14" t="s">
@@ -49424,7 +50199,7 @@
       </c>
     </row>
     <row r="851" spans="1:8" ht="50">
-      <c r="A851" s="1">
+      <c r="A851" s="14">
         <v>850</v>
       </c>
       <c r="B851" s="1" t="s">
@@ -49453,25 +50228,25 @@
       <c r="A852" s="1">
         <v>851</v>
       </c>
-      <c r="B852" s="1" t="s">
+      <c r="B852" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="C852" s="1" t="s">
+      <c r="C852" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="D852" s="1" t="s">
+      <c r="D852" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E852" s="1" t="s">
+      <c r="E852" s="14" t="s">
         <v>5107</v>
       </c>
-      <c r="F852" s="1" t="s">
+      <c r="F852" s="14" t="s">
         <v>2718</v>
       </c>
-      <c r="G852" s="1" t="s">
+      <c r="G852" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H852" s="1" t="s">
+      <c r="H852" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -49895,25 +50670,25 @@
       <c r="A869" s="1">
         <v>868</v>
       </c>
-      <c r="B869" s="1" t="s">
+      <c r="B869" s="14" t="s">
         <v>1007</v>
       </c>
-      <c r="C869" s="1" t="s">
+      <c r="C869" s="14" t="s">
         <v>2758</v>
       </c>
-      <c r="D869" s="1" t="s">
+      <c r="D869" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E869" s="1" t="s">
-        <v>6982</v>
+      <c r="E869" s="14" t="s">
+        <v>6980</v>
       </c>
       <c r="F869" s="14" t="s">
         <v>2757</v>
       </c>
-      <c r="G869" s="1" t="s">
+      <c r="G869" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H869" s="1" t="s">
+      <c r="H869" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -49996,28 +50771,28 @@
       </c>
     </row>
     <row r="873" spans="1:8" ht="37.5">
-      <c r="A873" s="1">
+      <c r="A873" s="14">
         <v>872</v>
       </c>
-      <c r="B873" s="1" t="s">
+      <c r="B873" s="14" t="s">
         <v>3643</v>
       </c>
-      <c r="C873" s="1" t="s">
+      <c r="C873" s="14" t="s">
         <v>3642</v>
       </c>
-      <c r="D873" s="1" t="s">
+      <c r="D873" s="14" t="s">
         <v>4674</v>
       </c>
       <c r="E873" s="14" t="s">
         <v>4239</v>
       </c>
-      <c r="F873" s="1" t="s">
+      <c r="F873" s="14" t="s">
         <v>5127</v>
       </c>
-      <c r="G873" s="1" t="s">
+      <c r="G873" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H873" s="1" t="s">
+      <c r="H873" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -50115,7 +50890,7 @@
       <c r="E877" s="1" t="s">
         <v>4517</v>
       </c>
-      <c r="F877" s="1" t="s">
+      <c r="F877" s="14" t="s">
         <v>5129</v>
       </c>
       <c r="G877" s="1" t="s">
@@ -50233,25 +51008,25 @@
       <c r="A882" s="1">
         <v>881</v>
       </c>
-      <c r="B882" s="1" t="s">
+      <c r="B882" s="14" t="s">
         <v>1192</v>
       </c>
       <c r="C882" s="14" t="s">
         <v>1193</v>
       </c>
-      <c r="D882" s="1" t="s">
+      <c r="D882" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E882" s="1" t="s">
+      <c r="E882" s="14" t="s">
         <v>4245</v>
       </c>
       <c r="F882" s="14" t="s">
         <v>5134</v>
       </c>
-      <c r="G882" s="1" t="s">
+      <c r="G882" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H882" s="1" t="s">
+      <c r="H882" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -50271,7 +51046,7 @@
       <c r="E883" s="1" t="s">
         <v>4246</v>
       </c>
-      <c r="F883" s="1" t="s">
+      <c r="F883" s="14" t="s">
         <v>3684</v>
       </c>
       <c r="G883" s="1" t="s">
@@ -50788,7 +51563,7 @@
       <c r="D903" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E903" s="1" t="s">
+      <c r="E903" s="14" t="s">
         <v>4255</v>
       </c>
       <c r="F903" s="14" t="s">
@@ -51023,7 +51798,7 @@
         <v>13</v>
       </c>
       <c r="E912" s="14" t="s">
-        <v>6822</v>
+        <v>6821</v>
       </c>
       <c r="F912" s="14" t="s">
         <v>4601</v>
@@ -51127,7 +51902,7 @@
       <c r="E916" s="14" t="s">
         <v>5620</v>
       </c>
-      <c r="F916" s="1" t="s">
+      <c r="F916" s="14" t="s">
         <v>5449</v>
       </c>
       <c r="G916" s="1" t="s">
@@ -51254,7 +52029,7 @@
       <c r="D921" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E921" s="1" t="s">
+      <c r="E921" s="14" t="s">
         <v>5457</v>
       </c>
       <c r="F921" s="1" t="s">
@@ -51307,7 +52082,7 @@
         <v>2904</v>
       </c>
       <c r="E923" s="14" t="s">
-        <v>6808</v>
+        <v>6807</v>
       </c>
       <c r="F923" s="14" t="s">
         <v>3573</v>
@@ -51592,10 +52367,10 @@
       <c r="D934" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E934" s="1" t="s">
+      <c r="E934" s="14" t="s">
         <v>5157</v>
       </c>
-      <c r="F934" s="1" t="s">
+      <c r="F934" s="14" t="s">
         <v>4266</v>
       </c>
       <c r="G934" s="1" t="s">
@@ -51947,13 +52722,13 @@
       <c r="A948" s="1">
         <v>947</v>
       </c>
-      <c r="B948" s="1" t="s">
+      <c r="B948" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C948" s="1" t="s">
+      <c r="C948" s="14" t="s">
         <v>2334</v>
       </c>
-      <c r="D948" s="1" t="s">
+      <c r="D948" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E948" s="6" t="s">
@@ -51962,10 +52737,10 @@
       <c r="F948" s="6" t="s">
         <v>5167</v>
       </c>
-      <c r="G948" s="1" t="s">
+      <c r="G948" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H948" s="1" t="s">
+      <c r="H948" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -52373,7 +53148,7 @@
         <v>2704</v>
       </c>
       <c r="E964" s="14" t="s">
-        <v>6823</v>
+        <v>6822</v>
       </c>
       <c r="F964" s="14" t="s">
         <v>3677</v>
@@ -52415,23 +53190,23 @@
       <c r="A966" s="1">
         <v>965</v>
       </c>
-      <c r="B966" s="1" t="s">
+      <c r="B966" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="C966" s="1" t="s">
+      <c r="C966" s="14" t="s">
         <v>1038</v>
       </c>
-      <c r="D966" s="1" t="s">
+      <c r="D966" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E966" s="6"/>
       <c r="F966" s="6" t="s">
         <v>5171</v>
       </c>
-      <c r="G966" s="1" t="s">
+      <c r="G966" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H966" s="1" t="s">
+      <c r="H966" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -52725,13 +53500,13 @@
       <c r="A978" s="1">
         <v>977</v>
       </c>
-      <c r="B978" s="1" t="s">
+      <c r="B978" s="14" t="s">
         <v>1190</v>
       </c>
-      <c r="C978" s="1" t="s">
+      <c r="C978" s="14" t="s">
         <v>1191</v>
       </c>
-      <c r="D978" s="1" t="s">
+      <c r="D978" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E978" s="6" t="s">
@@ -52740,24 +53515,24 @@
       <c r="F978" s="6" t="s">
         <v>5178</v>
       </c>
-      <c r="G978" s="1" t="s">
+      <c r="G978" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H978" s="1" t="s">
+      <c r="H978" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="979" spans="1:8">
-      <c r="A979" s="1">
+      <c r="A979" s="14">
         <v>978</v>
       </c>
-      <c r="B979" s="1" t="s">
+      <c r="B979" s="14" t="s">
         <v>1230</v>
       </c>
-      <c r="C979" s="1" t="s">
+      <c r="C979" s="14" t="s">
         <v>1231</v>
       </c>
-      <c r="D979" s="1" t="s">
+      <c r="D979" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E979" s="6" t="s">
@@ -52766,10 +53541,10 @@
       <c r="F979" s="6" t="s">
         <v>5179</v>
       </c>
-      <c r="G979" s="1" t="s">
+      <c r="G979" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H979" s="1" t="s">
+      <c r="H979" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -52865,7 +53640,7 @@
         <v>32</v>
       </c>
       <c r="E983" s="6" t="s">
-        <v>6803</v>
+        <v>6802</v>
       </c>
       <c r="F983" s="6" t="s">
         <v>5182</v>
@@ -53268,16 +54043,16 @@
       </c>
     </row>
     <row r="999" spans="1:8" ht="25">
-      <c r="A999" s="1">
+      <c r="A999" s="14">
         <v>998</v>
       </c>
-      <c r="B999" s="1" t="s">
+      <c r="B999" s="14" t="s">
         <v>1591</v>
       </c>
-      <c r="C999" s="1" t="s">
+      <c r="C999" s="14" t="s">
         <v>1592</v>
       </c>
-      <c r="D999" s="1" t="s">
+      <c r="D999" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E999" s="6" t="s">
@@ -53286,10 +54061,10 @@
       <c r="F999" s="6" t="s">
         <v>5191</v>
       </c>
-      <c r="G999" s="1" t="s">
+      <c r="G999" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H999" s="1" t="s">
+      <c r="H999" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -53502,16 +54277,16 @@
       </c>
     </row>
     <row r="1008" spans="1:8">
-      <c r="A1008" s="1">
+      <c r="A1008" s="14">
         <v>1007</v>
       </c>
-      <c r="B1008" s="1" t="s">
+      <c r="B1008" s="14" t="s">
         <v>1753</v>
       </c>
-      <c r="C1008" s="1" t="s">
+      <c r="C1008" s="14" t="s">
         <v>3736</v>
       </c>
-      <c r="D1008" s="1" t="s">
+      <c r="D1008" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1008" s="6" t="s">
@@ -53520,10 +54295,10 @@
       <c r="F1008" s="6" t="s">
         <v>5197</v>
       </c>
-      <c r="G1008" s="1" t="s">
+      <c r="G1008" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H1008" s="1" t="s">
+      <c r="H1008" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -53765,13 +54540,13 @@
       <c r="A1018" s="1">
         <v>1017</v>
       </c>
-      <c r="B1018" s="1" t="s">
+      <c r="B1018" s="14" t="s">
         <v>1917</v>
       </c>
-      <c r="C1018" s="1" t="s">
+      <c r="C1018" s="14" t="s">
         <v>1918</v>
       </c>
-      <c r="D1018" s="1" t="s">
+      <c r="D1018" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1018" s="6" t="s">
@@ -53780,10 +54555,10 @@
       <c r="F1018" s="6" t="s">
         <v>5205</v>
       </c>
-      <c r="G1018" s="1" t="s">
+      <c r="G1018" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H1018" s="1" t="s">
+      <c r="H1018" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -53892,16 +54667,16 @@
       </c>
     </row>
     <row r="1023" spans="1:8">
-      <c r="A1023" s="1">
+      <c r="A1023" s="14">
         <v>1022</v>
       </c>
-      <c r="B1023" s="1" t="s">
+      <c r="B1023" s="14" t="s">
         <v>1999</v>
       </c>
-      <c r="C1023" s="1" t="s">
+      <c r="C1023" s="14" t="s">
         <v>2000</v>
       </c>
-      <c r="D1023" s="1" t="s">
+      <c r="D1023" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1023" s="6" t="s">
@@ -53910,10 +54685,10 @@
       <c r="F1023" s="6" t="s">
         <v>5208</v>
       </c>
-      <c r="G1023" s="1" t="s">
+      <c r="G1023" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H1023" s="1" t="s">
+      <c r="H1023" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -54051,13 +54826,13 @@
       <c r="A1029" s="1">
         <v>1028</v>
       </c>
-      <c r="B1029" s="1" t="s">
+      <c r="B1029" s="14" t="s">
         <v>2152</v>
       </c>
-      <c r="C1029" s="1" t="s">
+      <c r="C1029" s="14" t="s">
         <v>2153</v>
       </c>
-      <c r="D1029" s="1" t="s">
+      <c r="D1029" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1029" s="6" t="s">
@@ -54066,10 +54841,10 @@
       <c r="F1029" s="6" t="s">
         <v>5213</v>
       </c>
-      <c r="G1029" s="1" t="s">
+      <c r="G1029" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H1029" s="1" t="s">
+      <c r="H1029" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -54345,7 +55120,7 @@
         <v>4674</v>
       </c>
       <c r="E1040" s="13" t="s">
-        <v>6824</v>
+        <v>6823</v>
       </c>
       <c r="F1040" s="14" t="s">
         <v>5220</v>
@@ -54861,26 +55636,26 @@
       </c>
     </row>
     <row r="1062" spans="1:8" ht="62.5">
-      <c r="A1062" s="1">
+      <c r="A1062" s="14">
         <v>1061</v>
       </c>
-      <c r="B1062" s="1" t="s">
+      <c r="B1062" s="14" t="s">
         <v>1975</v>
       </c>
       <c r="C1062" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="D1062" s="1" t="s">
+      <c r="D1062" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E1062" s="14"/>
       <c r="F1062" s="14" t="s">
         <v>3267</v>
       </c>
-      <c r="G1062" s="1" t="s">
+      <c r="G1062" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H1062" s="1" t="s">
+      <c r="H1062" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -55229,16 +56004,16 @@
       </c>
     </row>
     <row r="1077" spans="1:8" ht="50">
-      <c r="A1077" s="1">
+      <c r="A1077" s="14">
         <v>1076</v>
       </c>
-      <c r="B1077" s="1" t="s">
+      <c r="B1077" s="14" t="s">
         <v>3528</v>
       </c>
       <c r="C1077" s="14" t="s">
         <v>3529</v>
       </c>
-      <c r="D1077" s="1" t="s">
+      <c r="D1077" s="14" t="s">
         <v>4674</v>
       </c>
       <c r="E1077" s="14" t="s">
@@ -55247,10 +56022,10 @@
       <c r="F1077" s="14" t="s">
         <v>3683</v>
       </c>
-      <c r="G1077" s="1" t="s">
+      <c r="G1077" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H1077" s="1" t="s">
+      <c r="H1077" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -55279,25 +56054,26 @@
       </c>
     </row>
     <row r="1079" spans="1:8">
-      <c r="A1079" s="1">
+      <c r="A1079" s="14">
         <v>1078</v>
       </c>
-      <c r="B1079" s="1" t="s">
+      <c r="B1079" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="C1079" s="1" t="s">
+      <c r="C1079" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="D1079" s="1" t="s">
+      <c r="D1079" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1079" s="1" t="s">
+      <c r="E1079" s="14"/>
+      <c r="F1079" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="G1079" s="1" t="s">
+      <c r="G1079" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H1079" s="1" t="s">
+      <c r="H1079" s="14" t="s">
         <v>280</v>
       </c>
     </row>
@@ -55633,7 +56409,7 @@
       </c>
       <c r="E1093" s="14"/>
       <c r="F1093" s="14" t="s">
-        <v>6825</v>
+        <v>6824</v>
       </c>
       <c r="G1093" s="14" t="s">
         <v>8</v>
@@ -55899,7 +56675,8 @@
       <c r="D1104" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1104" s="1" t="s">
+      <c r="E1104" s="14"/>
+      <c r="F1104" s="14" t="s">
         <v>3688</v>
       </c>
       <c r="G1104" s="14" t="s">
@@ -56017,7 +56794,7 @@
         <v>5</v>
       </c>
       <c r="E1109" s="14"/>
-      <c r="F1109" s="1" t="s">
+      <c r="F1109" s="14" t="s">
         <v>2211</v>
       </c>
       <c r="G1109" s="14" t="s">
@@ -56054,51 +56831,52 @@
       </c>
     </row>
     <row r="1111" spans="1:8">
-      <c r="A1111" s="1">
+      <c r="A1111" s="14">
         <v>1110</v>
       </c>
-      <c r="B1111" s="1" t="s">
+      <c r="B1111" s="14" t="s">
         <v>2664</v>
       </c>
-      <c r="C1111" s="1" t="s">
+      <c r="C1111" s="14" t="s">
         <v>2239</v>
       </c>
-      <c r="D1111" s="1" t="s">
+      <c r="D1111" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1111" s="1" t="s">
+      <c r="E1111" s="14"/>
+      <c r="F1111" s="14" t="s">
         <v>2240</v>
       </c>
-      <c r="G1111" s="1" t="s">
+      <c r="G1111" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H1111" s="1" t="s">
+      <c r="H1111" s="14" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="1112" spans="1:8" ht="37.5">
-      <c r="A1112" s="1">
+      <c r="A1112" s="14">
         <v>1111</v>
       </c>
-      <c r="B1112" s="1" t="s">
+      <c r="B1112" s="14" t="s">
         <v>2252</v>
       </c>
-      <c r="C1112" s="1" t="s">
+      <c r="C1112" s="14" t="s">
         <v>3434</v>
       </c>
-      <c r="D1112" s="1" t="s">
+      <c r="D1112" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1112" s="1" t="s">
+      <c r="E1112" s="14" t="s">
         <v>3222</v>
       </c>
       <c r="F1112" s="1" t="s">
         <v>5233</v>
       </c>
-      <c r="G1112" s="1" t="s">
+      <c r="G1112" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H1112" s="1" t="s">
+      <c r="H1112" s="14" t="s">
         <v>280</v>
       </c>
     </row>
@@ -56165,10 +56943,10 @@
       <c r="D1115" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E1115" s="1" t="s">
+      <c r="E1115" s="14" t="s">
         <v>4319</v>
       </c>
-      <c r="F1115" s="1" t="s">
+      <c r="F1115" s="14" t="s">
         <v>3679</v>
       </c>
       <c r="G1115" s="1" t="s">
@@ -56510,16 +57288,16 @@
       </c>
     </row>
     <row r="1129" spans="1:8" ht="50">
-      <c r="A1129" s="1">
+      <c r="A1129" s="14">
         <v>1128</v>
       </c>
-      <c r="B1129" s="1" t="s">
+      <c r="B1129" s="14" t="s">
         <v>3543</v>
       </c>
-      <c r="C1129" s="1" t="s">
+      <c r="C1129" s="14" t="s">
         <v>3544</v>
       </c>
-      <c r="D1129" s="1" t="s">
+      <c r="D1129" s="14" t="s">
         <v>2904</v>
       </c>
       <c r="E1129" s="14" t="s">
@@ -56528,10 +57306,10 @@
       <c r="F1129" s="1" t="s">
         <v>5244</v>
       </c>
-      <c r="G1129" s="1" t="s">
+      <c r="G1129" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H1129" s="1" t="s">
+      <c r="H1129" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -56574,7 +57352,7 @@
       <c r="D1131" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="E1131" s="1" t="s">
+      <c r="E1131" s="14" t="s">
         <v>3802</v>
       </c>
       <c r="F1131" s="1" t="s">
@@ -56822,6 +57600,7 @@
       <c r="D1141" s="1" t="s">
         <v>2704</v>
       </c>
+      <c r="E1141" s="14"/>
       <c r="F1141" s="1" t="s">
         <v>5247</v>
       </c>
@@ -56833,7 +57612,7 @@
       </c>
     </row>
     <row r="1142" spans="1:8">
-      <c r="A1142" s="1">
+      <c r="A1142" s="14">
         <v>1141</v>
       </c>
       <c r="B1142" s="14" t="s">
@@ -56842,17 +57621,17 @@
       <c r="C1142" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D1142" s="1" t="s">
+      <c r="D1142" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E1142" s="14"/>
-      <c r="F1142" s="1" t="s">
+      <c r="F1142" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G1142" s="1" t="s">
+      <c r="G1142" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1142" s="1" t="s">
+      <c r="H1142" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -57307,13 +58086,13 @@
       <c r="A1161" s="14">
         <v>1160</v>
       </c>
-      <c r="B1161" s="1" t="s">
+      <c r="B1161" s="14" t="s">
         <v>3609</v>
       </c>
-      <c r="C1161" s="1" t="s">
+      <c r="C1161" s="14" t="s">
         <v>3608</v>
       </c>
-      <c r="D1161" s="1" t="s">
+      <c r="D1161" s="14" t="s">
         <v>4674</v>
       </c>
       <c r="E1161" s="1" t="s">
@@ -57322,10 +58101,10 @@
       <c r="F1161" s="1" t="s">
         <v>5258</v>
       </c>
-      <c r="G1161" s="1" t="s">
+      <c r="G1161" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H1161" s="1" t="s">
+      <c r="H1161" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
@@ -57405,22 +58184,23 @@
       <c r="A1165" s="14">
         <v>1164</v>
       </c>
-      <c r="B1165" s="1" t="s">
+      <c r="B1165" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C1165" s="1" t="s">
+      <c r="C1165" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D1165" s="1" t="s">
+      <c r="D1165" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="E1165" s="14"/>
       <c r="F1165" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="G1165" s="1" t="s">
+      <c r="G1165" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1165" s="1" t="s">
+      <c r="H1165" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -57672,23 +58452,23 @@
       <c r="A1176" s="14">
         <v>1175</v>
       </c>
-      <c r="B1176" s="1" t="s">
+      <c r="B1176" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="C1176" s="1" t="s">
+      <c r="C1176" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="D1176" s="1" t="s">
+      <c r="D1176" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E1176" s="14"/>
       <c r="F1176" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="G1176" s="1" t="s">
+      <c r="G1176" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1176" s="1" t="s">
+      <c r="H1176" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -57702,7 +58482,7 @@
       <c r="C1177" s="14" t="s">
         <v>3599</v>
       </c>
-      <c r="D1177" s="1" t="s">
+      <c r="D1177" s="14" t="s">
         <v>2904</v>
       </c>
       <c r="E1177" s="14" t="s">
@@ -57711,15 +58491,15 @@
       <c r="F1177" s="14" t="s">
         <v>3835</v>
       </c>
-      <c r="G1177" s="1" t="s">
+      <c r="G1177" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H1177" s="1" t="s">
+      <c r="H1177" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
     <row r="1178" spans="1:8" ht="25">
-      <c r="A1178" s="1">
+      <c r="A1178" s="14">
         <v>1177</v>
       </c>
       <c r="B1178" s="14" t="s">
@@ -57728,7 +58508,7 @@
       <c r="C1178" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="D1178" s="1" t="s">
+      <c r="D1178" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E1178" s="14" t="s">
@@ -57737,10 +58517,10 @@
       <c r="F1178" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="G1178" s="1" t="s">
+      <c r="G1178" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1178" s="1" t="s">
+      <c r="H1178" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -57836,7 +58616,7 @@
         <v>3874</v>
       </c>
       <c r="F1182" s="14" t="s">
-        <v>6793</v>
+        <v>6792</v>
       </c>
       <c r="G1182" s="1" t="s">
         <v>3769</v>
@@ -57998,20 +58778,20 @@
       <c r="B1189" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="C1189" s="1" t="s">
+      <c r="C1189" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="D1189" s="1" t="s">
+      <c r="D1189" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E1189" s="14"/>
-      <c r="F1189" s="1" t="s">
+      <c r="F1189" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="G1189" s="1" t="s">
+      <c r="G1189" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1189" s="1" t="s">
+      <c r="H1189" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -58042,61 +58822,61 @@
       <c r="A1191" s="14">
         <v>1190</v>
       </c>
-      <c r="B1191" s="1" t="s">
+      <c r="B1191" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="C1191" s="1" t="s">
+      <c r="C1191" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="D1191" s="1" t="s">
+      <c r="D1191" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E1191" s="14"/>
       <c r="F1191" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="G1191" s="1" t="s">
+      <c r="G1191" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1191" s="1" t="s">
+      <c r="H1191" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="1192" spans="1:8" ht="50">
-      <c r="A1192" s="1">
+      <c r="A1192" s="14">
         <v>1191</v>
       </c>
-      <c r="B1192" s="1" t="s">
+      <c r="B1192" s="14" t="s">
         <v>3591</v>
       </c>
-      <c r="C1192" s="1" t="s">
+      <c r="C1192" s="14" t="s">
         <v>3590</v>
       </c>
-      <c r="D1192" s="1" t="s">
+      <c r="D1192" s="14" t="s">
         <v>2904</v>
       </c>
       <c r="E1192" s="14"/>
       <c r="F1192" s="14" t="s">
         <v>5266</v>
       </c>
-      <c r="G1192" s="1" t="s">
+      <c r="G1192" s="14" t="s">
         <v>3769</v>
       </c>
-      <c r="H1192" s="1" t="s">
+      <c r="H1192" s="14" t="s">
         <v>2710</v>
       </c>
     </row>
     <row r="1193" spans="1:8" ht="37.5">
-      <c r="A1193" s="1">
+      <c r="A1193" s="14">
         <v>1192</v>
       </c>
       <c r="B1193" s="14" t="s">
         <v>3348</v>
       </c>
-      <c r="C1193" s="1" t="s">
+      <c r="C1193" s="14" t="s">
         <v>3749</v>
       </c>
-      <c r="D1193" s="1" t="s">
+      <c r="D1193" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1193" s="14" t="s">
@@ -58105,34 +58885,34 @@
       <c r="F1193" s="14" t="s">
         <v>3349</v>
       </c>
-      <c r="G1193" s="1" t="s">
+      <c r="G1193" s="14" t="s">
         <v>2713</v>
       </c>
-      <c r="H1193" s="1" t="s">
+      <c r="H1193" s="14" t="s">
         <v>3350</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
-      <c r="A1194" s="1">
+      <c r="A1194" s="14">
         <v>1193</v>
       </c>
-      <c r="B1194" s="1" t="s">
+      <c r="B1194" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="C1194" s="1" t="s">
+      <c r="C1194" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="D1194" s="1" t="s">
+      <c r="D1194" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E1194" s="14"/>
       <c r="F1194" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="G1194" s="1" t="s">
+      <c r="G1194" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1194" s="1" t="s">
+      <c r="H1194" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -58242,10 +59022,10 @@
       <c r="A1199" s="14">
         <v>1198</v>
       </c>
-      <c r="B1199" s="1" t="s">
+      <c r="B1199" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="C1199" s="1" t="s">
+      <c r="C1199" s="14" t="s">
         <v>664</v>
       </c>
       <c r="D1199" s="1" t="s">
@@ -58292,23 +59072,23 @@
       <c r="A1201" s="14">
         <v>1200</v>
       </c>
-      <c r="B1201" s="1" t="s">
+      <c r="B1201" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="C1201" s="1" t="s">
+      <c r="C1201" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="D1201" s="1" t="s">
+      <c r="D1201" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E1201" s="14"/>
       <c r="F1201" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="G1201" s="1" t="s">
+      <c r="G1201" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1201" s="1" t="s">
+      <c r="H1201" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -58372,7 +59152,7 @@
         <v>5</v>
       </c>
       <c r="E1204" s="14"/>
-      <c r="F1204" s="1" t="s">
+      <c r="F1204" s="14" t="s">
         <v>757</v>
       </c>
       <c r="G1204" s="1" t="s">
@@ -58688,7 +59468,7 @@
       <c r="D1217" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1217" s="1" t="s">
+      <c r="F1217" s="14" t="s">
         <v>766</v>
       </c>
       <c r="G1217" s="1" t="s">
@@ -58770,7 +59550,7 @@
       </c>
     </row>
     <row r="1221" spans="1:8">
-      <c r="A1221" s="1">
+      <c r="A1221" s="14">
         <v>1220</v>
       </c>
       <c r="B1221" s="1" t="s">
@@ -58811,7 +59591,7 @@
       <c r="E1222" s="14" t="s">
         <v>5624</v>
       </c>
-      <c r="F1222" s="1" t="s">
+      <c r="F1222" s="14" t="s">
         <v>3446</v>
       </c>
       <c r="G1222" s="1" t="s">
@@ -58990,7 +59770,7 @@
       </c>
     </row>
     <row r="1230" spans="1:8">
-      <c r="A1230" s="1">
+      <c r="A1230" s="14">
         <v>1229</v>
       </c>
       <c r="B1230" s="1" t="s">
@@ -59017,7 +59797,7 @@
       <c r="A1231" s="14">
         <v>1230</v>
       </c>
-      <c r="B1231" s="1" t="s">
+      <c r="B1231" s="14" t="s">
         <v>1345</v>
       </c>
       <c r="C1231" s="1" t="s">
@@ -59102,7 +59882,7 @@
       <c r="E1234" s="14" t="s">
         <v>4332</v>
       </c>
-      <c r="F1234" s="1" t="s">
+      <c r="F1234" s="14" t="s">
         <v>5274</v>
       </c>
       <c r="G1234" s="1" t="s">
@@ -59116,7 +59896,7 @@
       <c r="A1235" s="14">
         <v>1234</v>
       </c>
-      <c r="B1235" s="1" t="s">
+      <c r="B1235" s="14" t="s">
         <v>3767</v>
       </c>
       <c r="C1235" s="1" t="s">
@@ -59125,10 +59905,10 @@
       <c r="D1235" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1235" s="1" t="s">
+      <c r="E1235" s="14" t="s">
         <v>3768</v>
       </c>
-      <c r="F1235" s="1" t="s">
+      <c r="F1235" s="14" t="s">
         <v>5276</v>
       </c>
       <c r="G1235" s="1" t="s">
@@ -59151,10 +59931,10 @@
       <c r="D1236" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1236" s="1" t="s">
+      <c r="E1236" s="14" t="s">
         <v>5277</v>
       </c>
-      <c r="F1236" s="1" t="s">
+      <c r="F1236" s="14" t="s">
         <v>5278</v>
       </c>
       <c r="G1236" s="1" t="s">
@@ -59165,7 +59945,7 @@
       </c>
     </row>
     <row r="1237" spans="1:8" ht="62.5">
-      <c r="A1237" s="1">
+      <c r="A1237" s="14">
         <v>1236</v>
       </c>
       <c r="B1237" s="1" t="s">
@@ -59252,7 +60032,8 @@
       <c r="D1240" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1240" s="1" t="s">
+      <c r="E1240" s="14"/>
+      <c r="F1240" s="14" t="s">
         <v>1089</v>
       </c>
       <c r="G1240" s="1" t="s">
@@ -59263,7 +60044,7 @@
       </c>
     </row>
     <row r="1241" spans="1:8">
-      <c r="A1241" s="1">
+      <c r="A1241" s="14">
         <v>1240</v>
       </c>
       <c r="B1241" s="1" t="s">
@@ -59325,7 +60106,8 @@
       <c r="D1243" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1243" s="1" t="s">
+      <c r="E1243" s="14"/>
+      <c r="F1243" s="14" t="s">
         <v>1131</v>
       </c>
       <c r="G1243" s="1" t="s">
@@ -59375,7 +60157,7 @@
       <c r="E1245" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="F1245" s="1" t="s">
+      <c r="F1245" s="14" t="s">
         <v>1148</v>
       </c>
       <c r="G1245" s="1" t="s">
@@ -59386,7 +60168,7 @@
       </c>
     </row>
     <row r="1246" spans="1:8">
-      <c r="A1246" s="1">
+      <c r="A1246" s="14">
         <v>1245</v>
       </c>
       <c r="B1246" s="1" t="s">
@@ -59446,7 +60228,8 @@
       <c r="D1248" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1248" s="1" t="s">
+      <c r="E1248" s="14"/>
+      <c r="F1248" s="14" t="s">
         <v>2801</v>
       </c>
       <c r="G1248" s="1" t="s">
@@ -59614,7 +60397,7 @@
       <c r="D1255" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1255" s="1" t="s">
+      <c r="F1255" s="14" t="s">
         <v>1452</v>
       </c>
       <c r="G1255" s="1" t="s">
@@ -59637,7 +60420,7 @@
       <c r="D1256" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1256" s="1" t="s">
+      <c r="E1256" s="14" t="s">
         <v>4336</v>
       </c>
       <c r="F1256" s="1" t="s">
@@ -59651,7 +60434,7 @@
       </c>
     </row>
     <row r="1257" spans="1:8" ht="25">
-      <c r="A1257" s="1">
+      <c r="A1257" s="14">
         <v>1256</v>
       </c>
       <c r="B1257" s="1" t="s">
@@ -59774,7 +60557,7 @@
       </c>
     </row>
     <row r="1262" spans="1:8">
-      <c r="A1262" s="1">
+      <c r="A1262" s="14">
         <v>1261</v>
       </c>
       <c r="B1262" s="1" t="s">
@@ -59949,7 +60732,7 @@
       </c>
     </row>
     <row r="1269" spans="1:8" ht="25">
-      <c r="A1269" s="1">
+      <c r="A1269" s="14">
         <v>1268</v>
       </c>
       <c r="B1269" s="1" t="s">
@@ -60034,7 +60817,8 @@
       <c r="D1272" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1272" s="1" t="s">
+      <c r="E1272" s="14"/>
+      <c r="F1272" s="14" t="s">
         <v>3351</v>
       </c>
       <c r="G1272" s="1" t="s">
@@ -60081,6 +60865,7 @@
       <c r="D1274" s="1" t="s">
         <v>2904</v>
       </c>
+      <c r="E1274" s="14"/>
       <c r="F1274" s="14" t="s">
         <v>5716</v>
       </c>
@@ -60202,7 +60987,7 @@
       <c r="E1279" s="1" t="s">
         <v>3873</v>
       </c>
-      <c r="F1279" s="1" t="s">
+      <c r="F1279" s="14" t="s">
         <v>3872</v>
       </c>
       <c r="G1279" s="1" t="s">
@@ -60297,7 +61082,7 @@
       <c r="D1283" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1283" s="1" t="s">
+      <c r="E1283" s="14" t="s">
         <v>4339</v>
       </c>
       <c r="F1283" s="14" t="s">
@@ -60447,6 +61232,7 @@
       <c r="D1289" s="1" t="s">
         <v>2704</v>
       </c>
+      <c r="E1289" s="14"/>
       <c r="F1289" s="14" t="s">
         <v>6438</v>
       </c>
@@ -60519,6 +61305,7 @@
       <c r="D1292" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E1292" s="14"/>
       <c r="F1292" s="1" t="s">
         <v>1797</v>
       </c>
@@ -60530,7 +61317,7 @@
       </c>
     </row>
     <row r="1293" spans="1:8">
-      <c r="A1293" s="1">
+      <c r="A1293" s="14">
         <v>1292</v>
       </c>
       <c r="B1293" s="1" t="s">
@@ -60688,7 +61475,7 @@
         <v>2704</v>
       </c>
       <c r="E1299" s="1" t="s">
-        <v>6826</v>
+        <v>6825</v>
       </c>
       <c r="F1299" s="1" t="s">
         <v>5293</v>
@@ -60827,7 +61614,7 @@
       <c r="A1305" s="1">
         <v>1304</v>
       </c>
-      <c r="B1305" s="1" t="s">
+      <c r="B1305" s="14" t="s">
         <v>3453</v>
       </c>
       <c r="C1305" s="1" t="s">
@@ -61011,7 +61798,8 @@
       <c r="D1312" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1312" s="1" t="s">
+      <c r="E1312" s="14"/>
+      <c r="F1312" s="14" t="s">
         <v>3790</v>
       </c>
       <c r="G1312" s="1" t="s">
@@ -61083,10 +61871,10 @@
       <c r="D1315" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="E1315" s="1" t="s">
+      <c r="E1315" s="14" t="s">
         <v>3968</v>
       </c>
-      <c r="F1315" s="1" t="s">
+      <c r="F1315" s="14" t="s">
         <v>3967</v>
       </c>
       <c r="G1315" s="1" t="s">
@@ -61112,7 +61900,7 @@
       <c r="E1316" s="14" t="s">
         <v>3969</v>
       </c>
-      <c r="F1316" s="1" t="s">
+      <c r="F1316" s="14" t="s">
         <v>5298</v>
       </c>
       <c r="G1316" s="1" t="s">
@@ -61174,7 +61962,7 @@
       <c r="A1319" s="14">
         <v>1318</v>
       </c>
-      <c r="B1319" s="1" t="s">
+      <c r="B1319" s="14" t="s">
         <v>3985</v>
       </c>
       <c r="C1319" s="13" t="s">
@@ -61186,7 +61974,7 @@
       <c r="E1319" s="13" t="s">
         <v>5299</v>
       </c>
-      <c r="F1319" s="1" t="s">
+      <c r="F1319" s="14" t="s">
         <v>5300</v>
       </c>
       <c r="G1319" s="1" t="s">
@@ -61264,7 +62052,7 @@
       <c r="E1322" s="1" t="s">
         <v>4346</v>
       </c>
-      <c r="F1322" s="1" t="s">
+      <c r="F1322" s="14" t="s">
         <v>3452</v>
       </c>
       <c r="G1322" s="1" t="s">
@@ -61299,7 +62087,7 @@
       </c>
     </row>
     <row r="1324" spans="1:8" ht="38">
-      <c r="A1324" s="1">
+      <c r="A1324" s="14">
         <v>1323</v>
       </c>
       <c r="B1324" s="1" t="s">
@@ -61408,7 +62196,8 @@
       <c r="D1328" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1328" s="1" t="s">
+      <c r="E1328" s="14"/>
+      <c r="F1328" s="14" t="s">
         <v>5435</v>
       </c>
       <c r="G1328" s="1" t="s">
@@ -61519,7 +62308,7 @@
       </c>
     </row>
     <row r="1333" spans="1:11">
-      <c r="A1333" s="1">
+      <c r="A1333" s="14">
         <v>1332</v>
       </c>
       <c r="B1333" s="1" t="s">
@@ -61619,7 +62408,7 @@
       </c>
     </row>
     <row r="1337" spans="1:11" ht="25">
-      <c r="A1337" s="1">
+      <c r="A1337" s="14">
         <v>1336</v>
       </c>
       <c r="B1337" s="14" t="s">
@@ -61779,14 +62568,14 @@
       <c r="B1343" s="14" t="s">
         <v>3924</v>
       </c>
-      <c r="C1343" s="1" t="s">
+      <c r="C1343" s="14" t="s">
         <v>3983</v>
       </c>
       <c r="D1343" s="1" t="s">
         <v>2904</v>
       </c>
       <c r="E1343" s="14"/>
-      <c r="F1343" s="1" t="s">
+      <c r="F1343" s="14" t="s">
         <v>3984</v>
       </c>
       <c r="G1343" s="1" t="s">
@@ -61982,7 +62771,7 @@
         <v>2704</v>
       </c>
       <c r="E1351" s="14" t="s">
-        <v>6827</v>
+        <v>6826</v>
       </c>
       <c r="F1351" s="1" t="s">
         <v>4478</v>
@@ -62019,7 +62808,7 @@
       </c>
     </row>
     <row r="1353" spans="1:8">
-      <c r="A1353" s="1">
+      <c r="A1353" s="14">
         <v>1352</v>
       </c>
       <c r="B1353" s="1" t="s">
@@ -62031,7 +62820,7 @@
       <c r="D1353" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1353" s="1" t="s">
+      <c r="F1353" s="14" t="s">
         <v>2180</v>
       </c>
       <c r="G1353" s="1" t="s">
@@ -62327,7 +63116,7 @@
       <c r="D1365" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E1365" s="1" t="s">
+      <c r="E1365" s="14" t="s">
         <v>4351</v>
       </c>
       <c r="F1365" s="1" t="s">
@@ -62380,7 +63169,7 @@
         <v>5</v>
       </c>
       <c r="E1367" s="14"/>
-      <c r="F1367" s="1" t="s">
+      <c r="F1367" s="14" t="s">
         <v>2244</v>
       </c>
       <c r="G1367" s="1" t="s">
@@ -62427,6 +63216,7 @@
       <c r="D1369" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E1369" s="14"/>
       <c r="F1369" s="14" t="s">
         <v>2281</v>
       </c>
@@ -62598,8 +63388,9 @@
       <c r="D1376" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E1376" s="14"/>
       <c r="F1376" s="1" t="s">
-        <v>6804</v>
+        <v>6803</v>
       </c>
       <c r="G1376" s="1" t="s">
         <v>104</v>
@@ -62633,7 +63424,7 @@
       </c>
     </row>
     <row r="1378" spans="1:8" ht="25">
-      <c r="A1378" s="1">
+      <c r="A1378" s="14">
         <v>1377</v>
       </c>
       <c r="B1378" s="1" t="s">
@@ -62714,7 +63505,7 @@
       <c r="A1381" s="1">
         <v>1380</v>
       </c>
-      <c r="B1381" s="1" t="s">
+      <c r="B1381" s="14" t="s">
         <v>445</v>
       </c>
       <c r="C1381" s="1" t="s">
@@ -62840,7 +63631,7 @@
       <c r="A1386" s="14">
         <v>1385</v>
       </c>
-      <c r="B1386" s="1" t="s">
+      <c r="B1386" s="14" t="s">
         <v>2655</v>
       </c>
       <c r="C1386" s="1" t="s">
@@ -62884,7 +63675,7 @@
       </c>
     </row>
     <row r="1388" spans="1:8">
-      <c r="A1388" s="1">
+      <c r="A1388" s="14">
         <v>1387</v>
       </c>
       <c r="B1388" s="1" t="s">
@@ -62908,7 +63699,7 @@
       </c>
     </row>
     <row r="1389" spans="1:8" ht="125">
-      <c r="A1389" s="1">
+      <c r="A1389" s="14">
         <v>1388</v>
       </c>
       <c r="B1389" s="1" t="s">
@@ -62943,6 +63734,7 @@
       <c r="D1390" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="E1390" s="14"/>
       <c r="F1390" s="1" t="s">
         <v>4635</v>
       </c>
@@ -63026,7 +63818,7 @@
       </c>
     </row>
     <row r="1394" spans="1:8" ht="50">
-      <c r="A1394" s="1">
+      <c r="A1394" s="14">
         <v>1393</v>
       </c>
       <c r="B1394" s="1" t="s">
@@ -63038,6 +63830,7 @@
       <c r="D1394" s="1" t="s">
         <v>2688</v>
       </c>
+      <c r="E1394" s="14"/>
       <c r="F1394" s="1" t="s">
         <v>4004</v>
       </c>
@@ -63049,7 +63842,7 @@
       </c>
     </row>
     <row r="1395" spans="1:8" ht="50">
-      <c r="A1395" s="1">
+      <c r="A1395" s="14">
         <v>1394</v>
       </c>
       <c r="B1395" s="1" t="s">
@@ -63104,7 +63897,7 @@
       <c r="A1397" s="1">
         <v>1396</v>
       </c>
-      <c r="B1397" s="1" t="s">
+      <c r="B1397" s="14" t="s">
         <v>1570</v>
       </c>
       <c r="C1397" s="1" t="s">
@@ -63113,6 +63906,7 @@
       <c r="D1397" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="E1397" s="14"/>
       <c r="F1397" s="1" t="s">
         <v>1572</v>
       </c>
@@ -63148,7 +63942,7 @@
       </c>
     </row>
     <row r="1399" spans="1:8" ht="87.5">
-      <c r="A1399" s="1">
+      <c r="A1399" s="14">
         <v>1398</v>
       </c>
       <c r="B1399" s="1" t="s">
@@ -63226,7 +64020,7 @@
       </c>
     </row>
     <row r="1402" spans="1:8" ht="87.5">
-      <c r="A1402" s="1">
+      <c r="A1402" s="14">
         <v>1401</v>
       </c>
       <c r="B1402" s="1" t="s">
@@ -63264,7 +64058,7 @@
       <c r="D1403" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="E1403" s="1" t="s">
+      <c r="E1403" s="14" t="s">
         <v>4393</v>
       </c>
       <c r="F1403" s="1" t="s">
@@ -63345,7 +64139,7 @@
       <c r="E1406" s="13" t="s">
         <v>5335</v>
       </c>
-      <c r="F1406" s="1" t="s">
+      <c r="F1406" s="14" t="s">
         <v>5336</v>
       </c>
       <c r="G1406" s="1" t="s">
@@ -63368,7 +64162,7 @@
       <c r="D1407" s="1" t="s">
         <v>4674</v>
       </c>
-      <c r="E1407" s="1" t="s">
+      <c r="E1407" s="14" t="s">
         <v>4638</v>
       </c>
       <c r="F1407" s="14" t="s">
@@ -63751,7 +64545,7 @@
       </c>
     </row>
     <row r="1423" spans="1:8" ht="50">
-      <c r="A1423" s="1">
+      <c r="A1423" s="14">
         <v>1422</v>
       </c>
       <c r="B1423" s="13" t="s">
@@ -63790,9 +64584,9 @@
         <v>2904</v>
       </c>
       <c r="E1424" s="5" t="s">
-        <v>6828</v>
-      </c>
-      <c r="F1424" s="1" t="s">
+        <v>6827</v>
+      </c>
+      <c r="F1424" s="14" t="s">
         <v>4530</v>
       </c>
       <c r="G1424" s="1" t="s">
@@ -63826,20 +64620,20 @@
       </c>
     </row>
     <row r="1426" spans="1:8" ht="50">
-      <c r="A1426" s="1">
+      <c r="A1426" s="14">
         <v>1425</v>
       </c>
       <c r="B1426" s="1" t="s">
         <v>5439</v>
       </c>
-      <c r="C1426" s="1" t="s">
+      <c r="C1426" s="14" t="s">
         <v>5614</v>
       </c>
       <c r="D1426" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E1426" s="14"/>
-      <c r="F1426" s="1" t="s">
+      <c r="F1426" s="14" t="s">
         <v>5440</v>
       </c>
       <c r="G1426" s="1" t="s">
@@ -63876,7 +64670,7 @@
       </c>
     </row>
     <row r="1428" spans="1:8" ht="25.5">
-      <c r="A1428" s="1">
+      <c r="A1428" s="14">
         <v>1427</v>
       </c>
       <c r="B1428" s="1" t="s">
@@ -63902,7 +64696,7 @@
       </c>
     </row>
     <row r="1429" spans="1:8" ht="75">
-      <c r="A1429" s="1">
+      <c r="A1429" s="14">
         <v>1428</v>
       </c>
       <c r="B1429" s="1" t="s">
@@ -63917,7 +64711,7 @@
       <c r="E1429" s="13" t="s">
         <v>5626</v>
       </c>
-      <c r="F1429" s="1" t="s">
+      <c r="F1429" s="14" t="s">
         <v>5479</v>
       </c>
       <c r="G1429" s="1" t="s">
@@ -63966,7 +64760,7 @@
       <c r="D1431" s="1" t="s">
         <v>5472</v>
       </c>
-      <c r="E1431" s="1" t="s">
+      <c r="E1431" s="14" t="s">
         <v>6725</v>
       </c>
       <c r="F1431" s="14" t="s">
@@ -64081,7 +64875,7 @@
       </c>
     </row>
     <row r="1436" spans="1:8" ht="13">
-      <c r="A1436" s="1">
+      <c r="A1436" s="14">
         <v>1435</v>
       </c>
       <c r="B1436" s="1" t="s">
@@ -64105,7 +64899,7 @@
       </c>
     </row>
     <row r="1437" spans="1:8">
-      <c r="A1437" s="1">
+      <c r="A1437" s="14">
         <v>1436</v>
       </c>
       <c r="B1437" s="1" t="s">
@@ -64193,10 +64987,10 @@
       <c r="D1440" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E1440" s="1" t="s">
+      <c r="E1440" s="14" t="s">
         <v>5506</v>
       </c>
-      <c r="F1440" s="1" t="s">
+      <c r="F1440" s="14" t="s">
         <v>6726</v>
       </c>
       <c r="G1440" s="1" t="s">
@@ -64312,7 +65106,7 @@
       <c r="A1445" s="1">
         <v>1444</v>
       </c>
-      <c r="B1445" s="1" t="s">
+      <c r="B1445" s="14" t="s">
         <v>1645</v>
       </c>
       <c r="C1445" s="1" t="s">
@@ -64321,6 +65115,7 @@
       <c r="D1445" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E1445" s="14"/>
       <c r="F1445" s="14" t="s">
         <v>1647</v>
       </c>
@@ -64390,6 +65185,7 @@
       <c r="D1448" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E1448" s="14"/>
       <c r="F1448" s="1" t="s">
         <v>5504</v>
       </c>
@@ -64591,7 +65387,7 @@
         <v>5344</v>
       </c>
       <c r="F1456" s="1" t="s">
-        <v>6829</v>
+        <v>6828</v>
       </c>
       <c r="G1456" s="1" t="s">
         <v>127</v>
@@ -65253,10 +66049,10 @@
       <c r="D1482" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1482" s="1" t="s">
+      <c r="E1482" s="14" t="s">
         <v>4360</v>
       </c>
-      <c r="F1482" s="1" t="s">
+      <c r="F1482" s="14" t="s">
         <v>5361</v>
       </c>
       <c r="G1482" s="1" t="s">
@@ -65299,7 +66095,7 @@
       <c r="B1484" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="C1484" s="1" t="s">
+      <c r="C1484" s="14" t="s">
         <v>2700</v>
       </c>
       <c r="D1484" s="1" t="s">
@@ -65457,7 +66253,7 @@
       <c r="E1490" s="14" t="s">
         <v>5364</v>
       </c>
-      <c r="F1490" s="1" t="s">
+      <c r="F1490" s="14" t="s">
         <v>2922</v>
       </c>
       <c r="G1490" s="1" t="s">
@@ -66050,7 +66846,7 @@
         <v>17</v>
       </c>
       <c r="E1513" s="1" t="s">
-        <v>6830</v>
+        <v>6829</v>
       </c>
       <c r="F1513" s="14" t="s">
         <v>5383</v>
@@ -66076,7 +66872,7 @@
         <v>32</v>
       </c>
       <c r="E1514" s="14" t="s">
-        <v>7130</v>
+        <v>7128</v>
       </c>
       <c r="F1514" s="14" t="s">
         <v>4651</v>
@@ -66104,7 +66900,7 @@
       <c r="E1515" s="14" t="s">
         <v>2845</v>
       </c>
-      <c r="F1515" s="1" t="s">
+      <c r="F1515" s="14" t="s">
         <v>5385</v>
       </c>
       <c r="G1515" s="1" t="s">
@@ -66485,7 +67281,7 @@
         <v>17</v>
       </c>
       <c r="E1530" s="14" t="s">
-        <v>6805</v>
+        <v>6804</v>
       </c>
       <c r="F1530" s="1" t="s">
         <v>5393</v>
@@ -66602,7 +67398,7 @@
       <c r="A1535" s="1">
         <v>1534</v>
       </c>
-      <c r="B1535" s="1" t="s">
+      <c r="B1535" s="14" t="s">
         <v>2505</v>
       </c>
       <c r="C1535" s="1" t="s">
@@ -67118,7 +67914,7 @@
       <c r="E1555" s="14" t="s">
         <v>2982</v>
       </c>
-      <c r="F1555" s="1" t="s">
+      <c r="F1555" s="14" t="s">
         <v>2984</v>
       </c>
       <c r="G1555" s="1" t="s">
@@ -67165,7 +67961,7 @@
         <v>32</v>
       </c>
       <c r="E1557" s="14" t="s">
-        <v>6806</v>
+        <v>6805</v>
       </c>
       <c r="F1557" s="14" t="s">
         <v>2971</v>
@@ -67295,7 +68091,7 @@
         <v>5472</v>
       </c>
       <c r="E1562" s="9" t="s">
-        <v>6797</v>
+        <v>6796</v>
       </c>
       <c r="F1562" s="9" t="s">
         <v>5581</v>
@@ -68823,13 +69619,13 @@
         <v>5792</v>
       </c>
       <c r="C1622" s="9" t="s">
-        <v>7153</v>
+        <v>7151</v>
       </c>
       <c r="D1622" s="9" t="s">
         <v>2904</v>
       </c>
       <c r="E1622" s="14" t="s">
-        <v>6831</v>
+        <v>6830</v>
       </c>
       <c r="F1622" s="13" t="s">
         <v>5791</v>
@@ -69166,7 +69962,7 @@
       </c>
       <c r="E1635" s="14"/>
       <c r="F1635" s="13" t="s">
-        <v>6983</v>
+        <v>6981</v>
       </c>
       <c r="G1635" s="14" t="s">
         <v>3769</v>
@@ -69420,7 +70216,7 @@
         <v>5938</v>
       </c>
       <c r="F1645" s="14" t="s">
-        <v>6984</v>
+        <v>6982</v>
       </c>
       <c r="G1645" s="1" t="s">
         <v>3769</v>
@@ -69471,7 +70267,7 @@
       <c r="E1647" s="1" t="s">
         <v>5931</v>
       </c>
-      <c r="F1647" s="1" t="s">
+      <c r="F1647" s="14" t="s">
         <v>5930</v>
       </c>
       <c r="G1647" s="1" t="s">
@@ -69498,7 +70294,7 @@
         <v>5927</v>
       </c>
       <c r="F1648" s="13" t="s">
-        <v>6985</v>
+        <v>6983</v>
       </c>
       <c r="G1648" s="1" t="s">
         <v>3769</v>
@@ -69546,11 +70342,11 @@
       <c r="D1650" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E1650" s="1" t="s">
+      <c r="E1650" s="14" t="s">
         <v>5920</v>
       </c>
       <c r="F1650" s="13" t="s">
-        <v>6986</v>
+        <v>6984</v>
       </c>
       <c r="G1650" s="1" t="s">
         <v>3769</v>
@@ -69835,7 +70631,7 @@
       <c r="E1661" s="13" t="s">
         <v>6002</v>
       </c>
-      <c r="F1661" s="1" t="s">
+      <c r="F1661" s="14" t="s">
         <v>6003</v>
       </c>
       <c r="G1661" s="1" t="s">
@@ -69887,7 +70683,7 @@
       <c r="E1663" s="14" t="s">
         <v>5410</v>
       </c>
-      <c r="F1663" s="1" t="s">
+      <c r="F1663" s="14" t="s">
         <v>2716</v>
       </c>
       <c r="G1663" s="1" t="s">
@@ -69962,10 +70758,10 @@
       <c r="D1666" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1666" s="1" t="s">
+      <c r="E1666" s="14" t="s">
         <v>4375</v>
       </c>
-      <c r="F1666" s="1" t="s">
+      <c r="F1666" s="14" t="s">
         <v>2725</v>
       </c>
       <c r="G1666" s="1" t="s">
@@ -69989,7 +70785,7 @@
         <v>4674</v>
       </c>
       <c r="E1667" s="1" t="s">
-        <v>6832</v>
+        <v>6831</v>
       </c>
       <c r="F1667" s="1" t="s">
         <v>3363</v>
@@ -70031,7 +70827,7 @@
       <c r="A1669" s="1">
         <v>1668</v>
       </c>
-      <c r="B1669" s="1" t="s">
+      <c r="B1669" s="14" t="s">
         <v>4537</v>
       </c>
       <c r="C1669" s="1" t="s">
@@ -70299,7 +71095,7 @@
         <v>2904</v>
       </c>
       <c r="E1679" s="14" t="s">
-        <v>6796</v>
+        <v>6795</v>
       </c>
       <c r="F1679" s="14" t="s">
         <v>6200</v>
@@ -70380,7 +71176,7 @@
         <v>6014</v>
       </c>
       <c r="F1682" s="13" t="s">
-        <v>6987</v>
+        <v>6985</v>
       </c>
       <c r="G1682" s="1" t="s">
         <v>3769</v>
@@ -70610,7 +71406,7 @@
       <c r="D1691" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E1691" s="1" t="s">
+      <c r="E1691" s="14" t="s">
         <v>6059</v>
       </c>
       <c r="F1691" s="13" t="s">
@@ -70818,7 +71614,7 @@
         <v>6713</v>
       </c>
       <c r="F1699" s="1" t="s">
-        <v>6892</v>
+        <v>6891</v>
       </c>
       <c r="G1699" s="1" t="s">
         <v>3769</v>
@@ -70840,7 +71636,7 @@
       <c r="D1700" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="E1700" s="1" t="s">
+      <c r="E1700" s="14" t="s">
         <v>6070</v>
       </c>
       <c r="F1700" s="1" t="s">
@@ -70896,7 +71692,7 @@
         <v>6099</v>
       </c>
       <c r="F1702" s="14" t="s">
-        <v>6988</v>
+        <v>6986</v>
       </c>
       <c r="G1702" s="1" t="s">
         <v>3769</v>
@@ -71071,7 +71867,7 @@
       <c r="D1709" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="E1709" s="1" t="s">
+      <c r="E1709" s="14" t="s">
         <v>6121</v>
       </c>
       <c r="F1709" s="13" t="s">
@@ -71124,7 +71920,7 @@
       <c r="E1711" s="1" t="s">
         <v>6114</v>
       </c>
-      <c r="F1711" s="1" t="s">
+      <c r="F1711" s="14" t="s">
         <v>6366</v>
       </c>
       <c r="G1711" s="1" t="s">
@@ -71147,7 +71943,7 @@
       <c r="D1712" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="E1712" s="1" t="s">
+      <c r="E1712" s="14" t="s">
         <v>6111</v>
       </c>
       <c r="F1712" s="13" t="s">
@@ -71164,7 +71960,7 @@
       <c r="A1713" s="13">
         <v>1712</v>
       </c>
-      <c r="B1713" s="1" t="s">
+      <c r="B1713" s="14" t="s">
         <v>6109</v>
       </c>
       <c r="C1713" s="1" t="s">
@@ -71199,7 +71995,7 @@
       <c r="D1714" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="E1714" s="1" t="s">
+      <c r="E1714" s="14" t="s">
         <v>6103</v>
       </c>
       <c r="F1714" s="1" t="s">
@@ -71307,7 +72103,7 @@
         <v>6132</v>
       </c>
       <c r="F1718" s="13" t="s">
-        <v>6896</v>
+        <v>6895</v>
       </c>
       <c r="G1718" s="1" t="s">
         <v>6418</v>
@@ -71405,7 +72201,7 @@
         <v>6152</v>
       </c>
       <c r="F1722" s="13" t="s">
-        <v>6989</v>
+        <v>6987</v>
       </c>
       <c r="G1722" s="1" t="s">
         <v>6418</v>
@@ -71453,7 +72249,7 @@
       <c r="E1724" s="3" t="s">
         <v>6165</v>
       </c>
-      <c r="F1724" s="1" t="s">
+      <c r="F1724" s="14" t="s">
         <v>6164</v>
       </c>
       <c r="G1724" s="1" t="s">
@@ -71553,7 +72349,7 @@
         <v>6212</v>
       </c>
       <c r="F1728" s="13" t="s">
-        <v>6990</v>
+        <v>6988</v>
       </c>
       <c r="G1728" s="1" t="s">
         <v>6418</v>
@@ -71702,7 +72498,7 @@
         <v>13</v>
       </c>
       <c r="E1734" s="1" t="s">
-        <v>6833</v>
+        <v>6832</v>
       </c>
       <c r="F1734" s="14" t="s">
         <v>6241</v>
@@ -71752,7 +72548,7 @@
         <v>5728</v>
       </c>
       <c r="E1736" s="13" t="s">
-        <v>6834</v>
+        <v>6833</v>
       </c>
       <c r="F1736" s="13" t="s">
         <v>6399</v>
@@ -71778,10 +72574,10 @@
         <v>17</v>
       </c>
       <c r="E1737" s="14" t="s">
-        <v>6835</v>
+        <v>6834</v>
       </c>
       <c r="F1737" s="14" t="s">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="G1737" s="1" t="s">
         <v>6418</v>
@@ -71963,7 +72759,7 @@
         <v>6435</v>
       </c>
       <c r="F1744" s="13" t="s">
-        <v>6991</v>
+        <v>6989</v>
       </c>
       <c r="G1744" s="1" t="s">
         <v>6418</v>
@@ -72090,7 +72886,7 @@
       <c r="E1749" s="14" t="s">
         <v>6282</v>
       </c>
-      <c r="F1749" s="1" t="s">
+      <c r="F1749" s="14" t="s">
         <v>6281</v>
       </c>
       <c r="G1749" s="1" t="s">
@@ -72117,7 +72913,7 @@
         <v>6300</v>
       </c>
       <c r="F1750" s="13" t="s">
-        <v>6992</v>
+        <v>6990</v>
       </c>
       <c r="G1750" s="1" t="s">
         <v>6418</v>
@@ -72143,7 +72939,7 @@
         <v>6297</v>
       </c>
       <c r="F1751" s="3" t="s">
-        <v>6993</v>
+        <v>6991</v>
       </c>
       <c r="G1751" s="1" t="s">
         <v>6418</v>
@@ -72273,7 +73069,7 @@
         <v>6308</v>
       </c>
       <c r="F1756" s="13" t="s">
-        <v>6994</v>
+        <v>6992</v>
       </c>
       <c r="G1756" s="14" t="s">
         <v>6418</v>
@@ -72320,7 +73116,7 @@
         <v>5728</v>
       </c>
       <c r="E1758" s="13" t="s">
-        <v>6836</v>
+        <v>6835</v>
       </c>
       <c r="F1758" s="14" t="s">
         <v>6303</v>
@@ -72362,7 +73158,7 @@
       <c r="A1760" s="1">
         <v>1759</v>
       </c>
-      <c r="B1760" s="1" t="s">
+      <c r="B1760" s="14" t="s">
         <v>6332</v>
       </c>
       <c r="C1760" s="1" t="s">
@@ -72423,10 +73219,10 @@
       <c r="D1762" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1762" s="1" t="s">
+      <c r="E1762" s="14" t="s">
         <v>6324</v>
       </c>
-      <c r="F1762" s="1" t="s">
+      <c r="F1762" s="14" t="s">
         <v>6323</v>
       </c>
       <c r="G1762" s="1" t="s">
@@ -72479,7 +73275,7 @@
         <v>6317</v>
       </c>
       <c r="F1764" s="13" t="s">
-        <v>6995</v>
+        <v>6993</v>
       </c>
       <c r="G1764" s="1" t="s">
         <v>6418</v>
@@ -72505,7 +73301,7 @@
         <v>6333</v>
       </c>
       <c r="F1765" s="1" t="s">
-        <v>6996</v>
+        <v>6994</v>
       </c>
       <c r="G1765" s="1" t="s">
         <v>6418</v>
@@ -72528,7 +73324,7 @@
         <v>5728</v>
       </c>
       <c r="E1766" s="14" t="s">
-        <v>7211</v>
+        <v>7208</v>
       </c>
       <c r="F1766" s="1" t="s">
         <v>6341</v>
@@ -72544,7 +73340,7 @@
       <c r="A1767" s="1">
         <v>1766</v>
       </c>
-      <c r="B1767" s="1" t="s">
+      <c r="B1767" s="14" t="s">
         <v>6340</v>
       </c>
       <c r="C1767" s="1" t="s">
@@ -72632,7 +73428,7 @@
         <v>13</v>
       </c>
       <c r="E1770" s="13" t="s">
-        <v>6837</v>
+        <v>6836</v>
       </c>
       <c r="F1770" s="14" t="s">
         <v>6347</v>
@@ -72683,7 +73479,7 @@
       <c r="D1772" s="1" t="s">
         <v>5728</v>
       </c>
-      <c r="E1772" s="1" t="s">
+      <c r="E1772" s="14" t="s">
         <v>6355</v>
       </c>
       <c r="F1772" s="13" t="s">
@@ -72713,7 +73509,7 @@
         <v>6358</v>
       </c>
       <c r="F1773" s="14" t="s">
-        <v>6975</v>
+        <v>6974</v>
       </c>
       <c r="G1773" s="1" t="s">
         <v>6418</v>
@@ -72921,7 +73717,7 @@
         <v>6403</v>
       </c>
       <c r="F1781" s="1" t="s">
-        <v>7152</v>
+        <v>7150</v>
       </c>
       <c r="G1781" s="1" t="s">
         <v>6418</v>
@@ -73295,22 +74091,22 @@
         <v>1795</v>
       </c>
       <c r="B1796" s="1" t="s">
+        <v>6843</v>
+      </c>
+      <c r="C1796" s="1" t="s">
         <v>6844</v>
-      </c>
-      <c r="C1796" s="1" t="s">
-        <v>6845</v>
       </c>
       <c r="D1796" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1796" s="14" t="s">
-        <v>6846</v>
+        <v>6845</v>
       </c>
       <c r="G1796" s="1" t="s">
         <v>2713</v>
       </c>
       <c r="H1796" s="1" t="s">
-        <v>6868</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="1797" spans="1:8" ht="25">
@@ -73330,7 +74126,7 @@
         <v>6488</v>
       </c>
       <c r="F1797" s="13" t="s">
-        <v>6997</v>
+        <v>6995</v>
       </c>
       <c r="G1797" s="1" t="s">
         <v>6418</v>
@@ -73382,7 +74178,7 @@
         <v>6748</v>
       </c>
       <c r="F1799" s="1" t="s">
-        <v>6998</v>
+        <v>6996</v>
       </c>
       <c r="G1799" s="1" t="s">
         <v>6418</v>
@@ -73421,7 +74217,7 @@
       <c r="A1801" s="1">
         <v>1800</v>
       </c>
-      <c r="B1801" s="1" t="s">
+      <c r="B1801" s="14" t="s">
         <v>6478</v>
       </c>
       <c r="C1801" s="1" t="s">
@@ -73460,7 +74256,7 @@
         <v>6505</v>
       </c>
       <c r="F1802" s="14" t="s">
-        <v>6791</v>
+        <v>7353</v>
       </c>
       <c r="G1802" s="14" t="s">
         <v>6418</v>
@@ -73483,7 +74279,7 @@
         <v>6508</v>
       </c>
       <c r="E1803" s="1" t="s">
-        <v>6838</v>
+        <v>6837</v>
       </c>
       <c r="F1803" s="14" t="s">
         <v>6507</v>
@@ -73512,7 +74308,7 @@
         <v>6750</v>
       </c>
       <c r="F1804" s="14" t="s">
-        <v>6999</v>
+        <v>6997</v>
       </c>
       <c r="G1804" s="14" t="s">
         <v>6418</v>
@@ -73525,7 +74321,7 @@
       <c r="A1805" s="1">
         <v>1804</v>
       </c>
-      <c r="B1805" s="1" t="s">
+      <c r="B1805" s="14" t="s">
         <v>6501</v>
       </c>
       <c r="C1805" s="1" t="s">
@@ -73561,7 +74357,7 @@
         <v>5728</v>
       </c>
       <c r="E1806" s="13" t="s">
-        <v>6839</v>
+        <v>6838</v>
       </c>
       <c r="F1806" s="1" t="s">
         <v>6513</v>
@@ -73590,7 +74386,7 @@
         <v>6515</v>
       </c>
       <c r="F1807" s="1" t="s">
-        <v>6792</v>
+        <v>6791</v>
       </c>
       <c r="G1807" s="1" t="s">
         <v>6418</v>
@@ -73613,10 +74409,10 @@
         <v>5728</v>
       </c>
       <c r="E1808" s="1" t="s">
+        <v>6793</v>
+      </c>
+      <c r="F1808" s="13" t="s">
         <v>6794</v>
-      </c>
-      <c r="F1808" s="13" t="s">
-        <v>6795</v>
       </c>
       <c r="G1808" s="1" t="s">
         <v>6418</v>
@@ -73693,7 +74489,7 @@
       <c r="E1811" s="14" t="s">
         <v>6536</v>
       </c>
-      <c r="F1811" s="1" t="s">
+      <c r="F1811" s="14" t="s">
         <v>6523</v>
       </c>
       <c r="G1811" s="1" t="s">
@@ -73720,7 +74516,7 @@
         <v>6537</v>
       </c>
       <c r="F1812" s="1" t="s">
-        <v>7000</v>
+        <v>6998</v>
       </c>
       <c r="G1812" s="14" t="s">
         <v>6418</v>
@@ -73737,7 +74533,7 @@
         <v>6533</v>
       </c>
       <c r="C1813" s="1" t="s">
-        <v>6842</v>
+        <v>6841</v>
       </c>
       <c r="D1813" s="1" t="s">
         <v>32</v>
@@ -73770,7 +74566,7 @@
       </c>
       <c r="E1814" s="14"/>
       <c r="F1814" s="1" t="s">
-        <v>6843</v>
+        <v>6842</v>
       </c>
       <c r="G1814" s="1" t="s">
         <v>6418</v>
@@ -73818,8 +74614,8 @@
       <c r="D1816" s="1" t="s">
         <v>5728</v>
       </c>
-      <c r="E1816" s="1" t="s">
-        <v>6840</v>
+      <c r="E1816" s="14" t="s">
+        <v>6839</v>
       </c>
       <c r="F1816" s="1" t="s">
         <v>6543</v>
@@ -73847,7 +74643,7 @@
       <c r="E1817" s="13" t="s">
         <v>6544</v>
       </c>
-      <c r="F1817" s="1" t="s">
+      <c r="F1817" s="14" t="s">
         <v>6546</v>
       </c>
       <c r="G1817" s="1" t="s">
@@ -73891,7 +74687,7 @@
         <v>6526</v>
       </c>
       <c r="C1819" s="1" t="s">
-        <v>6891</v>
+        <v>6890</v>
       </c>
       <c r="D1819" s="1" t="s">
         <v>2687</v>
@@ -73926,7 +74722,7 @@
         <v>6550</v>
       </c>
       <c r="F1820" s="14" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
       <c r="G1820" s="1" t="s">
         <v>6418</v>
@@ -73975,7 +74771,7 @@
         <v>6587</v>
       </c>
       <c r="F1822" s="14" t="s">
-        <v>7134</v>
+        <v>7132</v>
       </c>
       <c r="G1822" s="1" t="s">
         <v>6418</v>
@@ -74079,7 +74875,7 @@
         <v>6754</v>
       </c>
       <c r="F1826" s="14" t="s">
-        <v>6893</v>
+        <v>6892</v>
       </c>
       <c r="G1826" s="1" t="s">
         <v>6418</v>
@@ -74118,7 +74914,7 @@
       <c r="A1828" s="1">
         <v>1827</v>
       </c>
-      <c r="B1828" s="1" t="s">
+      <c r="B1828" s="14" t="s">
         <v>6576</v>
       </c>
       <c r="C1828" s="1" t="s">
@@ -74153,8 +74949,9 @@
       <c r="D1829" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E1829" s="14"/>
       <c r="F1829" s="1" t="s">
-        <v>6895</v>
+        <v>6894</v>
       </c>
       <c r="G1829" s="1" t="s">
         <v>6418</v>
@@ -74178,7 +74975,7 @@
       </c>
       <c r="E1830" s="14"/>
       <c r="F1830" s="1" t="s">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="G1830" s="1" t="s">
         <v>6418</v>
@@ -74228,7 +75025,7 @@
       </c>
       <c r="E1832" s="14"/>
       <c r="F1832" s="14" t="s">
-        <v>7001</v>
+        <v>6999</v>
       </c>
       <c r="G1832" s="1" t="s">
         <v>6418</v>
@@ -74254,7 +75051,7 @@
         <v>6610</v>
       </c>
       <c r="F1833" s="1" t="s">
-        <v>7212</v>
+        <v>7209</v>
       </c>
       <c r="G1833" s="1" t="s">
         <v>6418</v>
@@ -74264,7 +75061,7 @@
       </c>
     </row>
     <row r="1834" spans="1:8" ht="125">
-      <c r="A1834" s="1">
+      <c r="A1834" s="14">
         <v>1833</v>
       </c>
       <c r="B1834" s="14" t="s">
@@ -74280,7 +75077,7 @@
         <v>6613</v>
       </c>
       <c r="F1834" s="14" t="s">
-        <v>7002</v>
+        <v>7000</v>
       </c>
       <c r="G1834" s="14" t="s">
         <v>6418</v>
@@ -74304,7 +75101,7 @@
       </c>
       <c r="E1835" s="14"/>
       <c r="F1835" s="14" t="s">
-        <v>6897</v>
+        <v>6896</v>
       </c>
       <c r="G1835" s="1" t="s">
         <v>6418</v>
@@ -74373,7 +75170,7 @@
         <v>6564</v>
       </c>
       <c r="C1838" s="1" t="s">
-        <v>6898</v>
+        <v>6897</v>
       </c>
       <c r="D1838" s="1" t="s">
         <v>5728</v>
@@ -74408,7 +75205,7 @@
         <v>6619</v>
       </c>
       <c r="F1839" s="14" t="s">
-        <v>6899</v>
+        <v>6898</v>
       </c>
       <c r="G1839" s="1" t="s">
         <v>6418</v>
@@ -74460,7 +75257,7 @@
         <v>6757</v>
       </c>
       <c r="F1841" s="14" t="s">
-        <v>6900</v>
+        <v>6899</v>
       </c>
       <c r="G1841" s="14" t="s">
         <v>6418</v>
@@ -74533,10 +75330,10 @@
         <v>17</v>
       </c>
       <c r="E1844" s="13" t="s">
-        <v>6841</v>
+        <v>6840</v>
       </c>
       <c r="F1844" s="13" t="s">
-        <v>7016</v>
+        <v>7014</v>
       </c>
       <c r="G1844" s="14" t="s">
         <v>6418</v>
@@ -74550,25 +75347,25 @@
         <v>1844</v>
       </c>
       <c r="B1845" s="13" t="s">
+        <v>6864</v>
+      </c>
+      <c r="C1845" s="13" t="s">
         <v>6865</v>
-      </c>
-      <c r="C1845" s="13" t="s">
-        <v>6866</v>
       </c>
       <c r="D1845" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E1845" s="14" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="F1845" s="14" t="s">
-        <v>6869</v>
+        <v>6868</v>
       </c>
       <c r="G1845" s="13" t="s">
         <v>2713</v>
       </c>
       <c r="H1845" s="13" t="s">
-        <v>6868</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="1846" spans="1:8">
@@ -74579,16 +75376,16 @@
         <v>6632</v>
       </c>
       <c r="C1846" s="14" t="s">
-        <v>6848</v>
+        <v>6847</v>
       </c>
       <c r="D1846" s="14" t="s">
         <v>5728</v>
       </c>
       <c r="E1846" s="13" t="s">
-        <v>6847</v>
+        <v>6846</v>
       </c>
       <c r="F1846" s="13" t="s">
-        <v>6849</v>
+        <v>6848</v>
       </c>
       <c r="G1846" s="14" t="s">
         <v>6418</v>
@@ -74611,10 +75408,10 @@
         <v>13</v>
       </c>
       <c r="E1847" s="13" t="s">
-        <v>6850</v>
+        <v>6849</v>
       </c>
       <c r="F1847" s="14" t="s">
-        <v>7015</v>
+        <v>7013</v>
       </c>
       <c r="G1847" s="14" t="s">
         <v>6418</v>
@@ -74631,16 +75428,16 @@
         <v>6635</v>
       </c>
       <c r="C1848" s="14" t="s">
-        <v>6851</v>
+        <v>6850</v>
       </c>
       <c r="D1848" s="14" t="s">
         <v>2687</v>
       </c>
       <c r="E1848" s="13" t="s">
-        <v>7050</v>
+        <v>7048</v>
       </c>
       <c r="F1848" s="13" t="s">
-        <v>7014</v>
+        <v>7012</v>
       </c>
       <c r="G1848" s="14" t="s">
         <v>6418</v>
@@ -74657,16 +75454,16 @@
         <v>6636</v>
       </c>
       <c r="C1849" s="14" t="s">
-        <v>6852</v>
+        <v>6851</v>
       </c>
       <c r="D1849" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E1849" s="13" t="s">
+        <v>6852</v>
+      </c>
+      <c r="F1849" s="13" t="s">
         <v>6853</v>
-      </c>
-      <c r="F1849" s="13" t="s">
-        <v>6854</v>
       </c>
       <c r="G1849" s="14" t="s">
         <v>6418</v>
@@ -74689,10 +75486,10 @@
         <v>17</v>
       </c>
       <c r="E1850" s="13" t="s">
+        <v>6854</v>
+      </c>
+      <c r="F1850" s="14" t="s">
         <v>6855</v>
-      </c>
-      <c r="F1850" s="14" t="s">
-        <v>6856</v>
       </c>
       <c r="G1850" s="14" t="s">
         <v>6418</v>
@@ -74715,10 +75512,10 @@
         <v>17</v>
       </c>
       <c r="E1851" s="14" t="s">
-        <v>6857</v>
+        <v>6856</v>
       </c>
       <c r="F1851" s="14" t="s">
-        <v>6873</v>
+        <v>6872</v>
       </c>
       <c r="G1851" s="14" t="s">
         <v>6418</v>
@@ -74735,16 +75532,16 @@
         <v>6641</v>
       </c>
       <c r="C1852" s="14" t="s">
-        <v>6870</v>
+        <v>6869</v>
       </c>
       <c r="D1852" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1852" s="14" t="s">
-        <v>6872</v>
+        <v>6871</v>
       </c>
       <c r="F1852" s="14" t="s">
-        <v>6871</v>
+        <v>6870</v>
       </c>
       <c r="G1852" s="14" t="s">
         <v>6418</v>
@@ -74761,16 +75558,16 @@
         <v>6642</v>
       </c>
       <c r="C1853" s="14" t="s">
-        <v>6874</v>
+        <v>6873</v>
       </c>
       <c r="D1853" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1853" s="14" t="s">
+        <v>6862</v>
+      </c>
+      <c r="F1853" s="14" t="s">
         <v>6863</v>
-      </c>
-      <c r="F1853" s="14" t="s">
-        <v>6864</v>
       </c>
       <c r="G1853" s="14" t="s">
         <v>6418</v>
@@ -74787,16 +75584,16 @@
         <v>6643</v>
       </c>
       <c r="C1854" s="14" t="s">
-        <v>6861</v>
+        <v>6860</v>
       </c>
       <c r="D1854" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1854" s="14" t="s">
-        <v>6862</v>
+        <v>6861</v>
       </c>
       <c r="F1854" s="14" t="s">
-        <v>7013</v>
+        <v>7011</v>
       </c>
       <c r="G1854" s="14" t="s">
         <v>6418</v>
@@ -74819,10 +75616,10 @@
         <v>13</v>
       </c>
       <c r="E1855" s="14" t="s">
+        <v>6857</v>
+      </c>
+      <c r="F1855" s="14" t="s">
         <v>6858</v>
-      </c>
-      <c r="F1855" s="14" t="s">
-        <v>6859</v>
       </c>
       <c r="G1855" s="14" t="s">
         <v>6418</v>
@@ -74839,16 +75636,16 @@
         <v>6646</v>
       </c>
       <c r="C1856" s="14" t="s">
-        <v>6876</v>
+        <v>6875</v>
       </c>
       <c r="D1856" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1856" s="14" t="s">
-        <v>6875</v>
+        <v>6874</v>
       </c>
       <c r="F1856" s="14" t="s">
-        <v>6877</v>
+        <v>6876</v>
       </c>
       <c r="G1856" s="14" t="s">
         <v>6418</v>
@@ -74865,16 +75662,16 @@
         <v>6647</v>
       </c>
       <c r="C1857" s="14" t="s">
-        <v>6878</v>
+        <v>6877</v>
       </c>
       <c r="D1857" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1857" s="14" t="s">
-        <v>6879</v>
+        <v>6878</v>
       </c>
       <c r="F1857" s="14" t="s">
-        <v>7216</v>
+        <v>7211</v>
       </c>
       <c r="G1857" s="14" t="s">
         <v>6418</v>
@@ -74891,16 +75688,16 @@
         <v>6648</v>
       </c>
       <c r="C1858" s="14" t="s">
-        <v>6880</v>
+        <v>6879</v>
       </c>
       <c r="D1858" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1858" s="14" t="s">
-        <v>7051</v>
+        <v>7049</v>
       </c>
       <c r="F1858" s="13" t="s">
-        <v>6976</v>
+        <v>6975</v>
       </c>
       <c r="G1858" s="14" t="s">
         <v>6418</v>
@@ -74917,16 +75714,16 @@
         <v>6649</v>
       </c>
       <c r="C1859" s="14" t="s">
-        <v>6881</v>
+        <v>6880</v>
       </c>
       <c r="D1859" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1859" s="13" t="s">
-        <v>7052</v>
+        <v>7050</v>
       </c>
       <c r="F1859" s="14" t="s">
-        <v>6979</v>
+        <v>6978</v>
       </c>
       <c r="G1859" s="14" t="s">
         <v>6418</v>
@@ -74943,16 +75740,16 @@
         <v>6650</v>
       </c>
       <c r="C1860" s="14" t="s">
-        <v>6883</v>
+        <v>6882</v>
       </c>
       <c r="D1860" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1860" s="13" t="s">
-        <v>6882</v>
+        <v>6881</v>
       </c>
       <c r="F1860" s="14" t="s">
-        <v>6884</v>
+        <v>6883</v>
       </c>
       <c r="G1860" s="14" t="s">
         <v>6418</v>
@@ -74969,16 +75766,16 @@
         <v>6651</v>
       </c>
       <c r="C1861" s="14" t="s">
-        <v>6885</v>
+        <v>6884</v>
       </c>
       <c r="D1861" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1861" s="14" t="s">
+        <v>6885</v>
+      </c>
+      <c r="F1861" s="14" t="s">
         <v>6886</v>
-      </c>
-      <c r="F1861" s="14" t="s">
-        <v>6887</v>
       </c>
       <c r="G1861" s="14" t="s">
         <v>6418</v>
@@ -74995,16 +75792,16 @@
         <v>6652</v>
       </c>
       <c r="C1862" s="14" t="s">
-        <v>6888</v>
+        <v>6887</v>
       </c>
       <c r="D1862" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1862" s="14" t="s">
-        <v>6889</v>
+        <v>6888</v>
       </c>
       <c r="F1862" s="13" t="s">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="G1862" s="14" t="s">
         <v>6418</v>
@@ -75021,14 +75818,14 @@
         <v>6653</v>
       </c>
       <c r="C1863" s="14" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
       <c r="D1863" s="14"/>
       <c r="E1863" s="14" t="s">
-        <v>6913</v>
+        <v>6912</v>
       </c>
       <c r="F1863" s="14" t="s">
-        <v>7012</v>
+        <v>7010</v>
       </c>
       <c r="G1863" s="14" t="s">
         <v>6418</v>
@@ -75045,16 +75842,16 @@
         <v>6654</v>
       </c>
       <c r="C1864" s="14" t="s">
-        <v>6904</v>
+        <v>6903</v>
       </c>
       <c r="D1864" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1864" s="13" t="s">
-        <v>6905</v>
+        <v>6904</v>
       </c>
       <c r="F1864" s="14" t="s">
-        <v>6980</v>
+        <v>7356</v>
       </c>
       <c r="G1864" s="14" t="s">
         <v>6418</v>
@@ -75071,16 +75868,16 @@
         <v>6655</v>
       </c>
       <c r="C1865" s="14" t="s">
-        <v>6902</v>
+        <v>6901</v>
       </c>
       <c r="D1865" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1865" s="13" t="s">
-        <v>6901</v>
+        <v>6900</v>
       </c>
       <c r="F1865" s="14" t="s">
-        <v>6903</v>
+        <v>6902</v>
       </c>
       <c r="G1865" s="14" t="s">
         <v>6418</v>
@@ -75097,14 +75894,14 @@
         <v>6656</v>
       </c>
       <c r="C1866" s="14" t="s">
-        <v>6910</v>
+        <v>6909</v>
       </c>
       <c r="D1866" s="14"/>
       <c r="E1866" s="13" t="s">
-        <v>6911</v>
+        <v>6910</v>
       </c>
       <c r="F1866" s="14" t="s">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="G1866" s="14" t="s">
         <v>6418</v>
@@ -75125,10 +75922,10 @@
       </c>
       <c r="D1867" s="14"/>
       <c r="E1867" s="14" t="s">
+        <v>6907</v>
+      </c>
+      <c r="F1867" s="14" t="s">
         <v>6908</v>
-      </c>
-      <c r="F1867" s="14" t="s">
-        <v>6909</v>
       </c>
       <c r="G1867" s="14" t="s">
         <v>6418</v>
@@ -75151,10 +75948,10 @@
         <v>32</v>
       </c>
       <c r="E1868" s="13" t="s">
+        <v>6905</v>
+      </c>
+      <c r="F1868" s="14" t="s">
         <v>6906</v>
-      </c>
-      <c r="F1868" s="14" t="s">
-        <v>6907</v>
       </c>
       <c r="G1868" s="14" t="s">
         <v>6418</v>
@@ -75177,10 +75974,10 @@
         <v>32</v>
       </c>
       <c r="E1869" s="14" t="s">
+        <v>6913</v>
+      </c>
+      <c r="F1869" s="13" t="s">
         <v>6914</v>
-      </c>
-      <c r="F1869" s="13" t="s">
-        <v>6915</v>
       </c>
       <c r="G1869" s="14" t="s">
         <v>6418</v>
@@ -75197,16 +75994,16 @@
         <v>6663</v>
       </c>
       <c r="C1870" s="14" t="s">
-        <v>6916</v>
+        <v>6915</v>
       </c>
       <c r="D1870" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E1870" s="14" t="s">
-        <v>6917</v>
+        <v>6916</v>
       </c>
       <c r="F1870" s="13" t="s">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="G1870" s="14" t="s">
         <v>6418</v>
@@ -75223,16 +76020,16 @@
         <v>6664</v>
       </c>
       <c r="C1871" s="14" t="s">
-        <v>6918</v>
+        <v>6917</v>
       </c>
       <c r="D1871" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E1871" s="13" t="s">
-        <v>6919</v>
+        <v>6918</v>
       </c>
       <c r="F1871" s="14" t="s">
-        <v>7011</v>
+        <v>7009</v>
       </c>
       <c r="G1871" s="1" t="s">
         <v>6418</v>
@@ -75249,16 +76046,16 @@
         <v>6665</v>
       </c>
       <c r="C1872" s="14" t="s">
-        <v>6923</v>
+        <v>6922</v>
       </c>
       <c r="D1872" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1872" s="14" t="s">
-        <v>6922</v>
+        <v>6921</v>
       </c>
       <c r="F1872" s="14" t="s">
-        <v>6924</v>
+        <v>6923</v>
       </c>
       <c r="G1872" s="14" t="s">
         <v>6418</v>
@@ -75275,14 +76072,14 @@
         <v>6666</v>
       </c>
       <c r="C1873" s="14" t="s">
-        <v>6925</v>
+        <v>6924</v>
       </c>
       <c r="D1873" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1873" s="14"/>
       <c r="F1873" s="14" t="s">
-        <v>6927</v>
+        <v>6926</v>
       </c>
       <c r="G1873" s="14" t="s">
         <v>6418</v>
@@ -75299,16 +76096,16 @@
         <v>6667</v>
       </c>
       <c r="C1874" s="14" t="s">
-        <v>6928</v>
+        <v>6927</v>
       </c>
       <c r="D1874" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1874" s="14" t="s">
-        <v>6926</v>
+        <v>6925</v>
       </c>
       <c r="F1874" s="14" t="s">
-        <v>6929</v>
+        <v>6928</v>
       </c>
       <c r="G1874" s="14" t="s">
         <v>6418</v>
@@ -75325,14 +76122,14 @@
         <v>6631</v>
       </c>
       <c r="C1875" s="14" t="s">
-        <v>7213</v>
+        <v>7352</v>
       </c>
       <c r="D1875" s="14" t="s">
         <v>2688</v>
       </c>
       <c r="E1875" s="14"/>
       <c r="F1875" s="14" t="s">
-        <v>7010</v>
+        <v>7008</v>
       </c>
       <c r="G1875" s="14" t="s">
         <v>6418</v>
@@ -75346,25 +76143,25 @@
         <v>1875</v>
       </c>
       <c r="B1876" s="13" t="s">
-        <v>6890</v>
+        <v>6889</v>
       </c>
       <c r="C1876" s="13" t="s">
-        <v>6920</v>
+        <v>6919</v>
       </c>
       <c r="D1876" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1876" s="14" t="s">
-        <v>7053</v>
+        <v>7051</v>
       </c>
       <c r="F1876" s="13" t="s">
-        <v>6921</v>
+        <v>6920</v>
       </c>
       <c r="G1876" s="14" t="s">
         <v>2713</v>
       </c>
       <c r="H1876" s="14" t="s">
-        <v>6868</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="1877" spans="1:8" ht="62.5">
@@ -75372,17 +76169,17 @@
         <v>1876</v>
       </c>
       <c r="B1877" s="13" t="s">
-        <v>6930</v>
+        <v>6929</v>
       </c>
       <c r="C1877" s="14" t="s">
-        <v>6960</v>
+        <v>6959</v>
       </c>
       <c r="D1877" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1877" s="14"/>
       <c r="F1877" s="14" t="s">
-        <v>7009</v>
+        <v>7007</v>
       </c>
       <c r="G1877" s="14" t="s">
         <v>6418</v>
@@ -75396,19 +76193,19 @@
         <v>1877</v>
       </c>
       <c r="B1878" s="13" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C1878" s="14" t="s">
         <v>6931</v>
-      </c>
-      <c r="C1878" s="14" t="s">
-        <v>6932</v>
       </c>
       <c r="D1878" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1878" s="14" t="s">
+        <v>6960</v>
+      </c>
+      <c r="F1878" s="14" t="s">
         <v>6961</v>
-      </c>
-      <c r="F1878" s="14" t="s">
-        <v>6962</v>
       </c>
       <c r="G1878" s="14" t="s">
         <v>6418</v>
@@ -75422,19 +76219,19 @@
         <v>1878</v>
       </c>
       <c r="B1879" s="13" t="s">
-        <v>6933</v>
+        <v>6932</v>
       </c>
       <c r="C1879" s="14" t="s">
-        <v>6964</v>
+        <v>6963</v>
       </c>
       <c r="D1879" s="14" t="s">
         <v>5728</v>
       </c>
       <c r="E1879" s="13" t="s">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="F1879" s="13" t="s">
-        <v>7131</v>
+        <v>7129</v>
       </c>
       <c r="G1879" s="14" t="s">
         <v>6418</v>
@@ -75448,19 +76245,19 @@
         <v>1879</v>
       </c>
       <c r="B1880" s="13" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="C1880" s="14" t="s">
-        <v>6965</v>
+        <v>6964</v>
       </c>
       <c r="D1880" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1880" s="14" t="s">
+        <v>6965</v>
+      </c>
+      <c r="F1880" s="13" t="s">
         <v>6966</v>
-      </c>
-      <c r="F1880" s="13" t="s">
-        <v>6967</v>
       </c>
       <c r="G1880" s="14" t="s">
         <v>6418</v>
@@ -75474,19 +76271,19 @@
         <v>1880</v>
       </c>
       <c r="B1881" s="13" t="s">
+        <v>6934</v>
+      </c>
+      <c r="C1881" s="14" t="s">
         <v>6935</v>
-      </c>
-      <c r="C1881" s="14" t="s">
-        <v>6936</v>
       </c>
       <c r="D1881" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1881" s="14" t="s">
-        <v>6968</v>
+        <v>6967</v>
       </c>
       <c r="F1881" s="13" t="s">
-        <v>7006</v>
+        <v>7004</v>
       </c>
       <c r="G1881" s="14" t="s">
         <v>6418</v>
@@ -75500,19 +76297,19 @@
         <v>1881</v>
       </c>
       <c r="B1882" s="13" t="s">
+        <v>6936</v>
+      </c>
+      <c r="C1882" s="14" t="s">
         <v>6937</v>
-      </c>
-      <c r="C1882" s="14" t="s">
-        <v>6938</v>
       </c>
       <c r="D1882" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1882" s="13" t="s">
-        <v>6969</v>
+        <v>6968</v>
       </c>
       <c r="F1882" s="14" t="s">
-        <v>6972</v>
+        <v>6971</v>
       </c>
       <c r="G1882" s="14" t="s">
         <v>6418</v>
@@ -75526,19 +76323,19 @@
         <v>1882</v>
       </c>
       <c r="B1883" s="13" t="s">
-        <v>6939</v>
+        <v>6938</v>
       </c>
       <c r="C1883" s="14" t="s">
-        <v>6970</v>
+        <v>6969</v>
       </c>
       <c r="D1883" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1883" s="14" t="s">
-        <v>6971</v>
+        <v>6970</v>
       </c>
       <c r="F1883" s="14" t="s">
-        <v>7008</v>
+        <v>7006</v>
       </c>
       <c r="G1883" s="14" t="s">
         <v>6418</v>
@@ -75552,19 +76349,19 @@
         <v>1883</v>
       </c>
       <c r="B1884" s="13" t="s">
-        <v>6940</v>
+        <v>6939</v>
       </c>
       <c r="C1884" s="14" t="s">
-        <v>6973</v>
+        <v>6972</v>
       </c>
       <c r="D1884" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1884" s="13" t="s">
-        <v>7017</v>
+        <v>7015</v>
       </c>
       <c r="F1884" s="14" t="s">
-        <v>7132</v>
+        <v>7130</v>
       </c>
       <c r="G1884" s="14" t="s">
         <v>6418</v>
@@ -75578,16 +76375,16 @@
         <v>1884</v>
       </c>
       <c r="B1885" s="13" t="s">
+        <v>6940</v>
+      </c>
+      <c r="C1885" s="14" t="s">
         <v>6941</v>
-      </c>
-      <c r="C1885" s="14" t="s">
-        <v>6942</v>
       </c>
       <c r="D1885" s="14" t="s">
         <v>2904</v>
       </c>
       <c r="F1885" s="14" t="s">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="G1885" s="14" t="s">
         <v>3769</v>
@@ -75601,19 +76398,19 @@
         <v>1885</v>
       </c>
       <c r="B1886" s="13" t="s">
-        <v>6943</v>
+        <v>6942</v>
       </c>
       <c r="C1886" s="14" t="s">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="D1886" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1886" s="14" t="s">
-        <v>7094</v>
+        <v>7092</v>
       </c>
       <c r="F1886" s="14" t="s">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="G1886" s="14" t="s">
         <v>6418</v>
@@ -75627,19 +76424,19 @@
         <v>1886</v>
       </c>
       <c r="B1887" s="13" t="s">
-        <v>6944</v>
+        <v>6943</v>
       </c>
       <c r="C1887" s="14" t="s">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="D1887" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1887" s="14" t="s">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="F1887" s="13" t="s">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="G1887" s="14" t="s">
         <v>6418</v>
@@ -75653,19 +76450,19 @@
         <v>1887</v>
       </c>
       <c r="B1888" s="13" t="s">
-        <v>6945</v>
+        <v>6944</v>
       </c>
       <c r="C1888" s="14" t="s">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="D1888" s="14" t="s">
         <v>5728</v>
       </c>
       <c r="E1888" s="14" t="s">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="F1888" s="14" t="s">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="G1888" s="14" t="s">
         <v>6418</v>
@@ -75679,19 +76476,19 @@
         <v>1888</v>
       </c>
       <c r="B1889" s="13" t="s">
+        <v>6945</v>
+      </c>
+      <c r="C1889" s="14" t="s">
         <v>6946</v>
-      </c>
-      <c r="C1889" s="14" t="s">
-        <v>6947</v>
       </c>
       <c r="D1889" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1889" s="14" t="s">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="F1889" s="14" t="s">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="G1889" s="14" t="s">
         <v>6418</v>
@@ -75705,19 +76502,19 @@
         <v>1889</v>
       </c>
       <c r="B1890" s="13" t="s">
-        <v>6948</v>
+        <v>6947</v>
       </c>
       <c r="C1890" s="14" t="s">
-        <v>7032</v>
+        <v>7030</v>
       </c>
       <c r="D1890" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1890" s="14" t="s">
+        <v>7029</v>
+      </c>
+      <c r="F1890" s="14" t="s">
         <v>7031</v>
-      </c>
-      <c r="F1890" s="14" t="s">
-        <v>7033</v>
       </c>
       <c r="G1890" s="14" t="s">
         <v>6418</v>
@@ -75731,19 +76528,19 @@
         <v>1890</v>
       </c>
       <c r="B1891" s="13" t="s">
-        <v>6949</v>
+        <v>6948</v>
       </c>
       <c r="C1891" s="14" t="s">
-        <v>7034</v>
+        <v>7032</v>
       </c>
       <c r="D1891" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1891" s="13" t="s">
-        <v>7054</v>
+        <v>7052</v>
       </c>
       <c r="F1891" s="13" t="s">
-        <v>7035</v>
+        <v>7033</v>
       </c>
       <c r="G1891" s="14" t="s">
         <v>6418</v>
@@ -75757,19 +76554,19 @@
         <v>1891</v>
       </c>
       <c r="B1892" s="13" t="s">
+        <v>6949</v>
+      </c>
+      <c r="C1892" s="14" t="s">
         <v>6950</v>
-      </c>
-      <c r="C1892" s="14" t="s">
-        <v>6951</v>
       </c>
       <c r="D1892" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1892" s="14" t="s">
-        <v>7041</v>
+        <v>7039</v>
       </c>
       <c r="F1892" s="14" t="s">
-        <v>7133</v>
+        <v>7131</v>
       </c>
       <c r="G1892" s="14" t="s">
         <v>6418</v>
@@ -75783,19 +76580,19 @@
         <v>1892</v>
       </c>
       <c r="B1893" s="13" t="s">
+        <v>6951</v>
+      </c>
+      <c r="C1893" s="14" t="s">
         <v>6952</v>
-      </c>
-      <c r="C1893" s="14" t="s">
-        <v>6953</v>
       </c>
       <c r="D1893" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1893" s="5" t="s">
-        <v>7042</v>
+        <v>7040</v>
       </c>
       <c r="F1893" s="14" t="s">
-        <v>7043</v>
+        <v>7041</v>
       </c>
       <c r="G1893" s="14" t="s">
         <v>6418</v>
@@ -75809,19 +76606,19 @@
         <v>1893</v>
       </c>
       <c r="B1894" s="13" t="s">
-        <v>6954</v>
+        <v>6953</v>
       </c>
       <c r="C1894" s="14" t="s">
-        <v>7044</v>
+        <v>7042</v>
       </c>
       <c r="D1894" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1894" s="13" t="s">
-        <v>7055</v>
+        <v>7053</v>
       </c>
       <c r="F1894" s="14" t="s">
-        <v>7045</v>
+        <v>7043</v>
       </c>
       <c r="G1894" s="14" t="s">
         <v>6418</v>
@@ -75835,19 +76632,19 @@
         <v>1894</v>
       </c>
       <c r="B1895" s="13" t="s">
-        <v>7046</v>
+        <v>7044</v>
       </c>
       <c r="C1895" s="14" t="s">
-        <v>7047</v>
+        <v>7045</v>
       </c>
       <c r="D1895" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1895" s="13" t="s">
-        <v>7056</v>
+        <v>7054</v>
       </c>
       <c r="F1895" s="13" t="s">
-        <v>7048</v>
+        <v>7046</v>
       </c>
       <c r="G1895" s="14" t="s">
         <v>6418</v>
@@ -75861,19 +76658,19 @@
         <v>1895</v>
       </c>
       <c r="B1896" s="13" t="s">
-        <v>6955</v>
+        <v>6954</v>
       </c>
       <c r="C1896" s="14" t="s">
-        <v>7057</v>
+        <v>7055</v>
       </c>
       <c r="D1896" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1896" s="14" t="s">
-        <v>7049</v>
+        <v>7047</v>
       </c>
       <c r="F1896" s="14" t="s">
-        <v>7058</v>
+        <v>7056</v>
       </c>
       <c r="G1896" s="14" t="s">
         <v>6418</v>
@@ -75887,19 +76684,19 @@
         <v>1896</v>
       </c>
       <c r="B1897" s="13" t="s">
-        <v>6956</v>
+        <v>6955</v>
       </c>
       <c r="C1897" s="14" t="s">
-        <v>7059</v>
+        <v>7057</v>
       </c>
       <c r="D1897" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1897" s="13" t="s">
-        <v>7061</v>
+        <v>7059</v>
       </c>
       <c r="F1897" s="13" t="s">
-        <v>7060</v>
+        <v>7058</v>
       </c>
       <c r="G1897" s="14" t="s">
         <v>6418</v>
@@ -75913,19 +76710,19 @@
         <v>1897</v>
       </c>
       <c r="B1898" s="13" t="s">
-        <v>6957</v>
+        <v>6956</v>
       </c>
       <c r="C1898" s="14" t="s">
-        <v>7063</v>
+        <v>7061</v>
       </c>
       <c r="D1898" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1898" s="13" t="s">
+        <v>7060</v>
+      </c>
+      <c r="F1898" s="14" t="s">
         <v>7062</v>
-      </c>
-      <c r="F1898" s="14" t="s">
-        <v>7064</v>
       </c>
       <c r="G1898" s="14" t="s">
         <v>6418</v>
@@ -75939,19 +76736,19 @@
         <v>1898</v>
       </c>
       <c r="B1899" s="13" t="s">
-        <v>6958</v>
+        <v>6957</v>
       </c>
       <c r="C1899" s="14" t="s">
-        <v>7037</v>
+        <v>7035</v>
       </c>
       <c r="D1899" s="14" t="s">
         <v>5728</v>
       </c>
       <c r="E1899" s="14" t="s">
-        <v>7036</v>
+        <v>7034</v>
       </c>
       <c r="F1899" s="13" t="s">
-        <v>7214</v>
+        <v>7351</v>
       </c>
       <c r="G1899" s="14" t="s">
         <v>6418</v>
@@ -75965,19 +76762,19 @@
         <v>1899</v>
       </c>
       <c r="B1900" s="13" t="s">
-        <v>6959</v>
+        <v>6958</v>
       </c>
       <c r="C1900" s="14" t="s">
-        <v>7038</v>
+        <v>7036</v>
       </c>
       <c r="D1900" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E1900" s="14" t="s">
-        <v>7039</v>
+        <v>7037</v>
       </c>
       <c r="F1900" s="14" t="s">
-        <v>7040</v>
+        <v>7038</v>
       </c>
       <c r="G1900" s="14" t="s">
         <v>6418</v>
@@ -75991,25 +76788,25 @@
         <v>1900</v>
       </c>
       <c r="B1901" s="14" t="s">
-        <v>7066</v>
+        <v>7064</v>
       </c>
       <c r="C1901" s="13" t="s">
-        <v>7067</v>
+        <v>7065</v>
       </c>
       <c r="D1901" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1901" s="13" t="s">
-        <v>7068</v>
+        <v>7066</v>
       </c>
       <c r="F1901" s="13" t="s">
-        <v>7069</v>
+        <v>7067</v>
       </c>
       <c r="G1901" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1901" s="14" t="s">
-        <v>7065</v>
+        <v>7063</v>
       </c>
     </row>
     <row r="1902" spans="1:8" s="13" customFormat="1">
@@ -76017,25 +76814,25 @@
         <v>1901</v>
       </c>
       <c r="B1902" s="14" t="s">
-        <v>7093</v>
+        <v>7091</v>
       </c>
       <c r="C1902" s="13" t="s">
-        <v>7092</v>
+        <v>7090</v>
       </c>
       <c r="D1902" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1902" s="13" t="s">
-        <v>7096</v>
+        <v>7094</v>
       </c>
       <c r="F1902" s="13" t="s">
-        <v>7095</v>
+        <v>7093</v>
       </c>
       <c r="G1902" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1902" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1903" spans="1:8" s="13" customFormat="1">
@@ -76043,22 +76840,22 @@
         <v>1902</v>
       </c>
       <c r="B1903" s="14" t="s">
-        <v>7091</v>
+        <v>7089</v>
       </c>
       <c r="C1903" s="13" t="s">
-        <v>7097</v>
+        <v>7095</v>
       </c>
       <c r="D1903" s="14" t="s">
         <v>2687</v>
       </c>
       <c r="F1903" s="13" t="s">
-        <v>7151</v>
+        <v>7149</v>
       </c>
       <c r="G1903" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1903" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1904" spans="1:8" s="13" customFormat="1" ht="75">
@@ -76066,25 +76863,25 @@
         <v>1903</v>
       </c>
       <c r="B1904" s="14" t="s">
-        <v>7090</v>
+        <v>7088</v>
       </c>
       <c r="C1904" s="14" t="s">
-        <v>7098</v>
+        <v>7096</v>
       </c>
       <c r="D1904" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E1904" s="14" t="s">
-        <v>7099</v>
+        <v>7097</v>
       </c>
       <c r="F1904" s="14" t="s">
-        <v>7100</v>
+        <v>7098</v>
       </c>
       <c r="G1904" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1904" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1905" spans="1:8" s="13" customFormat="1" ht="100">
@@ -76092,25 +76889,25 @@
         <v>1904</v>
       </c>
       <c r="B1905" s="14" t="s">
-        <v>7089</v>
+        <v>7087</v>
       </c>
       <c r="C1905" s="14" t="s">
-        <v>7102</v>
+        <v>7100</v>
       </c>
       <c r="D1905" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1905" s="14" t="s">
+        <v>7099</v>
+      </c>
+      <c r="F1905" s="14" t="s">
         <v>7101</v>
-      </c>
-      <c r="F1905" s="14" t="s">
-        <v>7103</v>
       </c>
       <c r="G1905" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1905" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1906" spans="1:8" s="13" customFormat="1" ht="62.5">
@@ -76118,25 +76915,25 @@
         <v>1905</v>
       </c>
       <c r="B1906" s="14" t="s">
-        <v>7088</v>
+        <v>7086</v>
       </c>
       <c r="C1906" s="14" t="s">
-        <v>7104</v>
+        <v>7102</v>
       </c>
       <c r="D1906" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1906" s="14" t="s">
-        <v>7106</v>
+        <v>7104</v>
       </c>
       <c r="F1906" s="14" t="s">
-        <v>7105</v>
+        <v>7103</v>
       </c>
       <c r="G1906" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1906" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1907" spans="1:8" s="13" customFormat="1" ht="52">
@@ -76144,25 +76941,25 @@
         <v>1906</v>
       </c>
       <c r="B1907" s="14" t="s">
-        <v>7087</v>
+        <v>7085</v>
       </c>
       <c r="C1907" s="14" t="s">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D1907" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1907" s="14" t="s">
-        <v>7108</v>
+        <v>7106</v>
       </c>
       <c r="F1907" s="14" t="s">
-        <v>7109</v>
+        <v>7107</v>
       </c>
       <c r="G1907" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1907" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1908" spans="1:8" s="13" customFormat="1" ht="69" customHeight="1">
@@ -76170,25 +76967,25 @@
         <v>1907</v>
       </c>
       <c r="B1908" s="14" t="s">
-        <v>7086</v>
+        <v>7084</v>
       </c>
       <c r="C1908" s="14" t="s">
-        <v>7110</v>
+        <v>7108</v>
       </c>
       <c r="D1908" s="14" t="s">
         <v>2687</v>
       </c>
       <c r="E1908" s="14" t="s">
-        <v>7112</v>
+        <v>7110</v>
       </c>
       <c r="F1908" s="14" t="s">
-        <v>7111</v>
+        <v>7109</v>
       </c>
       <c r="G1908" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1908" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1909" spans="1:8" ht="75">
@@ -76196,25 +76993,25 @@
         <v>1908</v>
       </c>
       <c r="B1909" s="14" t="s">
-        <v>7085</v>
+        <v>7083</v>
       </c>
       <c r="C1909" s="14" t="s">
-        <v>7114</v>
+        <v>7112</v>
       </c>
       <c r="D1909" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1909" s="14" t="s">
+        <v>7111</v>
+      </c>
+      <c r="F1909" s="14" t="s">
         <v>7113</v>
-      </c>
-      <c r="F1909" s="14" t="s">
-        <v>7115</v>
       </c>
       <c r="G1909" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1909" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1910" spans="1:8" ht="75">
@@ -76222,25 +77019,25 @@
         <v>1909</v>
       </c>
       <c r="B1910" s="14" t="s">
-        <v>7084</v>
+        <v>7082</v>
       </c>
       <c r="C1910" s="14" t="s">
-        <v>7204</v>
+        <v>7202</v>
       </c>
       <c r="D1910" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1910" s="14" t="s">
-        <v>7126</v>
+        <v>7124</v>
       </c>
       <c r="F1910" s="14" t="s">
-        <v>7127</v>
+        <v>7125</v>
       </c>
       <c r="G1910" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1910" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1911" spans="1:8" s="13" customFormat="1" ht="88">
@@ -76248,23 +77045,23 @@
         <v>1910</v>
       </c>
       <c r="B1911" s="14" t="s">
-        <v>7083</v>
+        <v>7081</v>
       </c>
       <c r="C1911" s="14" t="s">
-        <v>7082</v>
+        <v>7080</v>
       </c>
       <c r="D1911" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1911" s="14"/>
       <c r="F1911" s="14" t="s">
-        <v>7116</v>
+        <v>7114</v>
       </c>
       <c r="G1911" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1911" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1912" spans="1:8" s="13" customFormat="1" ht="75">
@@ -76272,25 +77069,25 @@
         <v>1911</v>
       </c>
       <c r="B1912" s="14" t="s">
-        <v>7081</v>
+        <v>7079</v>
       </c>
       <c r="C1912" s="14" t="s">
-        <v>7117</v>
+        <v>7115</v>
       </c>
       <c r="D1912" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1912" s="14" t="s">
-        <v>7118</v>
+        <v>7116</v>
       </c>
       <c r="F1912" s="14" t="s">
-        <v>7119</v>
+        <v>7117</v>
       </c>
       <c r="G1912" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1912" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1913" spans="1:8" s="13" customFormat="1" ht="62.5">
@@ -76298,25 +77095,25 @@
         <v>1912</v>
       </c>
       <c r="B1913" s="14" t="s">
-        <v>7080</v>
+        <v>7078</v>
       </c>
       <c r="C1913" s="14" t="s">
-        <v>7123</v>
+        <v>7121</v>
       </c>
       <c r="D1913" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E1913" s="14" t="s">
-        <v>7124</v>
+        <v>7122</v>
       </c>
       <c r="F1913" s="14" t="s">
-        <v>7125</v>
+        <v>7123</v>
       </c>
       <c r="G1913" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1913" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1914" spans="1:8" s="13" customFormat="1" ht="50">
@@ -76324,25 +77121,25 @@
         <v>1913</v>
       </c>
       <c r="B1914" s="14" t="s">
-        <v>7079</v>
+        <v>7077</v>
       </c>
       <c r="C1914" s="14" t="s">
-        <v>7078</v>
+        <v>7076</v>
       </c>
       <c r="D1914" s="14" t="s">
         <v>5728</v>
       </c>
       <c r="E1914" s="14" t="s">
-        <v>7135</v>
+        <v>7133</v>
       </c>
       <c r="F1914" s="14" t="s">
-        <v>7136</v>
+        <v>7134</v>
       </c>
       <c r="G1914" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1914" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1915" spans="1:8" s="13" customFormat="1" ht="75">
@@ -76350,25 +77147,25 @@
         <v>1914</v>
       </c>
       <c r="B1915" s="14" t="s">
-        <v>7077</v>
+        <v>7075</v>
       </c>
       <c r="C1915" s="14" t="s">
-        <v>7137</v>
+        <v>7135</v>
       </c>
       <c r="D1915" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1915" s="14" t="s">
-        <v>7139</v>
+        <v>7137</v>
       </c>
       <c r="F1915" s="14" t="s">
-        <v>7138</v>
+        <v>7136</v>
       </c>
       <c r="G1915" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1915" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1916" spans="1:8" s="13" customFormat="1" ht="50">
@@ -76376,25 +77173,25 @@
         <v>1915</v>
       </c>
       <c r="B1916" s="14" t="s">
-        <v>7076</v>
+        <v>7074</v>
       </c>
       <c r="C1916" s="14" t="s">
-        <v>7143</v>
+        <v>7141</v>
       </c>
       <c r="D1916" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1916" s="14" t="s">
-        <v>7144</v>
+        <v>7142</v>
       </c>
       <c r="F1916" s="14" t="s">
-        <v>7142</v>
+        <v>7140</v>
       </c>
       <c r="G1916" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1916" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1917" spans="1:8" s="13" customFormat="1" ht="175">
@@ -76402,25 +77199,25 @@
         <v>1916</v>
       </c>
       <c r="B1917" s="14" t="s">
-        <v>7075</v>
+        <v>7073</v>
       </c>
       <c r="C1917" s="14" t="s">
-        <v>7146</v>
+        <v>7144</v>
       </c>
       <c r="D1917" s="14" t="s">
         <v>2687</v>
       </c>
       <c r="E1917" s="14" t="s">
+        <v>7143</v>
+      </c>
+      <c r="F1917" s="14" t="s">
         <v>7145</v>
-      </c>
-      <c r="F1917" s="14" t="s">
-        <v>7147</v>
       </c>
       <c r="G1917" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1917" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1918" spans="1:8" s="13" customFormat="1" ht="100">
@@ -76428,23 +77225,23 @@
         <v>1917</v>
       </c>
       <c r="B1918" s="14" t="s">
-        <v>7074</v>
+        <v>7072</v>
       </c>
       <c r="C1918" s="14" t="s">
-        <v>7128</v>
+        <v>7126</v>
       </c>
       <c r="D1918" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1918" s="14"/>
       <c r="F1918" s="14" t="s">
-        <v>7129</v>
+        <v>7127</v>
       </c>
       <c r="G1918" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1918" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1919" spans="1:8" s="13" customFormat="1" ht="62.5">
@@ -76452,25 +77249,25 @@
         <v>1918</v>
       </c>
       <c r="B1919" s="14" t="s">
-        <v>7073</v>
+        <v>7071</v>
       </c>
       <c r="C1919" s="14" t="s">
-        <v>7148</v>
+        <v>7146</v>
       </c>
       <c r="D1919" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1919" s="14" t="s">
-        <v>7149</v>
+        <v>7147</v>
       </c>
       <c r="F1919" s="14" t="s">
-        <v>7150</v>
+        <v>7148</v>
       </c>
       <c r="G1919" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1919" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1920" spans="1:8" s="13" customFormat="1" ht="50">
@@ -76478,25 +77275,25 @@
         <v>1919</v>
       </c>
       <c r="B1920" s="14" t="s">
-        <v>7160</v>
+        <v>7158</v>
       </c>
       <c r="C1920" s="14" t="s">
-        <v>7201</v>
+        <v>7199</v>
       </c>
       <c r="D1920" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1920" s="14" t="s">
-        <v>7202</v>
+        <v>7200</v>
       </c>
       <c r="F1920" s="14" t="s">
-        <v>7203</v>
+        <v>7201</v>
       </c>
       <c r="G1920" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1920" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1921" spans="1:8" s="13" customFormat="1" ht="50">
@@ -76504,25 +77301,25 @@
         <v>1920</v>
       </c>
       <c r="B1921" s="14" t="s">
-        <v>7159</v>
+        <v>7157</v>
       </c>
       <c r="C1921" s="14" t="s">
-        <v>7217</v>
+        <v>7212</v>
       </c>
       <c r="D1921" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1921" s="14" t="s">
-        <v>7218</v>
+        <v>7213</v>
       </c>
       <c r="F1921" s="14" t="s">
-        <v>7219</v>
+        <v>7214</v>
       </c>
       <c r="G1921" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1921" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1922" spans="1:8" s="13" customFormat="1" ht="62.5">
@@ -76530,25 +77327,25 @@
         <v>1921</v>
       </c>
       <c r="B1922" s="14" t="s">
-        <v>7158</v>
+        <v>7156</v>
       </c>
       <c r="C1922" s="14" t="s">
-        <v>7157</v>
+        <v>7155</v>
       </c>
       <c r="D1922" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E1922" t="s">
-        <v>7220</v>
+      <c r="E1922" s="13" t="s">
+        <v>7215</v>
       </c>
       <c r="F1922" s="14" t="s">
-        <v>7221</v>
+        <v>7216</v>
       </c>
       <c r="G1922" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1922" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1923" spans="1:8" s="13" customFormat="1" ht="187.5">
@@ -76556,25 +77353,25 @@
         <v>1922</v>
       </c>
       <c r="B1923" s="14" t="s">
-        <v>7072</v>
+        <v>7070</v>
       </c>
       <c r="C1923" s="14" t="s">
-        <v>7141</v>
+        <v>7139</v>
       </c>
       <c r="D1923" s="14" t="s">
         <v>2687</v>
       </c>
       <c r="E1923" s="14" t="s">
-        <v>7140</v>
+        <v>7138</v>
       </c>
       <c r="F1923" s="14" t="s">
-        <v>7215</v>
+        <v>7210</v>
       </c>
       <c r="G1923" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1923" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1924" spans="1:8" s="13" customFormat="1" ht="37.5">
@@ -76582,25 +77379,25 @@
         <v>1923</v>
       </c>
       <c r="B1924" s="14" t="s">
-        <v>7071</v>
+        <v>7069</v>
       </c>
       <c r="C1924" s="14" t="s">
-        <v>7120</v>
+        <v>7118</v>
       </c>
       <c r="D1924" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1924" s="14" t="s">
-        <v>7121</v>
+        <v>7119</v>
       </c>
       <c r="F1924" s="14" t="s">
-        <v>7122</v>
+        <v>7120</v>
       </c>
       <c r="G1924" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1924" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1925" spans="1:8" s="13" customFormat="1" ht="75">
@@ -76608,25 +77405,25 @@
         <v>1924</v>
       </c>
       <c r="B1925" s="14" t="s">
-        <v>7156</v>
+        <v>7154</v>
       </c>
       <c r="C1925" s="14" t="s">
-        <v>7279</v>
+        <v>7272</v>
       </c>
       <c r="D1925" s="14" t="s">
         <v>6161</v>
       </c>
       <c r="E1925" s="14" t="s">
-        <v>7155</v>
+        <v>7153</v>
       </c>
       <c r="F1925" s="14" t="s">
-        <v>7278</v>
+        <v>7271</v>
       </c>
       <c r="G1925" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1925" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1926" spans="1:8" s="13" customFormat="1" ht="75">
@@ -76634,25 +77431,25 @@
         <v>1925</v>
       </c>
       <c r="B1926" s="14" t="s">
-        <v>7154</v>
+        <v>7152</v>
       </c>
       <c r="C1926" s="14" t="s">
-        <v>7225</v>
+        <v>7220</v>
       </c>
       <c r="D1926" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1926" s="14" t="s">
-        <v>7224</v>
+        <v>7219</v>
       </c>
       <c r="F1926" s="14" t="s">
-        <v>7280</v>
+        <v>7273</v>
       </c>
       <c r="G1926" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1926" s="14" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="1927" spans="1:8" s="13" customFormat="1" ht="87.5">
@@ -76660,25 +77457,25 @@
         <v>1926</v>
       </c>
       <c r="B1927" s="14" t="s">
-        <v>7200</v>
+        <v>7198</v>
       </c>
       <c r="C1927" s="14" t="s">
-        <v>7223</v>
+        <v>7218</v>
       </c>
       <c r="D1927" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1927" s="14" t="s">
-        <v>7222</v>
+        <v>7217</v>
       </c>
       <c r="F1927" s="14" t="s">
-        <v>7281</v>
+        <v>7274</v>
       </c>
       <c r="G1927" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1927" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1928" spans="1:8" s="13" customFormat="1" ht="75">
@@ -76686,25 +77483,25 @@
         <v>1927</v>
       </c>
       <c r="B1928" s="14" t="s">
-        <v>7199</v>
+        <v>7197</v>
       </c>
       <c r="C1928" s="14" t="s">
-        <v>7227</v>
+        <v>7358</v>
       </c>
       <c r="D1928" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1928" s="14" t="s">
-        <v>7226</v>
+        <v>7221</v>
       </c>
       <c r="F1928" s="14" t="s">
-        <v>7282</v>
+        <v>7275</v>
       </c>
       <c r="G1928" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1928" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1929" spans="1:8" s="13" customFormat="1" ht="25">
@@ -76712,25 +77509,25 @@
         <v>1928</v>
       </c>
       <c r="B1929" s="14" t="s">
-        <v>7198</v>
+        <v>7196</v>
       </c>
       <c r="C1929" s="14" t="s">
-        <v>7228</v>
+        <v>7222</v>
       </c>
       <c r="D1929" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1929" s="14" t="s">
-        <v>7229</v>
+        <v>7223</v>
       </c>
       <c r="F1929" s="14" t="s">
-        <v>7283</v>
+        <v>7276</v>
       </c>
       <c r="G1929" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1929" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1930" spans="1:8" s="13" customFormat="1" ht="50">
@@ -76738,25 +77535,25 @@
         <v>1929</v>
       </c>
       <c r="B1930" s="14" t="s">
-        <v>7197</v>
+        <v>7195</v>
       </c>
       <c r="C1930" s="14" t="s">
-        <v>7230</v>
+        <v>7224</v>
       </c>
       <c r="D1930" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1930" s="14" t="s">
-        <v>7231</v>
+        <v>7225</v>
       </c>
       <c r="F1930" s="14" t="s">
-        <v>7232</v>
+        <v>7226</v>
       </c>
       <c r="G1930" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1930" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1931" spans="1:8" s="13" customFormat="1" ht="87.5">
@@ -76764,25 +77561,25 @@
         <v>1930</v>
       </c>
       <c r="B1931" s="14" t="s">
-        <v>7196</v>
+        <v>7194</v>
       </c>
       <c r="C1931" s="14" t="s">
-        <v>7195</v>
+        <v>7193</v>
       </c>
       <c r="D1931" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1931" s="14" t="s">
-        <v>7233</v>
+        <v>7227</v>
       </c>
       <c r="F1931" s="14" t="s">
-        <v>7234</v>
+        <v>7228</v>
       </c>
       <c r="G1931" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1931" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1932" spans="1:8" s="13" customFormat="1" ht="37.5">
@@ -76790,25 +77587,25 @@
         <v>1931</v>
       </c>
       <c r="B1932" s="14" t="s">
-        <v>7194</v>
+        <v>7192</v>
       </c>
       <c r="C1932" s="14" t="s">
-        <v>7235</v>
+        <v>7229</v>
       </c>
       <c r="D1932" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1932" s="14" t="s">
-        <v>7237</v>
+        <v>7231</v>
       </c>
       <c r="F1932" s="14" t="s">
-        <v>7236</v>
+        <v>7230</v>
       </c>
       <c r="G1932" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1932" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1933" spans="1:8" s="13" customFormat="1" ht="75.5">
@@ -76816,25 +77613,25 @@
         <v>1932</v>
       </c>
       <c r="B1933" s="14" t="s">
-        <v>7193</v>
+        <v>7191</v>
       </c>
       <c r="C1933" s="14" t="s">
-        <v>7238</v>
+        <v>7232</v>
       </c>
       <c r="D1933" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1933" s="14" t="s">
-        <v>7239</v>
+        <v>7233</v>
       </c>
       <c r="F1933" s="14" t="s">
-        <v>7285</v>
+        <v>7278</v>
       </c>
       <c r="G1933" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1933" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1934" spans="1:8" s="13" customFormat="1" ht="37.5">
@@ -76842,7 +77639,7 @@
         <v>1933</v>
       </c>
       <c r="B1934" s="14" t="s">
-        <v>7192</v>
+        <v>7190</v>
       </c>
       <c r="C1934" s="14" t="s">
         <v>3910</v>
@@ -76854,13 +77651,13 @@
         <v>4345</v>
       </c>
       <c r="F1934" s="14" t="s">
-        <v>7284</v>
+        <v>7277</v>
       </c>
       <c r="G1934" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1934" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1935" spans="1:8" s="13" customFormat="1" ht="75">
@@ -76868,25 +77665,25 @@
         <v>1934</v>
       </c>
       <c r="B1935" s="14" t="s">
-        <v>7191</v>
+        <v>7189</v>
       </c>
       <c r="C1935" s="14" t="s">
-        <v>7240</v>
+        <v>7357</v>
       </c>
       <c r="D1935" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1935" s="14" t="s">
-        <v>7242</v>
+        <v>7235</v>
       </c>
       <c r="F1935" s="14" t="s">
-        <v>7241</v>
+        <v>7234</v>
       </c>
       <c r="G1935" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1935" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1936" spans="1:8" s="13" customFormat="1" ht="88">
@@ -76894,25 +77691,25 @@
         <v>1935</v>
       </c>
       <c r="B1936" s="14" t="s">
-        <v>7190</v>
+        <v>7188</v>
       </c>
       <c r="C1936" s="14" t="s">
-        <v>7243</v>
+        <v>7236</v>
       </c>
       <c r="D1936" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1936" s="14" t="s">
-        <v>7245</v>
+        <v>7238</v>
       </c>
       <c r="F1936" s="14" t="s">
-        <v>7244</v>
+        <v>7237</v>
       </c>
       <c r="G1936" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1936" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1937" spans="1:8" s="13" customFormat="1" ht="100">
@@ -76920,25 +77717,25 @@
         <v>1936</v>
       </c>
       <c r="B1937" s="14" t="s">
-        <v>7189</v>
+        <v>7187</v>
       </c>
       <c r="C1937" s="14" t="s">
-        <v>7247</v>
+        <v>7240</v>
       </c>
       <c r="D1937" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1937" s="14" t="s">
-        <v>7246</v>
+        <v>7239</v>
       </c>
       <c r="F1937" s="14" t="s">
-        <v>7248</v>
+        <v>7241</v>
       </c>
       <c r="G1937" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1937" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1938" spans="1:8" s="13" customFormat="1" ht="75">
@@ -76946,25 +77743,25 @@
         <v>1937</v>
       </c>
       <c r="B1938" s="14" t="s">
-        <v>7188</v>
+        <v>7186</v>
       </c>
       <c r="C1938" s="14" t="s">
-        <v>7187</v>
+        <v>7185</v>
       </c>
       <c r="D1938" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1938" s="14" t="s">
-        <v>7249</v>
+        <v>7242</v>
       </c>
       <c r="F1938" s="14" t="s">
-        <v>7250</v>
+        <v>7243</v>
       </c>
       <c r="G1938" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1938" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1939" spans="1:8" s="13" customFormat="1" ht="62.5">
@@ -76972,23 +77769,23 @@
         <v>1938</v>
       </c>
       <c r="B1939" s="14" t="s">
-        <v>7186</v>
+        <v>7184</v>
       </c>
       <c r="C1939" s="14" t="s">
-        <v>7251</v>
+        <v>7244</v>
       </c>
       <c r="D1939" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1939" s="14"/>
       <c r="F1939" s="14" t="s">
-        <v>7252</v>
+        <v>7245</v>
       </c>
       <c r="G1939" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1939" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1940" spans="1:8" s="13" customFormat="1" ht="100.5">
@@ -76996,49 +77793,49 @@
         <v>1939</v>
       </c>
       <c r="B1940" s="14" t="s">
-        <v>7185</v>
+        <v>7183</v>
       </c>
       <c r="C1940" s="14" t="s">
-        <v>7184</v>
+        <v>7182</v>
       </c>
       <c r="D1940" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1940" s="14" t="s">
-        <v>7253</v>
+        <v>7246</v>
       </c>
       <c r="F1940" s="14" t="s">
-        <v>7286</v>
+        <v>7279</v>
       </c>
       <c r="G1940" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1940" s="14" t="s">
-        <v>7161</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:8" s="13" customFormat="1" ht="75">
+        <v>7159</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:8" s="13" customFormat="1" ht="87.5">
       <c r="A1941" s="14">
         <v>1940</v>
       </c>
       <c r="B1941" s="14" t="s">
-        <v>7183</v>
+        <v>7181</v>
       </c>
       <c r="C1941" s="14" t="s">
-        <v>7298</v>
+        <v>7290</v>
       </c>
       <c r="D1941" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1941" s="14"/>
       <c r="F1941" s="14" t="s">
-        <v>7287</v>
+        <v>7354</v>
       </c>
       <c r="G1941" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1941" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1942" spans="1:8" s="13" customFormat="1" ht="87.5">
@@ -77046,25 +77843,25 @@
         <v>1941</v>
       </c>
       <c r="B1942" s="14" t="s">
-        <v>7182</v>
+        <v>7180</v>
       </c>
       <c r="C1942" s="14" t="s">
-        <v>7181</v>
+        <v>7179</v>
       </c>
       <c r="D1942" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1942" s="14" t="s">
-        <v>7254</v>
+        <v>7247</v>
       </c>
       <c r="F1942" s="14" t="s">
-        <v>7255</v>
+        <v>7248</v>
       </c>
       <c r="G1942" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1942" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1943" spans="1:8" s="13" customFormat="1" ht="125">
@@ -77072,25 +77869,25 @@
         <v>1942</v>
       </c>
       <c r="B1943" s="14" t="s">
-        <v>7180</v>
+        <v>7178</v>
       </c>
       <c r="C1943" s="14" t="s">
-        <v>7261</v>
+        <v>7254</v>
       </c>
       <c r="D1943" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1943" s="14" t="s">
-        <v>7260</v>
+        <v>7253</v>
       </c>
       <c r="F1943" s="14" t="s">
-        <v>7288</v>
+        <v>7280</v>
       </c>
       <c r="G1943" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1943" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1944" spans="1:8" s="13" customFormat="1" ht="87.5">
@@ -77098,23 +77895,23 @@
         <v>1943</v>
       </c>
       <c r="B1944" s="14" t="s">
-        <v>7179</v>
+        <v>7177</v>
       </c>
       <c r="C1944" s="14" t="s">
-        <v>7178</v>
+        <v>7176</v>
       </c>
       <c r="D1944" s="14"/>
       <c r="E1944" s="14" t="s">
-        <v>7258</v>
+        <v>7251</v>
       </c>
       <c r="F1944" s="14" t="s">
-        <v>7259</v>
+        <v>7252</v>
       </c>
       <c r="G1944" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1944" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1945" spans="1:8" s="13" customFormat="1" ht="87.5">
@@ -77122,25 +77919,25 @@
         <v>1944</v>
       </c>
       <c r="B1945" s="14" t="s">
-        <v>7177</v>
+        <v>7175</v>
       </c>
       <c r="C1945" s="14" t="s">
-        <v>7176</v>
+        <v>7174</v>
       </c>
       <c r="D1945" s="14" t="s">
         <v>5728</v>
       </c>
       <c r="E1945" s="14" t="s">
-        <v>7257</v>
+        <v>7250</v>
       </c>
       <c r="F1945" s="14" t="s">
-        <v>7289</v>
+        <v>7281</v>
       </c>
       <c r="G1945" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1945" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1946" spans="1:8" s="13" customFormat="1" ht="75">
@@ -77148,25 +77945,25 @@
         <v>1945</v>
       </c>
       <c r="B1946" s="14" t="s">
-        <v>7175</v>
+        <v>7173</v>
       </c>
       <c r="C1946" s="14" t="s">
-        <v>7174</v>
+        <v>7172</v>
       </c>
       <c r="D1946" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E1946" s="14" t="s">
-        <v>7256</v>
+        <v>7249</v>
       </c>
       <c r="F1946" s="14" t="s">
-        <v>7290</v>
+        <v>7282</v>
       </c>
       <c r="G1946" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1946" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1947" spans="1:8" s="13" customFormat="1" ht="50">
@@ -77174,25 +77971,25 @@
         <v>1946</v>
       </c>
       <c r="B1947" s="14" t="s">
-        <v>7173</v>
+        <v>7171</v>
       </c>
       <c r="C1947" s="14" t="s">
-        <v>7263</v>
+        <v>7256</v>
       </c>
       <c r="D1947" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1947" s="14" t="s">
-        <v>7264</v>
+        <v>7257</v>
       </c>
       <c r="F1947" s="14" t="s">
-        <v>7291</v>
+        <v>7283</v>
       </c>
       <c r="G1947" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1947" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1948" spans="1:8" s="13" customFormat="1" ht="62.5">
@@ -77200,25 +77997,25 @@
         <v>1947</v>
       </c>
       <c r="B1948" s="14" t="s">
-        <v>7172</v>
+        <v>7170</v>
       </c>
       <c r="C1948" s="14" t="s">
-        <v>7171</v>
+        <v>7169</v>
       </c>
       <c r="D1948" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1948" s="14" t="s">
-        <v>7265</v>
+        <v>7258</v>
       </c>
       <c r="F1948" s="14" t="s">
-        <v>7266</v>
+        <v>7259</v>
       </c>
       <c r="G1948" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1948" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1949" spans="1:8" s="13" customFormat="1" ht="75">
@@ -77226,25 +78023,25 @@
         <v>1948</v>
       </c>
       <c r="B1949" s="14" t="s">
-        <v>7170</v>
+        <v>7168</v>
       </c>
       <c r="C1949" s="14" t="s">
-        <v>7169</v>
+        <v>7167</v>
       </c>
       <c r="D1949" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1949" s="14" t="s">
-        <v>7262</v>
+        <v>7255</v>
       </c>
       <c r="F1949" s="14" t="s">
-        <v>7292</v>
+        <v>7284</v>
       </c>
       <c r="G1949" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1949" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1950" spans="1:8" s="13" customFormat="1" ht="88">
@@ -77252,25 +78049,25 @@
         <v>1949</v>
       </c>
       <c r="B1950" s="14" t="s">
-        <v>7168</v>
+        <v>7166</v>
       </c>
       <c r="C1950" s="14" t="s">
-        <v>7267</v>
+        <v>7260</v>
       </c>
       <c r="D1950" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1950" s="14" t="s">
-        <v>7268</v>
+        <v>7261</v>
       </c>
       <c r="F1950" s="14" t="s">
-        <v>7293</v>
+        <v>7285</v>
       </c>
       <c r="G1950" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1950" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1951" spans="1:8" s="13" customFormat="1" ht="75">
@@ -77278,25 +78075,25 @@
         <v>1950</v>
       </c>
       <c r="B1951" s="14" t="s">
-        <v>7167</v>
+        <v>7165</v>
       </c>
       <c r="C1951" s="14" t="s">
-        <v>7270</v>
+        <v>7263</v>
       </c>
       <c r="D1951" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1951" s="14" t="s">
-        <v>7269</v>
+        <v>7262</v>
       </c>
       <c r="F1951" s="14" t="s">
-        <v>7294</v>
+        <v>7286</v>
       </c>
       <c r="G1951" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1951" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1952" spans="1:8" s="13" customFormat="1" ht="75">
@@ -77304,25 +78101,25 @@
         <v>1951</v>
       </c>
       <c r="B1952" s="14" t="s">
-        <v>7166</v>
+        <v>7164</v>
       </c>
       <c r="C1952" s="14" t="s">
-        <v>7271</v>
+        <v>7264</v>
       </c>
       <c r="D1952" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1952" s="14" t="s">
-        <v>7297</v>
+        <v>7289</v>
       </c>
       <c r="F1952" s="14" t="s">
-        <v>7295</v>
+        <v>7287</v>
       </c>
       <c r="G1952" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1952" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1953" spans="1:8" s="13" customFormat="1" ht="75">
@@ -77330,23 +78127,23 @@
         <v>1952</v>
       </c>
       <c r="B1953" s="14" t="s">
-        <v>7165</v>
+        <v>7163</v>
       </c>
       <c r="C1953" s="14" t="s">
-        <v>7164</v>
+        <v>7162</v>
       </c>
       <c r="D1953" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E1953" s="14"/>
       <c r="F1953" s="14" t="s">
-        <v>7296</v>
+        <v>7288</v>
       </c>
       <c r="G1953" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1953" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1954" spans="1:8" s="13" customFormat="1" ht="75">
@@ -77354,25 +78151,25 @@
         <v>1953</v>
       </c>
       <c r="B1954" s="14" t="s">
-        <v>7163</v>
+        <v>7161</v>
       </c>
       <c r="C1954" s="14" t="s">
-        <v>7272</v>
+        <v>7265</v>
       </c>
       <c r="D1954" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E1954" s="14" t="s">
-        <v>7274</v>
+        <v>7267</v>
       </c>
       <c r="F1954" s="14" t="s">
-        <v>7273</v>
+        <v>7266</v>
       </c>
       <c r="G1954" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1954" s="14" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="1955" spans="1:8" s="13" customFormat="1" ht="87.5">
@@ -77380,692 +78177,1331 @@
         <v>1954</v>
       </c>
       <c r="B1955" s="14" t="s">
-        <v>7162</v>
+        <v>7160</v>
       </c>
       <c r="C1955" s="14" t="s">
-        <v>7275</v>
+        <v>7268</v>
       </c>
       <c r="D1955" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E1955" s="14" t="s">
-        <v>7276</v>
+        <v>7269</v>
       </c>
       <c r="F1955" s="14" t="s">
-        <v>7277</v>
+        <v>7270</v>
       </c>
       <c r="G1955" s="14" t="s">
         <v>6418</v>
       </c>
       <c r="H1955" s="14" t="s">
-        <v>7161</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:8">
-      <c r="A1956" s="1"/>
-      <c r="B1956" s="1"/>
-      <c r="D1956" s="1"/>
-      <c r="F1956" s="1"/>
-      <c r="G1956" s="1"/>
-      <c r="H1956" s="1"/>
-    </row>
-    <row r="1958" spans="1:8" s="13" customFormat="1"/>
-    <row r="1959" spans="1:8" s="13" customFormat="1"/>
-    <row r="1960" spans="1:8" s="13" customFormat="1"/>
-    <row r="1961" spans="1:8" s="13" customFormat="1"/>
-    <row r="1962" spans="1:8" s="13" customFormat="1"/>
-    <row r="1963" spans="1:8" s="13" customFormat="1"/>
-    <row r="1964" spans="1:8" s="13" customFormat="1"/>
-    <row r="1965" spans="1:8" s="13" customFormat="1"/>
-    <row r="1966" spans="1:8" s="13" customFormat="1"/>
-    <row r="1967" spans="1:8" s="13" customFormat="1"/>
-    <row r="1968" spans="1:8" s="13" customFormat="1"/>
-    <row r="1969" s="13" customFormat="1"/>
-    <row r="1970" s="13" customFormat="1"/>
-    <row r="1971" s="13" customFormat="1"/>
-    <row r="1972" s="13" customFormat="1"/>
-    <row r="1973" s="13" customFormat="1"/>
-    <row r="1974" s="13" customFormat="1"/>
-    <row r="1975" s="13" customFormat="1"/>
-    <row r="1976" s="13" customFormat="1"/>
-    <row r="1977" s="13" customFormat="1"/>
-    <row r="1978" s="13" customFormat="1"/>
-    <row r="1979" s="13" customFormat="1"/>
-    <row r="1980" s="13" customFormat="1"/>
-    <row r="1981" s="13" customFormat="1"/>
-    <row r="1982" s="13" customFormat="1"/>
-    <row r="1983" s="13" customFormat="1"/>
-    <row r="1984" s="13" customFormat="1"/>
+        <v>7159</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:8" s="13" customFormat="1" ht="87.5">
+      <c r="A1956" s="14">
+        <v>1955</v>
+      </c>
+      <c r="B1956" s="14" t="s">
+        <v>7315</v>
+      </c>
+      <c r="C1956" s="14" t="s">
+        <v>7317</v>
+      </c>
+      <c r="D1956" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1956" s="14" t="s">
+        <v>7316</v>
+      </c>
+      <c r="F1956" s="14" t="s">
+        <v>7318</v>
+      </c>
+      <c r="G1956" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1956" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:8" s="13" customFormat="1" ht="62.5">
+      <c r="A1957" s="14">
+        <v>1956</v>
+      </c>
+      <c r="B1957" s="14" t="s">
+        <v>7314</v>
+      </c>
+      <c r="C1957" s="14" t="s">
+        <v>7320</v>
+      </c>
+      <c r="D1957" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1957" s="14" t="s">
+        <v>7319</v>
+      </c>
+      <c r="F1957" s="14" t="s">
+        <v>7321</v>
+      </c>
+      <c r="G1957" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1957" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:8" s="13" customFormat="1" ht="75">
+      <c r="A1958" s="14">
+        <v>1957</v>
+      </c>
+      <c r="B1958" s="14" t="s">
+        <v>7313</v>
+      </c>
+      <c r="C1958" s="14" t="s">
+        <v>7322</v>
+      </c>
+      <c r="D1958" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1958" s="14" t="s">
+        <v>7324</v>
+      </c>
+      <c r="F1958" s="14" t="s">
+        <v>7323</v>
+      </c>
+      <c r="G1958" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1958" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:8" s="13" customFormat="1" ht="87.5">
+      <c r="A1959" s="14">
+        <v>1958</v>
+      </c>
+      <c r="B1959" s="14" t="s">
+        <v>7312</v>
+      </c>
+      <c r="C1959" s="14" t="s">
+        <v>7325</v>
+      </c>
+      <c r="D1959" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1959" s="14" t="s">
+        <v>7326</v>
+      </c>
+      <c r="F1959" s="14" t="s">
+        <v>7327</v>
+      </c>
+      <c r="G1959" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1959" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:8" s="13" customFormat="1" ht="88">
+      <c r="A1960" s="14">
+        <v>1959</v>
+      </c>
+      <c r="B1960" s="14" t="s">
+        <v>7311</v>
+      </c>
+      <c r="C1960" s="14" t="s">
+        <v>7310</v>
+      </c>
+      <c r="D1960" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1960" s="14" t="s">
+        <v>7329</v>
+      </c>
+      <c r="F1960" s="14" t="s">
+        <v>7328</v>
+      </c>
+      <c r="G1960" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1960" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:8" s="13" customFormat="1" ht="75.5">
+      <c r="A1961" s="14">
+        <v>1960</v>
+      </c>
+      <c r="B1961" s="14" t="s">
+        <v>7309</v>
+      </c>
+      <c r="C1961" s="14" t="s">
+        <v>7330</v>
+      </c>
+      <c r="D1961" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1961" s="13" t="s">
+        <v>7332</v>
+      </c>
+      <c r="F1961" s="14" t="s">
+        <v>7331</v>
+      </c>
+      <c r="G1961" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1961" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:8" s="13" customFormat="1" ht="87.5">
+      <c r="A1962" s="14">
+        <v>1961</v>
+      </c>
+      <c r="B1962" s="14" t="s">
+        <v>7308</v>
+      </c>
+      <c r="C1962" s="14" t="s">
+        <v>7335</v>
+      </c>
+      <c r="D1962" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1962" s="13" t="s">
+        <v>7333</v>
+      </c>
+      <c r="F1962" s="14" t="s">
+        <v>7334</v>
+      </c>
+      <c r="G1962" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1962" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:8" s="13" customFormat="1" ht="50.5">
+      <c r="A1963" s="14">
+        <v>1962</v>
+      </c>
+      <c r="B1963" s="14" t="s">
+        <v>7307</v>
+      </c>
+      <c r="C1963" s="14" t="s">
+        <v>7306</v>
+      </c>
+      <c r="D1963" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1963" s="13" t="s">
+        <v>7336</v>
+      </c>
+      <c r="F1963" s="14" t="s">
+        <v>7337</v>
+      </c>
+      <c r="G1963" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1963" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:8" s="13" customFormat="1" ht="75">
+      <c r="A1964" s="14">
+        <v>1963</v>
+      </c>
+      <c r="B1964" s="14" t="s">
+        <v>7338</v>
+      </c>
+      <c r="C1964" s="14" t="s">
+        <v>7340</v>
+      </c>
+      <c r="D1964" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1964" s="14" t="s">
+        <v>7339</v>
+      </c>
+      <c r="F1964" s="14" t="s">
+        <v>7341</v>
+      </c>
+      <c r="G1964" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1964" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:8" s="13" customFormat="1" ht="75">
+      <c r="A1965" s="14">
+        <v>1964</v>
+      </c>
+      <c r="B1965" s="14" t="s">
+        <v>7305</v>
+      </c>
+      <c r="C1965" s="14" t="s">
+        <v>7342</v>
+      </c>
+      <c r="D1965" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1965" s="14" t="s">
+        <v>7344</v>
+      </c>
+      <c r="F1965" s="14" t="s">
+        <v>7343</v>
+      </c>
+      <c r="G1965" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1965" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:8" s="13" customFormat="1" ht="63">
+      <c r="A1966" s="14">
+        <v>1965</v>
+      </c>
+      <c r="B1966" s="14" t="s">
+        <v>7304</v>
+      </c>
+      <c r="C1966" s="14" t="s">
+        <v>7346</v>
+      </c>
+      <c r="D1966" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1966" s="14" t="s">
+        <v>7345</v>
+      </c>
+      <c r="F1966" s="14" t="s">
+        <v>7347</v>
+      </c>
+      <c r="G1966" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1966" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:8" s="13" customFormat="1" ht="87.5">
+      <c r="A1967" s="14">
+        <v>1966</v>
+      </c>
+      <c r="B1967" s="14" t="s">
+        <v>7303</v>
+      </c>
+      <c r="C1967" s="14" t="s">
+        <v>7349</v>
+      </c>
+      <c r="D1967" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1967" s="14" t="s">
+        <v>7348</v>
+      </c>
+      <c r="F1967" s="14" t="s">
+        <v>7350</v>
+      </c>
+      <c r="G1967" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1967" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:8" s="13" customFormat="1" ht="87.5">
+      <c r="A1968" s="14">
+        <v>1967</v>
+      </c>
+      <c r="B1968" s="14" t="s">
+        <v>7302</v>
+      </c>
+      <c r="C1968" s="14" t="s">
+        <v>7359</v>
+      </c>
+      <c r="D1968" s="14" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E1968" s="14" t="s">
+        <v>7360</v>
+      </c>
+      <c r="F1968" s="14" t="s">
+        <v>7361</v>
+      </c>
+      <c r="G1968" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1968" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:8" s="13" customFormat="1" ht="75">
+      <c r="A1969" s="14">
+        <v>1968</v>
+      </c>
+      <c r="B1969" s="14" t="s">
+        <v>7301</v>
+      </c>
+      <c r="C1969" s="14" t="s">
+        <v>7300</v>
+      </c>
+      <c r="D1969" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1969" s="14" t="s">
+        <v>7362</v>
+      </c>
+      <c r="F1969" s="14" t="s">
+        <v>7363</v>
+      </c>
+      <c r="G1969" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1969" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:8" s="13" customFormat="1" ht="62.5">
+      <c r="A1970" s="14">
+        <v>1969</v>
+      </c>
+      <c r="B1970" s="14" t="s">
+        <v>7299</v>
+      </c>
+      <c r="C1970" s="14" t="s">
+        <v>7365</v>
+      </c>
+      <c r="D1970" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1970" s="14" t="s">
+        <v>7364</v>
+      </c>
+      <c r="F1970" s="14" t="s">
+        <v>7366</v>
+      </c>
+      <c r="G1970" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1970" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:8" s="13" customFormat="1" ht="75">
+      <c r="A1971" s="14">
+        <v>1970</v>
+      </c>
+      <c r="B1971" s="14" t="s">
+        <v>7298</v>
+      </c>
+      <c r="C1971" s="14" t="s">
+        <v>7297</v>
+      </c>
+      <c r="D1971" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1971" s="14" t="s">
+        <v>7367</v>
+      </c>
+      <c r="F1971" s="14" t="s">
+        <v>7368</v>
+      </c>
+      <c r="G1971" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1971" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:8" s="13" customFormat="1" ht="75">
+      <c r="A1972" s="14">
+        <v>1971</v>
+      </c>
+      <c r="B1972" s="14" t="s">
+        <v>7296</v>
+      </c>
+      <c r="C1972" s="14" t="s">
+        <v>7369</v>
+      </c>
+      <c r="D1972" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1972" s="14" t="s">
+        <v>7370</v>
+      </c>
+      <c r="F1972" s="14" t="s">
+        <v>7371</v>
+      </c>
+      <c r="G1972" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1972" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:8" s="13" customFormat="1" ht="75.5">
+      <c r="A1973" s="14">
+        <v>1972</v>
+      </c>
+      <c r="B1973" s="14" t="s">
+        <v>7295</v>
+      </c>
+      <c r="C1973" s="14" t="s">
+        <v>7294</v>
+      </c>
+      <c r="D1973" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1973" s="14" t="s">
+        <v>7372</v>
+      </c>
+      <c r="F1973" s="14" t="s">
+        <v>7373</v>
+      </c>
+      <c r="G1973" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1973" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:8" s="13" customFormat="1" ht="50">
+      <c r="A1974" s="14">
+        <v>1973</v>
+      </c>
+      <c r="B1974" s="14" t="s">
+        <v>7293</v>
+      </c>
+      <c r="C1974" s="14" t="s">
+        <v>7376</v>
+      </c>
+      <c r="D1974" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1974" s="14" t="s">
+        <v>7374</v>
+      </c>
+      <c r="F1974" s="14" t="s">
+        <v>7375</v>
+      </c>
+      <c r="G1974" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1974" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:8" s="13" customFormat="1" ht="62.5">
+      <c r="A1975" s="14">
+        <v>1974</v>
+      </c>
+      <c r="B1975" s="14" t="s">
+        <v>7292</v>
+      </c>
+      <c r="C1975" s="14" t="s">
+        <v>7291</v>
+      </c>
+      <c r="D1975" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1975" s="14" t="s">
+        <v>7377</v>
+      </c>
+      <c r="F1975" s="14" t="s">
+        <v>7378</v>
+      </c>
+      <c r="G1975" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H1975" s="14" t="s">
+        <v>7063</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:8" s="13" customFormat="1">
+      <c r="A1976" s="14"/>
+      <c r="C1976" s="14"/>
+      <c r="E1976" s="14"/>
+      <c r="F1976" s="14"/>
+    </row>
+    <row r="1977" spans="1:8" s="13" customFormat="1">
+      <c r="C1977" s="14"/>
+      <c r="E1977" s="14"/>
+      <c r="F1977" s="14"/>
+    </row>
+    <row r="1978" spans="1:8" s="13" customFormat="1">
+      <c r="C1978" s="14"/>
+      <c r="E1978" s="14"/>
+      <c r="F1978" s="14"/>
+    </row>
+    <row r="1979" spans="1:8" s="13" customFormat="1">
+      <c r="C1979" s="14"/>
+      <c r="E1979" s="14"/>
+      <c r="F1979" s="14"/>
+    </row>
+    <row r="1980" spans="1:8" s="13" customFormat="1">
+      <c r="C1980" s="14"/>
+      <c r="E1980" s="14"/>
+      <c r="F1980" s="14"/>
+    </row>
+    <row r="1981" spans="1:8" s="13" customFormat="1">
+      <c r="C1981" s="14"/>
+      <c r="E1981" s="14"/>
+      <c r="F1981" s="14"/>
+    </row>
+    <row r="1982" spans="1:8">
+      <c r="A1982" s="1"/>
+      <c r="B1982" s="1"/>
+      <c r="D1982" s="1"/>
+      <c r="F1982" s="1"/>
+      <c r="G1982" s="1"/>
+      <c r="H1982" s="1"/>
+    </row>
+    <row r="1984" spans="1:8" s="13" customFormat="1"/>
     <row r="1985" s="13" customFormat="1"/>
     <row r="1986" s="13" customFormat="1"/>
+    <row r="1987" s="13" customFormat="1"/>
+    <row r="1988" s="13" customFormat="1"/>
+    <row r="1989" s="13" customFormat="1"/>
   </sheetData>
   <sortState ref="A1:H1487">
     <sortCondition ref="B1:B1487"/>
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1597">
-    <cfRule type="duplicateValues" dxfId="213" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1597">
-    <cfRule type="duplicateValues" dxfId="212" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="275"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1597">
-    <cfRule type="duplicateValues" dxfId="211" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1743:A1744">
-    <cfRule type="duplicateValues" dxfId="210" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="272"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1743:B1744">
-    <cfRule type="duplicateValues" dxfId="209" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1745:A1749">
-    <cfRule type="duplicateValues" dxfId="208" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1745:B1749">
-    <cfRule type="duplicateValues" dxfId="207" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1750:A1753">
-    <cfRule type="duplicateValues" dxfId="206" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1750:B1753">
-    <cfRule type="duplicateValues" dxfId="205" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1754">
-    <cfRule type="duplicateValues" dxfId="204" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="266"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1754">
-    <cfRule type="duplicateValues" dxfId="203" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="267"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1755:A1759">
-    <cfRule type="duplicateValues" dxfId="202" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1755:B1759">
-    <cfRule type="duplicateValues" dxfId="201" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1760">
-    <cfRule type="duplicateValues" dxfId="200" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="262"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1760">
-    <cfRule type="duplicateValues" dxfId="199" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1761:A1763">
-    <cfRule type="duplicateValues" dxfId="198" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1761:B1763">
-    <cfRule type="duplicateValues" dxfId="197" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1764:A1766">
-    <cfRule type="duplicateValues" dxfId="196" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1764:B1766">
-    <cfRule type="duplicateValues" dxfId="195" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="259"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1767">
-    <cfRule type="duplicateValues" dxfId="194" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1767">
-    <cfRule type="duplicateValues" dxfId="193" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1768">
-    <cfRule type="duplicateValues" dxfId="192" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1768">
-    <cfRule type="duplicateValues" dxfId="191" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="279"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1769">
-    <cfRule type="duplicateValues" dxfId="190" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1769">
-    <cfRule type="duplicateValues" dxfId="189" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1770">
-    <cfRule type="duplicateValues" dxfId="188" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="251"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1771:B1777">
-    <cfRule type="duplicateValues" dxfId="187" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1771:A1777">
-    <cfRule type="duplicateValues" dxfId="186" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1778:B1779">
-    <cfRule type="duplicateValues" dxfId="185" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="247"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1778:A1779">
-    <cfRule type="duplicateValues" dxfId="184" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="248"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1982">
+    <cfRule type="duplicateValues" dxfId="235" priority="243"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1982 A1871 A1874 A1877">
+    <cfRule type="duplicateValues" dxfId="234" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1780:B1782">
+    <cfRule type="duplicateValues" dxfId="233" priority="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1780:A1782">
+    <cfRule type="duplicateValues" dxfId="232" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1783">
+    <cfRule type="duplicateValues" dxfId="231" priority="239"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1783">
+    <cfRule type="duplicateValues" dxfId="230" priority="240"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1784:B1786">
+    <cfRule type="duplicateValues" dxfId="229" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1784:A1786">
+    <cfRule type="duplicateValues" dxfId="228" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1787:B1789">
+    <cfRule type="duplicateValues" dxfId="227" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1787:A1789">
+    <cfRule type="duplicateValues" dxfId="226" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1790:B1796">
+    <cfRule type="duplicateValues" dxfId="225" priority="232"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1790:A1796">
+    <cfRule type="duplicateValues" dxfId="224" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1797:A1806">
+    <cfRule type="duplicateValues" dxfId="223" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1797:B1806">
+    <cfRule type="duplicateValues" dxfId="222" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1814:A1816">
+    <cfRule type="duplicateValues" dxfId="221" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1807:B1813">
+    <cfRule type="duplicateValues" dxfId="220" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1807:A1810">
+    <cfRule type="duplicateValues" dxfId="219" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1811:A1813">
+    <cfRule type="duplicateValues" dxfId="218" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1814:B1816">
+    <cfRule type="duplicateValues" dxfId="217" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1839 A1841 A1843 A1845 A1847 A1849">
+    <cfRule type="duplicateValues" dxfId="216" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1839">
+    <cfRule type="duplicateValues" dxfId="215" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1817">
+    <cfRule type="duplicateValues" dxfId="214" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1817">
+    <cfRule type="duplicateValues" dxfId="213" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1818">
+    <cfRule type="duplicateValues" dxfId="212" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1818">
+    <cfRule type="duplicateValues" dxfId="211" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1819">
+    <cfRule type="duplicateValues" dxfId="210" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1819">
+    <cfRule type="duplicateValues" dxfId="209" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1820">
+    <cfRule type="duplicateValues" dxfId="208" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1820">
+    <cfRule type="duplicateValues" dxfId="207" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1821">
+    <cfRule type="duplicateValues" dxfId="206" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1821">
+    <cfRule type="duplicateValues" dxfId="205" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1822">
+    <cfRule type="duplicateValues" dxfId="204" priority="205"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1822">
+    <cfRule type="duplicateValues" dxfId="203" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1823:A1824">
+    <cfRule type="duplicateValues" dxfId="202" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1823:B1824">
+    <cfRule type="duplicateValues" dxfId="201" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1825:A1826">
+    <cfRule type="duplicateValues" dxfId="200" priority="201"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1825:B1826">
+    <cfRule type="duplicateValues" dxfId="199" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1827:A1828">
+    <cfRule type="duplicateValues" dxfId="198" priority="199"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1827:B1828">
+    <cfRule type="duplicateValues" dxfId="197" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1829:A1830">
+    <cfRule type="duplicateValues" dxfId="196" priority="197"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1829:B1830">
+    <cfRule type="duplicateValues" dxfId="195" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1831">
+    <cfRule type="duplicateValues" dxfId="194" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1831">
+    <cfRule type="duplicateValues" dxfId="193" priority="196"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1832">
+    <cfRule type="duplicateValues" dxfId="192" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1832">
+    <cfRule type="duplicateValues" dxfId="191" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1833">
+    <cfRule type="duplicateValues" dxfId="190" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1833">
+    <cfRule type="duplicateValues" dxfId="189" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1834">
+    <cfRule type="duplicateValues" dxfId="188" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1834">
+    <cfRule type="duplicateValues" dxfId="187" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1835">
+    <cfRule type="duplicateValues" dxfId="186" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1835">
+    <cfRule type="duplicateValues" dxfId="185" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1836">
+    <cfRule type="duplicateValues" dxfId="184" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1836">
+    <cfRule type="duplicateValues" dxfId="183" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1837">
+    <cfRule type="duplicateValues" dxfId="182" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1837">
+    <cfRule type="duplicateValues" dxfId="181" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1838 A1840 A1842 A1844 A1846 A1848 A1850">
+    <cfRule type="duplicateValues" dxfId="180" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1838">
+    <cfRule type="duplicateValues" dxfId="179" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1841">
+    <cfRule type="duplicateValues" dxfId="178" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1842">
+    <cfRule type="duplicateValues" dxfId="177" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1843">
+    <cfRule type="duplicateValues" dxfId="176" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1844">
+    <cfRule type="duplicateValues" dxfId="175" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1845">
+    <cfRule type="duplicateValues" dxfId="174" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1850">
+    <cfRule type="duplicateValues" dxfId="173" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1849">
+    <cfRule type="duplicateValues" dxfId="172" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1847">
+    <cfRule type="duplicateValues" dxfId="171" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1848">
+    <cfRule type="duplicateValues" dxfId="170" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1846">
+    <cfRule type="duplicateValues" dxfId="169" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1851 A1853 A1855 A1857 A1859 A1861 A1863 A1865 A1867 A1869:A1870 A1872:A1873 A1875:A1876 A1878:A1879 A1881:A1896">
+    <cfRule type="duplicateValues" dxfId="168" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1852 A1854 A1856 A1858 A1860 A1862 A1864 A1866 A1868">
+    <cfRule type="duplicateValues" dxfId="167" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1851">
+    <cfRule type="duplicateValues" dxfId="166" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1852">
+    <cfRule type="duplicateValues" dxfId="165" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1853">
+    <cfRule type="duplicateValues" dxfId="164" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1854">
+    <cfRule type="duplicateValues" dxfId="163" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1855">
+    <cfRule type="duplicateValues" dxfId="162" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1856">
+    <cfRule type="duplicateValues" dxfId="161" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1857">
+    <cfRule type="duplicateValues" dxfId="160" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1860">
+    <cfRule type="duplicateValues" dxfId="159" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1859">
+    <cfRule type="duplicateValues" dxfId="158" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1863">
+    <cfRule type="duplicateValues" dxfId="157" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1862">
+    <cfRule type="duplicateValues" dxfId="156" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1861">
+    <cfRule type="duplicateValues" dxfId="155" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1858">
+    <cfRule type="duplicateValues" dxfId="154" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1864:B1865">
+    <cfRule type="duplicateValues" dxfId="153" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1866">
+    <cfRule type="duplicateValues" dxfId="152" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1867">
+    <cfRule type="duplicateValues" dxfId="151" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1868">
+    <cfRule type="duplicateValues" dxfId="150" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1869">
+    <cfRule type="duplicateValues" dxfId="149" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1880">
+    <cfRule type="duplicateValues" dxfId="148" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1897">
+    <cfRule type="duplicateValues" dxfId="147" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1898">
+    <cfRule type="duplicateValues" dxfId="146" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1899">
+    <cfRule type="duplicateValues" dxfId="145" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1900">
+    <cfRule type="duplicateValues" dxfId="144" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1901">
+    <cfRule type="duplicateValues" dxfId="143" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1902">
+    <cfRule type="duplicateValues" dxfId="142" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1903">
+    <cfRule type="duplicateValues" dxfId="141" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1904">
+    <cfRule type="duplicateValues" dxfId="140" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1906">
+    <cfRule type="duplicateValues" dxfId="139" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1907">
+    <cfRule type="duplicateValues" dxfId="138" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1908">
+    <cfRule type="duplicateValues" dxfId="137" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1905">
+    <cfRule type="duplicateValues" dxfId="136" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1913">
+    <cfRule type="duplicateValues" dxfId="135" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1913">
+    <cfRule type="duplicateValues" dxfId="134" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1915:A1917">
+    <cfRule type="duplicateValues" dxfId="133" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1915:B1917">
+    <cfRule type="duplicateValues" dxfId="132" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1909">
+    <cfRule type="duplicateValues" dxfId="131" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1910">
+    <cfRule type="duplicateValues" dxfId="130" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1911">
+    <cfRule type="duplicateValues" dxfId="129" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1912">
+    <cfRule type="duplicateValues" dxfId="128" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1914">
+    <cfRule type="duplicateValues" dxfId="127" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1914">
+    <cfRule type="duplicateValues" dxfId="126" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1918:A1919 A1923:A1924">
+    <cfRule type="duplicateValues" dxfId="125" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1918:B1919 B1923:B1924">
+    <cfRule type="duplicateValues" dxfId="124" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1920">
+    <cfRule type="duplicateValues" dxfId="123" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1920">
+    <cfRule type="duplicateValues" dxfId="122" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1921">
+    <cfRule type="duplicateValues" dxfId="121" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1921">
+    <cfRule type="duplicateValues" dxfId="120" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1922">
+    <cfRule type="duplicateValues" dxfId="119" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1922">
+    <cfRule type="duplicateValues" dxfId="118" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1927">
+    <cfRule type="duplicateValues" dxfId="117" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1927">
+    <cfRule type="duplicateValues" dxfId="116" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1926">
+    <cfRule type="duplicateValues" dxfId="115" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1926">
+    <cfRule type="duplicateValues" dxfId="114" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1928">
+    <cfRule type="duplicateValues" dxfId="113" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1928">
+    <cfRule type="duplicateValues" dxfId="112" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1929">
+    <cfRule type="duplicateValues" dxfId="111" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1929">
+    <cfRule type="duplicateValues" dxfId="110" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1930">
+    <cfRule type="duplicateValues" dxfId="109" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1930">
+    <cfRule type="duplicateValues" dxfId="108" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1931">
+    <cfRule type="duplicateValues" dxfId="107" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1931">
+    <cfRule type="duplicateValues" dxfId="106" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1932">
+    <cfRule type="duplicateValues" dxfId="105" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1932">
+    <cfRule type="duplicateValues" dxfId="104" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1933:A1934">
+    <cfRule type="duplicateValues" dxfId="103" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1933:B1934">
+    <cfRule type="duplicateValues" dxfId="102" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1935">
+    <cfRule type="duplicateValues" dxfId="101" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1935">
+    <cfRule type="duplicateValues" dxfId="100" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1936">
+    <cfRule type="duplicateValues" dxfId="99" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1936">
+    <cfRule type="duplicateValues" dxfId="98" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1937">
+    <cfRule type="duplicateValues" dxfId="97" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1937">
+    <cfRule type="duplicateValues" dxfId="96" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1938">
+    <cfRule type="duplicateValues" dxfId="95" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1938">
+    <cfRule type="duplicateValues" dxfId="94" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1939">
+    <cfRule type="duplicateValues" dxfId="93" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1939">
+    <cfRule type="duplicateValues" dxfId="92" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1940">
+    <cfRule type="duplicateValues" dxfId="91" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1940">
+    <cfRule type="duplicateValues" dxfId="90" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1941">
+    <cfRule type="duplicateValues" dxfId="89" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1941">
+    <cfRule type="duplicateValues" dxfId="88" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1942">
+    <cfRule type="duplicateValues" dxfId="87" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1942">
+    <cfRule type="duplicateValues" dxfId="86" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1946">
+    <cfRule type="duplicateValues" dxfId="85" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1946">
+    <cfRule type="duplicateValues" dxfId="84" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1945">
+    <cfRule type="duplicateValues" dxfId="83" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1945">
+    <cfRule type="duplicateValues" dxfId="82" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1944">
+    <cfRule type="duplicateValues" dxfId="81" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1944">
+    <cfRule type="duplicateValues" dxfId="80" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1943">
+    <cfRule type="duplicateValues" dxfId="79" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1943">
+    <cfRule type="duplicateValues" dxfId="78" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1949">
+    <cfRule type="duplicateValues" dxfId="77" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1949">
+    <cfRule type="duplicateValues" dxfId="76" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1947">
+    <cfRule type="duplicateValues" dxfId="75" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1947">
+    <cfRule type="duplicateValues" dxfId="74" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1948">
+    <cfRule type="duplicateValues" dxfId="73" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1948">
+    <cfRule type="duplicateValues" dxfId="72" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1950">
+    <cfRule type="duplicateValues" dxfId="71" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1950">
+    <cfRule type="duplicateValues" dxfId="70" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1951">
+    <cfRule type="duplicateValues" dxfId="69" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1951">
+    <cfRule type="duplicateValues" dxfId="68" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1952">
+    <cfRule type="duplicateValues" dxfId="67" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1952">
+    <cfRule type="duplicateValues" dxfId="66" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1953">
+    <cfRule type="duplicateValues" dxfId="65" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1953">
+    <cfRule type="duplicateValues" dxfId="64" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1954">
+    <cfRule type="duplicateValues" dxfId="63" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1954">
+    <cfRule type="duplicateValues" dxfId="62" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1955">
+    <cfRule type="duplicateValues" dxfId="61" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1955">
+    <cfRule type="duplicateValues" dxfId="60" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1925">
+    <cfRule type="duplicateValues" dxfId="59" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1925">
+    <cfRule type="duplicateValues" dxfId="58" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1956">
+    <cfRule type="duplicateValues" dxfId="57" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1956">
-    <cfRule type="duplicateValues" dxfId="183" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1956 A1871 A1874 A1877">
-    <cfRule type="duplicateValues" dxfId="182" priority="201"/>
+  <conditionalFormatting sqref="A1957">
+    <cfRule type="duplicateValues" dxfId="55" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1780:B1782">
-    <cfRule type="duplicateValues" dxfId="181" priority="198"/>
+  <conditionalFormatting sqref="B1957">
+    <cfRule type="duplicateValues" dxfId="54" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1780:A1782">
-    <cfRule type="duplicateValues" dxfId="180" priority="199"/>
+  <conditionalFormatting sqref="A1958">
+    <cfRule type="duplicateValues" dxfId="53" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1783">
-    <cfRule type="duplicateValues" dxfId="179" priority="196"/>
+  <conditionalFormatting sqref="B1958">
+    <cfRule type="duplicateValues" dxfId="52" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1783">
-    <cfRule type="duplicateValues" dxfId="178" priority="197"/>
+  <conditionalFormatting sqref="A1959">
+    <cfRule type="duplicateValues" dxfId="51" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1784:B1786">
-    <cfRule type="duplicateValues" dxfId="177" priority="194"/>
+  <conditionalFormatting sqref="B1959">
+    <cfRule type="duplicateValues" dxfId="50" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1784:A1786">
-    <cfRule type="duplicateValues" dxfId="176" priority="193"/>
+  <conditionalFormatting sqref="A1960:A1961">
+    <cfRule type="duplicateValues" dxfId="49" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1787:B1789">
-    <cfRule type="duplicateValues" dxfId="175" priority="192"/>
+  <conditionalFormatting sqref="B1960:B1961">
+    <cfRule type="duplicateValues" dxfId="48" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1787:A1789">
-    <cfRule type="duplicateValues" dxfId="174" priority="190"/>
+  <conditionalFormatting sqref="A1962">
+    <cfRule type="duplicateValues" dxfId="47" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1790:B1796">
-    <cfRule type="duplicateValues" dxfId="173" priority="189"/>
+  <conditionalFormatting sqref="B1962">
+    <cfRule type="duplicateValues" dxfId="46" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1790:A1796">
-    <cfRule type="duplicateValues" dxfId="172" priority="187"/>
+  <conditionalFormatting sqref="A1963">
+    <cfRule type="duplicateValues" dxfId="45" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1797:A1806">
-    <cfRule type="duplicateValues" dxfId="171" priority="184"/>
+  <conditionalFormatting sqref="B1963">
+    <cfRule type="duplicateValues" dxfId="44" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1797:B1806">
-    <cfRule type="duplicateValues" dxfId="170" priority="186"/>
+  <conditionalFormatting sqref="A1964 A1967 A1976">
+    <cfRule type="duplicateValues" dxfId="43" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1814:A1816">
-    <cfRule type="duplicateValues" dxfId="169" priority="178"/>
+  <conditionalFormatting sqref="B1964">
+    <cfRule type="duplicateValues" dxfId="42" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1807:B1813">
-    <cfRule type="duplicateValues" dxfId="168" priority="183"/>
+  <conditionalFormatting sqref="A1965">
+    <cfRule type="duplicateValues" dxfId="40" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1807:A1810">
-    <cfRule type="duplicateValues" dxfId="167" priority="181"/>
+  <conditionalFormatting sqref="B1965">
+    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1811:A1813">
-    <cfRule type="duplicateValues" dxfId="166" priority="180"/>
+  <conditionalFormatting sqref="A1966">
+    <cfRule type="duplicateValues" dxfId="38" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1814:B1816">
-    <cfRule type="duplicateValues" dxfId="165" priority="179"/>
+  <conditionalFormatting sqref="B1966">
+    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1839 A1841 A1843 A1845 A1847 A1849">
-    <cfRule type="duplicateValues" dxfId="164" priority="174"/>
+  <conditionalFormatting sqref="B1967">
+    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1839">
-    <cfRule type="duplicateValues" dxfId="163" priority="175"/>
+  <conditionalFormatting sqref="A1968">
+    <cfRule type="duplicateValues" dxfId="31" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1817">
-    <cfRule type="duplicateValues" dxfId="162" priority="172"/>
+  <conditionalFormatting sqref="B1968">
+    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1817">
-    <cfRule type="duplicateValues" dxfId="161" priority="173"/>
+  <conditionalFormatting sqref="A1969">
+    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1818">
-    <cfRule type="duplicateValues" dxfId="160" priority="170"/>
+  <conditionalFormatting sqref="B1969">
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1818">
-    <cfRule type="duplicateValues" dxfId="159" priority="171"/>
+  <conditionalFormatting sqref="A1970">
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1819">
-    <cfRule type="duplicateValues" dxfId="158" priority="168"/>
+  <conditionalFormatting sqref="B1970">
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1819">
-    <cfRule type="duplicateValues" dxfId="157" priority="169"/>
+  <conditionalFormatting sqref="A1971">
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1820">
-    <cfRule type="duplicateValues" dxfId="156" priority="166"/>
+  <conditionalFormatting sqref="B1971">
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1820">
-    <cfRule type="duplicateValues" dxfId="155" priority="167"/>
+  <conditionalFormatting sqref="A1972">
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1821">
-    <cfRule type="duplicateValues" dxfId="154" priority="164"/>
+  <conditionalFormatting sqref="B1972">
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1821">
-    <cfRule type="duplicateValues" dxfId="153" priority="165"/>
+  <conditionalFormatting sqref="A1973">
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1822">
-    <cfRule type="duplicateValues" dxfId="152" priority="162"/>
+  <conditionalFormatting sqref="B1973">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1822">
-    <cfRule type="duplicateValues" dxfId="151" priority="163"/>
+  <conditionalFormatting sqref="A1974">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1823:A1824">
-    <cfRule type="duplicateValues" dxfId="150" priority="160"/>
+  <conditionalFormatting sqref="B1974">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1823:B1824">
-    <cfRule type="duplicateValues" dxfId="149" priority="161"/>
+  <conditionalFormatting sqref="A1975">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1825:A1826">
-    <cfRule type="duplicateValues" dxfId="148" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1825:B1826">
-    <cfRule type="duplicateValues" dxfId="147" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1827:A1828">
-    <cfRule type="duplicateValues" dxfId="146" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1827:B1828">
-    <cfRule type="duplicateValues" dxfId="145" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1829:A1830">
-    <cfRule type="duplicateValues" dxfId="144" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1829:B1830">
-    <cfRule type="duplicateValues" dxfId="143" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1831">
-    <cfRule type="duplicateValues" dxfId="142" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1831">
-    <cfRule type="duplicateValues" dxfId="141" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1832">
-    <cfRule type="duplicateValues" dxfId="140" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1832">
-    <cfRule type="duplicateValues" dxfId="139" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1833">
-    <cfRule type="duplicateValues" dxfId="138" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1833">
-    <cfRule type="duplicateValues" dxfId="137" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1834">
-    <cfRule type="duplicateValues" dxfId="136" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1834">
-    <cfRule type="duplicateValues" dxfId="135" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1835">
-    <cfRule type="duplicateValues" dxfId="134" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1835">
-    <cfRule type="duplicateValues" dxfId="133" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1836">
-    <cfRule type="duplicateValues" dxfId="132" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1836">
-    <cfRule type="duplicateValues" dxfId="131" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1837">
-    <cfRule type="duplicateValues" dxfId="130" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1837">
-    <cfRule type="duplicateValues" dxfId="129" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1838 A1840 A1842 A1844 A1846 A1848 A1850">
-    <cfRule type="duplicateValues" dxfId="128" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1838">
-    <cfRule type="duplicateValues" dxfId="127" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1841">
-    <cfRule type="duplicateValues" dxfId="126" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1842">
-    <cfRule type="duplicateValues" dxfId="125" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1843">
-    <cfRule type="duplicateValues" dxfId="124" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1844">
-    <cfRule type="duplicateValues" dxfId="123" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1845">
-    <cfRule type="duplicateValues" dxfId="122" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1850">
-    <cfRule type="duplicateValues" dxfId="121" priority="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1849">
-    <cfRule type="duplicateValues" dxfId="120" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1847">
-    <cfRule type="duplicateValues" dxfId="119" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1848">
-    <cfRule type="duplicateValues" dxfId="118" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1846">
-    <cfRule type="duplicateValues" dxfId="117" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1851 A1853 A1855 A1857 A1859 A1861 A1863 A1865 A1867 A1869:A1870 A1872:A1873 A1875:A1876 A1878:A1879 A1881:A1896">
-    <cfRule type="duplicateValues" dxfId="116" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1852 A1854 A1856 A1858 A1860 A1862 A1864 A1866 A1868">
-    <cfRule type="duplicateValues" dxfId="115" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1851">
-    <cfRule type="duplicateValues" dxfId="114" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1852">
-    <cfRule type="duplicateValues" dxfId="113" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1853">
-    <cfRule type="duplicateValues" dxfId="112" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1854">
-    <cfRule type="duplicateValues" dxfId="111" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1855">
-    <cfRule type="duplicateValues" dxfId="110" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1856">
-    <cfRule type="duplicateValues" dxfId="109" priority="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1857">
-    <cfRule type="duplicateValues" dxfId="108" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1860">
-    <cfRule type="duplicateValues" dxfId="107" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1859">
-    <cfRule type="duplicateValues" dxfId="106" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1863">
-    <cfRule type="duplicateValues" dxfId="105" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1862">
-    <cfRule type="duplicateValues" dxfId="104" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1861">
-    <cfRule type="duplicateValues" dxfId="103" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1858">
-    <cfRule type="duplicateValues" dxfId="102" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1864:B1865">
-    <cfRule type="duplicateValues" dxfId="101" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1866">
-    <cfRule type="duplicateValues" dxfId="100" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1867">
-    <cfRule type="duplicateValues" dxfId="99" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1868">
-    <cfRule type="duplicateValues" dxfId="98" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1869">
-    <cfRule type="duplicateValues" dxfId="97" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1880">
-    <cfRule type="duplicateValues" dxfId="96" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1897">
-    <cfRule type="duplicateValues" dxfId="95" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1898">
-    <cfRule type="duplicateValues" dxfId="94" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1899">
-    <cfRule type="duplicateValues" dxfId="93" priority="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1900">
-    <cfRule type="duplicateValues" dxfId="92" priority="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1901">
-    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1902">
-    <cfRule type="duplicateValues" dxfId="90" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1903">
-    <cfRule type="duplicateValues" dxfId="89" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1904">
-    <cfRule type="duplicateValues" dxfId="88" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1906">
-    <cfRule type="duplicateValues" dxfId="87" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1907">
-    <cfRule type="duplicateValues" dxfId="86" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1908">
-    <cfRule type="duplicateValues" dxfId="85" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1905">
-    <cfRule type="duplicateValues" dxfId="84" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1913">
-    <cfRule type="duplicateValues" dxfId="83" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1913">
-    <cfRule type="duplicateValues" dxfId="82" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1915:A1917">
-    <cfRule type="duplicateValues" dxfId="81" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1915:B1917">
-    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1909">
-    <cfRule type="duplicateValues" dxfId="77" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1910">
-    <cfRule type="duplicateValues" dxfId="76" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1911">
-    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1912">
-    <cfRule type="duplicateValues" dxfId="74" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1914">
-    <cfRule type="duplicateValues" dxfId="73" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1914">
-    <cfRule type="duplicateValues" dxfId="72" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1918:A1919 A1923:A1924">
-    <cfRule type="duplicateValues" dxfId="69" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1918:B1919 B1923:B1924">
-    <cfRule type="duplicateValues" dxfId="68" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1920">
-    <cfRule type="duplicateValues" dxfId="67" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1920">
-    <cfRule type="duplicateValues" dxfId="66" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1921">
-    <cfRule type="duplicateValues" dxfId="65" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1921">
-    <cfRule type="duplicateValues" dxfId="64" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1922">
-    <cfRule type="duplicateValues" dxfId="63" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1922">
-    <cfRule type="duplicateValues" dxfId="62" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1927">
-    <cfRule type="duplicateValues" dxfId="61" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1927">
-    <cfRule type="duplicateValues" dxfId="60" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1926">
-    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1926">
-    <cfRule type="duplicateValues" dxfId="58" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1928">
-    <cfRule type="duplicateValues" dxfId="57" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1928">
-    <cfRule type="duplicateValues" dxfId="56" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1929">
-    <cfRule type="duplicateValues" dxfId="55" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1929">
-    <cfRule type="duplicateValues" dxfId="54" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1930">
-    <cfRule type="duplicateValues" dxfId="53" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1930">
-    <cfRule type="duplicateValues" dxfId="52" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1931">
-    <cfRule type="duplicateValues" dxfId="51" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1931">
-    <cfRule type="duplicateValues" dxfId="50" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1932">
-    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1932">
-    <cfRule type="duplicateValues" dxfId="48" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1933:A1934">
-    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1933:B1934">
-    <cfRule type="duplicateValues" dxfId="46" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1935">
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1935">
-    <cfRule type="duplicateValues" dxfId="44" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1936">
-    <cfRule type="duplicateValues" dxfId="43" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1936">
-    <cfRule type="duplicateValues" dxfId="42" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1937">
-    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1937">
-    <cfRule type="duplicateValues" dxfId="40" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1938">
-    <cfRule type="duplicateValues" dxfId="39" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1938">
-    <cfRule type="duplicateValues" dxfId="38" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1939">
-    <cfRule type="duplicateValues" dxfId="37" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1939">
-    <cfRule type="duplicateValues" dxfId="36" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1940">
-    <cfRule type="duplicateValues" dxfId="35" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1940">
-    <cfRule type="duplicateValues" dxfId="34" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1941">
-    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1941">
-    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1942">
-    <cfRule type="duplicateValues" dxfId="31" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1942">
-    <cfRule type="duplicateValues" dxfId="30" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1946">
-    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1946">
-    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1945">
-    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1945">
-    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1944">
-    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1944">
-    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1943">
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1943">
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1949">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1949">
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1947">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1947">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1948">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1948">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1950">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1950">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1951">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1951">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1952">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1952">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1953">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1953">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1954">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1954">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1955">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1955">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1925">
+  <conditionalFormatting sqref="B1975">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1925">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F781" r:id="rId1" tooltip="Origin and meaning of bryophyte" display="https://www.etymonline.com/word/bryophyte"/>
